--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Compiled_Datasets/Summary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C6BC7-A339-7142-B65C-43CBAB295A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB36E22-1655-D846-91FE-191229034A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7003" uniqueCount="1487">
   <si>
     <t>Year</t>
   </si>
@@ -4763,6 +4763,45 @@
   </si>
   <si>
     <t>MISSING SOME HATCHING DATA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went to shakespear during hatching. One or both hatched on either November 1st or 2nd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only found one of two chicks. Both hatched though. </t>
+  </si>
+  <si>
+    <t>LWGN</t>
+  </si>
+  <si>
+    <t>NCST NWC</t>
+  </si>
+  <si>
+    <t>DOUBLE CHECK RECORDS FOR THIS ONE</t>
+  </si>
+  <si>
+    <t>SWEDE C</t>
+  </si>
+  <si>
+    <t>NCVE SE CORNER</t>
+  </si>
+  <si>
+    <t>LAG S TOP</t>
+  </si>
+  <si>
+    <t>SWEDE S DITCH SE</t>
+  </si>
+  <si>
+    <t>SY1 S FENCE</t>
+  </si>
+  <si>
+    <t>SY1/CACT FENCE</t>
+  </si>
+  <si>
+    <t>SY1/CACT</t>
+  </si>
+  <si>
+    <t>NORTH COVE SE CORNER</t>
   </si>
 </sst>
 </file>
@@ -5299,7 +5338,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5449,7 +5488,7 @@
       </c>
       <c r="W2" s="19"/>
     </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5498,7 +5537,7 @@
       </c>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5550,7 +5589,7 @@
       </c>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5654,7 +5693,7 @@
       </c>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5699,7 +5738,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5747,7 +5786,7 @@
       </c>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5792,7 +5831,7 @@
       </c>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5841,7 +5880,7 @@
       </c>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5893,7 +5932,7 @@
       </c>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -6007,7 +6046,7 @@
       </c>
       <c r="W13" s="19"/>
     </row>
-    <row r="14" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6056,7 +6095,7 @@
       </c>
       <c r="W14" s="19"/>
     </row>
-    <row r="15" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6101,7 +6140,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6149,7 +6188,7 @@
       </c>
       <c r="W16" s="19"/>
     </row>
-    <row r="17" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6198,7 +6237,7 @@
       </c>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6246,7 +6285,7 @@
       <c r="V18"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6293,7 +6332,7 @@
       </c>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6342,7 +6381,7 @@
       </c>
       <c r="W20" s="19"/>
     </row>
-    <row r="21" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6395,7 +6434,7 @@
       </c>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6440,7 +6479,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="19"/>
     </row>
-    <row r="23" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6498,7 +6537,7 @@
       </c>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6541,7 +6580,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6584,7 +6623,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6623,7 +6662,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6670,7 +6709,7 @@
       </c>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6713,7 +6752,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6756,7 +6795,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6798,7 +6837,7 @@
       </c>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6845,7 +6884,7 @@
       </c>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6892,7 +6931,7 @@
       </c>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -6944,7 +6983,7 @@
       </c>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -6987,7 +7026,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7027,7 +7066,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7080,7 +7119,7 @@
       </c>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7131,7 +7170,7 @@
       </c>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7188,7 +7227,7 @@
       </c>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7234,7 +7273,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7277,7 +7316,7 @@
       <c r="V40" s="18"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7328,7 +7367,7 @@
       </c>
       <c r="W41"/>
     </row>
-    <row r="42" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7375,7 +7414,7 @@
       </c>
       <c r="W42"/>
     </row>
-    <row r="43" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7418,7 +7457,7 @@
       <c r="V43"/>
       <c r="W43"/>
     </row>
-    <row r="44" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7471,7 +7510,7 @@
       </c>
       <c r="W44"/>
     </row>
-    <row r="45" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7528,7 +7567,7 @@
       </c>
       <c r="W45"/>
     </row>
-    <row r="46" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7574,7 +7613,7 @@
       </c>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7617,7 +7656,7 @@
       <c r="V47"/>
       <c r="W47"/>
     </row>
-    <row r="48" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7664,7 +7703,7 @@
       </c>
       <c r="W48"/>
     </row>
-    <row r="49" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7711,7 +7750,7 @@
       </c>
       <c r="W49"/>
     </row>
-    <row r="50" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7758,7 +7797,7 @@
       </c>
       <c r="W50"/>
     </row>
-    <row r="51" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7808,7 +7847,7 @@
       </c>
       <c r="W51"/>
     </row>
-    <row r="52" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7854,7 +7893,7 @@
       </c>
       <c r="W52"/>
     </row>
-    <row r="53" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7953,7 +7992,7 @@
       </c>
       <c r="W54"/>
     </row>
-    <row r="55" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -7999,7 +8038,7 @@
       <c r="V55" s="18"/>
       <c r="W55" s="19"/>
     </row>
-    <row r="56" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8095,7 +8134,7 @@
       <c r="V57" s="18"/>
       <c r="W57" s="19"/>
     </row>
-    <row r="58" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8195,7 +8234,7 @@
       <c r="V59" s="18"/>
       <c r="W59" s="19"/>
     </row>
-    <row r="60" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8242,7 +8281,7 @@
       <c r="V60" s="18"/>
       <c r="W60" s="19"/>
     </row>
-    <row r="61" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8289,7 +8328,7 @@
       <c r="V61" s="18"/>
       <c r="W61" s="19"/>
     </row>
-    <row r="62" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8332,7 +8371,7 @@
       <c r="V62" s="18"/>
       <c r="W62" s="19"/>
     </row>
-    <row r="63" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8375,7 +8414,7 @@
       <c r="V63" s="18"/>
       <c r="W63" s="19"/>
     </row>
-    <row r="64" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8473,7 +8512,7 @@
       <c r="V65" s="18"/>
       <c r="W65" s="19"/>
     </row>
-    <row r="66" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8516,7 +8555,7 @@
       <c r="V66" s="18"/>
       <c r="W66" s="19"/>
     </row>
-    <row r="67" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8564,7 +8603,7 @@
       <c r="V67" s="18"/>
       <c r="W67" s="19"/>
     </row>
-    <row r="68" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8612,7 +8651,7 @@
       <c r="V68" s="18"/>
       <c r="W68" s="19"/>
     </row>
-    <row r="69" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8655,7 +8694,7 @@
       <c r="V69" s="18"/>
       <c r="W69" s="19"/>
     </row>
-    <row r="70" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8698,7 +8737,7 @@
       <c r="V70" s="18"/>
       <c r="W70" s="19"/>
     </row>
-    <row r="71" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8743,53 +8782,42 @@
       <c r="A72" s="6">
         <v>2009</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>952</v>
+      <c r="B72" s="16" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>1476</v>
       </c>
       <c r="D72" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>952</v>
-      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
       <c r="I72" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>952</v>
+        <v>362</v>
+      </c>
+      <c r="J72" s="34">
+        <v>39812</v>
       </c>
       <c r="K72" s="29" t="s">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="L72" s="29" t="s">
-        <v>952</v>
-      </c>
-      <c r="M72" s="29" t="s">
-        <v>952</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="M72" s="29"/>
       <c r="N72" s="28" t="s">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="Q72" s="13" t="s">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="U72" s="18"/>
       <c r="V72" s="18"/>
@@ -9408,7 +9436,7 @@
       <c r="V85" s="18"/>
       <c r="W85" s="19"/>
     </row>
-    <row r="86" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9455,7 +9483,7 @@
       <c r="V86" s="18"/>
       <c r="W86" s="19"/>
     </row>
-    <row r="87" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9502,7 +9530,7 @@
       <c r="V87" s="18"/>
       <c r="W87" s="19"/>
     </row>
-    <row r="88" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9549,7 +9577,7 @@
       <c r="V88" s="18"/>
       <c r="W88" s="19"/>
     </row>
-    <row r="89" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9596,7 +9624,7 @@
       <c r="V89" s="18"/>
       <c r="W89" s="19"/>
     </row>
-    <row r="90" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -9692,7 +9720,7 @@
       <c r="V91" s="18"/>
       <c r="W91" s="19"/>
     </row>
-    <row r="92" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -10028,7 +10056,7 @@
       <c r="V98" s="18"/>
       <c r="W98" s="19"/>
     </row>
-    <row r="99" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10075,7 +10103,7 @@
       <c r="V99" s="18"/>
       <c r="W99" s="19"/>
     </row>
-    <row r="100" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10219,7 +10247,7 @@
       <c r="V102" s="18"/>
       <c r="W102" s="19"/>
     </row>
-    <row r="103" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10315,7 +10343,7 @@
       <c r="V104" s="18"/>
       <c r="W104" s="19"/>
     </row>
-    <row r="105" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10750,7 +10778,7 @@
       <c r="V113" s="18"/>
       <c r="W113" s="19"/>
     </row>
-    <row r="114" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10951,7 +10979,7 @@
       <c r="V117" s="18"/>
       <c r="W117" s="19"/>
     </row>
-    <row r="118" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -11240,7 +11268,7 @@
       <c r="V123" s="18"/>
       <c r="W123" s="19"/>
     </row>
-    <row r="124" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -11286,7 +11314,7 @@
       <c r="V124" s="18"/>
       <c r="W124" s="19"/>
     </row>
-    <row r="125" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -11434,7 +11462,7 @@
       <c r="V127" s="18"/>
       <c r="W127" s="19"/>
     </row>
-    <row r="128" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -11692,7 +11720,7 @@
       <c r="V132" s="18"/>
       <c r="W132" s="19"/>
     </row>
-    <row r="133" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -11790,7 +11818,7 @@
       <c r="V134" s="18"/>
       <c r="W134" s="19"/>
     </row>
-    <row r="135" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -11838,7 +11866,7 @@
       <c r="V135" s="18"/>
       <c r="W135" s="19"/>
     </row>
-    <row r="136" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -12019,7 +12047,7 @@
       <c r="V139" s="18"/>
       <c r="W139" s="19"/>
     </row>
-    <row r="140" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -12065,7 +12093,7 @@
       <c r="V140" s="18"/>
       <c r="W140" s="19"/>
     </row>
-    <row r="141" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -12382,7 +12410,7 @@
       <c r="V147" s="18"/>
       <c r="W147" s="19"/>
     </row>
-    <row r="148" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -12426,7 +12454,7 @@
       <c r="V148" s="18"/>
       <c r="W148" s="19"/>
     </row>
-    <row r="149" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>2013</v>
       </c>
@@ -13205,7 +13233,7 @@
       <c r="V168" s="18"/>
       <c r="W168" s="19"/>
     </row>
-    <row r="169" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -13415,7 +13443,7 @@
       <c r="V172" s="18"/>
       <c r="W172" s="19"/>
     </row>
-    <row r="173" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -14108,7 +14136,7 @@
       <c r="V187" s="18"/>
       <c r="W187" s="19"/>
     </row>
-    <row r="188" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -14508,7 +14536,7 @@
       <c r="V196" s="18"/>
       <c r="W196" s="19"/>
     </row>
-    <row r="197" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>2014</v>
       </c>
@@ -14647,7 +14675,7 @@
       <c r="V199" s="18"/>
       <c r="W199" s="19"/>
     </row>
-    <row r="200" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -14842,7 +14870,7 @@
       <c r="V203" s="18"/>
       <c r="W203" s="19"/>
     </row>
-    <row r="204" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -14892,7 +14920,7 @@
       <c r="V204" s="18"/>
       <c r="W204" s="19"/>
     </row>
-    <row r="205" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -14942,7 +14970,7 @@
       <c r="V205" s="18"/>
       <c r="W205" s="19"/>
     </row>
-    <row r="206" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>2014</v>
       </c>
@@ -14995,7 +15023,7 @@
       <c r="V206" s="18"/>
       <c r="W206" s="19"/>
     </row>
-    <row r="207" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>2014</v>
       </c>
@@ -17161,7 +17189,7 @@
       <c r="V249" s="18"/>
       <c r="W249" s="19"/>
     </row>
-    <row r="250" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -17659,7 +17687,7 @@
       <c r="V259" s="18"/>
       <c r="W259" s="19"/>
     </row>
-    <row r="260" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>2015</v>
       </c>
@@ -17715,7 +17743,7 @@
       <c r="V260" s="18"/>
       <c r="W260" s="19"/>
     </row>
-    <row r="261" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -17917,7 +17945,7 @@
       <c r="V264" s="18"/>
       <c r="W264" s="19"/>
     </row>
-    <row r="265" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -17969,7 +17997,7 @@
       <c r="V265" s="18"/>
       <c r="W265" s="19"/>
     </row>
-    <row r="266" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -18071,7 +18099,7 @@
       <c r="V267" s="18"/>
       <c r="W267" s="19"/>
     </row>
-    <row r="268" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>2015</v>
       </c>
@@ -18177,7 +18205,7 @@
       <c r="V269" s="18"/>
       <c r="W269" s="19"/>
     </row>
-    <row r="270" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -19090,7 +19118,7 @@
       <c r="V288" s="18"/>
       <c r="W288" s="19"/>
     </row>
-    <row r="289" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -19229,7 +19257,7 @@
       <c r="V291" s="18"/>
       <c r="W291" s="19"/>
     </row>
-    <row r="292" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -19478,7 +19506,7 @@
       <c r="V296" s="18"/>
       <c r="W296" s="19"/>
     </row>
-    <row r="297" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -19620,7 +19648,7 @@
       <c r="V299" s="18"/>
       <c r="W299" s="19"/>
     </row>
-    <row r="300" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -19870,7 +19898,7 @@
       <c r="V304" s="18"/>
       <c r="W304" s="19"/>
     </row>
-    <row r="305" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -20435,7 +20463,7 @@
       <c r="V316" s="18"/>
       <c r="W316" s="19"/>
     </row>
-    <row r="317" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -20653,7 +20681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:27" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -20715,7 +20743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -20972,7 +21000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:27" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -21103,7 +21131,7 @@
       <c r="Z327"/>
       <c r="AA327" s="6"/>
     </row>
-    <row r="328" spans="1:27" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -21165,7 +21193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:27" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -21347,7 +21375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:27" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -21409,7 +21437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -21718,7 +21746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:27" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -21846,7 +21874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -22125,7 +22153,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="345" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -22181,7 +22209,7 @@
       <c r="V345" s="18"/>
       <c r="W345" s="19"/>
     </row>
-    <row r="346" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -22231,7 +22259,7 @@
       <c r="V346" s="18"/>
       <c r="W346" s="19"/>
     </row>
-    <row r="347" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -22663,7 +22691,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -22965,7 +22993,7 @@
       <c r="V360" s="18"/>
       <c r="W360" s="19"/>
     </row>
-    <row r="361" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -23249,7 +23277,7 @@
       <c r="V366" s="18"/>
       <c r="W366" s="19"/>
     </row>
-    <row r="367" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>2016</v>
       </c>
@@ -23297,7 +23325,7 @@
       <c r="V367" s="18"/>
       <c r="W367" s="19"/>
     </row>
-    <row r="368" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -23501,7 +23529,7 @@
       <c r="V371" s="18"/>
       <c r="W371" s="19"/>
     </row>
-    <row r="372" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -23636,7 +23664,7 @@
       <c r="V374" s="18"/>
       <c r="W374" s="19"/>
     </row>
-    <row r="375" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -23684,7 +23712,7 @@
       <c r="V375" s="18"/>
       <c r="W375" s="19"/>
     </row>
-    <row r="376" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>2016</v>
       </c>
@@ -23778,7 +23806,7 @@
       <c r="V377" s="18"/>
       <c r="W377" s="19"/>
     </row>
-    <row r="378" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -24249,7 +24277,7 @@
       <c r="V386" s="18"/>
       <c r="W386" s="19"/>
     </row>
-    <row r="387" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -24297,7 +24325,7 @@
       <c r="V387" s="18"/>
       <c r="W387" s="19"/>
     </row>
-    <row r="388" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -24463,7 +24491,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="391" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -25324,7 +25352,7 @@
       <c r="W407" s="2"/>
       <c r="X407" s="2"/>
     </row>
-    <row r="408" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -25527,7 +25555,7 @@
       <c r="W411" s="2"/>
       <c r="X411" s="2"/>
     </row>
-    <row r="412" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -25634,7 +25662,7 @@
       <c r="W413" s="2"/>
       <c r="X413" s="2"/>
     </row>
-    <row r="414" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -26040,7 +26068,7 @@
       <c r="W421" s="2"/>
       <c r="X421" s="2"/>
     </row>
-    <row r="422" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -26775,7 +26803,7 @@
       <c r="W435" s="2"/>
       <c r="X435" s="2"/>
     </row>
-    <row r="436" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -26887,7 +26915,7 @@
       <c r="W437" s="2"/>
       <c r="X437" s="2"/>
     </row>
-    <row r="438" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>2018</v>
       </c>
@@ -27099,7 +27127,7 @@
       <c r="W441" s="2"/>
       <c r="X441" s="2"/>
     </row>
-    <row r="442" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -27155,7 +27183,7 @@
       <c r="W442" s="2"/>
       <c r="X442" s="2"/>
     </row>
-    <row r="443" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>2018</v>
       </c>
@@ -27261,7 +27289,7 @@
       <c r="W444" s="2"/>
       <c r="X444" s="2"/>
     </row>
-    <row r="445" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -27519,7 +27547,7 @@
       <c r="W449" s="2"/>
       <c r="X449" s="2"/>
     </row>
-    <row r="450" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2018</v>
       </c>
@@ -27629,7 +27657,7 @@
       <c r="W451" s="2"/>
       <c r="X451" s="2"/>
     </row>
-    <row r="452" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -27889,7 +27917,7 @@
       <c r="W456" s="2"/>
       <c r="X456" s="2"/>
     </row>
-    <row r="457" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>2018</v>
       </c>
@@ -27991,7 +28019,7 @@
       <c r="W458" s="2"/>
       <c r="X458" s="2"/>
     </row>
-    <row r="459" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>2018</v>
       </c>
@@ -28145,7 +28173,7 @@
       <c r="W461" s="2"/>
       <c r="X461" s="2"/>
     </row>
-    <row r="462" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>2018</v>
       </c>
@@ -28363,7 +28391,7 @@
       <c r="W465" s="2"/>
       <c r="X465" s="2"/>
     </row>
-    <row r="466" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -28513,7 +28541,7 @@
       <c r="W468" s="2"/>
       <c r="X468" s="2"/>
     </row>
-    <row r="469" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>2018</v>
       </c>
@@ -28567,7 +28595,7 @@
       <c r="W469" s="2"/>
       <c r="X469" s="2"/>
     </row>
-    <row r="470" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>2018</v>
       </c>
@@ -28623,7 +28651,7 @@
       <c r="W470" s="2"/>
       <c r="X470" s="2"/>
     </row>
-    <row r="471" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>2018</v>
       </c>
@@ -28729,7 +28757,7 @@
       <c r="W472" s="2"/>
       <c r="X472" s="2"/>
     </row>
-    <row r="473" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -28879,7 +28907,7 @@
       <c r="W475" s="2"/>
       <c r="X475" s="2"/>
     </row>
-    <row r="476" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -28935,7 +28963,7 @@
       <c r="W476" s="2"/>
       <c r="X476" s="2"/>
     </row>
-    <row r="477" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -29039,7 +29067,7 @@
       <c r="W478" s="2"/>
       <c r="X478" s="2"/>
     </row>
-    <row r="479" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>2018</v>
       </c>
@@ -29337,7 +29365,7 @@
       <c r="W484" s="2"/>
       <c r="X484" s="2"/>
     </row>
-    <row r="485" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>2018</v>
       </c>
@@ -29449,7 +29477,7 @@
       <c r="W486" s="2"/>
       <c r="X486" s="2"/>
     </row>
-    <row r="487" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>2018</v>
       </c>
@@ -29557,7 +29585,7 @@
       <c r="W488" s="2"/>
       <c r="X488" s="2"/>
     </row>
-    <row r="489" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>2018</v>
       </c>
@@ -29815,7 +29843,7 @@
       <c r="W493" s="2"/>
       <c r="X493" s="2"/>
     </row>
-    <row r="494" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>2018</v>
       </c>
@@ -30421,7 +30449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>2018</v>
       </c>
@@ -30994,7 +31022,7 @@
         <v>1115</v>
       </c>
       <c r="H518" s="3"/>
-      <c r="I518" s="13" t="s">
+      <c r="I518" s="32" t="s">
         <v>863</v>
       </c>
       <c r="J518" s="34">
@@ -31019,7 +31047,9 @@
       <c r="Q518" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="R518" s="46"/>
+      <c r="R518" s="46" t="s">
+        <v>1478</v>
+      </c>
       <c r="S518" s="20"/>
       <c r="T518" s="20"/>
       <c r="U518" s="2"/>
@@ -31073,7 +31103,7 @@
       <c r="W519" s="2"/>
       <c r="X519" s="2"/>
     </row>
-    <row r="520" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>2018</v>
       </c>
@@ -31242,53 +31272,34 @@
         <v>2018</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>952</v>
+        <v>100</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>952</v>
+        <v>1477</v>
       </c>
       <c r="D523" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E523" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="F523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="G523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="H523" s="13" t="s">
-        <v>952</v>
-      </c>
+      <c r="F523" s="13"/>
+      <c r="G523" s="13"/>
+      <c r="H523" s="13"/>
       <c r="I523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="J523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="K523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="L523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="M523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="N523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="O523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="P523" s="13" t="s">
-        <v>952</v>
-      </c>
-      <c r="Q523" s="13" t="s">
-        <v>952</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="J523" s="13"/>
+      <c r="K523" s="29">
+        <v>43412</v>
+      </c>
+      <c r="L523" s="29">
+        <v>43413</v>
+      </c>
+      <c r="M523" s="13"/>
+      <c r="N523" s="13"/>
+      <c r="O523" s="13">
+        <v>4</v>
+      </c>
+      <c r="P523" s="13"/>
+      <c r="Q523" s="13"/>
       <c r="R523" s="46"/>
       <c r="S523" s="20"/>
       <c r="T523" s="20"/>
@@ -31393,7 +31404,7 @@
       <c r="W525" s="2"/>
       <c r="X525" s="2"/>
     </row>
-    <row r="526" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -31445,7 +31456,7 @@
       <c r="W526" s="2"/>
       <c r="X526" s="2"/>
     </row>
-    <row r="527" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -31537,7 +31548,7 @@
       <c r="W528" s="2"/>
       <c r="X528" s="2"/>
     </row>
-    <row r="529" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -31629,7 +31640,7 @@
       <c r="W530" s="2"/>
       <c r="X530" s="2"/>
     </row>
-    <row r="531" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -31675,7 +31686,7 @@
       <c r="W531" s="2"/>
       <c r="X531" s="2"/>
     </row>
-    <row r="532" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -32321,7 +32332,7 @@
       <c r="W545" s="2"/>
       <c r="X545" s="2"/>
     </row>
-    <row r="546" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -32505,7 +32516,7 @@
       <c r="W549" s="2"/>
       <c r="X549" s="2"/>
     </row>
-    <row r="550" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -32735,7 +32746,7 @@
       <c r="W554" s="2"/>
       <c r="X554" s="2"/>
     </row>
-    <row r="555" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -32781,7 +32792,7 @@
       <c r="W555" s="2"/>
       <c r="X555" s="2"/>
     </row>
-    <row r="556" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -33537,7 +33548,7 @@
       <c r="W572" s="2"/>
       <c r="X572" s="2"/>
     </row>
-    <row r="573" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -33625,7 +33636,7 @@
       <c r="W574" s="2"/>
       <c r="X574" s="2"/>
     </row>
-    <row r="575" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -33669,7 +33680,7 @@
       <c r="W575" s="2"/>
       <c r="X575" s="2"/>
     </row>
-    <row r="576" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -33713,7 +33724,7 @@
       <c r="W576" s="2"/>
       <c r="X576" s="2"/>
     </row>
-    <row r="577" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -34117,7 +34128,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="585" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
         <v>2022</v>
       </c>
@@ -34495,7 +34506,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="592" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -34559,7 +34570,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="593" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -34631,7 +34642,7 @@
         <v>242</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>242</v>
+        <v>1479</v>
       </c>
       <c r="D594" s="30" t="s">
         <v>52</v>
@@ -34681,7 +34692,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="595" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -35243,7 +35254,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="604" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -35367,7 +35378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="606" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -35895,7 +35906,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="614" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -36017,7 +36028,7 @@
         <v>136</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>136</v>
+        <v>1480</v>
       </c>
       <c r="D616" s="30" t="s">
         <v>104</v>
@@ -36113,7 +36124,7 @@
       <c r="W617" s="10"/>
       <c r="X617" s="7"/>
     </row>
-    <row r="618" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -36176,8 +36187,8 @@
       <c r="B619" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C619" s="3" t="s">
-        <v>405</v>
+      <c r="C619" s="1" t="s">
+        <v>1481</v>
       </c>
       <c r="D619" s="30" t="s">
         <v>110</v>
@@ -36267,7 +36278,7 @@
       <c r="W620" s="10"/>
       <c r="X620" s="7"/>
     </row>
-    <row r="621" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -36323,7 +36334,7 @@
       <c r="W621" s="10"/>
       <c r="X621" s="7"/>
     </row>
-    <row r="622" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -36386,8 +36397,8 @@
       <c r="B623" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C623" s="3" t="s">
-        <v>242</v>
+      <c r="C623" s="1" t="s">
+        <v>1482</v>
       </c>
       <c r="D623" s="30" t="s">
         <v>119</v>
@@ -36499,7 +36510,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="625" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -36563,7 +36574,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="626" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -36627,7 +36638,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="627" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -36747,7 +36758,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="629" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -36867,7 +36878,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="631" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -37053,7 +37064,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="634" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -37117,7 +37128,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="635" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -37246,8 +37257,8 @@
       <c r="B637" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C637" s="3" t="s">
-        <v>19</v>
+      <c r="C637" s="1" t="s">
+        <v>1483</v>
       </c>
       <c r="D637" s="30" t="s">
         <v>147</v>
@@ -37297,7 +37308,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="638" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -37361,7 +37372,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="639" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -37439,7 +37450,7 @@
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
       <c r="I640" s="28" t="s">
-        <v>949</v>
+        <v>186</v>
       </c>
       <c r="J640" s="36">
         <v>44854</v>
@@ -37477,7 +37488,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="641" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -37541,7 +37552,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="642" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -37739,7 +37750,7 @@
         <v>77</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>77</v>
+        <v>665</v>
       </c>
       <c r="D645" s="30" t="s">
         <v>332</v>
@@ -38021,7 +38032,7 @@
       <c r="W649" s="10"/>
       <c r="X649" s="7"/>
     </row>
-    <row r="650" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -38249,7 +38260,7 @@
       <c r="W653" s="10"/>
       <c r="X653" s="7"/>
     </row>
-    <row r="654" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -38310,8 +38321,8 @@
       <c r="B655" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C655" s="3" t="s">
-        <v>77</v>
+      <c r="C655" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D655" s="30" t="s">
         <v>292</v>
@@ -38415,7 +38426,7 @@
       <c r="W656" s="10"/>
       <c r="X656" s="7"/>
     </row>
-    <row r="657" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -38472,10 +38483,10 @@
         <v>2022</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C658" s="3" t="s">
-        <v>306</v>
+        <v>1485</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1484</v>
       </c>
       <c r="D658" s="30" t="s">
         <v>298</v>
@@ -38485,7 +38496,7 @@
       <c r="G658" s="7"/>
       <c r="H658" s="7"/>
       <c r="I658" s="28" t="s">
-        <v>949</v>
+        <v>849</v>
       </c>
       <c r="J658" s="36">
         <v>44877</v>
@@ -38517,7 +38528,7 @@
       <c r="W658" s="10"/>
       <c r="X658" s="7"/>
     </row>
-    <row r="659" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -38621,7 +38632,7 @@
       <c r="W660" s="10"/>
       <c r="X660" s="7"/>
     </row>
-    <row r="661" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -38721,7 +38732,7 @@
       <c r="W662" s="10"/>
       <c r="X662" s="7"/>
     </row>
-    <row r="663" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -38773,7 +38784,7 @@
       <c r="W663" s="10"/>
       <c r="X663" s="7"/>
     </row>
-    <row r="664" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -38825,7 +38836,7 @@
       <c r="W664" s="10"/>
       <c r="X664" s="7"/>
     </row>
-    <row r="665" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -38881,7 +38892,7 @@
       <c r="W665" s="10"/>
       <c r="X665" s="7"/>
     </row>
-    <row r="666" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -39099,7 +39110,7 @@
         <v>136</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>136</v>
+        <v>1486</v>
       </c>
       <c r="D670" s="30" t="s">
         <v>317</v>
@@ -39142,7 +39153,7 @@
       <c r="W670" s="10"/>
       <c r="X670" s="7"/>
     </row>
-    <row r="671" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -39196,7 +39207,7 @@
       <c r="W671" s="10"/>
       <c r="X671" s="7"/>
     </row>
-    <row r="672" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -39609,7 +39620,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="679" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -40356,7 +40367,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="692" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -40417,7 +40428,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="693" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -40551,7 +40562,7 @@
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
       <c r="I695" s="31" t="s">
-        <v>186</v>
+        <v>1468</v>
       </c>
       <c r="J695" s="36">
         <v>45160</v>
@@ -40571,6 +40582,9 @@
       </c>
       <c r="P695" s="13"/>
       <c r="Q695" s="13"/>
+      <c r="R695" t="s">
+        <v>1475</v>
+      </c>
       <c r="U695" s="9">
         <v>-36.371722016483503</v>
       </c>
@@ -40584,7 +40598,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="696" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -40696,7 +40710,7 @@
       <c r="W697" s="10"/>
       <c r="X697" s="7"/>
     </row>
-    <row r="698" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -40805,7 +40819,7 @@
       <c r="W699" s="10"/>
       <c r="X699" s="7"/>
     </row>
-    <row r="700" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -40966,7 +40980,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="703" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -41219,7 +41233,7 @@
       <c r="W707" s="10"/>
       <c r="X707" s="7"/>
     </row>
-    <row r="708" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -41323,7 +41337,7 @@
       <c r="W709" s="10"/>
       <c r="X709" s="7"/>
     </row>
-    <row r="710" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -41386,7 +41400,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="711" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -41565,7 +41579,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="714" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -41625,7 +41639,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="715" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -41684,7 +41698,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="716" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -41808,7 +41822,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="718" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -42145,7 +42159,7 @@
       <c r="W723" s="10"/>
       <c r="X723" s="7"/>
     </row>
-    <row r="724" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -42205,7 +42219,7 @@
       <c r="W724" s="10"/>
       <c r="X724" s="7"/>
     </row>
-    <row r="725" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -42264,7 +42278,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="726" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -42414,7 +42428,7 @@
       <c r="W728" s="10"/>
       <c r="X728" s="7"/>
     </row>
-    <row r="729" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -42614,7 +42628,7 @@
       <c r="W732" s="10"/>
       <c r="X732" s="7"/>
     </row>
-    <row r="733" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -43326,7 +43340,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="747" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -43505,7 +43519,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="750" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -43687,7 +43701,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="753" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -43747,7 +43761,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="754" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -44040,7 +44054,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="759" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -44102,7 +44116,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="760" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -45519,7 +45533,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="785" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -45892,7 +45906,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="791" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -45957,7 +45971,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="792" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -46021,7 +46035,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="793" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -46082,7 +46096,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="794" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -46319,7 +46333,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="798" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -46383,7 +46397,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="799" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -46441,7 +46455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="800" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -46562,7 +46576,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="802" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -46625,7 +46639,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="803" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -46923,7 +46937,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="808" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -47279,7 +47293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="814" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -47698,7 +47712,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="821" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -47878,7 +47892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="824" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -48036,6 +48050,9 @@
       <c r="O826" s="14" t="s">
         <v>913</v>
       </c>
+      <c r="Q826" s="14" t="s">
+        <v>1115</v>
+      </c>
       <c r="R826" t="s">
         <v>1331</v>
       </c>
@@ -48079,11 +48096,23 @@
       <c r="J827" s="35">
         <v>45586</v>
       </c>
+      <c r="K827" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L827" s="14" t="s">
+        <v>1115</v>
+      </c>
       <c r="N827" s="14">
         <v>2</v>
       </c>
       <c r="O827" s="14">
         <v>2</v>
+      </c>
+      <c r="Q827" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="R827" t="s">
+        <v>1474</v>
       </c>
       <c r="U827" s="9">
         <v>-36.369410958141103</v>
@@ -48155,7 +48184,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="829" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -48322,7 +48351,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="832" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -48380,7 +48409,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="833" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -48614,7 +48643,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="837" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -48675,7 +48704,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="838" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -48911,7 +48940,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="842" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -49028,7 +49057,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="844" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -49257,7 +49286,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="848" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -49657,9 +49686,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-    <filterColumn colId="14">
+    <filterColumn colId="0">
       <filters>
-        <filter val="0"/>
+        <filter val="2008"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Compiled_Datasets/Summary_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB36E22-1655-D846-91FE-191229034A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73721959-1083-FA4E-BF83-B49C0BE2085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13620" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5337,8 +5337,8 @@
   <dimension ref="A1:AA884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5434,7 +5434,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="W2" s="19"/>
     </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="W4" s="19"/>
     </row>
-    <row r="5" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="W6" s="19"/>
     </row>
-    <row r="7" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="19"/>
     </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="W8" s="19"/>
     </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="W9" s="19"/>
     </row>
-    <row r="10" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="W10" s="19"/>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="W13" s="19"/>
     </row>
-    <row r="14" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="W14" s="19"/>
     </row>
-    <row r="15" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="19"/>
     </row>
-    <row r="16" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6285,7 +6285,7 @@
       <c r="V18"/>
       <c r="W18" s="19"/>
     </row>
-    <row r="19" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="W19" s="19"/>
     </row>
-    <row r="20" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="W20" s="19"/>
     </row>
-    <row r="21" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6623,7 +6623,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6662,7 +6662,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6752,7 +6752,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="19"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="19"/>
     </row>
-    <row r="35" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="19"/>
     </row>
-    <row r="36" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="V40" s="18"/>
       <c r="W40" s="19"/>
     </row>
-    <row r="41" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="W41"/>
     </row>
-    <row r="42" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="W42"/>
     </row>
-    <row r="43" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="W44"/>
     </row>
-    <row r="45" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="W45"/>
     </row>
-    <row r="46" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="V47"/>
       <c r="W47"/>
     </row>
-    <row r="48" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="W48"/>
     </row>
-    <row r="49" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="W49"/>
     </row>
-    <row r="50" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="W50"/>
     </row>
-    <row r="51" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="W51"/>
     </row>
-    <row r="52" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="W52"/>
     </row>
-    <row r="53" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="W53"/>
     </row>
-    <row r="54" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="W54"/>
     </row>
-    <row r="55" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="V56" s="18"/>
       <c r="W56" s="19"/>
     </row>
-    <row r="57" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="V58" s="18"/>
       <c r="W58" s="19"/>
     </row>
-    <row r="59" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -8234,7 +8234,7 @@
       <c r="V59" s="18"/>
       <c r="W59" s="19"/>
     </row>
-    <row r="60" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="V60" s="18"/>
       <c r="W60" s="19"/>
     </row>
-    <row r="61" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="V61" s="18"/>
       <c r="W61" s="19"/>
     </row>
-    <row r="62" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8464,7 +8464,7 @@
       <c r="V64" s="18"/>
       <c r="W64" s="19"/>
     </row>
-    <row r="65" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -8512,7 +8512,7 @@
       <c r="V65" s="18"/>
       <c r="W65" s="19"/>
     </row>
-    <row r="66" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="V66" s="18"/>
       <c r="W66" s="19"/>
     </row>
-    <row r="67" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8651,7 +8651,7 @@
       <c r="V68" s="18"/>
       <c r="W68" s="19"/>
     </row>
-    <row r="69" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8694,7 +8694,7 @@
       <c r="V69" s="18"/>
       <c r="W69" s="19"/>
     </row>
-    <row r="70" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="V70" s="18"/>
       <c r="W70" s="19"/>
     </row>
-    <row r="71" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="V93" s="18"/>
       <c r="W93" s="19"/>
     </row>
-    <row r="94" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="V106" s="18"/>
       <c r="W106" s="19"/>
     </row>
-    <row r="107" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="V107" s="18"/>
       <c r="W107" s="19"/>
     </row>
-    <row r="108" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10679,7 +10679,7 @@
       <c r="V111" s="18"/>
       <c r="W111" s="19"/>
     </row>
-    <row r="112" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10828,7 +10828,7 @@
       <c r="V114" s="18"/>
       <c r="W114" s="19"/>
     </row>
-    <row r="115" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="V116" s="18"/>
       <c r="W116" s="19"/>
     </row>
-    <row r="117" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -11078,7 +11078,7 @@
       <c r="V119" s="18"/>
       <c r="W119" s="19"/>
     </row>
-    <row r="120" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="V121" s="18"/>
       <c r="W121" s="19"/>
     </row>
-    <row r="122" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="V128" s="18"/>
       <c r="W128" s="19"/>
     </row>
-    <row r="129" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11566,7 +11566,7 @@
       <c r="V129" s="18"/>
       <c r="W129" s="19"/>
     </row>
-    <row r="130" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="V131" s="18"/>
       <c r="W131" s="19"/>
     </row>
-    <row r="132" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="V156" s="18"/>
       <c r="W156" s="19"/>
     </row>
-    <row r="157" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="V157" s="18"/>
       <c r="W157" s="19"/>
     </row>
-    <row r="158" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -12847,7 +12847,7 @@
       <c r="V158" s="18"/>
       <c r="W158" s="19"/>
     </row>
-    <row r="159" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -13393,7 +13393,7 @@
       <c r="V171" s="18"/>
       <c r="W171" s="19"/>
     </row>
-    <row r="172" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13589,7 +13589,7 @@
       <c r="V175" s="18"/>
       <c r="W175" s="19"/>
     </row>
-    <row r="176" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -14725,7 +14725,7 @@
       <c r="V200" s="18"/>
       <c r="W200" s="19"/>
     </row>
-    <row r="201" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -15076,7 +15076,7 @@
       <c r="V207" s="18"/>
       <c r="W207" s="19"/>
     </row>
-    <row r="208" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15268,7 +15268,7 @@
       <c r="V211" s="18"/>
       <c r="W211" s="19"/>
     </row>
-    <row r="212" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15312,7 +15312,7 @@
       <c r="V212" s="18"/>
       <c r="W212" s="19"/>
     </row>
-    <row r="213" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15620,7 +15620,7 @@
       <c r="V218" s="18"/>
       <c r="W218" s="19"/>
     </row>
-    <row r="219" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -16688,7 +16688,7 @@
       <c r="V239" s="18"/>
       <c r="W239" s="19"/>
     </row>
-    <row r="240" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="V241" s="18"/>
       <c r="W241" s="19"/>
     </row>
-    <row r="242" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -16839,7 +16839,7 @@
       <c r="V242" s="18"/>
       <c r="W242" s="19"/>
     </row>
-    <row r="243" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -16888,7 +16888,7 @@
       <c r="V243" s="18"/>
       <c r="W243" s="19"/>
     </row>
-    <row r="244" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -17040,7 +17040,7 @@
       <c r="V246" s="18"/>
       <c r="W246" s="19"/>
     </row>
-    <row r="247" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="V256" s="18"/>
       <c r="W256" s="19"/>
     </row>
-    <row r="257" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -18353,7 +18353,7 @@
       <c r="V272" s="18"/>
       <c r="W272" s="19"/>
     </row>
-    <row r="273" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18399,7 +18399,7 @@
       <c r="V273" s="18"/>
       <c r="W273" s="19"/>
     </row>
-    <row r="274" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -18641,7 +18641,7 @@
       <c r="V278" s="18"/>
       <c r="W278" s="19"/>
     </row>
-    <row r="279" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -19022,7 +19022,7 @@
       <c r="V286" s="18"/>
       <c r="W286" s="19"/>
     </row>
-    <row r="287" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -19071,7 +19071,7 @@
       <c r="V287" s="18"/>
       <c r="W287" s="19"/>
     </row>
-    <row r="288" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -19168,7 +19168,7 @@
       <c r="V289" s="18"/>
       <c r="W289" s="19"/>
     </row>
-    <row r="290" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19364,7 +19364,7 @@
       <c r="V293" s="18"/>
       <c r="W293" s="19"/>
     </row>
-    <row r="294" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19753,7 +19753,7 @@
       <c r="V301" s="18"/>
       <c r="W301" s="19"/>
     </row>
-    <row r="302" spans="1:23" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:27" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:27" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -22467,7 +22467,7 @@
       <c r="V350" s="18"/>
       <c r="W350" s="19"/>
     </row>
-    <row r="351" spans="1:27" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -25037,7 +25037,7 @@
       <c r="W401" s="2"/>
       <c r="X401" s="2"/>
     </row>
-    <row r="402" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -26973,7 +26973,7 @@
       <c r="W438" s="2"/>
       <c r="X438" s="2"/>
     </row>
-    <row r="439" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -28279,7 +28279,7 @@
       <c r="W463" s="2"/>
       <c r="X463" s="2"/>
     </row>
-    <row r="464" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -28335,7 +28335,7 @@
       <c r="W464" s="2"/>
       <c r="X464" s="2"/>
     </row>
-    <row r="465" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -28491,7 +28491,7 @@
       <c r="W467" s="2"/>
       <c r="X467" s="2"/>
     </row>
-    <row r="468" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -29421,7 +29421,7 @@
       <c r="W485" s="2"/>
       <c r="X485" s="2"/>
     </row>
-    <row r="486" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -29697,7 +29697,7 @@
       <c r="W490" s="2"/>
       <c r="X490" s="2"/>
     </row>
-    <row r="491" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -30041,7 +30041,7 @@
       <c r="W497" s="2"/>
       <c r="X497" s="2"/>
     </row>
-    <row r="498" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -30091,7 +30091,7 @@
       <c r="W498" s="2"/>
       <c r="X498" s="2"/>
     </row>
-    <row r="499" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -33420,7 +33420,7 @@
       <c r="W569" s="2"/>
       <c r="X569" s="2"/>
     </row>
-    <row r="570" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -39854,7 +39854,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="683" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -39913,7 +39913,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="684" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -39970,7 +39970,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="685" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -40028,7 +40028,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="686" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -40919,7 +40919,7 @@
       <c r="W701" s="10"/>
       <c r="X701" s="7"/>
     </row>
-    <row r="702" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -41082,7 +41082,7 @@
       <c r="W704" s="10"/>
       <c r="X704" s="7"/>
     </row>
-    <row r="705" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -41131,7 +41131,7 @@
       <c r="W705" s="10"/>
       <c r="X705" s="7"/>
     </row>
-    <row r="706" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -41520,7 +41520,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="713" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -41761,7 +41761,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="717" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -41881,7 +41881,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="719" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="720" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -42110,7 +42110,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="723" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -42481,7 +42481,7 @@
       <c r="W729" s="10"/>
       <c r="X729" s="7"/>
     </row>
-    <row r="730" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -42530,7 +42530,7 @@
       <c r="W730" s="10"/>
       <c r="X730" s="7"/>
     </row>
-    <row r="731" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -42579,7 +42579,7 @@
       <c r="W731" s="10"/>
       <c r="X731" s="7"/>
     </row>
-    <row r="732" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -42896,7 +42896,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="738" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -43821,7 +43821,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="755" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -44516,7 +44516,7 @@
       <c r="W767" s="10"/>
       <c r="X767" s="7"/>
     </row>
-    <row r="768" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -44847,7 +44847,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="774" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -44909,7 +44909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="775" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -45225,7 +45225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="780" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -45288,7 +45288,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="781" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -45410,7 +45410,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="783" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -45718,7 +45718,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="788" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -45784,7 +45784,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="789" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -45844,7 +45844,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="790" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -46156,7 +46156,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="795" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -46518,7 +46518,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="801" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -46877,7 +46877,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="807" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -47065,7 +47065,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="810" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -47179,7 +47179,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="812" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -47358,7 +47358,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="815" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -47480,7 +47480,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="817" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -47777,7 +47777,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="822" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -48242,7 +48242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="830" spans="1:24" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -48768,7 +48768,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="839" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -49238,7 +49238,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="847" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -49686,9 +49686,143 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-    <filterColumn colId="0">
+    <filterColumn colId="7">
       <filters>
-        <filter val="2008"/>
+        <filter val="?W/?R"/>
+        <filter val="ADULT WITH A METAL BAND ABOVE KNEE ON LEFT, BR/YY,"/>
+        <filter val="BB/BB-WM, BY/YY-WM, RR/WW + 4 NOBA"/>
+        <filter val="BB/BG, BB/WR OR BB/GR, GR/YR, RR/RY"/>
+        <filter val="BB/BG, BB/WR, GR/YR, RR/RY"/>
+        <filter val="BB/NY"/>
+        <filter val="BB/RG"/>
+        <filter val="BB/WR OR RW"/>
+        <filter val="BB/YY, BG/WY, BW/GY"/>
+        <filter val="BG/GY-M"/>
+        <filter val="BG/RN-M, XG/XX"/>
+        <filter val="BG/YY, BW/NM-Y, GB/RY, GR/BY?"/>
+        <filter val="BN/BN OR WN/WN"/>
+        <filter val="BN/WY, RG/RY, NB/BY, GB/RY"/>
+        <filter val="BR/BR, GG/WG, YB/GB, RR/BN"/>
+        <filter val="BR/BR; YN/NN; YN/WN; RR/?N"/>
+        <filter val="BR/BY, BG/BY, BBYW"/>
+        <filter val="BR/GN-M, BY/BR-M, GB/BW-M, RB/NY-M, GR/WY-M, YW/WY-M, RR/RY-M"/>
+        <filter val="BR/YW, RG/GR, NR/RW, -/W?"/>
+        <filter val="BW/RM-Y"/>
+        <filter val="BW/WW-WM, GR/YY-WM, RB/RR-WM, BG/GY-WM, GR/YW-M, YN/RB"/>
+        <filter val="BW/YN"/>
+        <filter val="BW/YY"/>
+        <filter val="BY/NN-M, YR/GW-M, RB/BB-M, YW/YN-M, YW/WW-M, GY/RR-M, BN/WR-M, YG/BY-M,"/>
+        <filter val="BY/WB-M, XX/XG-M, XX/XX-RM, GY/RR, XX/XB, XW/XX, BY/GR"/>
+        <filter val="BY/YN-M, GY/GW-M"/>
+        <filter val="BY/YN-M, GY/GW-M, XX/XW"/>
+        <filter val="BY/YN, YB/YG"/>
+        <filter val="G-GB/MG, G-GN/RM + 3 NOBA"/>
+        <filter val="G?/Y?"/>
+        <filter val="GB/M-G"/>
+        <filter val="GB/MG, BG/BR MAYBE NEST H?"/>
+        <filter val="GB/RG, GN/BR"/>
+        <filter val="GG/BR, BW/BG + 3NOBA"/>
+        <filter val="GG/GY-WM, BY/BY-WM, RR/RY-WM, WG/WG-WM, BB/WR, 1 NOBA"/>
+        <filter val="GG/RW, YW/YY"/>
+        <filter val="GLGL/RR"/>
+        <filter val="GN/NB"/>
+        <filter val="GR/YR, NG/??, BB/WR, RR/RY"/>
+        <filter val="GW/BN-M, BR/NN-M, GW/RR-M, RN/YR-M, YW/BB-M, WR/GN-M, WW/YR-M, GB/WG-M, RG/YW-M"/>
+        <filter val="GW/NN-M, NB/RR-M, RB/WR-M, YG/GN-M, YY/BN-M, YR/BR-M,"/>
+        <filter val="GW/YG"/>
+        <filter val="GY/GY"/>
+        <filter val="GY/RN, RY/WB, BB/WN, G-BM/GG, RN/WR, GW/BG, NW/RG"/>
+        <filter val="M-_W/YB; _/W"/>
+        <filter val="M-/W;"/>
+        <filter val="M-BW/BR-B"/>
+        <filter val="M-GB/NG"/>
+        <filter val="M-GLY/YY (green light slipped below yellow band)"/>
+        <filter val="M-lGR/lGlG"/>
+        <filter val="M-NW/BB; BG/RG; NG/RG-M?, M-NG/NW"/>
+        <filter val="M-RN/GY, BW/GR, YR/BW, WN/WB"/>
+        <filter val="M-RN/WG(?)"/>
+        <filter val="m-RY/YR, m-NR/RW, /W, M-NB/RW?, M-BGL/RB"/>
+        <filter val="m-YR/NB, GLGL/RGL(incubating); RB/NB"/>
+        <filter val="M/_"/>
+        <filter val="NG/NG, RB/NB, WG/RW, YY/BG, RB/GY + 5 unbanded"/>
+        <filter val="NG/RG-m"/>
+        <filter val="NG/YN-M, WR/BY-M, RB/NR-M, YY/NY-M, WR/GY"/>
+        <filter val="NN/BB-M, BY/NY-M"/>
+        <filter val="NONE, NG/BB NEARBY THOUGH?"/>
+        <filter val="NR/NR; BR/GB"/>
+        <filter val="NR/NR; BR/GB; GB/YY"/>
+        <filter val="NW/GdN; YR/RB; GN/NW; GG/YN"/>
+        <filter val="NW/YY-M, GW/NW-M, GB/YR-M, GB/GB-M, BN/YY-M"/>
+        <filter val="NY/WG-M, RN/WG-M, RW/GY-M, WB/RN-M, WN/NB-M, BN/BY-M, YY/WB-M, YR/WN-M, RB/GN-M, BY/WW-M"/>
+        <filter val="R-B/GW-M, RR/WW"/>
+        <filter val="RB/BW-M, NW/WW-M, RN/RR-M"/>
+        <filter val="RB/GB-M, GG/RW-M, XY/BY, GN/NB, BY/NB, YY/NB"/>
+        <filter val="RB/GR?"/>
+        <filter val="RB/R – M   May  be a blue or yellow inside the Red"/>
+        <filter val="RB/RW;BR/RW; M-/W; RY/RY; NY/NY; NY/YR"/>
+        <filter val="RB/WB?"/>
+        <filter val="RB/WN; GG/RG; YB/WW, M/B"/>
+        <filter val="RB/YB"/>
+        <filter val="RG/BY, RR/BY"/>
+        <filter val="RG/GN, BG/YW, RN/BB, 1 NOBA, WG/GG, NNYW,"/>
+        <filter val="RG/NY, BG/BY"/>
+        <filter val="RG/WR-M, YW/WW-M, BY/NN-M, YR/GW-M, YG/BY-M, YW/YN-M, RB/BB-M, RG/RB-M"/>
+        <filter val="RR/GY MAYBE?, RY/GW?"/>
+        <filter val="RR/GY-WM, GG/YY-WM, BY/WB-WM, BG/RG-WM, YG/YG-WM, NN/NN-WM"/>
+        <filter val="RR/NR"/>
+        <filter val="RR/NR, GY/WN, GY/BY, BG-M/WB + 2 NOBA"/>
+        <filter val="RW/YG-M, YG/BR-M, YR/BN-M, WB/BG-M, YN/GY-M, YB/NR-M"/>
+        <filter val="RW/YY (W is possibly light green; band dirty), YY/YR, BB/BW, GG/WY"/>
+        <filter val="RY/BW"/>
+        <filter val="RY/BY"/>
+        <filter val="WB/BN"/>
+        <filter val="WB/RB"/>
+        <filter val="WR/GB (MAYBE YR/GB?), WR/BW, WW/YY"/>
+        <filter val="WR/YB, RW/RW, BG/YY, GB/GY + 2 NOBA"/>
+        <filter val="WW/RY"/>
+        <filter val="WW/WN"/>
+        <filter val="WW/WY, GN/GY, GG/RY, RR/BY, GB/BY, GR/GY, WB/WY"/>
+        <filter val="WW/YN"/>
+        <filter val="XB/XX, RN/GG, WB/BN, YB/BG, RR/RR-WM, RY/NY, +2 NOBA"/>
+        <filter val="XG/WY"/>
+        <filter val="XR/XX-M"/>
+        <filter val="XR/XX-M, YG/RW-M, WN/RB, BR/YN, YG/RW, RN/WN, BR/NG, GN/GW"/>
+        <filter val="XW/XX, BB/YW OR RB/YW, ?N/WG LIKELY NN/WG"/>
+        <filter val="Y-N/G-NM"/>
+        <filter val="YB/GB, RB/RR"/>
+        <filter val="YB/NR, YG/NB, YR/BN, YN/GY, WB/BG, YG/BR + 2 unbanded"/>
+        <filter val="YG/RB-M, RY/YB-M, RR/WB, GN/WG, BN/YR"/>
+        <filter val="YN/GG?, M-XX/XG, BY/RG, RB/GY?"/>
+        <filter val="YN/RY, YB/RB"/>
+        <filter val="YN/WN OR WB, WB/WN?, RB/RY, YN/BB, RB/WN"/>
+        <filter val="YN/YB"/>
+        <filter val="YR/GY, YB/YG, XN/RB, BY/YN, RG/BG, + NOBA"/>
+        <filter val="YR/RG"/>
+        <filter val="YY/??"/>
+        <filter val="YY/RY + 2NOBA"/>
+        <filter val="YY/RY, YY/G"/>
+        <filter val="YY/RY?, WW/WN, BB/RG"/>
+        <filter val="YY/WW, BB/YR, WG/WG, Y-B/BG, -YB/GG(LIGHT), RR/RR"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="GOOD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="4?"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D324D-6540-4F40-ABC0-722EC5590F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16C1506-1ED7-A743-8342-7D32894ED71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$851</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5336,11 +5336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB884"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="J859" sqref="J859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5440,7 +5441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5495,7 +5496,7 @@
       </c>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5545,7 +5546,7 @@
       </c>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5598,7 +5599,7 @@
       </c>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5649,7 +5650,7 @@
       </c>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -5704,7 +5705,7 @@
       </c>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5750,7 +5751,7 @@
       <c r="W7" s="18"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5799,7 +5800,7 @@
       </c>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5845,7 +5846,7 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5895,7 +5896,7 @@
       </c>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5948,7 +5949,7 @@
       </c>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -6064,7 +6065,7 @@
       </c>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6114,7 +6115,7 @@
       </c>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6160,7 +6161,7 @@
       <c r="W15" s="18"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6209,7 +6210,7 @@
       </c>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6259,7 +6260,7 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6308,7 +6309,7 @@
       <c r="W18"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6356,7 +6357,7 @@
       </c>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6406,7 +6407,7 @@
       </c>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6460,7 +6461,7 @@
       </c>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6506,7 +6507,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6565,7 +6566,7 @@
       </c>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6609,7 +6610,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6653,7 +6654,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6693,7 +6694,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6741,7 +6742,7 @@
       </c>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6785,7 +6786,7 @@
       <c r="W28" s="18"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6829,7 +6830,7 @@
       <c r="W29" s="18"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6872,7 +6873,7 @@
       </c>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6920,7 +6921,7 @@
       </c>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6968,7 +6969,7 @@
       </c>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -7021,7 +7022,7 @@
       </c>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -7065,7 +7066,7 @@
       <c r="W34" s="18"/>
       <c r="X34" s="19"/>
     </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7106,7 +7107,7 @@
       <c r="W35" s="18"/>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7160,7 +7161,7 @@
       </c>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7212,7 +7213,7 @@
       </c>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7270,7 +7271,7 @@
       </c>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7317,7 +7318,7 @@
       <c r="W39" s="18"/>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7361,7 +7362,7 @@
       <c r="W40" s="18"/>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7413,7 +7414,7 @@
       </c>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7461,7 +7462,7 @@
       </c>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7505,7 +7506,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7559,7 +7560,7 @@
       </c>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7617,7 +7618,7 @@
       </c>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7664,7 +7665,7 @@
       </c>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7708,7 +7709,7 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7756,7 +7757,7 @@
       </c>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7804,7 +7805,7 @@
       </c>
       <c r="X49"/>
     </row>
-    <row r="50" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7852,7 +7853,7 @@
       </c>
       <c r="X50"/>
     </row>
-    <row r="51" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7903,7 +7904,7 @@
       </c>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7950,7 +7951,7 @@
       </c>
       <c r="X52"/>
     </row>
-    <row r="53" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7998,7 +7999,7 @@
       </c>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -8051,7 +8052,7 @@
       </c>
       <c r="X54"/>
     </row>
-    <row r="55" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -8098,7 +8099,7 @@
       <c r="W55" s="18"/>
       <c r="X55" s="19"/>
     </row>
-    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8147,7 +8148,7 @@
       <c r="W56" s="18"/>
       <c r="X56" s="19"/>
     </row>
-    <row r="57" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -8196,7 +8197,7 @@
       <c r="W57" s="18"/>
       <c r="X57" s="19"/>
     </row>
-    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8249,7 +8250,7 @@
       <c r="W58" s="18"/>
       <c r="X58" s="19"/>
     </row>
-    <row r="59" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -8298,7 +8299,7 @@
       <c r="W59" s="18"/>
       <c r="X59" s="19"/>
     </row>
-    <row r="60" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8346,7 +8347,7 @@
       <c r="W60" s="18"/>
       <c r="X60" s="19"/>
     </row>
-    <row r="61" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8394,7 +8395,7 @@
       <c r="W61" s="18"/>
       <c r="X61" s="19"/>
     </row>
-    <row r="62" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8438,7 +8439,7 @@
       <c r="W62" s="18"/>
       <c r="X62" s="19"/>
     </row>
-    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8482,7 +8483,7 @@
       <c r="W63" s="18"/>
       <c r="X63" s="19"/>
     </row>
-    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8533,7 +8534,7 @@
       <c r="W64" s="18"/>
       <c r="X64" s="19"/>
     </row>
-    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -8582,7 +8583,7 @@
       <c r="W65" s="18"/>
       <c r="X65" s="19"/>
     </row>
-    <row r="66" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8626,7 +8627,7 @@
       <c r="W66" s="18"/>
       <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8675,7 +8676,7 @@
       <c r="W67" s="18"/>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8724,7 +8725,7 @@
       <c r="W68" s="18"/>
       <c r="X68" s="19"/>
     </row>
-    <row r="69" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8768,7 +8769,7 @@
       <c r="W69" s="18"/>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8812,7 +8813,7 @@
       <c r="W70" s="18"/>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8854,7 +8855,7 @@
       <c r="W71" s="18"/>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2009</v>
       </c>
@@ -8900,7 +8901,7 @@
       <c r="W72" s="18"/>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -8946,7 +8947,7 @@
       <c r="W73" s="18"/>
       <c r="X73" s="19"/>
     </row>
-    <row r="74" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2009</v>
       </c>
@@ -8995,7 +8996,7 @@
       <c r="W74" s="18"/>
       <c r="X74" s="19"/>
     </row>
-    <row r="75" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -9041,7 +9042,7 @@
       <c r="W75" s="18"/>
       <c r="X75" s="19"/>
     </row>
-    <row r="76" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -9090,7 +9091,7 @@
       <c r="W76" s="18"/>
       <c r="X76" s="19"/>
     </row>
-    <row r="77" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2009</v>
       </c>
@@ -9141,7 +9142,7 @@
       <c r="W77" s="18"/>
       <c r="X77" s="19"/>
     </row>
-    <row r="78" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2009</v>
       </c>
@@ -9190,7 +9191,7 @@
       <c r="W78" s="18"/>
       <c r="X78" s="19"/>
     </row>
-    <row r="79" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2009</v>
       </c>
@@ -9239,7 +9240,7 @@
       <c r="W79" s="18"/>
       <c r="X79" s="19"/>
     </row>
-    <row r="80" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2009</v>
       </c>
@@ -9288,7 +9289,7 @@
       <c r="W80" s="18"/>
       <c r="X80" s="19"/>
     </row>
-    <row r="81" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2009</v>
       </c>
@@ -9337,7 +9338,7 @@
       <c r="W81" s="18"/>
       <c r="X81" s="19"/>
     </row>
-    <row r="82" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2009</v>
       </c>
@@ -9390,7 +9391,7 @@
       <c r="W82" s="18"/>
       <c r="X82" s="19"/>
     </row>
-    <row r="83" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2009</v>
       </c>
@@ -9446,7 +9447,7 @@
       <c r="W83" s="18"/>
       <c r="X83" s="19"/>
     </row>
-    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -9485,7 +9486,7 @@
       <c r="W84" s="18"/>
       <c r="X84" s="19"/>
     </row>
-    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -9526,7 +9527,7 @@
       <c r="W85" s="18"/>
       <c r="X85" s="19"/>
     </row>
-    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9574,7 +9575,7 @@
       <c r="W86" s="18"/>
       <c r="X86" s="19"/>
     </row>
-    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9622,7 +9623,7 @@
       <c r="W87" s="18"/>
       <c r="X87" s="19"/>
     </row>
-    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9670,7 +9671,7 @@
       <c r="W88" s="18"/>
       <c r="X88" s="19"/>
     </row>
-    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9718,7 +9719,7 @@
       <c r="W89" s="18"/>
       <c r="X89" s="19"/>
     </row>
-    <row r="90" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -9768,7 +9769,7 @@
       <c r="W90" s="18"/>
       <c r="X90" s="19"/>
     </row>
-    <row r="91" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2010</v>
       </c>
@@ -9816,7 +9817,7 @@
       <c r="W91" s="18"/>
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -9866,7 +9867,7 @@
       <c r="W92" s="18"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -9965,7 +9966,7 @@
       <c r="W94" s="18"/>
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2010</v>
       </c>
@@ -10018,7 +10019,7 @@
       <c r="W95" s="18"/>
       <c r="X95" s="19"/>
     </row>
-    <row r="96" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2010</v>
       </c>
@@ -10067,7 +10068,7 @@
       <c r="W96" s="18"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -10111,7 +10112,7 @@
       <c r="W97" s="18"/>
       <c r="X97" s="19"/>
     </row>
-    <row r="98" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2010</v>
       </c>
@@ -10159,7 +10160,7 @@
       <c r="W98" s="18"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10207,7 +10208,7 @@
       <c r="W99" s="18"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10255,7 +10256,7 @@
       <c r="W100" s="18"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -10307,7 +10308,7 @@
       <c r="W101" s="18"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -10354,7 +10355,7 @@
       <c r="W102" s="18"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10402,7 +10403,7 @@
       <c r="W103" s="18"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -10452,7 +10453,7 @@
       <c r="W104" s="18"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10500,7 +10501,7 @@
       <c r="W105" s="18"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -10543,7 +10544,7 @@
       <c r="W106" s="18"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10596,7 +10597,7 @@
       <c r="W107" s="18"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10634,7 +10635,9 @@
         <v>1</v>
       </c>
       <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
+      <c r="R108" s="13">
+        <v>0</v>
+      </c>
       <c r="S108" s="8" t="s">
         <v>1103</v>
       </c>
@@ -10642,7 +10645,7 @@
       <c r="W108" s="18"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -10692,7 +10695,7 @@
       <c r="W109" s="18"/>
       <c r="X109" s="19"/>
     </row>
-    <row r="110" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -10746,7 +10749,7 @@
       <c r="W110" s="18"/>
       <c r="X110" s="19"/>
     </row>
-    <row r="111" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -10795,7 +10798,7 @@
       <c r="W111" s="18"/>
       <c r="X111" s="19"/>
     </row>
-    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>40417</v>
       </c>
       <c r="L112" s="34">
-        <v>40448</v>
+        <v>40447</v>
       </c>
       <c r="M112" s="34">
         <v>40448</v>
@@ -10849,7 +10852,7 @@
       <c r="W112" s="18"/>
       <c r="X112" s="19"/>
     </row>
-    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -10896,7 +10899,7 @@
       <c r="W113" s="18"/>
       <c r="X113" s="19"/>
     </row>
-    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10947,7 +10950,7 @@
       <c r="W114" s="18"/>
       <c r="X114" s="19"/>
     </row>
-    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -10999,7 +11002,7 @@
       <c r="W115" s="18"/>
       <c r="X115" s="19"/>
     </row>
-    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -11051,7 +11054,7 @@
       <c r="W116" s="18"/>
       <c r="X116" s="19"/>
     </row>
-    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -11101,7 +11104,7 @@
       <c r="W117" s="18"/>
       <c r="X117" s="19"/>
     </row>
-    <row r="118" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -11153,7 +11156,7 @@
       <c r="W118" s="18"/>
       <c r="X118" s="19"/>
     </row>
-    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -11202,7 +11205,7 @@
       <c r="W119" s="18"/>
       <c r="X119" s="19"/>
     </row>
-    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11254,7 +11257,7 @@
       <c r="W120" s="18"/>
       <c r="X120" s="19"/>
     </row>
-    <row r="121" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -11299,7 +11302,7 @@
       <c r="W121" s="18"/>
       <c r="X121" s="19"/>
     </row>
-    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11396,7 +11399,7 @@
       <c r="W123" s="18"/>
       <c r="X123" s="19"/>
     </row>
-    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -11443,7 +11446,7 @@
       <c r="W124" s="18"/>
       <c r="X124" s="19"/>
     </row>
-    <row r="125" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -11497,7 +11500,7 @@
       <c r="W125" s="18"/>
       <c r="X125" s="19"/>
     </row>
-    <row r="126" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2010</v>
       </c>
@@ -11543,7 +11546,7 @@
       <c r="W126" s="18"/>
       <c r="X126" s="19"/>
     </row>
-    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -11594,7 +11597,7 @@
       <c r="W127" s="18"/>
       <c r="X127" s="19"/>
     </row>
-    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -11646,7 +11649,7 @@
       <c r="W128" s="18"/>
       <c r="X128" s="19"/>
     </row>
-    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11700,7 +11703,7 @@
       <c r="W129" s="18"/>
       <c r="X129" s="19"/>
     </row>
-    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11749,7 +11752,7 @@
       <c r="W130" s="18"/>
       <c r="X130" s="19"/>
     </row>
-    <row r="131" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2010</v>
       </c>
@@ -11803,7 +11806,7 @@
       <c r="W131" s="18"/>
       <c r="X131" s="19"/>
     </row>
-    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -11857,7 +11860,7 @@
       <c r="W132" s="18"/>
       <c r="X132" s="19"/>
     </row>
-    <row r="133" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -11906,7 +11909,7 @@
       <c r="W133" s="18"/>
       <c r="X133" s="19"/>
     </row>
-    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -11957,7 +11960,7 @@
       <c r="W134" s="18"/>
       <c r="X134" s="19"/>
     </row>
-    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -12006,7 +12009,7 @@
       <c r="W135" s="18"/>
       <c r="X135" s="19"/>
     </row>
-    <row r="136" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -12055,7 +12058,7 @@
       <c r="W136" s="18"/>
       <c r="X136" s="19"/>
     </row>
-    <row r="137" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2010</v>
       </c>
@@ -12107,7 +12110,7 @@
       <c r="W137" s="18"/>
       <c r="X137" s="19"/>
     </row>
-    <row r="138" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2010</v>
       </c>
@@ -12145,7 +12148,7 @@
       <c r="W138" s="18"/>
       <c r="X138" s="19"/>
     </row>
-    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -12191,7 +12194,7 @@
       <c r="W139" s="18"/>
       <c r="X139" s="19"/>
     </row>
-    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -12238,7 +12241,7 @@
       <c r="W140" s="18"/>
       <c r="X140" s="19"/>
     </row>
-    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -12288,7 +12291,7 @@
       <c r="W141" s="18"/>
       <c r="X141" s="19"/>
     </row>
-    <row r="142" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2010</v>
       </c>
@@ -12335,7 +12338,7 @@
       <c r="W142" s="18"/>
       <c r="X142" s="19"/>
     </row>
-    <row r="143" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2010</v>
       </c>
@@ -12385,7 +12388,7 @@
       <c r="W143" s="18"/>
       <c r="X143" s="19"/>
     </row>
-    <row r="144" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2010</v>
       </c>
@@ -12432,7 +12435,7 @@
       <c r="W144" s="18"/>
       <c r="X144" s="19"/>
     </row>
-    <row r="145" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2013</v>
       </c>
@@ -12478,7 +12481,7 @@
       <c r="W145" s="18"/>
       <c r="X145" s="19"/>
     </row>
-    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -12520,7 +12523,7 @@
       <c r="W146" s="18"/>
       <c r="X146" s="19"/>
     </row>
-    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -12562,7 +12565,7 @@
       <c r="W147" s="18"/>
       <c r="X147" s="19"/>
     </row>
-    <row r="148" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -12607,7 +12610,7 @@
       <c r="W148" s="18"/>
       <c r="X148" s="19"/>
     </row>
-    <row r="149" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>2013</v>
       </c>
@@ -12652,7 +12655,7 @@
       <c r="W149" s="18"/>
       <c r="X149" s="19"/>
     </row>
-    <row r="150" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>2013</v>
       </c>
@@ -12692,7 +12695,7 @@
       <c r="W150" s="18"/>
       <c r="X150" s="19"/>
     </row>
-    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -12731,7 +12734,7 @@
       <c r="W151" s="18"/>
       <c r="X151" s="19"/>
     </row>
-    <row r="152" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>2013</v>
       </c>
@@ -12778,7 +12781,7 @@
       <c r="W152" s="18"/>
       <c r="X152" s="19"/>
     </row>
-    <row r="153" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>2013</v>
       </c>
@@ -12812,7 +12815,7 @@
       <c r="W153" s="18"/>
       <c r="X153" s="19"/>
     </row>
-    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -12848,7 +12851,7 @@
       <c r="W154" s="18"/>
       <c r="X154" s="19"/>
     </row>
-    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -12884,7 +12887,7 @@
       <c r="W155" s="18"/>
       <c r="X155" s="19"/>
     </row>
-    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -12920,7 +12923,7 @@
       <c r="W156" s="18"/>
       <c r="X156" s="19"/>
     </row>
-    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12965,7 +12968,7 @@
       <c r="W157" s="18"/>
       <c r="X157" s="19"/>
     </row>
-    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -13010,7 +13013,7 @@
       <c r="W158" s="18"/>
       <c r="X158" s="19"/>
     </row>
-    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -13055,7 +13058,7 @@
       <c r="W159" s="18"/>
       <c r="X159" s="19"/>
     </row>
-    <row r="160" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>2013</v>
       </c>
@@ -13102,7 +13105,7 @@
       <c r="W160" s="18"/>
       <c r="X160" s="19"/>
     </row>
-    <row r="161" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>2013</v>
       </c>
@@ -13143,7 +13146,7 @@
       <c r="W161" s="18"/>
       <c r="X161" s="19"/>
     </row>
-    <row r="162" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>2013</v>
       </c>
@@ -13181,7 +13184,7 @@
       <c r="W162" s="18"/>
       <c r="X162" s="19"/>
     </row>
-    <row r="163" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>2013</v>
       </c>
@@ -13220,7 +13223,7 @@
       <c r="W163" s="18"/>
       <c r="X163" s="19"/>
     </row>
-    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -13256,7 +13259,7 @@
       <c r="W164" s="18"/>
       <c r="X164" s="19"/>
     </row>
-    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -13298,7 +13301,7 @@
       <c r="W165" s="18"/>
       <c r="X165" s="19"/>
     </row>
-    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -13334,7 +13337,7 @@
       <c r="W166" s="18"/>
       <c r="X166" s="19"/>
     </row>
-    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -13370,7 +13373,7 @@
       <c r="W167" s="18"/>
       <c r="X167" s="19"/>
     </row>
-    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -13406,7 +13409,7 @@
       <c r="W168" s="18"/>
       <c r="X168" s="19"/>
     </row>
-    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -13462,7 +13465,7 @@
       <c r="W169" s="18"/>
       <c r="X169" s="19"/>
     </row>
-    <row r="170" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>2014</v>
       </c>
@@ -13517,7 +13520,7 @@
       <c r="W170" s="18"/>
       <c r="X170" s="19"/>
     </row>
-    <row r="171" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>2014</v>
       </c>
@@ -13569,7 +13572,7 @@
       <c r="W171" s="18"/>
       <c r="X171" s="19"/>
     </row>
-    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13620,7 +13623,7 @@
       <c r="W172" s="18"/>
       <c r="X172" s="19"/>
     </row>
-    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -13671,7 +13674,7 @@
       <c r="W173" s="18"/>
       <c r="X173" s="19"/>
     </row>
-    <row r="174" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>2014</v>
       </c>
@@ -13717,7 +13720,7 @@
       <c r="W174" s="18"/>
       <c r="X174" s="19"/>
     </row>
-    <row r="175" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>2014</v>
       </c>
@@ -13769,7 +13772,7 @@
       <c r="W175" s="18"/>
       <c r="X175" s="19"/>
     </row>
-    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -13814,7 +13817,7 @@
       <c r="W176" s="18"/>
       <c r="X176" s="19"/>
     </row>
-    <row r="177" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>2014</v>
       </c>
@@ -13862,7 +13865,7 @@
       <c r="W177" s="18"/>
       <c r="X177" s="19"/>
     </row>
-    <row r="178" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>2014</v>
       </c>
@@ -13908,7 +13911,7 @@
       <c r="W178" s="18"/>
       <c r="X178" s="19"/>
     </row>
-    <row r="179" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>2014</v>
       </c>
@@ -13954,7 +13957,7 @@
       <c r="W179" s="18"/>
       <c r="X179" s="19"/>
     </row>
-    <row r="180" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>2014</v>
       </c>
@@ -14005,7 +14008,7 @@
       <c r="W180" s="18"/>
       <c r="X180" s="19"/>
     </row>
-    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -14047,7 +14050,7 @@
       <c r="W181" s="18"/>
       <c r="X181" s="19"/>
     </row>
-    <row r="182" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>2014</v>
       </c>
@@ -14102,7 +14105,7 @@
       <c r="W182" s="18"/>
       <c r="X182" s="19"/>
     </row>
-    <row r="183" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>2014</v>
       </c>
@@ -14150,7 +14153,7 @@
       <c r="W183" s="18"/>
       <c r="X183" s="19"/>
     </row>
-    <row r="184" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>2014</v>
       </c>
@@ -14195,7 +14198,7 @@
       <c r="W184" s="18"/>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>2014</v>
       </c>
@@ -14238,7 +14241,7 @@
       <c r="W185" s="18"/>
       <c r="X185" s="19"/>
     </row>
-    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -14283,7 +14286,7 @@
       <c r="W186" s="18"/>
       <c r="X186" s="19"/>
     </row>
-    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -14328,7 +14331,7 @@
       <c r="W187" s="18"/>
       <c r="X187" s="19"/>
     </row>
-    <row r="188" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -14379,7 +14382,7 @@
       <c r="W188" s="18"/>
       <c r="X188" s="19"/>
     </row>
-    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -14421,7 +14424,7 @@
       <c r="W189" s="18"/>
       <c r="X189" s="19"/>
     </row>
-    <row r="190" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>2014</v>
       </c>
@@ -14466,7 +14469,7 @@
       <c r="W190" s="18"/>
       <c r="X190" s="19"/>
     </row>
-    <row r="191" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>2014</v>
       </c>
@@ -14521,7 +14524,7 @@
       <c r="W191" s="18"/>
       <c r="X191" s="19"/>
     </row>
-    <row r="192" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>2014</v>
       </c>
@@ -14567,7 +14570,7 @@
       <c r="W192" s="18"/>
       <c r="X192" s="19"/>
     </row>
-    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -14611,7 +14614,7 @@
       <c r="W193" s="18"/>
       <c r="X193" s="19"/>
     </row>
-    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -14653,7 +14656,7 @@
       <c r="W194" s="18"/>
       <c r="X194" s="19"/>
     </row>
-    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -14695,7 +14698,7 @@
       <c r="W195" s="18"/>
       <c r="X195" s="19"/>
     </row>
-    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -14737,7 +14740,7 @@
       <c r="W196" s="18"/>
       <c r="X196" s="19"/>
     </row>
-    <row r="197" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>2014</v>
       </c>
@@ -14791,7 +14794,7 @@
       <c r="W197" s="18"/>
       <c r="X197" s="19"/>
     </row>
-    <row r="198" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>2014</v>
       </c>
@@ -14837,7 +14840,7 @@
       <c r="W198" s="18"/>
       <c r="X198" s="19"/>
     </row>
-    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -14879,7 +14882,7 @@
       <c r="W199" s="18"/>
       <c r="X199" s="19"/>
     </row>
-    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -14930,7 +14933,7 @@
       <c r="W200" s="18"/>
       <c r="X200" s="19"/>
     </row>
-    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -14975,7 +14978,7 @@
       <c r="W201" s="18"/>
       <c r="X201" s="19"/>
     </row>
-    <row r="202" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>2014</v>
       </c>
@@ -15032,7 +15035,7 @@
       <c r="W202" s="18"/>
       <c r="X202" s="19"/>
     </row>
-    <row r="203" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>2014</v>
       </c>
@@ -15078,7 +15081,7 @@
       <c r="W203" s="18"/>
       <c r="X203" s="19"/>
     </row>
-    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -15129,7 +15132,7 @@
       <c r="W204" s="18"/>
       <c r="X204" s="19"/>
     </row>
-    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -15180,7 +15183,7 @@
       <c r="W205" s="18"/>
       <c r="X205" s="19"/>
     </row>
-    <row r="206" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>2014</v>
       </c>
@@ -15234,7 +15237,7 @@
       <c r="W206" s="18"/>
       <c r="X206" s="19"/>
     </row>
-    <row r="207" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>2014</v>
       </c>
@@ -15288,7 +15291,7 @@
       <c r="W207" s="18"/>
       <c r="X207" s="19"/>
     </row>
-    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15336,7 +15339,7 @@
       <c r="W208" s="18"/>
       <c r="X208" s="19"/>
     </row>
-    <row r="209" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>2014</v>
       </c>
@@ -15393,7 +15396,7 @@
       <c r="W209" s="18"/>
       <c r="X209" s="19"/>
     </row>
-    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -15435,7 +15438,7 @@
       <c r="W210" s="18"/>
       <c r="X210" s="19"/>
     </row>
-    <row r="211" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>2014</v>
       </c>
@@ -15484,7 +15487,7 @@
       <c r="W211" s="18"/>
       <c r="X211" s="19"/>
     </row>
-    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15529,7 +15532,7 @@
       <c r="W212" s="18"/>
       <c r="X212" s="19"/>
     </row>
-    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15578,7 +15581,7 @@
       <c r="W213" s="18"/>
       <c r="X213" s="19"/>
     </row>
-    <row r="214" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>2014</v>
       </c>
@@ -15621,7 +15624,7 @@
       <c r="W214" s="18"/>
       <c r="X214" s="19"/>
     </row>
-    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -15678,7 +15681,7 @@
       <c r="W215" s="18"/>
       <c r="X215" s="19"/>
     </row>
-    <row r="216" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>2014</v>
       </c>
@@ -15736,7 +15739,7 @@
       <c r="W216" s="18"/>
       <c r="X216" s="19"/>
     </row>
-    <row r="217" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>2014</v>
       </c>
@@ -15786,7 +15789,7 @@
       <c r="W217" s="18"/>
       <c r="X217" s="19"/>
     </row>
-    <row r="218" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>2014</v>
       </c>
@@ -15843,7 +15846,7 @@
       <c r="W218" s="18"/>
       <c r="X218" s="19"/>
     </row>
-    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -15900,7 +15903,7 @@
       <c r="W219" s="18"/>
       <c r="X219" s="19"/>
     </row>
-    <row r="220" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>2014</v>
       </c>
@@ -15949,7 +15952,7 @@
       <c r="W220" s="18"/>
       <c r="X220" s="19"/>
     </row>
-    <row r="221" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>2014</v>
       </c>
@@ -16001,7 +16004,7 @@
       <c r="W221" s="18"/>
       <c r="X221" s="19"/>
     </row>
-    <row r="222" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>2014</v>
       </c>
@@ -16055,7 +16058,7 @@
       <c r="W222" s="18"/>
       <c r="X222" s="19"/>
     </row>
-    <row r="223" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>2014</v>
       </c>
@@ -16112,7 +16115,7 @@
       <c r="W223" s="18"/>
       <c r="X223" s="19"/>
     </row>
-    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -16164,7 +16167,7 @@
       <c r="W224" s="18"/>
       <c r="X224" s="19"/>
     </row>
-    <row r="225" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>2014</v>
       </c>
@@ -16216,7 +16219,7 @@
       <c r="W225" s="18"/>
       <c r="X225" s="19"/>
     </row>
-    <row r="226" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>2014</v>
       </c>
@@ -16273,7 +16276,7 @@
       <c r="W226" s="18"/>
       <c r="X226" s="19"/>
     </row>
-    <row r="227" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>2014</v>
       </c>
@@ -16325,7 +16328,7 @@
       <c r="W227" s="18"/>
       <c r="X227" s="19"/>
     </row>
-    <row r="228" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>2014</v>
       </c>
@@ -16379,7 +16382,7 @@
       <c r="W228" s="18"/>
       <c r="X228" s="19"/>
     </row>
-    <row r="229" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>2014</v>
       </c>
@@ -16428,7 +16431,7 @@
       <c r="W229" s="18"/>
       <c r="X229" s="19"/>
     </row>
-    <row r="230" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>2014</v>
       </c>
@@ -16474,7 +16477,7 @@
       <c r="W230" s="18"/>
       <c r="X230" s="19"/>
     </row>
-    <row r="231" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>2015</v>
       </c>
@@ -16529,7 +16532,7 @@
       <c r="W231" s="18"/>
       <c r="X231" s="19"/>
     </row>
-    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -16576,7 +16579,7 @@
       <c r="W232" s="18"/>
       <c r="X232" s="19"/>
     </row>
-    <row r="233" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>2015</v>
       </c>
@@ -16627,7 +16630,7 @@
       <c r="W233" s="18"/>
       <c r="X233" s="19"/>
     </row>
-    <row r="234" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>2015</v>
       </c>
@@ -16680,7 +16683,7 @@
       <c r="W234" s="18"/>
       <c r="X234" s="19"/>
     </row>
-    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -16732,7 +16735,7 @@
       <c r="W235" s="18"/>
       <c r="X235" s="19"/>
     </row>
-    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -16785,7 +16788,7 @@
       <c r="W236" s="18"/>
       <c r="X236" s="19"/>
     </row>
-    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -16834,7 +16837,7 @@
       <c r="W237" s="18"/>
       <c r="X237" s="19"/>
     </row>
-    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -16883,7 +16886,7 @@
       <c r="W238" s="18"/>
       <c r="X238" s="19"/>
     </row>
-    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -16932,7 +16935,7 @@
       <c r="W239" s="18"/>
       <c r="X239" s="19"/>
     </row>
-    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -16983,7 +16986,7 @@
       <c r="W240" s="18"/>
       <c r="X240" s="19"/>
     </row>
-    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -17031,7 +17034,7 @@
       <c r="W241" s="18"/>
       <c r="X241" s="19"/>
     </row>
-    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -17086,7 +17089,7 @@
       <c r="W242" s="18"/>
       <c r="X242" s="19"/>
     </row>
-    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -17136,7 +17139,7 @@
       <c r="W243" s="18"/>
       <c r="X243" s="19"/>
     </row>
-    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -17189,7 +17192,7 @@
       <c r="W244" s="18"/>
       <c r="X244" s="19"/>
     </row>
-    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -17240,7 +17243,7 @@
       <c r="W245" s="18"/>
       <c r="X245" s="19"/>
     </row>
-    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -17291,7 +17294,7 @@
       <c r="W246" s="18"/>
       <c r="X246" s="19"/>
     </row>
-    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17341,7 +17344,7 @@
       <c r="W247" s="18"/>
       <c r="X247" s="19"/>
     </row>
-    <row r="248" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>2015</v>
       </c>
@@ -17394,7 +17397,7 @@
       <c r="W248" s="18"/>
       <c r="X248" s="19"/>
     </row>
-    <row r="249" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>2015</v>
       </c>
@@ -17443,7 +17446,7 @@
       <c r="W249" s="18"/>
       <c r="X249" s="19"/>
     </row>
-    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -17500,7 +17503,7 @@
       <c r="W250" s="18"/>
       <c r="X250" s="19"/>
     </row>
-    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -17549,7 +17552,7 @@
       <c r="W251" s="18"/>
       <c r="X251" s="19"/>
     </row>
-    <row r="252" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>2015</v>
       </c>
@@ -17601,7 +17604,7 @@
       <c r="W252" s="18"/>
       <c r="X252" s="19"/>
     </row>
-    <row r="253" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>2015</v>
       </c>
@@ -17652,7 +17655,7 @@
       <c r="W253" s="18"/>
       <c r="X253" s="19"/>
     </row>
-    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -17700,7 +17703,7 @@
       <c r="W254" s="18"/>
       <c r="X254" s="19"/>
     </row>
-    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -17747,7 +17750,7 @@
       <c r="W255" s="18"/>
       <c r="X255" s="19"/>
     </row>
-    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -17798,7 +17801,7 @@
       <c r="W256" s="18"/>
       <c r="X256" s="19"/>
     </row>
-    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -17847,7 +17850,7 @@
       <c r="W257" s="18"/>
       <c r="X257" s="19"/>
     </row>
-    <row r="258" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>2015</v>
       </c>
@@ -17898,7 +17901,7 @@
       <c r="W258" s="18"/>
       <c r="X258" s="19"/>
     </row>
-    <row r="259" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>2015</v>
       </c>
@@ -17951,7 +17954,7 @@
       <c r="W259" s="18"/>
       <c r="X259" s="19"/>
     </row>
-    <row r="260" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>2015</v>
       </c>
@@ -18008,7 +18011,7 @@
       <c r="W260" s="18"/>
       <c r="X260" s="19"/>
     </row>
-    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -18061,7 +18064,7 @@
       <c r="W261" s="18"/>
       <c r="X261" s="19"/>
     </row>
-    <row r="262" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>2015</v>
       </c>
@@ -18114,7 +18117,7 @@
       <c r="W262" s="18"/>
       <c r="X262" s="19"/>
     </row>
-    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -18161,7 +18164,7 @@
       <c r="W263" s="18"/>
       <c r="X263" s="19"/>
     </row>
-    <row r="264" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>2015</v>
       </c>
@@ -18214,7 +18217,7 @@
       <c r="W264" s="18"/>
       <c r="X264" s="19"/>
     </row>
-    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -18267,7 +18270,7 @@
       <c r="W265" s="18"/>
       <c r="X265" s="19"/>
     </row>
-    <row r="266" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -18320,7 +18323,7 @@
       <c r="W266" s="18"/>
       <c r="X266" s="19"/>
     </row>
-    <row r="267" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>2015</v>
       </c>
@@ -18371,7 +18374,7 @@
       <c r="W267" s="18"/>
       <c r="X267" s="19"/>
     </row>
-    <row r="268" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>2015</v>
       </c>
@@ -18426,7 +18429,7 @@
       <c r="W268" s="18"/>
       <c r="X268" s="19"/>
     </row>
-    <row r="269" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>2015</v>
       </c>
@@ -18479,7 +18482,7 @@
       <c r="W269" s="18"/>
       <c r="X269" s="19"/>
     </row>
-    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -18534,7 +18537,7 @@
       <c r="W270" s="18"/>
       <c r="X270" s="19"/>
     </row>
-    <row r="271" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>2015</v>
       </c>
@@ -18585,7 +18588,7 @@
       <c r="W271" s="18"/>
       <c r="X271" s="19"/>
     </row>
-    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -18630,7 +18633,7 @@
       <c r="W272" s="18"/>
       <c r="X272" s="19"/>
     </row>
-    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18677,7 +18680,7 @@
       <c r="W273" s="18"/>
       <c r="X273" s="19"/>
     </row>
-    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -18728,7 +18731,7 @@
       <c r="W274" s="18"/>
       <c r="X274" s="19"/>
     </row>
-    <row r="275" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>2015</v>
       </c>
@@ -18777,7 +18780,7 @@
       <c r="W275" s="18"/>
       <c r="X275" s="19"/>
     </row>
-    <row r="276" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>2015</v>
       </c>
@@ -18826,7 +18829,7 @@
       <c r="W276" s="18"/>
       <c r="X276" s="19"/>
     </row>
-    <row r="277" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>2015</v>
       </c>
@@ -18875,7 +18878,7 @@
       <c r="W277" s="18"/>
       <c r="X277" s="19"/>
     </row>
-    <row r="278" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>2015</v>
       </c>
@@ -18924,7 +18927,7 @@
       <c r="W278" s="18"/>
       <c r="X278" s="19"/>
     </row>
-    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -18971,7 +18974,7 @@
       <c r="W279" s="18"/>
       <c r="X279" s="19"/>
     </row>
-    <row r="280" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>2015</v>
       </c>
@@ -19020,7 +19023,7 @@
       <c r="W280" s="18"/>
       <c r="X280" s="19"/>
     </row>
-    <row r="281" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>2015</v>
       </c>
@@ -19071,7 +19074,7 @@
       <c r="W281" s="18"/>
       <c r="X281" s="19"/>
     </row>
-    <row r="282" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>2015</v>
       </c>
@@ -19118,7 +19121,7 @@
       <c r="W282" s="18"/>
       <c r="X282" s="19"/>
     </row>
-    <row r="283" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>2015</v>
       </c>
@@ -19170,7 +19173,7 @@
       <c r="W283" s="18"/>
       <c r="X283" s="19"/>
     </row>
-    <row r="284" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>2015</v>
       </c>
@@ -19217,7 +19220,7 @@
       <c r="W284" s="18"/>
       <c r="X284" s="19"/>
     </row>
-    <row r="285" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>2015</v>
       </c>
@@ -19266,7 +19269,7 @@
       <c r="W285" s="18"/>
       <c r="X285" s="19"/>
     </row>
-    <row r="286" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>2015</v>
       </c>
@@ -19313,7 +19316,7 @@
       <c r="W286" s="18"/>
       <c r="X286" s="19"/>
     </row>
-    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -19363,7 +19366,7 @@
       <c r="W287" s="18"/>
       <c r="X287" s="19"/>
     </row>
-    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -19411,7 +19414,7 @@
       <c r="W288" s="18"/>
       <c r="X288" s="19"/>
     </row>
-    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -19462,7 +19465,7 @@
       <c r="W289" s="18"/>
       <c r="X289" s="19"/>
     </row>
-    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19510,7 +19513,7 @@
       <c r="W290" s="18"/>
       <c r="X290" s="19"/>
     </row>
-    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -19553,7 +19556,7 @@
       <c r="W291" s="18"/>
       <c r="X291" s="19"/>
     </row>
-    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -19606,7 +19609,7 @@
       <c r="W292" s="18"/>
       <c r="X292" s="19"/>
     </row>
-    <row r="293" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>2015</v>
       </c>
@@ -19662,7 +19665,7 @@
       <c r="W293" s="18"/>
       <c r="X293" s="19"/>
     </row>
-    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19712,7 +19715,7 @@
       <c r="W294" s="18"/>
       <c r="X294" s="19"/>
     </row>
-    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -19760,7 +19763,7 @@
       <c r="W295" s="18"/>
       <c r="X295" s="19"/>
     </row>
-    <row r="296" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>2015</v>
       </c>
@@ -19807,7 +19810,7 @@
       <c r="W296" s="18"/>
       <c r="X296" s="19"/>
     </row>
-    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -19857,7 +19860,7 @@
       <c r="W297" s="18"/>
       <c r="X297" s="19"/>
     </row>
-    <row r="298" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>2015</v>
       </c>
@@ -19905,7 +19908,7 @@
       <c r="W298" s="18"/>
       <c r="X298" s="19"/>
     </row>
-    <row r="299" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>2015</v>
       </c>
@@ -19952,7 +19955,7 @@
       <c r="W299" s="18"/>
       <c r="X299" s="19"/>
     </row>
-    <row r="300" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -20002,7 +20005,7 @@
       <c r="W300" s="18"/>
       <c r="X300" s="19"/>
     </row>
-    <row r="301" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>2015</v>
       </c>
@@ -20059,7 +20062,7 @@
       <c r="W301" s="18"/>
       <c r="X301" s="19"/>
     </row>
-    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -20109,7 +20112,7 @@
       <c r="W302" s="18"/>
       <c r="X302" s="19"/>
     </row>
-    <row r="303" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>2015</v>
       </c>
@@ -20162,7 +20165,7 @@
       <c r="W303" s="18"/>
       <c r="X303" s="19"/>
     </row>
-    <row r="304" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>2015</v>
       </c>
@@ -20207,7 +20210,7 @@
       <c r="W304" s="18"/>
       <c r="X304" s="19"/>
     </row>
-    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -20257,7 +20260,7 @@
       <c r="W305" s="18"/>
       <c r="X305" s="19"/>
     </row>
-    <row r="306" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>2015</v>
       </c>
@@ -20304,7 +20307,7 @@
       <c r="W306" s="18"/>
       <c r="X306" s="19"/>
     </row>
-    <row r="307" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>2015</v>
       </c>
@@ -20354,7 +20357,7 @@
       <c r="W307" s="18"/>
       <c r="X307" s="19"/>
     </row>
-    <row r="308" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>2015</v>
       </c>
@@ -20401,7 +20404,7 @@
       <c r="W308" s="18"/>
       <c r="X308" s="19"/>
     </row>
-    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -20448,7 +20451,7 @@
       <c r="W309" s="18"/>
       <c r="X309" s="19"/>
     </row>
-    <row r="310" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>2015</v>
       </c>
@@ -20495,7 +20498,7 @@
       <c r="W310" s="18"/>
       <c r="X310" s="19"/>
     </row>
-    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -20542,7 +20545,7 @@
       <c r="W311" s="18"/>
       <c r="X311" s="19"/>
     </row>
-    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -20589,7 +20592,7 @@
       <c r="W312" s="18"/>
       <c r="X312" s="19"/>
     </row>
-    <row r="313" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>2015</v>
       </c>
@@ -20635,7 +20638,7 @@
       <c r="W313" s="18"/>
       <c r="X313" s="19"/>
     </row>
-    <row r="314" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -20681,7 +20684,7 @@
       <c r="W314" s="18"/>
       <c r="X314" s="19"/>
     </row>
-    <row r="315" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>2015</v>
       </c>
@@ -20734,7 +20737,7 @@
       <c r="W315" s="18"/>
       <c r="X315" s="19"/>
     </row>
-    <row r="316" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>2015</v>
       </c>
@@ -20784,7 +20787,7 @@
       <c r="W316" s="18"/>
       <c r="X316" s="19"/>
     </row>
-    <row r="317" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -20834,7 +20837,7 @@
       <c r="W317" s="18"/>
       <c r="X317" s="19"/>
     </row>
-    <row r="318" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>2016</v>
       </c>
@@ -20883,7 +20886,7 @@
       <c r="W318" s="18"/>
       <c r="X318" s="19"/>
     </row>
-    <row r="319" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>2016</v>
       </c>
@@ -20945,7 +20948,7 @@
       <c r="AA319"/>
       <c r="AB319" s="6"/>
     </row>
-    <row r="320" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>2016</v>
       </c>
@@ -21006,7 +21009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -21069,7 +21072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -21130,7 +21133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>2016</v>
       </c>
@@ -21194,7 +21197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>2016</v>
       </c>
@@ -21263,7 +21266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>2016</v>
       </c>
@@ -21330,7 +21333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -21397,7 +21400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>2016</v>
       </c>
@@ -21463,7 +21466,7 @@
       <c r="AA327"/>
       <c r="AB327" s="6"/>
     </row>
-    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -21526,7 +21529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -21589,7 +21592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>2016</v>
       </c>
@@ -21651,7 +21654,7 @@
       <c r="AA330"/>
       <c r="AB330" s="6"/>
     </row>
-    <row r="331" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>2016</v>
       </c>
@@ -21711,7 +21714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -21774,7 +21777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -21838,7 +21841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>2016</v>
       </c>
@@ -21900,7 +21903,7 @@
       <c r="AA334"/>
       <c r="AB334" s="6"/>
     </row>
-    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -21962,7 +21965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -22024,7 +22027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -22088,7 +22091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -22154,7 +22157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -22218,7 +22221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -22272,7 +22275,7 @@
       <c r="W340" s="18"/>
       <c r="X340" s="19"/>
     </row>
-    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -22326,7 +22329,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="342" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>2016</v>
       </c>
@@ -22384,7 +22387,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="343" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>2016</v>
       </c>
@@ -22444,7 +22447,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="344" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>2016</v>
       </c>
@@ -22502,7 +22505,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="345" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -22559,7 +22562,7 @@
       <c r="W345" s="18"/>
       <c r="X345" s="19"/>
     </row>
-    <row r="346" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -22610,7 +22613,7 @@
       <c r="W346" s="18"/>
       <c r="X346" s="19"/>
     </row>
-    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -22661,7 +22664,7 @@
       <c r="W347" s="18"/>
       <c r="X347" s="19"/>
     </row>
-    <row r="348" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>2016</v>
       </c>
@@ -22721,7 +22724,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="349" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>2016</v>
       </c>
@@ -22770,7 +22773,7 @@
       <c r="W349" s="18"/>
       <c r="X349" s="19"/>
     </row>
-    <row r="350" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>2016</v>
       </c>
@@ -22822,7 +22825,7 @@
       <c r="W350" s="18"/>
       <c r="X350" s="19"/>
     </row>
-    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -22883,7 +22886,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -22944,7 +22947,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>2016</v>
       </c>
@@ -22992,7 +22995,7 @@
       <c r="W353" s="18"/>
       <c r="X353" s="19"/>
     </row>
-    <row r="354" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>2016</v>
       </c>
@@ -23050,7 +23053,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -23104,7 +23107,7 @@
       <c r="W355" s="18"/>
       <c r="X355" s="19"/>
     </row>
-    <row r="356" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>2016</v>
       </c>
@@ -23152,7 +23155,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="357" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>2016</v>
       </c>
@@ -23199,7 +23202,7 @@
       <c r="W357" s="18"/>
       <c r="X357" s="19"/>
     </row>
-    <row r="358" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>2016</v>
       </c>
@@ -23257,7 +23260,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="359" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>2016</v>
       </c>
@@ -23313,7 +23316,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="360" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>2016</v>
       </c>
@@ -23358,7 +23361,7 @@
       <c r="W360" s="18"/>
       <c r="X360" s="19"/>
     </row>
-    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -23410,7 +23413,7 @@
       <c r="W361" s="18"/>
       <c r="X361" s="19"/>
     </row>
-    <row r="362" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>2016</v>
       </c>
@@ -23469,7 +23472,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="363" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>2016</v>
       </c>
@@ -23513,7 +23516,7 @@
       <c r="W363" s="18"/>
       <c r="X363" s="19"/>
     </row>
-    <row r="364" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>2016</v>
       </c>
@@ -23557,7 +23560,7 @@
       <c r="W364" s="18"/>
       <c r="X364" s="19"/>
     </row>
-    <row r="365" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>2016</v>
       </c>
@@ -23604,7 +23607,7 @@
       <c r="W365" s="18"/>
       <c r="X365" s="19"/>
     </row>
-    <row r="366" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>2016</v>
       </c>
@@ -23648,7 +23651,7 @@
       <c r="W366" s="18"/>
       <c r="X366" s="19"/>
     </row>
-    <row r="367" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>2016</v>
       </c>
@@ -23697,7 +23700,7 @@
       <c r="W367" s="18"/>
       <c r="X367" s="19"/>
     </row>
-    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -23755,7 +23758,7 @@
       <c r="W368" s="18"/>
       <c r="X368" s="19"/>
     </row>
-    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -23809,7 +23812,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -23865,7 +23868,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -23905,7 +23908,7 @@
       <c r="W371" s="18"/>
       <c r="X371" s="19"/>
     </row>
-    <row r="372" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -23954,7 +23957,7 @@
       <c r="W372" s="18"/>
       <c r="X372" s="19"/>
     </row>
-    <row r="373" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -23996,7 +23999,7 @@
       <c r="W373" s="18"/>
       <c r="X373" s="19"/>
     </row>
-    <row r="374" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>2016</v>
       </c>
@@ -24043,7 +24046,7 @@
       <c r="W374" s="18"/>
       <c r="X374" s="19"/>
     </row>
-    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -24092,7 +24095,7 @@
       <c r="W375" s="18"/>
       <c r="X375" s="19"/>
     </row>
-    <row r="376" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>2016</v>
       </c>
@@ -24144,7 +24147,7 @@
       <c r="W376" s="18"/>
       <c r="X376" s="19"/>
     </row>
-    <row r="377" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>2016</v>
       </c>
@@ -24188,7 +24191,7 @@
       <c r="W377" s="18"/>
       <c r="X377" s="19"/>
     </row>
-    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -24237,7 +24240,7 @@
       <c r="W378" s="18"/>
       <c r="X378" s="19"/>
     </row>
-    <row r="379" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -24300,7 +24303,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="380" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -24354,7 +24357,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -24405,7 +24408,7 @@
       <c r="W381" s="18"/>
       <c r="X381" s="19"/>
     </row>
-    <row r="382" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -24449,7 +24452,7 @@
       <c r="W382" s="18"/>
       <c r="X382" s="19"/>
     </row>
-    <row r="383" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -24493,7 +24496,7 @@
       <c r="W383" s="18"/>
       <c r="X383" s="19"/>
     </row>
-    <row r="384" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -24551,7 +24554,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -24611,7 +24614,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="386" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>2016</v>
       </c>
@@ -24668,7 +24671,7 @@
       <c r="W386" s="18"/>
       <c r="X386" s="19"/>
     </row>
-    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -24717,7 +24720,7 @@
       <c r="W387" s="18"/>
       <c r="X387" s="19"/>
     </row>
-    <row r="388" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -24766,7 +24769,7 @@
       <c r="W388" s="18"/>
       <c r="X388" s="19"/>
     </row>
-    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -24826,7 +24829,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="390" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>2016</v>
       </c>
@@ -24886,7 +24889,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -24935,7 +24938,7 @@
       <c r="W391" s="18"/>
       <c r="X391" s="19"/>
     </row>
-    <row r="392" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>2016</v>
       </c>
@@ -24984,7 +24987,7 @@
       <c r="W392" s="18"/>
       <c r="X392" s="19"/>
     </row>
-    <row r="393" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>2016</v>
       </c>
@@ -25033,7 +25036,7 @@
       <c r="W393" s="18"/>
       <c r="X393" s="19"/>
     </row>
-    <row r="394" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>2016</v>
       </c>
@@ -25082,7 +25085,7 @@
       <c r="W394" s="18"/>
       <c r="X394" s="19"/>
     </row>
-    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -25142,7 +25145,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>2017</v>
       </c>
@@ -25190,7 +25193,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -25240,7 +25243,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -25286,7 +25289,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -25339,7 +25342,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>2017</v>
       </c>
@@ -25393,7 +25396,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>2017</v>
       </c>
@@ -25443,7 +25446,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -25495,7 +25498,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>2017</v>
       </c>
@@ -25547,7 +25550,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>2017</v>
       </c>
@@ -25599,7 +25602,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>2017</v>
       </c>
@@ -25653,7 +25656,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>2017</v>
       </c>
@@ -25712,7 +25715,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>2017</v>
       </c>
@@ -25764,7 +25767,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -25820,7 +25823,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>2017</v>
       </c>
@@ -25874,7 +25877,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>2017</v>
       </c>
@@ -25919,7 +25922,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>2017</v>
       </c>
@@ -25971,7 +25974,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -26030,7 +26033,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>2017</v>
       </c>
@@ -26080,7 +26083,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -26138,7 +26141,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>2017</v>
       </c>
@@ -26186,7 +26189,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>2017</v>
       </c>
@@ -26238,7 +26241,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>2017</v>
       </c>
@@ -26285,7 +26288,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>2017</v>
       </c>
@@ -26341,7 +26344,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>2017</v>
       </c>
@@ -26394,7 +26397,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>2017</v>
       </c>
@@ -26442,7 +26445,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>2017</v>
       </c>
@@ -26494,7 +26497,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -26549,7 +26552,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>2017</v>
       </c>
@@ -26610,7 +26613,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -26660,7 +26663,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -26710,7 +26713,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>2017</v>
       </c>
@@ -26768,7 +26771,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>2017</v>
       </c>
@@ -26826,7 +26829,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>2017</v>
       </c>
@@ -26879,7 +26882,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>2017</v>
       </c>
@@ -26928,7 +26931,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>2017</v>
       </c>
@@ -26981,7 +26984,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>2017</v>
       </c>
@@ -27032,7 +27035,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>2017</v>
       </c>
@@ -27084,7 +27087,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>2017</v>
       </c>
@@ -27143,7 +27146,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>2017</v>
       </c>
@@ -27192,7 +27195,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -27243,7 +27246,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -27302,7 +27305,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -27357,7 +27360,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>2018</v>
       </c>
@@ -27416,7 +27419,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -27471,7 +27474,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -27520,7 +27523,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -27573,7 +27576,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -27630,7 +27633,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>2018</v>
       </c>
@@ -27685,7 +27688,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -27738,7 +27741,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -27795,7 +27798,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -27846,7 +27849,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -27897,7 +27900,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -27946,7 +27949,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -28001,7 +28004,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2018</v>
       </c>
@@ -28060,7 +28063,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -28113,7 +28116,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -28170,7 +28173,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -28221,7 +28224,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -28274,7 +28277,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -28325,7 +28328,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -28378,7 +28381,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>2018</v>
       </c>
@@ -28433,7 +28436,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -28482,7 +28485,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>2018</v>
       </c>
@@ -28537,7 +28540,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -28586,7 +28589,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -28639,7 +28642,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>2018</v>
       </c>
@@ -28694,7 +28697,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -28747,7 +28750,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -28804,7 +28807,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -28861,7 +28864,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -28918,7 +28921,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -28963,7 +28966,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -29014,7 +29017,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>2018</v>
       </c>
@@ -29069,7 +29072,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>2018</v>
       </c>
@@ -29126,7 +29129,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>2018</v>
       </c>
@@ -29185,7 +29188,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -29234,7 +29237,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -29289,7 +29292,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -29336,7 +29339,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -29387,7 +29390,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -29444,7 +29447,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -29499,7 +29502,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -29550,7 +29553,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>2018</v>
       </c>
@@ -29607,7 +29610,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -29652,7 +29655,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -29697,7 +29700,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -29750,7 +29753,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -29801,7 +29804,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -29854,7 +29857,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>2018</v>
       </c>
@@ -29911,7 +29914,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -29968,7 +29971,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>2018</v>
       </c>
@@ -30025,7 +30028,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -30078,7 +30081,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>2018</v>
       </c>
@@ -30137,7 +30140,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -30192,7 +30195,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -30243,7 +30246,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -30292,7 +30295,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -30341,7 +30344,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>2018</v>
       </c>
@@ -30400,7 +30403,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -30451,7 +30454,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -30500,7 +30503,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -30543,7 +30546,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -30594,7 +30597,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -30643,7 +30646,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -30692,7 +30695,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -30743,7 +30746,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -30786,7 +30789,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -30833,7 +30836,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -30880,7 +30883,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -30927,7 +30930,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -30960,7 +30963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>2018</v>
       </c>
@@ -31015,7 +31018,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -31060,7 +31063,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -31109,7 +31112,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -31160,7 +31163,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -31207,7 +31210,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -31258,7 +31261,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -31309,7 +31312,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -31360,7 +31363,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -31413,7 +31416,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -31464,7 +31467,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -31525,7 +31528,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -31580,7 +31583,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -31627,7 +31630,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>2018</v>
       </c>
@@ -31682,7 +31685,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -31733,7 +31736,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -31794,7 +31797,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -31836,7 +31839,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -31881,7 +31884,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -31934,7 +31937,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -31987,7 +31990,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -32034,7 +32037,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -32081,7 +32084,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -32128,7 +32131,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -32175,7 +32178,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -32222,7 +32225,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -32269,7 +32272,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -32316,7 +32319,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -32363,7 +32366,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -32410,7 +32413,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -32457,7 +32460,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -32506,7 +32509,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -32553,7 +32556,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -32600,7 +32603,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -32647,7 +32650,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -32694,7 +32697,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -32741,7 +32744,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -32788,7 +32791,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -32835,7 +32838,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -32882,7 +32885,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -32929,7 +32932,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -32976,7 +32979,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -33023,7 +33026,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -33070,7 +33073,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -33117,7 +33120,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -33164,7 +33167,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -33211,7 +33214,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -33258,7 +33261,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -33305,7 +33308,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -33352,7 +33355,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -33399,7 +33402,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -33446,7 +33449,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -33493,7 +33496,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -33540,7 +33543,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -33587,7 +33590,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -33634,7 +33637,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -33679,7 +33682,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -33724,7 +33727,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -33769,7 +33772,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -33814,7 +33817,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -33859,7 +33862,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -33904,7 +33907,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -33949,7 +33952,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -33994,7 +33997,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -34035,7 +34038,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -34080,7 +34083,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -34125,7 +34128,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -34170,7 +34173,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
         <v>2019</v>
       </c>
@@ -34215,7 +34218,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -34260,7 +34263,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -34305,7 +34308,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -34350,7 +34353,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -34395,7 +34398,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -34444,7 +34447,7 @@
       <c r="X579" s="10"/>
       <c r="Y579" s="7"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -34501,7 +34504,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
         <v>2022</v>
       </c>
@@ -34544,7 +34547,7 @@
       <c r="X581" s="10"/>
       <c r="Y581" s="7"/>
     </row>
-    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
         <v>2022</v>
       </c>
@@ -34599,7 +34602,7 @@
       <c r="X582" s="10"/>
       <c r="Y582" s="7"/>
     </row>
-    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>2022</v>
       </c>
@@ -34658,7 +34661,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
         <v>2022</v>
       </c>
@@ -34717,7 +34720,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
         <v>2022</v>
       </c>
@@ -34784,7 +34787,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -34833,7 +34836,7 @@
       <c r="X586" s="10"/>
       <c r="Y586" s="7"/>
     </row>
-    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6">
         <v>2022</v>
       </c>
@@ -34884,7 +34887,7 @@
       <c r="X587" s="10"/>
       <c r="Y587" s="7"/>
     </row>
-    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
         <v>2022</v>
       </c>
@@ -34935,7 +34938,7 @@
       <c r="X588" s="10"/>
       <c r="Y588" s="7"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -34984,7 +34987,7 @@
       <c r="X589" s="10"/>
       <c r="Y589" s="7"/>
     </row>
-    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
         <v>2022</v>
       </c>
@@ -35035,7 +35038,7 @@
       <c r="X590" s="10"/>
       <c r="Y590" s="7"/>
     </row>
-    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
         <v>2022</v>
       </c>
@@ -35102,7 +35105,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -35167,7 +35170,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -35232,7 +35235,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -35291,7 +35294,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -35356,7 +35359,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
         <v>2022</v>
       </c>
@@ -35419,7 +35422,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
         <v>2022</v>
       </c>
@@ -35482,7 +35485,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
         <v>2022</v>
       </c>
@@ -35537,7 +35540,7 @@
       <c r="X598" s="10"/>
       <c r="Y598" s="7"/>
     </row>
-    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
         <v>2022</v>
       </c>
@@ -35602,7 +35605,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6">
         <v>2022</v>
       </c>
@@ -35665,7 +35668,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6">
         <v>2022</v>
       </c>
@@ -35728,7 +35731,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
         <v>2022</v>
       </c>
@@ -35791,7 +35794,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
         <v>2022</v>
       </c>
@@ -35862,7 +35865,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -35929,7 +35932,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
         <v>2022</v>
       </c>
@@ -35988,7 +35991,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -36047,7 +36050,7 @@
       <c r="X606" s="10"/>
       <c r="Y606" s="7"/>
     </row>
-    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
         <v>2022</v>
       </c>
@@ -36118,7 +36121,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
         <v>2022</v>
       </c>
@@ -36189,7 +36192,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
         <v>2022</v>
       </c>
@@ -36260,7 +36263,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
         <v>2022</v>
       </c>
@@ -36323,7 +36326,7 @@
       <c r="X610" s="10"/>
       <c r="Y610" s="7"/>
     </row>
-    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
         <v>2022</v>
       </c>
@@ -36394,7 +36397,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
         <v>2022</v>
       </c>
@@ -36453,7 +36456,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
         <v>2022</v>
       </c>
@@ -36524,7 +36527,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -36589,7 +36592,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
         <v>2022</v>
       </c>
@@ -36640,7 +36643,7 @@
       <c r="X615" s="10"/>
       <c r="Y615" s="7"/>
     </row>
-    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
         <v>2022</v>
       </c>
@@ -36691,7 +36694,7 @@
       <c r="X616" s="10"/>
       <c r="Y616" s="7"/>
     </row>
-    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
         <v>2022</v>
       </c>
@@ -36746,7 +36749,7 @@
       <c r="X617" s="10"/>
       <c r="Y617" s="7"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -36803,7 +36806,7 @@
       <c r="X618" s="10"/>
       <c r="Y618" s="7"/>
     </row>
-    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -36854,7 +36857,7 @@
       <c r="X619" s="10"/>
       <c r="Y619" s="7"/>
     </row>
-    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
         <v>2022</v>
       </c>
@@ -36903,7 +36906,7 @@
       <c r="X620" s="10"/>
       <c r="Y620" s="7"/>
     </row>
-    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -36960,7 +36963,7 @@
       <c r="X621" s="10"/>
       <c r="Y621" s="7"/>
     </row>
-    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -37017,7 +37020,7 @@
       <c r="X622" s="10"/>
       <c r="Y622" s="7"/>
     </row>
-    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -37080,7 +37083,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
         <v>2022</v>
       </c>
@@ -37139,7 +37142,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -37204,7 +37207,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -37269,7 +37272,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -37330,7 +37333,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
         <v>2022</v>
       </c>
@@ -37391,7 +37394,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -37452,7 +37455,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6">
         <v>2022</v>
       </c>
@@ -37513,7 +37516,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -37578,7 +37581,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
         <v>2022</v>
       </c>
@@ -37631,7 +37634,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
         <v>2022</v>
       </c>
@@ -37702,7 +37705,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -37767,7 +37770,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -37832,7 +37835,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -37891,7 +37894,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -37950,7 +37953,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -38015,7 +38018,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -38076,7 +38079,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
         <v>2022</v>
       </c>
@@ -38133,7 +38136,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -38198,7 +38201,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -38263,7 +38266,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
         <v>2022</v>
       </c>
@@ -38334,7 +38337,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -38391,7 +38394,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -38448,7 +38451,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
         <v>2022</v>
       </c>
@@ -38507,7 +38510,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
         <v>2022</v>
       </c>
@@ -38570,7 +38573,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
         <v>2022</v>
       </c>
@@ -38633,7 +38636,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
         <v>2022</v>
       </c>
@@ -38686,7 +38689,7 @@
       <c r="X649" s="10"/>
       <c r="Y649" s="7"/>
     </row>
-    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -38751,7 +38754,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
         <v>2022</v>
       </c>
@@ -38804,7 +38807,7 @@
       <c r="X651" s="10"/>
       <c r="Y651" s="7"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -38855,7 +38858,7 @@
       <c r="X652" s="10"/>
       <c r="Y652" s="7"/>
     </row>
-    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
         <v>2022</v>
       </c>
@@ -38918,7 +38921,7 @@
       <c r="X653" s="10"/>
       <c r="Y653" s="7"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -38973,7 +38976,7 @@
       <c r="X654" s="10"/>
       <c r="Y654" s="7"/>
     </row>
-    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -39024,7 +39027,7 @@
       <c r="X655" s="10"/>
       <c r="Y655" s="7"/>
     </row>
-    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
         <v>2022</v>
       </c>
@@ -39087,7 +39090,7 @@
       <c r="X656" s="10"/>
       <c r="Y656" s="7"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -39140,7 +39143,7 @@
       <c r="X657" s="10"/>
       <c r="Y657" s="7"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -39191,7 +39194,7 @@
       <c r="X658" s="10"/>
       <c r="Y658" s="7"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -39244,7 +39247,7 @@
       <c r="X659" s="10"/>
       <c r="Y659" s="7"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -39297,7 +39300,7 @@
       <c r="X660" s="10"/>
       <c r="Y660" s="7"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -39354,7 +39357,7 @@
       <c r="X661" s="10"/>
       <c r="Y661" s="7"/>
     </row>
-    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
         <v>2022</v>
       </c>
@@ -39399,7 +39402,7 @@
       <c r="X662" s="10"/>
       <c r="Y662" s="7"/>
     </row>
-    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -39452,7 +39455,7 @@
       <c r="X663" s="10"/>
       <c r="Y663" s="7"/>
     </row>
-    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -39505,7 +39508,7 @@
       <c r="X664" s="10"/>
       <c r="Y664" s="7"/>
     </row>
-    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -39562,7 +39565,7 @@
       <c r="X665" s="10"/>
       <c r="Y665" s="7"/>
     </row>
-    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -39615,7 +39618,7 @@
       <c r="X666" s="10"/>
       <c r="Y666" s="7"/>
     </row>
-    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
         <v>2022</v>
       </c>
@@ -39668,7 +39671,7 @@
       <c r="X667" s="10"/>
       <c r="Y667" s="7"/>
     </row>
-    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
         <v>2022</v>
       </c>
@@ -39723,7 +39726,7 @@
       <c r="X668" s="10"/>
       <c r="Y668" s="7"/>
     </row>
-    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
         <v>2022</v>
       </c>
@@ -39776,7 +39779,7 @@
       <c r="X669" s="10"/>
       <c r="Y669" s="7"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -39828,7 +39831,7 @@
       <c r="X670" s="10"/>
       <c r="Y670" s="7"/>
     </row>
-    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -39883,7 +39886,7 @@
       <c r="X671" s="10"/>
       <c r="Y671" s="7"/>
     </row>
-    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -39938,7 +39941,7 @@
       <c r="X672" s="10"/>
       <c r="Y672" s="7"/>
     </row>
-    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
         <v>2022</v>
       </c>
@@ -39999,7 +40002,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
         <v>2022</v>
       </c>
@@ -40058,7 +40061,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
         <v>2022</v>
       </c>
@@ -40119,7 +40122,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
         <v>2022</v>
       </c>
@@ -40182,7 +40185,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
         <v>2022</v>
       </c>
@@ -40245,7 +40248,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -40302,7 +40305,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -40362,7 +40365,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11">
         <v>2023</v>
       </c>
@@ -40422,7 +40425,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="11">
         <v>2023</v>
       </c>
@@ -40482,7 +40485,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -40540,7 +40543,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -40600,7 +40603,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -40658,7 +40661,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -40717,7 +40720,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -40776,7 +40779,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="11">
         <v>2023</v>
       </c>
@@ -40838,7 +40841,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -40896,7 +40899,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="11">
         <v>2023</v>
       </c>
@@ -40954,7 +40957,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="11">
         <v>2023</v>
       </c>
@@ -41006,7 +41009,7 @@
       <c r="X690" s="10"/>
       <c r="Y690" s="3"/>
     </row>
-    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="11">
         <v>2023</v>
       </c>
@@ -41062,7 +41065,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -41124,7 +41127,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -41186,7 +41189,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="11">
         <v>2023</v>
       </c>
@@ -41240,7 +41243,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="11">
         <v>2023</v>
       </c>
@@ -41297,7 +41300,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -41359,7 +41362,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="11">
         <v>2023</v>
       </c>
@@ -41411,7 +41414,7 @@
       <c r="X697" s="10"/>
       <c r="Y697" s="7"/>
     </row>
-    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -41471,7 +41474,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="11">
         <v>2023</v>
       </c>
@@ -41522,7 +41525,7 @@
       <c r="X699" s="10"/>
       <c r="Y699" s="7"/>
     </row>
-    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -41574,7 +41577,7 @@
       <c r="X700" s="10"/>
       <c r="Y700" s="7"/>
     </row>
-    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="11">
         <v>2023</v>
       </c>
@@ -41624,7 +41627,7 @@
       <c r="X701" s="10"/>
       <c r="Y701" s="7"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -41686,7 +41689,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -41738,7 +41741,7 @@
       <c r="X703" s="10"/>
       <c r="Y703" s="7"/>
     </row>
-    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="11">
         <v>2023</v>
       </c>
@@ -41790,7 +41793,7 @@
       <c r="X704" s="10"/>
       <c r="Y704" s="7"/>
     </row>
-    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -41840,7 +41843,7 @@
       <c r="X705" s="10"/>
       <c r="Y705" s="7"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -41892,7 +41895,7 @@
       <c r="X706" s="10"/>
       <c r="Y706" s="7"/>
     </row>
-    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="11">
         <v>2023</v>
       </c>
@@ -41944,7 +41947,7 @@
       <c r="X707" s="10"/>
       <c r="Y707" s="7"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -41998,7 +42001,7 @@
       <c r="X708" s="10"/>
       <c r="Y708" s="7"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -42050,7 +42053,7 @@
       <c r="X709" s="10"/>
       <c r="Y709" s="7"/>
     </row>
-    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -42114,7 +42117,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -42176,7 +42179,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="11">
         <v>2023</v>
       </c>
@@ -42236,7 +42239,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -42296,7 +42299,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -42357,7 +42360,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -42417,7 +42420,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -42481,7 +42484,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -42543,7 +42546,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -42603,7 +42606,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -42663,7 +42666,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -42720,7 +42723,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -42778,7 +42781,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="11">
         <v>2023</v>
       </c>
@@ -42836,7 +42839,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -42886,7 +42889,7 @@
       <c r="X723" s="10"/>
       <c r="Y723" s="7"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -42947,7 +42950,7 @@
       <c r="X724" s="10"/>
       <c r="Y724" s="7"/>
     </row>
-    <row r="725" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -43007,7 +43010,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -43061,7 +43064,7 @@
       <c r="X726" s="10"/>
       <c r="Y726" s="7"/>
     </row>
-    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -43109,7 +43112,7 @@
       <c r="X727" s="10"/>
       <c r="Y727" s="7"/>
     </row>
-    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="11">
         <v>2023</v>
       </c>
@@ -43160,7 +43163,7 @@
       <c r="X728" s="10"/>
       <c r="Y728" s="7"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -43214,7 +43217,7 @@
       <c r="X729" s="10"/>
       <c r="Y729" s="7"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -43264,7 +43267,7 @@
       <c r="X730" s="10"/>
       <c r="Y730" s="7"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -43314,7 +43317,7 @@
       <c r="X731" s="10"/>
       <c r="Y731" s="7"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -43364,7 +43367,7 @@
       <c r="X732" s="10"/>
       <c r="Y732" s="7"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -43422,7 +43425,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="11">
         <v>2023</v>
       </c>
@@ -43483,7 +43486,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="11">
         <v>2023</v>
       </c>
@@ -43536,7 +43539,7 @@
       <c r="X735" s="10"/>
       <c r="Y735" s="7"/>
     </row>
-    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="11">
         <v>2023</v>
       </c>
@@ -43597,7 +43600,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="11">
         <v>2023</v>
       </c>
@@ -43637,7 +43640,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -43682,7 +43685,7 @@
       <c r="X738" s="10"/>
       <c r="Y738" s="7"/>
     </row>
-    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="11">
         <v>2023</v>
       </c>
@@ -43730,7 +43733,7 @@
       <c r="X739" s="10"/>
       <c r="Y739" s="7"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -43777,7 +43780,7 @@
       <c r="X740" s="10"/>
       <c r="Y740" s="7"/>
     </row>
-    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="11">
         <v>2023</v>
       </c>
@@ -43827,7 +43830,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="11">
         <v>2023</v>
       </c>
@@ -43892,7 +43895,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="11">
         <v>2023</v>
       </c>
@@ -43945,7 +43948,7 @@
       <c r="X743" s="10"/>
       <c r="Y743" s="7"/>
     </row>
-    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="11">
         <v>2023</v>
       </c>
@@ -43982,7 +43985,7 @@
       <c r="X744" s="10"/>
       <c r="Y744" s="7"/>
     </row>
-    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="11">
         <v>2023</v>
       </c>
@@ -44031,7 +44034,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -44090,7 +44093,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -44157,7 +44160,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="11">
         <v>2023</v>
       </c>
@@ -44216,7 +44219,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="11">
         <v>2023</v>
       </c>
@@ -44272,7 +44275,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -44335,7 +44338,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -44392,7 +44395,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="752" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="11">
         <v>2023</v>
       </c>
@@ -44457,7 +44460,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -44518,7 +44521,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -44579,7 +44582,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -44643,7 +44646,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="11">
         <v>2023</v>
       </c>
@@ -44692,7 +44695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="11">
         <v>2023</v>
       </c>
@@ -44755,7 +44758,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="11">
         <v>2023</v>
       </c>
@@ -44816,7 +44819,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -44879,7 +44882,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -44940,7 +44943,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="761" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="11">
         <v>2023</v>
       </c>
@@ -44991,7 +44994,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="762" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="11">
         <v>2023</v>
       </c>
@@ -45036,7 +45039,7 @@
       <c r="X762" s="10"/>
       <c r="Y762" s="7"/>
     </row>
-    <row r="763" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="11">
         <v>2023</v>
       </c>
@@ -45081,7 +45084,7 @@
       <c r="X763" s="10"/>
       <c r="Y763" s="7"/>
     </row>
-    <row r="764" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="11">
         <v>2023</v>
       </c>
@@ -45126,7 +45129,7 @@
       <c r="X764" s="10"/>
       <c r="Y764" s="7"/>
     </row>
-    <row r="765" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="11">
         <v>2023</v>
       </c>
@@ -45189,7 +45192,7 @@
       <c r="X765" s="10"/>
       <c r="Y765" s="7"/>
     </row>
-    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -45240,7 +45243,7 @@
       <c r="X766" s="10"/>
       <c r="Y766" s="7"/>
     </row>
-    <row r="767" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="11">
         <v>2023</v>
       </c>
@@ -45287,7 +45290,7 @@
       <c r="X767" s="10"/>
       <c r="Y767" s="7"/>
     </row>
-    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -45347,7 +45350,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -45396,7 +45399,7 @@
       <c r="X769" s="10"/>
       <c r="Y769" s="7"/>
     </row>
-    <row r="770" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="11">
         <v>2023</v>
       </c>
@@ -45464,7 +45467,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="771" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="11">
         <v>2023</v>
       </c>
@@ -45513,7 +45516,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="772" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="11">
         <v>2023</v>
       </c>
@@ -45575,7 +45578,7 @@
       <c r="W772" s="9"/>
       <c r="Y772" s="3"/>
     </row>
-    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -45624,7 +45627,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -45686,7 +45689,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -45751,7 +45754,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="776" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -45819,7 +45822,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="777" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -45882,7 +45885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="778" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -45942,7 +45945,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="779" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -46002,7 +46005,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -46065,7 +46068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -46126,7 +46129,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="782" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -46187,7 +46190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -46252,7 +46255,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="784" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -46310,7 +46313,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -46374,7 +46377,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="786" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -46435,7 +46438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -46495,7 +46498,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -46561,7 +46564,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -46621,7 +46624,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="790" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -46683,7 +46686,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="791" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -46748,7 +46751,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="792" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -46812,7 +46815,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="793" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -46873,7 +46876,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="794" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -46933,7 +46936,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="795" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -46993,7 +46996,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="796" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -47053,7 +47056,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="797" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -47110,7 +47113,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="798" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -47174,7 +47177,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="799" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -47232,7 +47235,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="800" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -47295,7 +47298,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="801" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -47353,7 +47356,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="802" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -47416,7 +47419,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="803" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -47482,7 +47485,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="804" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -47542,7 +47545,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="805" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -47594,7 +47597,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="806" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -47654,7 +47657,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="807" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -47714,7 +47717,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="808" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -47782,7 +47785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="809" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -47842,7 +47845,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="810" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -47900,7 +47903,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="811" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -47956,7 +47959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="812" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -48014,7 +48017,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="813" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -48070,7 +48073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="814" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -48135,7 +48138,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="815" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -48195,7 +48198,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="816" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2024</v>
       </c>
@@ -48257,7 +48260,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="817" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -48317,7 +48320,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="818" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -48377,7 +48380,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="819" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -48433,7 +48436,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="820" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -48489,7 +48492,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="821" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -48554,7 +48557,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -48608,7 +48611,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="823" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -48669,7 +48672,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="824" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -48733,7 +48736,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="825" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2024</v>
       </c>
@@ -48788,7 +48791,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="826" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2024</v>
       </c>
@@ -48846,7 +48849,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="827" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2024</v>
       </c>
@@ -48904,7 +48907,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="828" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2024</v>
       </c>
@@ -48961,7 +48964,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="829" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -49019,7 +49022,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="830" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -49077,7 +49080,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="831" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2024</v>
       </c>
@@ -49128,7 +49131,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -49186,7 +49189,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -49249,7 +49252,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -49305,7 +49308,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -49358,7 +49361,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="836" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2024</v>
       </c>
@@ -49420,7 +49423,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -49481,7 +49484,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="838" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -49545,7 +49548,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -49600,7 +49603,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="840" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2024</v>
       </c>
@@ -49660,7 +49663,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="841" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -49717,7 +49720,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -49778,7 +49781,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="843" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2024</v>
       </c>
@@ -49834,7 +49837,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -49899,7 +49902,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="845" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2024</v>
       </c>
@@ -49957,7 +49960,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="846" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2024</v>
       </c>
@@ -50015,7 +50018,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -50063,7 +50066,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -50113,7 +50116,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="849" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2024</v>
       </c>
@@ -50159,7 +50162,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="850" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2024</v>
       </c>
@@ -50195,7 +50198,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="851" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2024</v>
       </c>
@@ -50462,7 +50465,24 @@
       <c r="K884" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}"/>
+  <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2010"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="AN"/>
+        <filter val="K"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="GOOD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -50471,7 +50491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0832067-206C-4446-9E65-0236F880DBB6}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16C1506-1ED7-A743-8342-7D32894ED71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF98F3BE-8B81-7149-A1B5-131302C08F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13700" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5339,9 +5339,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB884"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J859" sqref="J859"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L866" sqref="L866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9917,7 +9917,7 @@
       <c r="W93" s="18"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="W122" s="18"/>
       <c r="X122" s="19"/>
     </row>
-    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -17034,7 +17034,7 @@
       <c r="W241" s="18"/>
       <c r="X241" s="19"/>
     </row>
-    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -17139,7 +17139,7 @@
       <c r="W243" s="18"/>
       <c r="X243" s="19"/>
     </row>
-    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -18680,7 +18680,7 @@
       <c r="W273" s="18"/>
       <c r="X273" s="19"/>
     </row>
-    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -50468,13 +50468,14 @@
   <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2010"/>
+        <filter val="2015"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="AN"/>
-        <filter val="K"/>
+        <filter val="AR"/>
+        <filter val="L"/>
+        <filter val="N"/>
       </filters>
     </filterColumn>
     <filterColumn colId="9">
@@ -50491,7 +50492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0832067-206C-4446-9E65-0236F880DBB6}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF98F3BE-8B81-7149-A1B5-131302C08F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7439D34-6976-9140-9A93-810E537C2A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13700" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -5336,11 +5336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A829" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L866" sqref="L866"/>
     </sheetView>
   </sheetViews>
@@ -5441,7 +5440,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5496,7 +5495,7 @@
       </c>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5546,7 +5545,7 @@
       </c>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5599,7 +5598,7 @@
       </c>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5650,7 +5649,7 @@
       </c>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -5705,7 +5704,7 @@
       </c>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5751,7 +5750,7 @@
       <c r="W7" s="18"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5800,7 +5799,7 @@
       </c>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5846,7 +5845,7 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5896,7 +5895,7 @@
       </c>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5949,7 +5948,7 @@
       </c>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -6007,7 +6006,7 @@
       </c>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -6065,7 +6064,7 @@
       </c>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6115,7 +6114,7 @@
       </c>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6161,7 +6160,7 @@
       <c r="W15" s="18"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6210,7 +6209,7 @@
       </c>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6260,7 +6259,7 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6309,7 +6308,7 @@
       <c r="W18"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6357,7 +6356,7 @@
       </c>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6407,7 +6406,7 @@
       </c>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6461,7 +6460,7 @@
       </c>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6507,7 +6506,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6566,7 +6565,7 @@
       </c>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6610,7 +6609,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6654,7 +6653,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6694,7 +6693,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6742,7 +6741,7 @@
       </c>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6786,7 +6785,7 @@
       <c r="W28" s="18"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6830,7 +6829,7 @@
       <c r="W29" s="18"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6873,7 +6872,7 @@
       </c>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6921,7 +6920,7 @@
       </c>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6969,7 +6968,7 @@
       </c>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -7022,7 +7021,7 @@
       </c>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -7066,7 +7065,7 @@
       <c r="W34" s="18"/>
       <c r="X34" s="19"/>
     </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7107,7 +7106,7 @@
       <c r="W35" s="18"/>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7161,7 +7160,7 @@
       </c>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7213,7 +7212,7 @@
       </c>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7271,7 +7270,7 @@
       </c>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7318,7 +7317,7 @@
       <c r="W39" s="18"/>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7362,7 +7361,7 @@
       <c r="W40" s="18"/>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7414,7 +7413,7 @@
       </c>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7462,7 +7461,7 @@
       </c>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7560,7 +7559,7 @@
       </c>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7618,7 +7617,7 @@
       </c>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7665,7 +7664,7 @@
       </c>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7709,7 +7708,7 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7757,7 +7756,7 @@
       </c>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7805,7 +7804,7 @@
       </c>
       <c r="X49"/>
     </row>
-    <row r="50" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7853,7 +7852,7 @@
       </c>
       <c r="X50"/>
     </row>
-    <row r="51" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7904,7 +7903,7 @@
       </c>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7951,7 +7950,7 @@
       </c>
       <c r="X52"/>
     </row>
-    <row r="53" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7999,7 +7998,7 @@
       </c>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -8052,7 +8051,7 @@
       </c>
       <c r="X54"/>
     </row>
-    <row r="55" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -8099,7 +8098,7 @@
       <c r="W55" s="18"/>
       <c r="X55" s="19"/>
     </row>
-    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8148,7 +8147,7 @@
       <c r="W56" s="18"/>
       <c r="X56" s="19"/>
     </row>
-    <row r="57" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -8197,7 +8196,7 @@
       <c r="W57" s="18"/>
       <c r="X57" s="19"/>
     </row>
-    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8250,7 +8249,7 @@
       <c r="W58" s="18"/>
       <c r="X58" s="19"/>
     </row>
-    <row r="59" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -8299,7 +8298,7 @@
       <c r="W59" s="18"/>
       <c r="X59" s="19"/>
     </row>
-    <row r="60" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8347,7 +8346,7 @@
       <c r="W60" s="18"/>
       <c r="X60" s="19"/>
     </row>
-    <row r="61" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8395,7 +8394,7 @@
       <c r="W61" s="18"/>
       <c r="X61" s="19"/>
     </row>
-    <row r="62" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8439,7 +8438,7 @@
       <c r="W62" s="18"/>
       <c r="X62" s="19"/>
     </row>
-    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8483,7 +8482,7 @@
       <c r="W63" s="18"/>
       <c r="X63" s="19"/>
     </row>
-    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8534,7 +8533,7 @@
       <c r="W64" s="18"/>
       <c r="X64" s="19"/>
     </row>
-    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -8583,7 +8582,7 @@
       <c r="W65" s="18"/>
       <c r="X65" s="19"/>
     </row>
-    <row r="66" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8627,7 +8626,7 @@
       <c r="W66" s="18"/>
       <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8676,7 +8675,7 @@
       <c r="W67" s="18"/>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8725,7 +8724,7 @@
       <c r="W68" s="18"/>
       <c r="X68" s="19"/>
     </row>
-    <row r="69" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8769,7 +8768,7 @@
       <c r="W69" s="18"/>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8813,7 +8812,7 @@
       <c r="W70" s="18"/>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8855,7 +8854,7 @@
       <c r="W71" s="18"/>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2009</v>
       </c>
@@ -8901,7 +8900,7 @@
       <c r="W72" s="18"/>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -8947,7 +8946,7 @@
       <c r="W73" s="18"/>
       <c r="X73" s="19"/>
     </row>
-    <row r="74" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2009</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="W74" s="18"/>
       <c r="X74" s="19"/>
     </row>
-    <row r="75" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -9042,7 +9041,7 @@
       <c r="W75" s="18"/>
       <c r="X75" s="19"/>
     </row>
-    <row r="76" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -9091,7 +9090,7 @@
       <c r="W76" s="18"/>
       <c r="X76" s="19"/>
     </row>
-    <row r="77" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2009</v>
       </c>
@@ -9142,7 +9141,7 @@
       <c r="W77" s="18"/>
       <c r="X77" s="19"/>
     </row>
-    <row r="78" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2009</v>
       </c>
@@ -9191,7 +9190,7 @@
       <c r="W78" s="18"/>
       <c r="X78" s="19"/>
     </row>
-    <row r="79" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2009</v>
       </c>
@@ -9240,7 +9239,7 @@
       <c r="W79" s="18"/>
       <c r="X79" s="19"/>
     </row>
-    <row r="80" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2009</v>
       </c>
@@ -9289,7 +9288,7 @@
       <c r="W80" s="18"/>
       <c r="X80" s="19"/>
     </row>
-    <row r="81" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2009</v>
       </c>
@@ -9338,7 +9337,7 @@
       <c r="W81" s="18"/>
       <c r="X81" s="19"/>
     </row>
-    <row r="82" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2009</v>
       </c>
@@ -9391,7 +9390,7 @@
       <c r="W82" s="18"/>
       <c r="X82" s="19"/>
     </row>
-    <row r="83" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2009</v>
       </c>
@@ -9447,7 +9446,7 @@
       <c r="W83" s="18"/>
       <c r="X83" s="19"/>
     </row>
-    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -9486,7 +9485,7 @@
       <c r="W84" s="18"/>
       <c r="X84" s="19"/>
     </row>
-    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -9527,7 +9526,7 @@
       <c r="W85" s="18"/>
       <c r="X85" s="19"/>
     </row>
-    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9575,7 +9574,7 @@
       <c r="W86" s="18"/>
       <c r="X86" s="19"/>
     </row>
-    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9623,7 +9622,7 @@
       <c r="W87" s="18"/>
       <c r="X87" s="19"/>
     </row>
-    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9671,7 +9670,7 @@
       <c r="W88" s="18"/>
       <c r="X88" s="19"/>
     </row>
-    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9719,7 +9718,7 @@
       <c r="W89" s="18"/>
       <c r="X89" s="19"/>
     </row>
-    <row r="90" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -9769,7 +9768,7 @@
       <c r="W90" s="18"/>
       <c r="X90" s="19"/>
     </row>
-    <row r="91" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2010</v>
       </c>
@@ -9817,7 +9816,7 @@
       <c r="W91" s="18"/>
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -9867,7 +9866,7 @@
       <c r="W92" s="18"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -9917,7 +9916,7 @@
       <c r="W93" s="18"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -9966,7 +9965,7 @@
       <c r="W94" s="18"/>
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2010</v>
       </c>
@@ -10019,7 +10018,7 @@
       <c r="W95" s="18"/>
       <c r="X95" s="19"/>
     </row>
-    <row r="96" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2010</v>
       </c>
@@ -10068,7 +10067,7 @@
       <c r="W96" s="18"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -10112,7 +10111,7 @@
       <c r="W97" s="18"/>
       <c r="X97" s="19"/>
     </row>
-    <row r="98" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2010</v>
       </c>
@@ -10160,7 +10159,7 @@
       <c r="W98" s="18"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10208,7 +10207,7 @@
       <c r="W99" s="18"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10256,7 +10255,7 @@
       <c r="W100" s="18"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -10308,7 +10307,7 @@
       <c r="W101" s="18"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -10355,7 +10354,7 @@
       <c r="W102" s="18"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10403,7 +10402,7 @@
       <c r="W103" s="18"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -10453,7 +10452,7 @@
       <c r="W104" s="18"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10501,7 +10500,7 @@
       <c r="W105" s="18"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -10544,7 +10543,7 @@
       <c r="W106" s="18"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10597,7 +10596,7 @@
       <c r="W107" s="18"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10645,7 +10644,7 @@
       <c r="W108" s="18"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -10695,7 +10694,7 @@
       <c r="W109" s="18"/>
       <c r="X109" s="19"/>
     </row>
-    <row r="110" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -10749,7 +10748,7 @@
       <c r="W110" s="18"/>
       <c r="X110" s="19"/>
     </row>
-    <row r="111" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -10798,7 +10797,7 @@
       <c r="W111" s="18"/>
       <c r="X111" s="19"/>
     </row>
-    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10852,7 +10851,7 @@
       <c r="W112" s="18"/>
       <c r="X112" s="19"/>
     </row>
-    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -10899,7 +10898,7 @@
       <c r="W113" s="18"/>
       <c r="X113" s="19"/>
     </row>
-    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10950,7 +10949,7 @@
       <c r="W114" s="18"/>
       <c r="X114" s="19"/>
     </row>
-    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -11002,7 +11001,7 @@
       <c r="W115" s="18"/>
       <c r="X115" s="19"/>
     </row>
-    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -11054,7 +11053,7 @@
       <c r="W116" s="18"/>
       <c r="X116" s="19"/>
     </row>
-    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -11104,7 +11103,7 @@
       <c r="W117" s="18"/>
       <c r="X117" s="19"/>
     </row>
-    <row r="118" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -11156,7 +11155,7 @@
       <c r="W118" s="18"/>
       <c r="X118" s="19"/>
     </row>
-    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -11205,7 +11204,7 @@
       <c r="W119" s="18"/>
       <c r="X119" s="19"/>
     </row>
-    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11257,7 +11256,7 @@
       <c r="W120" s="18"/>
       <c r="X120" s="19"/>
     </row>
-    <row r="121" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -11302,7 +11301,7 @@
       <c r="W121" s="18"/>
       <c r="X121" s="19"/>
     </row>
-    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11357,7 +11356,7 @@
       <c r="W122" s="18"/>
       <c r="X122" s="19"/>
     </row>
-    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -11399,7 +11398,7 @@
       <c r="W123" s="18"/>
       <c r="X123" s="19"/>
     </row>
-    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -11446,7 +11445,7 @@
       <c r="W124" s="18"/>
       <c r="X124" s="19"/>
     </row>
-    <row r="125" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -11500,7 +11499,7 @@
       <c r="W125" s="18"/>
       <c r="X125" s="19"/>
     </row>
-    <row r="126" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2010</v>
       </c>
@@ -11546,7 +11545,7 @@
       <c r="W126" s="18"/>
       <c r="X126" s="19"/>
     </row>
-    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -11597,7 +11596,7 @@
       <c r="W127" s="18"/>
       <c r="X127" s="19"/>
     </row>
-    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -11649,7 +11648,7 @@
       <c r="W128" s="18"/>
       <c r="X128" s="19"/>
     </row>
-    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11703,7 +11702,7 @@
       <c r="W129" s="18"/>
       <c r="X129" s="19"/>
     </row>
-    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11752,7 +11751,7 @@
       <c r="W130" s="18"/>
       <c r="X130" s="19"/>
     </row>
-    <row r="131" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2010</v>
       </c>
@@ -11806,7 +11805,7 @@
       <c r="W131" s="18"/>
       <c r="X131" s="19"/>
     </row>
-    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -11860,7 +11859,7 @@
       <c r="W132" s="18"/>
       <c r="X132" s="19"/>
     </row>
-    <row r="133" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -11909,7 +11908,7 @@
       <c r="W133" s="18"/>
       <c r="X133" s="19"/>
     </row>
-    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -11960,7 +11959,7 @@
       <c r="W134" s="18"/>
       <c r="X134" s="19"/>
     </row>
-    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -12009,7 +12008,7 @@
       <c r="W135" s="18"/>
       <c r="X135" s="19"/>
     </row>
-    <row r="136" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -12058,7 +12057,7 @@
       <c r="W136" s="18"/>
       <c r="X136" s="19"/>
     </row>
-    <row r="137" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2010</v>
       </c>
@@ -12110,7 +12109,7 @@
       <c r="W137" s="18"/>
       <c r="X137" s="19"/>
     </row>
-    <row r="138" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2010</v>
       </c>
@@ -12148,7 +12147,7 @@
       <c r="W138" s="18"/>
       <c r="X138" s="19"/>
     </row>
-    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -12194,7 +12193,7 @@
       <c r="W139" s="18"/>
       <c r="X139" s="19"/>
     </row>
-    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -12241,7 +12240,7 @@
       <c r="W140" s="18"/>
       <c r="X140" s="19"/>
     </row>
-    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -12291,7 +12290,7 @@
       <c r="W141" s="18"/>
       <c r="X141" s="19"/>
     </row>
-    <row r="142" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2010</v>
       </c>
@@ -12338,7 +12337,7 @@
       <c r="W142" s="18"/>
       <c r="X142" s="19"/>
     </row>
-    <row r="143" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2010</v>
       </c>
@@ -12388,7 +12387,7 @@
       <c r="W143" s="18"/>
       <c r="X143" s="19"/>
     </row>
-    <row r="144" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2010</v>
       </c>
@@ -12435,7 +12434,7 @@
       <c r="W144" s="18"/>
       <c r="X144" s="19"/>
     </row>
-    <row r="145" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2013</v>
       </c>
@@ -12481,7 +12480,7 @@
       <c r="W145" s="18"/>
       <c r="X145" s="19"/>
     </row>
-    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -12523,7 +12522,7 @@
       <c r="W146" s="18"/>
       <c r="X146" s="19"/>
     </row>
-    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -12565,7 +12564,7 @@
       <c r="W147" s="18"/>
       <c r="X147" s="19"/>
     </row>
-    <row r="148" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -12610,7 +12609,7 @@
       <c r="W148" s="18"/>
       <c r="X148" s="19"/>
     </row>
-    <row r="149" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>2013</v>
       </c>
@@ -12655,7 +12654,7 @@
       <c r="W149" s="18"/>
       <c r="X149" s="19"/>
     </row>
-    <row r="150" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>2013</v>
       </c>
@@ -12695,7 +12694,7 @@
       <c r="W150" s="18"/>
       <c r="X150" s="19"/>
     </row>
-    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -12734,7 +12733,7 @@
       <c r="W151" s="18"/>
       <c r="X151" s="19"/>
     </row>
-    <row r="152" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>2013</v>
       </c>
@@ -12781,7 +12780,7 @@
       <c r="W152" s="18"/>
       <c r="X152" s="19"/>
     </row>
-    <row r="153" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>2013</v>
       </c>
@@ -12815,7 +12814,7 @@
       <c r="W153" s="18"/>
       <c r="X153" s="19"/>
     </row>
-    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -12851,7 +12850,7 @@
       <c r="W154" s="18"/>
       <c r="X154" s="19"/>
     </row>
-    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -12887,7 +12886,7 @@
       <c r="W155" s="18"/>
       <c r="X155" s="19"/>
     </row>
-    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -12923,7 +12922,7 @@
       <c r="W156" s="18"/>
       <c r="X156" s="19"/>
     </row>
-    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12968,7 +12967,7 @@
       <c r="W157" s="18"/>
       <c r="X157" s="19"/>
     </row>
-    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -13013,7 +13012,7 @@
       <c r="W158" s="18"/>
       <c r="X158" s="19"/>
     </row>
-    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -13058,7 +13057,7 @@
       <c r="W159" s="18"/>
       <c r="X159" s="19"/>
     </row>
-    <row r="160" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>2013</v>
       </c>
@@ -13105,7 +13104,7 @@
       <c r="W160" s="18"/>
       <c r="X160" s="19"/>
     </row>
-    <row r="161" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>2013</v>
       </c>
@@ -13146,7 +13145,7 @@
       <c r="W161" s="18"/>
       <c r="X161" s="19"/>
     </row>
-    <row r="162" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>2013</v>
       </c>
@@ -13184,7 +13183,7 @@
       <c r="W162" s="18"/>
       <c r="X162" s="19"/>
     </row>
-    <row r="163" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>2013</v>
       </c>
@@ -13223,7 +13222,7 @@
       <c r="W163" s="18"/>
       <c r="X163" s="19"/>
     </row>
-    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -13259,7 +13258,7 @@
       <c r="W164" s="18"/>
       <c r="X164" s="19"/>
     </row>
-    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -13301,7 +13300,7 @@
       <c r="W165" s="18"/>
       <c r="X165" s="19"/>
     </row>
-    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -13337,7 +13336,7 @@
       <c r="W166" s="18"/>
       <c r="X166" s="19"/>
     </row>
-    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -13373,7 +13372,7 @@
       <c r="W167" s="18"/>
       <c r="X167" s="19"/>
     </row>
-    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -13409,7 +13408,7 @@
       <c r="W168" s="18"/>
       <c r="X168" s="19"/>
     </row>
-    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -13465,7 +13464,7 @@
       <c r="W169" s="18"/>
       <c r="X169" s="19"/>
     </row>
-    <row r="170" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>2014</v>
       </c>
@@ -13520,7 +13519,7 @@
       <c r="W170" s="18"/>
       <c r="X170" s="19"/>
     </row>
-    <row r="171" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>2014</v>
       </c>
@@ -13572,7 +13571,7 @@
       <c r="W171" s="18"/>
       <c r="X171" s="19"/>
     </row>
-    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13623,7 +13622,7 @@
       <c r="W172" s="18"/>
       <c r="X172" s="19"/>
     </row>
-    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -13674,7 +13673,7 @@
       <c r="W173" s="18"/>
       <c r="X173" s="19"/>
     </row>
-    <row r="174" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>2014</v>
       </c>
@@ -13720,7 +13719,7 @@
       <c r="W174" s="18"/>
       <c r="X174" s="19"/>
     </row>
-    <row r="175" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>2014</v>
       </c>
@@ -13772,7 +13771,7 @@
       <c r="W175" s="18"/>
       <c r="X175" s="19"/>
     </row>
-    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -13817,7 +13816,7 @@
       <c r="W176" s="18"/>
       <c r="X176" s="19"/>
     </row>
-    <row r="177" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>2014</v>
       </c>
@@ -13865,7 +13864,7 @@
       <c r="W177" s="18"/>
       <c r="X177" s="19"/>
     </row>
-    <row r="178" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>2014</v>
       </c>
@@ -13911,7 +13910,7 @@
       <c r="W178" s="18"/>
       <c r="X178" s="19"/>
     </row>
-    <row r="179" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>2014</v>
       </c>
@@ -13957,7 +13956,7 @@
       <c r="W179" s="18"/>
       <c r="X179" s="19"/>
     </row>
-    <row r="180" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>2014</v>
       </c>
@@ -14008,7 +14007,7 @@
       <c r="W180" s="18"/>
       <c r="X180" s="19"/>
     </row>
-    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -14050,7 +14049,7 @@
       <c r="W181" s="18"/>
       <c r="X181" s="19"/>
     </row>
-    <row r="182" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>2014</v>
       </c>
@@ -14105,7 +14104,7 @@
       <c r="W182" s="18"/>
       <c r="X182" s="19"/>
     </row>
-    <row r="183" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>2014</v>
       </c>
@@ -14153,7 +14152,7 @@
       <c r="W183" s="18"/>
       <c r="X183" s="19"/>
     </row>
-    <row r="184" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>2014</v>
       </c>
@@ -14198,7 +14197,7 @@
       <c r="W184" s="18"/>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>2014</v>
       </c>
@@ -14241,7 +14240,7 @@
       <c r="W185" s="18"/>
       <c r="X185" s="19"/>
     </row>
-    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -14286,7 +14285,7 @@
       <c r="W186" s="18"/>
       <c r="X186" s="19"/>
     </row>
-    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -14331,7 +14330,7 @@
       <c r="W187" s="18"/>
       <c r="X187" s="19"/>
     </row>
-    <row r="188" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -14382,7 +14381,7 @@
       <c r="W188" s="18"/>
       <c r="X188" s="19"/>
     </row>
-    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -14424,7 +14423,7 @@
       <c r="W189" s="18"/>
       <c r="X189" s="19"/>
     </row>
-    <row r="190" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>2014</v>
       </c>
@@ -14469,7 +14468,7 @@
       <c r="W190" s="18"/>
       <c r="X190" s="19"/>
     </row>
-    <row r="191" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>2014</v>
       </c>
@@ -14524,7 +14523,7 @@
       <c r="W191" s="18"/>
       <c r="X191" s="19"/>
     </row>
-    <row r="192" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>2014</v>
       </c>
@@ -14570,7 +14569,7 @@
       <c r="W192" s="18"/>
       <c r="X192" s="19"/>
     </row>
-    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -14614,7 +14613,7 @@
       <c r="W193" s="18"/>
       <c r="X193" s="19"/>
     </row>
-    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -14656,7 +14655,7 @@
       <c r="W194" s="18"/>
       <c r="X194" s="19"/>
     </row>
-    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -14698,7 +14697,7 @@
       <c r="W195" s="18"/>
       <c r="X195" s="19"/>
     </row>
-    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -14740,7 +14739,7 @@
       <c r="W196" s="18"/>
       <c r="X196" s="19"/>
     </row>
-    <row r="197" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>2014</v>
       </c>
@@ -14794,7 +14793,7 @@
       <c r="W197" s="18"/>
       <c r="X197" s="19"/>
     </row>
-    <row r="198" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>2014</v>
       </c>
@@ -14840,7 +14839,7 @@
       <c r="W198" s="18"/>
       <c r="X198" s="19"/>
     </row>
-    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -14882,7 +14881,7 @@
       <c r="W199" s="18"/>
       <c r="X199" s="19"/>
     </row>
-    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -14933,7 +14932,7 @@
       <c r="W200" s="18"/>
       <c r="X200" s="19"/>
     </row>
-    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -14978,7 +14977,7 @@
       <c r="W201" s="18"/>
       <c r="X201" s="19"/>
     </row>
-    <row r="202" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>2014</v>
       </c>
@@ -15035,7 +15034,7 @@
       <c r="W202" s="18"/>
       <c r="X202" s="19"/>
     </row>
-    <row r="203" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>2014</v>
       </c>
@@ -15081,7 +15080,7 @@
       <c r="W203" s="18"/>
       <c r="X203" s="19"/>
     </row>
-    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -15132,7 +15131,7 @@
       <c r="W204" s="18"/>
       <c r="X204" s="19"/>
     </row>
-    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -15183,7 +15182,7 @@
       <c r="W205" s="18"/>
       <c r="X205" s="19"/>
     </row>
-    <row r="206" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>2014</v>
       </c>
@@ -15237,7 +15236,7 @@
       <c r="W206" s="18"/>
       <c r="X206" s="19"/>
     </row>
-    <row r="207" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>2014</v>
       </c>
@@ -15291,7 +15290,7 @@
       <c r="W207" s="18"/>
       <c r="X207" s="19"/>
     </row>
-    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15339,7 +15338,7 @@
       <c r="W208" s="18"/>
       <c r="X208" s="19"/>
     </row>
-    <row r="209" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>2014</v>
       </c>
@@ -15396,7 +15395,7 @@
       <c r="W209" s="18"/>
       <c r="X209" s="19"/>
     </row>
-    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -15438,7 +15437,7 @@
       <c r="W210" s="18"/>
       <c r="X210" s="19"/>
     </row>
-    <row r="211" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>2014</v>
       </c>
@@ -15487,7 +15486,7 @@
       <c r="W211" s="18"/>
       <c r="X211" s="19"/>
     </row>
-    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15532,7 +15531,7 @@
       <c r="W212" s="18"/>
       <c r="X212" s="19"/>
     </row>
-    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15581,7 +15580,7 @@
       <c r="W213" s="18"/>
       <c r="X213" s="19"/>
     </row>
-    <row r="214" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>2014</v>
       </c>
@@ -15624,7 +15623,7 @@
       <c r="W214" s="18"/>
       <c r="X214" s="19"/>
     </row>
-    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -15681,7 +15680,7 @@
       <c r="W215" s="18"/>
       <c r="X215" s="19"/>
     </row>
-    <row r="216" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>2014</v>
       </c>
@@ -15739,7 +15738,7 @@
       <c r="W216" s="18"/>
       <c r="X216" s="19"/>
     </row>
-    <row r="217" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>2014</v>
       </c>
@@ -15789,7 +15788,7 @@
       <c r="W217" s="18"/>
       <c r="X217" s="19"/>
     </row>
-    <row r="218" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>2014</v>
       </c>
@@ -15846,7 +15845,7 @@
       <c r="W218" s="18"/>
       <c r="X218" s="19"/>
     </row>
-    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -15903,7 +15902,7 @@
       <c r="W219" s="18"/>
       <c r="X219" s="19"/>
     </row>
-    <row r="220" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>2014</v>
       </c>
@@ -15952,7 +15951,7 @@
       <c r="W220" s="18"/>
       <c r="X220" s="19"/>
     </row>
-    <row r="221" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>2014</v>
       </c>
@@ -16004,7 +16003,7 @@
       <c r="W221" s="18"/>
       <c r="X221" s="19"/>
     </row>
-    <row r="222" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>2014</v>
       </c>
@@ -16058,7 +16057,7 @@
       <c r="W222" s="18"/>
       <c r="X222" s="19"/>
     </row>
-    <row r="223" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>2014</v>
       </c>
@@ -16115,7 +16114,7 @@
       <c r="W223" s="18"/>
       <c r="X223" s="19"/>
     </row>
-    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -16167,7 +16166,7 @@
       <c r="W224" s="18"/>
       <c r="X224" s="19"/>
     </row>
-    <row r="225" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>2014</v>
       </c>
@@ -16219,7 +16218,7 @@
       <c r="W225" s="18"/>
       <c r="X225" s="19"/>
     </row>
-    <row r="226" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>2014</v>
       </c>
@@ -16276,7 +16275,7 @@
       <c r="W226" s="18"/>
       <c r="X226" s="19"/>
     </row>
-    <row r="227" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>2014</v>
       </c>
@@ -16328,7 +16327,7 @@
       <c r="W227" s="18"/>
       <c r="X227" s="19"/>
     </row>
-    <row r="228" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>2014</v>
       </c>
@@ -16382,7 +16381,7 @@
       <c r="W228" s="18"/>
       <c r="X228" s="19"/>
     </row>
-    <row r="229" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>2014</v>
       </c>
@@ -16431,7 +16430,7 @@
       <c r="W229" s="18"/>
       <c r="X229" s="19"/>
     </row>
-    <row r="230" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>2014</v>
       </c>
@@ -16477,7 +16476,7 @@
       <c r="W230" s="18"/>
       <c r="X230" s="19"/>
     </row>
-    <row r="231" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>2015</v>
       </c>
@@ -16532,7 +16531,7 @@
       <c r="W231" s="18"/>
       <c r="X231" s="19"/>
     </row>
-    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -16579,7 +16578,7 @@
       <c r="W232" s="18"/>
       <c r="X232" s="19"/>
     </row>
-    <row r="233" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>2015</v>
       </c>
@@ -16630,7 +16629,7 @@
       <c r="W233" s="18"/>
       <c r="X233" s="19"/>
     </row>
-    <row r="234" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>2015</v>
       </c>
@@ -16683,7 +16682,7 @@
       <c r="W234" s="18"/>
       <c r="X234" s="19"/>
     </row>
-    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -16735,7 +16734,7 @@
       <c r="W235" s="18"/>
       <c r="X235" s="19"/>
     </row>
-    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -16788,7 +16787,7 @@
       <c r="W236" s="18"/>
       <c r="X236" s="19"/>
     </row>
-    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -16837,7 +16836,7 @@
       <c r="W237" s="18"/>
       <c r="X237" s="19"/>
     </row>
-    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -16886,7 +16885,7 @@
       <c r="W238" s="18"/>
       <c r="X238" s="19"/>
     </row>
-    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -16935,7 +16934,7 @@
       <c r="W239" s="18"/>
       <c r="X239" s="19"/>
     </row>
-    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -16986,7 +16985,7 @@
       <c r="W240" s="18"/>
       <c r="X240" s="19"/>
     </row>
-    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -17089,7 +17088,7 @@
       <c r="W242" s="18"/>
       <c r="X242" s="19"/>
     </row>
-    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -17192,7 +17191,7 @@
       <c r="W244" s="18"/>
       <c r="X244" s="19"/>
     </row>
-    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -17243,7 +17242,7 @@
       <c r="W245" s="18"/>
       <c r="X245" s="19"/>
     </row>
-    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -17294,7 +17293,7 @@
       <c r="W246" s="18"/>
       <c r="X246" s="19"/>
     </row>
-    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17344,7 +17343,7 @@
       <c r="W247" s="18"/>
       <c r="X247" s="19"/>
     </row>
-    <row r="248" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>2015</v>
       </c>
@@ -17397,7 +17396,7 @@
       <c r="W248" s="18"/>
       <c r="X248" s="19"/>
     </row>
-    <row r="249" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>2015</v>
       </c>
@@ -17446,7 +17445,7 @@
       <c r="W249" s="18"/>
       <c r="X249" s="19"/>
     </row>
-    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -17503,7 +17502,7 @@
       <c r="W250" s="18"/>
       <c r="X250" s="19"/>
     </row>
-    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -17552,7 +17551,7 @@
       <c r="W251" s="18"/>
       <c r="X251" s="19"/>
     </row>
-    <row r="252" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>2015</v>
       </c>
@@ -17604,7 +17603,7 @@
       <c r="W252" s="18"/>
       <c r="X252" s="19"/>
     </row>
-    <row r="253" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>2015</v>
       </c>
@@ -17655,7 +17654,7 @@
       <c r="W253" s="18"/>
       <c r="X253" s="19"/>
     </row>
-    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -17703,7 +17702,7 @@
       <c r="W254" s="18"/>
       <c r="X254" s="19"/>
     </row>
-    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -17750,7 +17749,7 @@
       <c r="W255" s="18"/>
       <c r="X255" s="19"/>
     </row>
-    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -17801,7 +17800,7 @@
       <c r="W256" s="18"/>
       <c r="X256" s="19"/>
     </row>
-    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -17850,7 +17849,7 @@
       <c r="W257" s="18"/>
       <c r="X257" s="19"/>
     </row>
-    <row r="258" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>2015</v>
       </c>
@@ -17901,7 +17900,7 @@
       <c r="W258" s="18"/>
       <c r="X258" s="19"/>
     </row>
-    <row r="259" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>2015</v>
       </c>
@@ -17954,7 +17953,7 @@
       <c r="W259" s="18"/>
       <c r="X259" s="19"/>
     </row>
-    <row r="260" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>2015</v>
       </c>
@@ -18011,7 +18010,7 @@
       <c r="W260" s="18"/>
       <c r="X260" s="19"/>
     </row>
-    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -18064,7 +18063,7 @@
       <c r="W261" s="18"/>
       <c r="X261" s="19"/>
     </row>
-    <row r="262" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>2015</v>
       </c>
@@ -18117,7 +18116,7 @@
       <c r="W262" s="18"/>
       <c r="X262" s="19"/>
     </row>
-    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -18164,7 +18163,7 @@
       <c r="W263" s="18"/>
       <c r="X263" s="19"/>
     </row>
-    <row r="264" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>2015</v>
       </c>
@@ -18217,7 +18216,7 @@
       <c r="W264" s="18"/>
       <c r="X264" s="19"/>
     </row>
-    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -18270,7 +18269,7 @@
       <c r="W265" s="18"/>
       <c r="X265" s="19"/>
     </row>
-    <row r="266" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -18323,7 +18322,7 @@
       <c r="W266" s="18"/>
       <c r="X266" s="19"/>
     </row>
-    <row r="267" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>2015</v>
       </c>
@@ -18374,7 +18373,7 @@
       <c r="W267" s="18"/>
       <c r="X267" s="19"/>
     </row>
-    <row r="268" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>2015</v>
       </c>
@@ -18429,7 +18428,7 @@
       <c r="W268" s="18"/>
       <c r="X268" s="19"/>
     </row>
-    <row r="269" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>2015</v>
       </c>
@@ -18482,7 +18481,7 @@
       <c r="W269" s="18"/>
       <c r="X269" s="19"/>
     </row>
-    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -18537,7 +18536,7 @@
       <c r="W270" s="18"/>
       <c r="X270" s="19"/>
     </row>
-    <row r="271" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>2015</v>
       </c>
@@ -18588,7 +18587,7 @@
       <c r="W271" s="18"/>
       <c r="X271" s="19"/>
     </row>
-    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -18633,7 +18632,7 @@
       <c r="W272" s="18"/>
       <c r="X272" s="19"/>
     </row>
-    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18731,7 +18730,7 @@
       <c r="W274" s="18"/>
       <c r="X274" s="19"/>
     </row>
-    <row r="275" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>2015</v>
       </c>
@@ -18780,7 +18779,7 @@
       <c r="W275" s="18"/>
       <c r="X275" s="19"/>
     </row>
-    <row r="276" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>2015</v>
       </c>
@@ -18829,7 +18828,7 @@
       <c r="W276" s="18"/>
       <c r="X276" s="19"/>
     </row>
-    <row r="277" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>2015</v>
       </c>
@@ -18878,7 +18877,7 @@
       <c r="W277" s="18"/>
       <c r="X277" s="19"/>
     </row>
-    <row r="278" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>2015</v>
       </c>
@@ -18927,7 +18926,7 @@
       <c r="W278" s="18"/>
       <c r="X278" s="19"/>
     </row>
-    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -18974,7 +18973,7 @@
       <c r="W279" s="18"/>
       <c r="X279" s="19"/>
     </row>
-    <row r="280" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>2015</v>
       </c>
@@ -19023,7 +19022,7 @@
       <c r="W280" s="18"/>
       <c r="X280" s="19"/>
     </row>
-    <row r="281" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>2015</v>
       </c>
@@ -19074,7 +19073,7 @@
       <c r="W281" s="18"/>
       <c r="X281" s="19"/>
     </row>
-    <row r="282" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>2015</v>
       </c>
@@ -19121,7 +19120,7 @@
       <c r="W282" s="18"/>
       <c r="X282" s="19"/>
     </row>
-    <row r="283" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>2015</v>
       </c>
@@ -19173,7 +19172,7 @@
       <c r="W283" s="18"/>
       <c r="X283" s="19"/>
     </row>
-    <row r="284" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>2015</v>
       </c>
@@ -19220,7 +19219,7 @@
       <c r="W284" s="18"/>
       <c r="X284" s="19"/>
     </row>
-    <row r="285" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>2015</v>
       </c>
@@ -19269,7 +19268,7 @@
       <c r="W285" s="18"/>
       <c r="X285" s="19"/>
     </row>
-    <row r="286" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>2015</v>
       </c>
@@ -19316,7 +19315,7 @@
       <c r="W286" s="18"/>
       <c r="X286" s="19"/>
     </row>
-    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -19366,7 +19365,7 @@
       <c r="W287" s="18"/>
       <c r="X287" s="19"/>
     </row>
-    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -19414,7 +19413,7 @@
       <c r="W288" s="18"/>
       <c r="X288" s="19"/>
     </row>
-    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -19465,7 +19464,7 @@
       <c r="W289" s="18"/>
       <c r="X289" s="19"/>
     </row>
-    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19513,7 +19512,7 @@
       <c r="W290" s="18"/>
       <c r="X290" s="19"/>
     </row>
-    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -19556,7 +19555,7 @@
       <c r="W291" s="18"/>
       <c r="X291" s="19"/>
     </row>
-    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -19609,7 +19608,7 @@
       <c r="W292" s="18"/>
       <c r="X292" s="19"/>
     </row>
-    <row r="293" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>2015</v>
       </c>
@@ -19665,7 +19664,7 @@
       <c r="W293" s="18"/>
       <c r="X293" s="19"/>
     </row>
-    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19715,7 +19714,7 @@
       <c r="W294" s="18"/>
       <c r="X294" s="19"/>
     </row>
-    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -19763,7 +19762,7 @@
       <c r="W295" s="18"/>
       <c r="X295" s="19"/>
     </row>
-    <row r="296" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>2015</v>
       </c>
@@ -19810,7 +19809,7 @@
       <c r="W296" s="18"/>
       <c r="X296" s="19"/>
     </row>
-    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -19860,7 +19859,7 @@
       <c r="W297" s="18"/>
       <c r="X297" s="19"/>
     </row>
-    <row r="298" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>2015</v>
       </c>
@@ -19908,7 +19907,7 @@
       <c r="W298" s="18"/>
       <c r="X298" s="19"/>
     </row>
-    <row r="299" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>2015</v>
       </c>
@@ -19955,7 +19954,7 @@
       <c r="W299" s="18"/>
       <c r="X299" s="19"/>
     </row>
-    <row r="300" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -20005,7 +20004,7 @@
       <c r="W300" s="18"/>
       <c r="X300" s="19"/>
     </row>
-    <row r="301" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>2015</v>
       </c>
@@ -20062,7 +20061,7 @@
       <c r="W301" s="18"/>
       <c r="X301" s="19"/>
     </row>
-    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -20112,7 +20111,7 @@
       <c r="W302" s="18"/>
       <c r="X302" s="19"/>
     </row>
-    <row r="303" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>2015</v>
       </c>
@@ -20165,7 +20164,7 @@
       <c r="W303" s="18"/>
       <c r="X303" s="19"/>
     </row>
-    <row r="304" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>2015</v>
       </c>
@@ -20210,7 +20209,7 @@
       <c r="W304" s="18"/>
       <c r="X304" s="19"/>
     </row>
-    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -20260,7 +20259,7 @@
       <c r="W305" s="18"/>
       <c r="X305" s="19"/>
     </row>
-    <row r="306" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>2015</v>
       </c>
@@ -20307,7 +20306,7 @@
       <c r="W306" s="18"/>
       <c r="X306" s="19"/>
     </row>
-    <row r="307" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>2015</v>
       </c>
@@ -20357,7 +20356,7 @@
       <c r="W307" s="18"/>
       <c r="X307" s="19"/>
     </row>
-    <row r="308" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>2015</v>
       </c>
@@ -20404,7 +20403,7 @@
       <c r="W308" s="18"/>
       <c r="X308" s="19"/>
     </row>
-    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -20451,7 +20450,7 @@
       <c r="W309" s="18"/>
       <c r="X309" s="19"/>
     </row>
-    <row r="310" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>2015</v>
       </c>
@@ -20498,7 +20497,7 @@
       <c r="W310" s="18"/>
       <c r="X310" s="19"/>
     </row>
-    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -20545,7 +20544,7 @@
       <c r="W311" s="18"/>
       <c r="X311" s="19"/>
     </row>
-    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -20592,7 +20591,7 @@
       <c r="W312" s="18"/>
       <c r="X312" s="19"/>
     </row>
-    <row r="313" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>2015</v>
       </c>
@@ -20638,7 +20637,7 @@
       <c r="W313" s="18"/>
       <c r="X313" s="19"/>
     </row>
-    <row r="314" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -20684,7 +20683,7 @@
       <c r="W314" s="18"/>
       <c r="X314" s="19"/>
     </row>
-    <row r="315" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>2015</v>
       </c>
@@ -20737,7 +20736,7 @@
       <c r="W315" s="18"/>
       <c r="X315" s="19"/>
     </row>
-    <row r="316" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>2015</v>
       </c>
@@ -20787,7 +20786,7 @@
       <c r="W316" s="18"/>
       <c r="X316" s="19"/>
     </row>
-    <row r="317" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -20837,7 +20836,7 @@
       <c r="W317" s="18"/>
       <c r="X317" s="19"/>
     </row>
-    <row r="318" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>2016</v>
       </c>
@@ -20886,7 +20885,7 @@
       <c r="W318" s="18"/>
       <c r="X318" s="19"/>
     </row>
-    <row r="319" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>2016</v>
       </c>
@@ -20948,7 +20947,7 @@
       <c r="AA319"/>
       <c r="AB319" s="6"/>
     </row>
-    <row r="320" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>2016</v>
       </c>
@@ -21009,7 +21008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -21072,7 +21071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -21133,7 +21132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>2016</v>
       </c>
@@ -21197,7 +21196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>2016</v>
       </c>
@@ -21266,7 +21265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>2016</v>
       </c>
@@ -21333,7 +21332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -21400,7 +21399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>2016</v>
       </c>
@@ -21466,7 +21465,7 @@
       <c r="AA327"/>
       <c r="AB327" s="6"/>
     </row>
-    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -21529,7 +21528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -21592,7 +21591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>2016</v>
       </c>
@@ -21654,7 +21653,7 @@
       <c r="AA330"/>
       <c r="AB330" s="6"/>
     </row>
-    <row r="331" spans="1:28" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>2016</v>
       </c>
@@ -21714,7 +21713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -21777,7 +21776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -21841,7 +21840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:28" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>2016</v>
       </c>
@@ -21903,7 +21902,7 @@
       <c r="AA334"/>
       <c r="AB334" s="6"/>
     </row>
-    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -21965,7 +21964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -22027,7 +22026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -22091,7 +22090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -22221,7 +22220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -22275,7 +22274,7 @@
       <c r="W340" s="18"/>
       <c r="X340" s="19"/>
     </row>
-    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -22329,7 +22328,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="342" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>2016</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="343" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>2016</v>
       </c>
@@ -22447,7 +22446,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="344" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>2016</v>
       </c>
@@ -22505,7 +22504,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="345" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -22562,7 +22561,7 @@
       <c r="W345" s="18"/>
       <c r="X345" s="19"/>
     </row>
-    <row r="346" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -22613,7 +22612,7 @@
       <c r="W346" s="18"/>
       <c r="X346" s="19"/>
     </row>
-    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -22664,7 +22663,7 @@
       <c r="W347" s="18"/>
       <c r="X347" s="19"/>
     </row>
-    <row r="348" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>2016</v>
       </c>
@@ -22724,7 +22723,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="349" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>2016</v>
       </c>
@@ -22773,7 +22772,7 @@
       <c r="W349" s="18"/>
       <c r="X349" s="19"/>
     </row>
-    <row r="350" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>2016</v>
       </c>
@@ -22825,7 +22824,7 @@
       <c r="W350" s="18"/>
       <c r="X350" s="19"/>
     </row>
-    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -22886,7 +22885,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -22947,7 +22946,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>2016</v>
       </c>
@@ -22995,7 +22994,7 @@
       <c r="W353" s="18"/>
       <c r="X353" s="19"/>
     </row>
-    <row r="354" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>2016</v>
       </c>
@@ -23053,7 +23052,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -23107,7 +23106,7 @@
       <c r="W355" s="18"/>
       <c r="X355" s="19"/>
     </row>
-    <row r="356" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>2016</v>
       </c>
@@ -23155,7 +23154,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="357" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>2016</v>
       </c>
@@ -23202,7 +23201,7 @@
       <c r="W357" s="18"/>
       <c r="X357" s="19"/>
     </row>
-    <row r="358" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>2016</v>
       </c>
@@ -23260,7 +23259,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="359" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>2016</v>
       </c>
@@ -23316,7 +23315,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="360" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>2016</v>
       </c>
@@ -23361,7 +23360,7 @@
       <c r="W360" s="18"/>
       <c r="X360" s="19"/>
     </row>
-    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -23413,7 +23412,7 @@
       <c r="W361" s="18"/>
       <c r="X361" s="19"/>
     </row>
-    <row r="362" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>2016</v>
       </c>
@@ -23472,7 +23471,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="363" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>2016</v>
       </c>
@@ -23516,7 +23515,7 @@
       <c r="W363" s="18"/>
       <c r="X363" s="19"/>
     </row>
-    <row r="364" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>2016</v>
       </c>
@@ -23560,7 +23559,7 @@
       <c r="W364" s="18"/>
       <c r="X364" s="19"/>
     </row>
-    <row r="365" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>2016</v>
       </c>
@@ -23607,7 +23606,7 @@
       <c r="W365" s="18"/>
       <c r="X365" s="19"/>
     </row>
-    <row r="366" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>2016</v>
       </c>
@@ -23651,7 +23650,7 @@
       <c r="W366" s="18"/>
       <c r="X366" s="19"/>
     </row>
-    <row r="367" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>2016</v>
       </c>
@@ -23700,7 +23699,7 @@
       <c r="W367" s="18"/>
       <c r="X367" s="19"/>
     </row>
-    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -23758,7 +23757,7 @@
       <c r="W368" s="18"/>
       <c r="X368" s="19"/>
     </row>
-    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -23812,7 +23811,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -23868,7 +23867,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -23908,7 +23907,7 @@
       <c r="W371" s="18"/>
       <c r="X371" s="19"/>
     </row>
-    <row r="372" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -23957,7 +23956,7 @@
       <c r="W372" s="18"/>
       <c r="X372" s="19"/>
     </row>
-    <row r="373" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -23999,7 +23998,7 @@
       <c r="W373" s="18"/>
       <c r="X373" s="19"/>
     </row>
-    <row r="374" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>2016</v>
       </c>
@@ -24046,7 +24045,7 @@
       <c r="W374" s="18"/>
       <c r="X374" s="19"/>
     </row>
-    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -24095,7 +24094,7 @@
       <c r="W375" s="18"/>
       <c r="X375" s="19"/>
     </row>
-    <row r="376" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>2016</v>
       </c>
@@ -24147,7 +24146,7 @@
       <c r="W376" s="18"/>
       <c r="X376" s="19"/>
     </row>
-    <row r="377" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>2016</v>
       </c>
@@ -24191,7 +24190,7 @@
       <c r="W377" s="18"/>
       <c r="X377" s="19"/>
     </row>
-    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -24240,7 +24239,7 @@
       <c r="W378" s="18"/>
       <c r="X378" s="19"/>
     </row>
-    <row r="379" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -24303,7 +24302,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="380" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -24357,7 +24356,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -24408,7 +24407,7 @@
       <c r="W381" s="18"/>
       <c r="X381" s="19"/>
     </row>
-    <row r="382" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -24452,7 +24451,7 @@
       <c r="W382" s="18"/>
       <c r="X382" s="19"/>
     </row>
-    <row r="383" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -24496,7 +24495,7 @@
       <c r="W383" s="18"/>
       <c r="X383" s="19"/>
     </row>
-    <row r="384" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -24554,7 +24553,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -24614,7 +24613,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="386" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>2016</v>
       </c>
@@ -24671,7 +24670,7 @@
       <c r="W386" s="18"/>
       <c r="X386" s="19"/>
     </row>
-    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -24720,7 +24719,7 @@
       <c r="W387" s="18"/>
       <c r="X387" s="19"/>
     </row>
-    <row r="388" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -24769,7 +24768,7 @@
       <c r="W388" s="18"/>
       <c r="X388" s="19"/>
     </row>
-    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -24829,7 +24828,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="390" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>2016</v>
       </c>
@@ -24889,7 +24888,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -24938,7 +24937,7 @@
       <c r="W391" s="18"/>
       <c r="X391" s="19"/>
     </row>
-    <row r="392" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>2016</v>
       </c>
@@ -24987,7 +24986,7 @@
       <c r="W392" s="18"/>
       <c r="X392" s="19"/>
     </row>
-    <row r="393" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>2016</v>
       </c>
@@ -25036,7 +25035,7 @@
       <c r="W393" s="18"/>
       <c r="X393" s="19"/>
     </row>
-    <row r="394" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>2016</v>
       </c>
@@ -25085,7 +25084,7 @@
       <c r="W394" s="18"/>
       <c r="X394" s="19"/>
     </row>
-    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -25145,7 +25144,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>2017</v>
       </c>
@@ -25193,7 +25192,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -25243,7 +25242,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -25289,7 +25288,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -25342,7 +25341,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>2017</v>
       </c>
@@ -25396,7 +25395,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>2017</v>
       </c>
@@ -25446,7 +25445,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -25498,7 +25497,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>2017</v>
       </c>
@@ -25550,7 +25549,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>2017</v>
       </c>
@@ -25602,7 +25601,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>2017</v>
       </c>
@@ -25656,7 +25655,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>2017</v>
       </c>
@@ -25715,7 +25714,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>2017</v>
       </c>
@@ -25767,7 +25766,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -25823,7 +25822,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>2017</v>
       </c>
@@ -25877,7 +25876,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>2017</v>
       </c>
@@ -25922,7 +25921,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>2017</v>
       </c>
@@ -25974,7 +25973,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -26033,7 +26032,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>2017</v>
       </c>
@@ -26083,7 +26082,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -26141,7 +26140,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>2017</v>
       </c>
@@ -26189,7 +26188,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>2017</v>
       </c>
@@ -26241,7 +26240,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>2017</v>
       </c>
@@ -26288,7 +26287,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>2017</v>
       </c>
@@ -26344,7 +26343,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>2017</v>
       </c>
@@ -26397,7 +26396,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>2017</v>
       </c>
@@ -26445,7 +26444,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>2017</v>
       </c>
@@ -26497,7 +26496,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -26552,7 +26551,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>2017</v>
       </c>
@@ -26613,7 +26612,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -26663,7 +26662,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -26713,7 +26712,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>2017</v>
       </c>
@@ -26771,7 +26770,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>2017</v>
       </c>
@@ -26829,7 +26828,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>2017</v>
       </c>
@@ -26882,7 +26881,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>2017</v>
       </c>
@@ -26931,7 +26930,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>2017</v>
       </c>
@@ -26984,7 +26983,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>2017</v>
       </c>
@@ -27035,7 +27034,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>2017</v>
       </c>
@@ -27087,7 +27086,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>2017</v>
       </c>
@@ -27146,7 +27145,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>2017</v>
       </c>
@@ -27195,7 +27194,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -27246,7 +27245,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -27305,7 +27304,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -27360,7 +27359,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>2018</v>
       </c>
@@ -27419,7 +27418,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -27474,7 +27473,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -27523,7 +27522,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -27576,7 +27575,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -27633,7 +27632,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>2018</v>
       </c>
@@ -27688,7 +27687,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -27741,7 +27740,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -27798,7 +27797,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -27849,7 +27848,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -27900,7 +27899,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -27949,7 +27948,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -28004,7 +28003,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2018</v>
       </c>
@@ -28063,7 +28062,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -28116,7 +28115,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -28173,7 +28172,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -28224,7 +28223,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -28277,7 +28276,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -28328,7 +28327,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -28381,7 +28380,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>2018</v>
       </c>
@@ -28436,7 +28435,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -28485,7 +28484,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>2018</v>
       </c>
@@ -28540,7 +28539,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -28589,7 +28588,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -28642,7 +28641,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>2018</v>
       </c>
@@ -28697,7 +28696,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -28750,7 +28749,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -28807,7 +28806,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -28864,7 +28863,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -28921,7 +28920,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -28966,7 +28965,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -29017,7 +29016,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>2018</v>
       </c>
@@ -29072,7 +29071,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>2018</v>
       </c>
@@ -29129,7 +29128,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>2018</v>
       </c>
@@ -29188,7 +29187,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -29237,7 +29236,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -29292,7 +29291,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -29339,7 +29338,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -29390,7 +29389,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -29447,7 +29446,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -29502,7 +29501,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -29553,7 +29552,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>2018</v>
       </c>
@@ -29610,7 +29609,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -29655,7 +29654,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -29700,7 +29699,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -29753,7 +29752,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -29804,7 +29803,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -29857,7 +29856,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>2018</v>
       </c>
@@ -29914,7 +29913,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -29971,7 +29970,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>2018</v>
       </c>
@@ -30028,7 +30027,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -30081,7 +30080,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>2018</v>
       </c>
@@ -30140,7 +30139,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -30195,7 +30194,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -30246,7 +30245,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -30295,7 +30294,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -30344,7 +30343,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>2018</v>
       </c>
@@ -30403,7 +30402,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -30454,7 +30453,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -30503,7 +30502,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -30546,7 +30545,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -30597,7 +30596,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -30646,7 +30645,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -30695,7 +30694,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -30746,7 +30745,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -30789,7 +30788,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -30836,7 +30835,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -30883,7 +30882,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -30930,7 +30929,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -30963,7 +30962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>2018</v>
       </c>
@@ -31018,7 +31017,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -31063,7 +31062,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -31112,7 +31111,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -31163,7 +31162,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -31210,7 +31209,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -31261,7 +31260,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -31312,7 +31311,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -31363,7 +31362,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -31416,7 +31415,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -31467,7 +31466,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -31528,7 +31527,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -31583,7 +31582,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -31630,7 +31629,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>2018</v>
       </c>
@@ -31685,7 +31684,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -31736,7 +31735,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -31797,7 +31796,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -31839,7 +31838,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -31884,7 +31883,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -31937,7 +31936,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -31990,7 +31989,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -32037,7 +32036,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -32084,7 +32083,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -32131,7 +32130,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -32178,7 +32177,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -32225,7 +32224,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -32272,7 +32271,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -32319,7 +32318,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -32366,7 +32365,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -32413,7 +32412,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -32460,7 +32459,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -32509,7 +32508,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -32556,7 +32555,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -32603,7 +32602,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -32650,7 +32649,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -32697,7 +32696,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -32744,7 +32743,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -32791,7 +32790,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -32838,7 +32837,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -32885,7 +32884,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -32932,7 +32931,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -32979,7 +32978,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -33026,7 +33025,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -33073,7 +33072,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -33120,7 +33119,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -33167,7 +33166,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -33214,7 +33213,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -33261,7 +33260,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -33308,7 +33307,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -33355,7 +33354,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -33402,7 +33401,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -33449,7 +33448,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -33496,7 +33495,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -33543,7 +33542,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -33590,7 +33589,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -33637,7 +33636,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -33682,7 +33681,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -33727,7 +33726,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -33772,7 +33771,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -33817,7 +33816,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -33862,7 +33861,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -33907,7 +33906,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -33952,7 +33951,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -33997,7 +33996,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -34038,7 +34037,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -34083,7 +34082,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -34128,7 +34127,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -34173,7 +34172,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
         <v>2019</v>
       </c>
@@ -34218,7 +34217,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -34263,7 +34262,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -34308,7 +34307,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -34353,7 +34352,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -34398,7 +34397,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -34447,7 +34446,7 @@
       <c r="X579" s="10"/>
       <c r="Y579" s="7"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -34504,7 +34503,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="581" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
         <v>2022</v>
       </c>
@@ -34547,7 +34546,7 @@
       <c r="X581" s="10"/>
       <c r="Y581" s="7"/>
     </row>
-    <row r="582" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
         <v>2022</v>
       </c>
@@ -34602,7 +34601,7 @@
       <c r="X582" s="10"/>
       <c r="Y582" s="7"/>
     </row>
-    <row r="583" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>2022</v>
       </c>
@@ -34661,7 +34660,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="584" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
         <v>2022</v>
       </c>
@@ -34720,7 +34719,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="585" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
         <v>2022</v>
       </c>
@@ -34787,7 +34786,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="586" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -34836,7 +34835,7 @@
       <c r="X586" s="10"/>
       <c r="Y586" s="7"/>
     </row>
-    <row r="587" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6">
         <v>2022</v>
       </c>
@@ -34887,7 +34886,7 @@
       <c r="X587" s="10"/>
       <c r="Y587" s="7"/>
     </row>
-    <row r="588" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
         <v>2022</v>
       </c>
@@ -34938,7 +34937,7 @@
       <c r="X588" s="10"/>
       <c r="Y588" s="7"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -34987,7 +34986,7 @@
       <c r="X589" s="10"/>
       <c r="Y589" s="7"/>
     </row>
-    <row r="590" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
         <v>2022</v>
       </c>
@@ -35038,7 +35037,7 @@
       <c r="X590" s="10"/>
       <c r="Y590" s="7"/>
     </row>
-    <row r="591" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
         <v>2022</v>
       </c>
@@ -35105,7 +35104,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="592" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -35170,7 +35169,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="593" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -35235,7 +35234,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="594" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -35294,7 +35293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="595" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -35359,7 +35358,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="596" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
         <v>2022</v>
       </c>
@@ -35422,7 +35421,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="597" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
         <v>2022</v>
       </c>
@@ -35485,7 +35484,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="598" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
         <v>2022</v>
       </c>
@@ -35540,7 +35539,7 @@
       <c r="X598" s="10"/>
       <c r="Y598" s="7"/>
     </row>
-    <row r="599" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
         <v>2022</v>
       </c>
@@ -35605,7 +35604,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="600" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6">
         <v>2022</v>
       </c>
@@ -35668,7 +35667,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="601" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6">
         <v>2022</v>
       </c>
@@ -35731,7 +35730,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="602" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
         <v>2022</v>
       </c>
@@ -35794,7 +35793,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="603" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
         <v>2022</v>
       </c>
@@ -35865,7 +35864,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="604" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -35932,7 +35931,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="605" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
         <v>2022</v>
       </c>
@@ -35991,7 +35990,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="606" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -36050,7 +36049,7 @@
       <c r="X606" s="10"/>
       <c r="Y606" s="7"/>
     </row>
-    <row r="607" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
         <v>2022</v>
       </c>
@@ -36121,7 +36120,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="608" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
         <v>2022</v>
       </c>
@@ -36192,7 +36191,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="609" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
         <v>2022</v>
       </c>
@@ -36263,7 +36262,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="610" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
         <v>2022</v>
       </c>
@@ -36326,7 +36325,7 @@
       <c r="X610" s="10"/>
       <c r="Y610" s="7"/>
     </row>
-    <row r="611" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
         <v>2022</v>
       </c>
@@ -36397,7 +36396,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="612" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
         <v>2022</v>
       </c>
@@ -36456,7 +36455,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="613" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
         <v>2022</v>
       </c>
@@ -36527,7 +36526,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="614" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -36592,7 +36591,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="615" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
         <v>2022</v>
       </c>
@@ -36643,7 +36642,7 @@
       <c r="X615" s="10"/>
       <c r="Y615" s="7"/>
     </row>
-    <row r="616" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
         <v>2022</v>
       </c>
@@ -36694,7 +36693,7 @@
       <c r="X616" s="10"/>
       <c r="Y616" s="7"/>
     </row>
-    <row r="617" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
         <v>2022</v>
       </c>
@@ -36749,7 +36748,7 @@
       <c r="X617" s="10"/>
       <c r="Y617" s="7"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -36806,7 +36805,7 @@
       <c r="X618" s="10"/>
       <c r="Y618" s="7"/>
     </row>
-    <row r="619" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -36857,7 +36856,7 @@
       <c r="X619" s="10"/>
       <c r="Y619" s="7"/>
     </row>
-    <row r="620" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
         <v>2022</v>
       </c>
@@ -36906,7 +36905,7 @@
       <c r="X620" s="10"/>
       <c r="Y620" s="7"/>
     </row>
-    <row r="621" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -36963,7 +36962,7 @@
       <c r="X621" s="10"/>
       <c r="Y621" s="7"/>
     </row>
-    <row r="622" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -37020,7 +37019,7 @@
       <c r="X622" s="10"/>
       <c r="Y622" s="7"/>
     </row>
-    <row r="623" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -37083,7 +37082,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="624" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
         <v>2022</v>
       </c>
@@ -37142,7 +37141,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="625" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -37207,7 +37206,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="626" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -37272,7 +37271,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="627" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -37333,7 +37332,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="628" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
         <v>2022</v>
       </c>
@@ -37394,7 +37393,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="629" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -37455,7 +37454,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="630" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6">
         <v>2022</v>
       </c>
@@ -37516,7 +37515,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="631" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -37581,7 +37580,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="632" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
         <v>2022</v>
       </c>
@@ -37634,7 +37633,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="633" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
         <v>2022</v>
       </c>
@@ -37705,7 +37704,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="634" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -37770,7 +37769,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="635" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -37835,7 +37834,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="636" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -37894,7 +37893,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="637" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -37953,7 +37952,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="638" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -38018,7 +38017,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="639" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -38079,7 +38078,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="640" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
         <v>2022</v>
       </c>
@@ -38136,7 +38135,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="641" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -38201,7 +38200,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="642" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -38266,7 +38265,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="643" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
         <v>2022</v>
       </c>
@@ -38337,7 +38336,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="644" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -38394,7 +38393,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="645" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -38451,7 +38450,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="646" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
         <v>2022</v>
       </c>
@@ -38510,7 +38509,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="647" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
         <v>2022</v>
       </c>
@@ -38573,7 +38572,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="648" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
         <v>2022</v>
       </c>
@@ -38636,7 +38635,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="649" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
         <v>2022</v>
       </c>
@@ -38689,7 +38688,7 @@
       <c r="X649" s="10"/>
       <c r="Y649" s="7"/>
     </row>
-    <row r="650" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -38754,7 +38753,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="651" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
         <v>2022</v>
       </c>
@@ -38807,7 +38806,7 @@
       <c r="X651" s="10"/>
       <c r="Y651" s="7"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -38858,7 +38857,7 @@
       <c r="X652" s="10"/>
       <c r="Y652" s="7"/>
     </row>
-    <row r="653" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
         <v>2022</v>
       </c>
@@ -38921,7 +38920,7 @@
       <c r="X653" s="10"/>
       <c r="Y653" s="7"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -38976,7 +38975,7 @@
       <c r="X654" s="10"/>
       <c r="Y654" s="7"/>
     </row>
-    <row r="655" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -39027,7 +39026,7 @@
       <c r="X655" s="10"/>
       <c r="Y655" s="7"/>
     </row>
-    <row r="656" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
         <v>2022</v>
       </c>
@@ -39090,7 +39089,7 @@
       <c r="X656" s="10"/>
       <c r="Y656" s="7"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -39143,7 +39142,7 @@
       <c r="X657" s="10"/>
       <c r="Y657" s="7"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -39194,7 +39193,7 @@
       <c r="X658" s="10"/>
       <c r="Y658" s="7"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -39247,7 +39246,7 @@
       <c r="X659" s="10"/>
       <c r="Y659" s="7"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -39300,7 +39299,7 @@
       <c r="X660" s="10"/>
       <c r="Y660" s="7"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -39357,7 +39356,7 @@
       <c r="X661" s="10"/>
       <c r="Y661" s="7"/>
     </row>
-    <row r="662" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
         <v>2022</v>
       </c>
@@ -39402,7 +39401,7 @@
       <c r="X662" s="10"/>
       <c r="Y662" s="7"/>
     </row>
-    <row r="663" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -39455,7 +39454,7 @@
       <c r="X663" s="10"/>
       <c r="Y663" s="7"/>
     </row>
-    <row r="664" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -39508,7 +39507,7 @@
       <c r="X664" s="10"/>
       <c r="Y664" s="7"/>
     </row>
-    <row r="665" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -39565,7 +39564,7 @@
       <c r="X665" s="10"/>
       <c r="Y665" s="7"/>
     </row>
-    <row r="666" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -39618,7 +39617,7 @@
       <c r="X666" s="10"/>
       <c r="Y666" s="7"/>
     </row>
-    <row r="667" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
         <v>2022</v>
       </c>
@@ -39671,7 +39670,7 @@
       <c r="X667" s="10"/>
       <c r="Y667" s="7"/>
     </row>
-    <row r="668" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
         <v>2022</v>
       </c>
@@ -39726,7 +39725,7 @@
       <c r="X668" s="10"/>
       <c r="Y668" s="7"/>
     </row>
-    <row r="669" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
         <v>2022</v>
       </c>
@@ -39779,7 +39778,7 @@
       <c r="X669" s="10"/>
       <c r="Y669" s="7"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -39831,7 +39830,7 @@
       <c r="X670" s="10"/>
       <c r="Y670" s="7"/>
     </row>
-    <row r="671" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -39886,7 +39885,7 @@
       <c r="X671" s="10"/>
       <c r="Y671" s="7"/>
     </row>
-    <row r="672" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -39941,7 +39940,7 @@
       <c r="X672" s="10"/>
       <c r="Y672" s="7"/>
     </row>
-    <row r="673" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
         <v>2022</v>
       </c>
@@ -40002,7 +40001,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="674" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
         <v>2022</v>
       </c>
@@ -40061,7 +40060,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="675" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
         <v>2022</v>
       </c>
@@ -40122,7 +40121,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="676" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
         <v>2022</v>
       </c>
@@ -40185,7 +40184,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="677" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
         <v>2022</v>
       </c>
@@ -40248,7 +40247,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="678" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -40305,7 +40304,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="679" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -40365,7 +40364,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="680" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11">
         <v>2023</v>
       </c>
@@ -40425,7 +40424,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="681" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="11">
         <v>2023</v>
       </c>
@@ -40485,7 +40484,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="682" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -40543,7 +40542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="683" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -40603,7 +40602,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="684" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -40661,7 +40660,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="685" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -40720,7 +40719,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="686" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -40779,7 +40778,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="687" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="11">
         <v>2023</v>
       </c>
@@ -40841,7 +40840,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="688" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -40899,7 +40898,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="689" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="11">
         <v>2023</v>
       </c>
@@ -40957,7 +40956,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="690" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="11">
         <v>2023</v>
       </c>
@@ -41009,7 +41008,7 @@
       <c r="X690" s="10"/>
       <c r="Y690" s="3"/>
     </row>
-    <row r="691" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="11">
         <v>2023</v>
       </c>
@@ -41065,7 +41064,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="692" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -41127,7 +41126,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="693" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -41189,7 +41188,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="694" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="11">
         <v>2023</v>
       </c>
@@ -41243,7 +41242,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="695" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="11">
         <v>2023</v>
       </c>
@@ -41300,7 +41299,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="696" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -41362,7 +41361,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="697" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="11">
         <v>2023</v>
       </c>
@@ -41414,7 +41413,7 @@
       <c r="X697" s="10"/>
       <c r="Y697" s="7"/>
     </row>
-    <row r="698" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -41474,7 +41473,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="699" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="11">
         <v>2023</v>
       </c>
@@ -41525,7 +41524,7 @@
       <c r="X699" s="10"/>
       <c r="Y699" s="7"/>
     </row>
-    <row r="700" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -41577,7 +41576,7 @@
       <c r="X700" s="10"/>
       <c r="Y700" s="7"/>
     </row>
-    <row r="701" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="11">
         <v>2023</v>
       </c>
@@ -41627,7 +41626,7 @@
       <c r="X701" s="10"/>
       <c r="Y701" s="7"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -41689,7 +41688,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="703" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -41741,7 +41740,7 @@
       <c r="X703" s="10"/>
       <c r="Y703" s="7"/>
     </row>
-    <row r="704" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="11">
         <v>2023</v>
       </c>
@@ -41793,7 +41792,7 @@
       <c r="X704" s="10"/>
       <c r="Y704" s="7"/>
     </row>
-    <row r="705" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -41843,7 +41842,7 @@
       <c r="X705" s="10"/>
       <c r="Y705" s="7"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -41895,7 +41894,7 @@
       <c r="X706" s="10"/>
       <c r="Y706" s="7"/>
     </row>
-    <row r="707" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="11">
         <v>2023</v>
       </c>
@@ -41947,7 +41946,7 @@
       <c r="X707" s="10"/>
       <c r="Y707" s="7"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -42001,7 +42000,7 @@
       <c r="X708" s="10"/>
       <c r="Y708" s="7"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -42053,7 +42052,7 @@
       <c r="X709" s="10"/>
       <c r="Y709" s="7"/>
     </row>
-    <row r="710" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -42117,7 +42116,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="711" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -42179,7 +42178,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="712" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="11">
         <v>2023</v>
       </c>
@@ -42239,7 +42238,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="713" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -42299,7 +42298,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="714" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -42360,7 +42359,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="715" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -42420,7 +42419,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="716" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -42484,7 +42483,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="717" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -42546,7 +42545,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="718" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -42606,7 +42605,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="719" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -42666,7 +42665,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="720" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -42723,7 +42722,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="721" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -42781,7 +42780,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="722" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="11">
         <v>2023</v>
       </c>
@@ -42839,7 +42838,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="723" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -42889,7 +42888,7 @@
       <c r="X723" s="10"/>
       <c r="Y723" s="7"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -42950,7 +42949,7 @@
       <c r="X724" s="10"/>
       <c r="Y724" s="7"/>
     </row>
-    <row r="725" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -43010,7 +43009,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="726" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -43064,7 +43063,7 @@
       <c r="X726" s="10"/>
       <c r="Y726" s="7"/>
     </row>
-    <row r="727" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -43112,7 +43111,7 @@
       <c r="X727" s="10"/>
       <c r="Y727" s="7"/>
     </row>
-    <row r="728" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="11">
         <v>2023</v>
       </c>
@@ -43163,7 +43162,7 @@
       <c r="X728" s="10"/>
       <c r="Y728" s="7"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -43217,7 +43216,7 @@
       <c r="X729" s="10"/>
       <c r="Y729" s="7"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -43267,7 +43266,7 @@
       <c r="X730" s="10"/>
       <c r="Y730" s="7"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -43317,7 +43316,7 @@
       <c r="X731" s="10"/>
       <c r="Y731" s="7"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -43367,7 +43366,7 @@
       <c r="X732" s="10"/>
       <c r="Y732" s="7"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -43425,7 +43424,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="734" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="11">
         <v>2023</v>
       </c>
@@ -43486,7 +43485,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="735" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="11">
         <v>2023</v>
       </c>
@@ -43539,7 +43538,7 @@
       <c r="X735" s="10"/>
       <c r="Y735" s="7"/>
     </row>
-    <row r="736" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="11">
         <v>2023</v>
       </c>
@@ -43600,7 +43599,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="737" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="11">
         <v>2023</v>
       </c>
@@ -43640,7 +43639,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="738" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -43685,7 +43684,7 @@
       <c r="X738" s="10"/>
       <c r="Y738" s="7"/>
     </row>
-    <row r="739" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="11">
         <v>2023</v>
       </c>
@@ -43733,7 +43732,7 @@
       <c r="X739" s="10"/>
       <c r="Y739" s="7"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -43780,7 +43779,7 @@
       <c r="X740" s="10"/>
       <c r="Y740" s="7"/>
     </row>
-    <row r="741" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="11">
         <v>2023</v>
       </c>
@@ -43830,7 +43829,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="742" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="11">
         <v>2023</v>
       </c>
@@ -43895,7 +43894,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="743" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="11">
         <v>2023</v>
       </c>
@@ -43948,7 +43947,7 @@
       <c r="X743" s="10"/>
       <c r="Y743" s="7"/>
     </row>
-    <row r="744" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="11">
         <v>2023</v>
       </c>
@@ -43985,7 +43984,7 @@
       <c r="X744" s="10"/>
       <c r="Y744" s="7"/>
     </row>
-    <row r="745" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="11">
         <v>2023</v>
       </c>
@@ -44034,7 +44033,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="746" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -44093,7 +44092,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="747" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -44160,7 +44159,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="748" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="11">
         <v>2023</v>
       </c>
@@ -44219,7 +44218,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="749" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="11">
         <v>2023</v>
       </c>
@@ -44275,7 +44274,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="750" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -44338,7 +44337,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="751" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -44395,7 +44394,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="752" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="11">
         <v>2023</v>
       </c>
@@ -44460,7 +44459,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="753" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -44521,7 +44520,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="754" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -44582,7 +44581,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="755" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -44646,7 +44645,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="756" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="11">
         <v>2023</v>
       </c>
@@ -44695,7 +44694,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="757" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="11">
         <v>2023</v>
       </c>
@@ -44758,7 +44757,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="758" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="11">
         <v>2023</v>
       </c>
@@ -44819,7 +44818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="759" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -44882,7 +44881,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="760" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -44943,7 +44942,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="761" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="11">
         <v>2023</v>
       </c>
@@ -44994,7 +44993,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="762" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="11">
         <v>2023</v>
       </c>
@@ -45039,7 +45038,7 @@
       <c r="X762" s="10"/>
       <c r="Y762" s="7"/>
     </row>
-    <row r="763" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="11">
         <v>2023</v>
       </c>
@@ -45084,7 +45083,7 @@
       <c r="X763" s="10"/>
       <c r="Y763" s="7"/>
     </row>
-    <row r="764" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="11">
         <v>2023</v>
       </c>
@@ -45129,7 +45128,7 @@
       <c r="X764" s="10"/>
       <c r="Y764" s="7"/>
     </row>
-    <row r="765" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="11">
         <v>2023</v>
       </c>
@@ -45192,7 +45191,7 @@
       <c r="X765" s="10"/>
       <c r="Y765" s="7"/>
     </row>
-    <row r="766" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -45243,7 +45242,7 @@
       <c r="X766" s="10"/>
       <c r="Y766" s="7"/>
     </row>
-    <row r="767" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="11">
         <v>2023</v>
       </c>
@@ -45290,7 +45289,7 @@
       <c r="X767" s="10"/>
       <c r="Y767" s="7"/>
     </row>
-    <row r="768" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -45350,7 +45349,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="769" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -45399,7 +45398,7 @@
       <c r="X769" s="10"/>
       <c r="Y769" s="7"/>
     </row>
-    <row r="770" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="11">
         <v>2023</v>
       </c>
@@ -45467,7 +45466,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="771" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="11">
         <v>2023</v>
       </c>
@@ -45516,7 +45515,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="772" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="11">
         <v>2023</v>
       </c>
@@ -45578,7 +45577,7 @@
       <c r="W772" s="9"/>
       <c r="Y772" s="3"/>
     </row>
-    <row r="773" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -45627,7 +45626,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="774" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -45689,7 +45688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="775" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -45754,7 +45753,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="776" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -45822,7 +45821,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="777" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -45885,7 +45884,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="778" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -45945,7 +45944,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="779" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -46005,7 +46004,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="780" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -46068,7 +46067,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="781" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -46129,7 +46128,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="782" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -46190,7 +46189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="783" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -46255,7 +46254,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="784" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -46313,7 +46312,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="785" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -46377,7 +46376,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="786" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -46438,7 +46437,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="787" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -46498,7 +46497,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="788" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -46564,7 +46563,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="789" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -46624,7 +46623,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="790" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -46686,7 +46685,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="791" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -46751,7 +46750,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="792" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -46815,7 +46814,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="793" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -46876,7 +46875,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="794" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -46936,7 +46935,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="795" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -46996,7 +46995,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="796" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -47056,7 +47055,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="797" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -47113,7 +47112,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="798" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -47177,7 +47176,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="799" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -47235,7 +47234,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="800" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -47298,7 +47297,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="801" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -47356,7 +47355,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="802" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -47419,7 +47418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="803" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -47485,7 +47484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="804" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -47545,7 +47544,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="805" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -47597,7 +47596,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="806" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -47657,7 +47656,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="807" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -47717,7 +47716,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="808" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -47785,7 +47784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="809" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -47845,7 +47844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="810" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -47903,7 +47902,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="811" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -47959,7 +47958,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="812" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -48017,7 +48016,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="813" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -48073,7 +48072,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="814" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -48138,7 +48137,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="815" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -48198,7 +48197,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="816" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2024</v>
       </c>
@@ -48260,7 +48259,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="817" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -48320,7 +48319,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="818" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -48380,7 +48379,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="819" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -48436,7 +48435,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="820" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -48492,7 +48491,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="821" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -48557,7 +48556,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="822" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -48611,7 +48610,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="823" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -48672,7 +48671,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="824" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -48736,7 +48735,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="825" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2024</v>
       </c>
@@ -48791,7 +48790,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="826" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2024</v>
       </c>
@@ -48849,7 +48848,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="827" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2024</v>
       </c>
@@ -48907,7 +48906,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="828" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2024</v>
       </c>
@@ -48964,7 +48963,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="829" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -49022,7 +49021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="830" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -49080,7 +49079,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="831" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2024</v>
       </c>
@@ -49131,7 +49130,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="832" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -49189,7 +49188,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="833" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -49252,7 +49251,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="834" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -49308,7 +49307,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="835" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -49361,7 +49360,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="836" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2024</v>
       </c>
@@ -49423,7 +49422,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="837" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -49484,7 +49483,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="838" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -49548,7 +49547,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="839" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -49603,7 +49602,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="840" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2024</v>
       </c>
@@ -49663,7 +49662,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="841" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -49720,7 +49719,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="842" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -49781,7 +49780,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="843" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2024</v>
       </c>
@@ -49837,7 +49836,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="844" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -49902,7 +49901,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="845" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2024</v>
       </c>
@@ -49960,7 +49959,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="846" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2024</v>
       </c>
@@ -50018,7 +50017,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="847" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -50066,7 +50065,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="848" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -50116,7 +50115,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="849" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2024</v>
       </c>
@@ -50162,7 +50161,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="850" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2024</v>
       </c>
@@ -50198,7 +50197,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="851" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2024</v>
       </c>
@@ -50465,25 +50464,7 @@
       <c r="K884" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2015"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="AR"/>
-        <filter val="L"/>
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="GOOD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D406CAF-5EB2-1242-A685-4637D7623C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01FB31-818A-AB41-8422-4AD4469D6F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -5349,8 +5349,8 @@
   <dimension ref="A1:AB884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J861" sqref="J861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5450,7 +5450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="W7" s="18"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="W15" s="18"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6663,7 +6663,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -8108,7 +8108,7 @@
       <c r="W55" s="18"/>
       <c r="X55" s="19"/>
     </row>
-    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="W57" s="18"/>
       <c r="X57" s="19"/>
     </row>
-    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="W62" s="18"/>
       <c r="X62" s="19"/>
     </row>
-    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8492,7 +8492,7 @@
       <c r="W63" s="18"/>
       <c r="X63" s="19"/>
     </row>
-    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8543,7 +8543,7 @@
       <c r="W64" s="18"/>
       <c r="X64" s="19"/>
     </row>
-    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="W67" s="18"/>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="W69" s="18"/>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8822,7 +8822,7 @@
       <c r="W70" s="18"/>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -9456,7 +9456,7 @@
       <c r="W83" s="18"/>
       <c r="X83" s="19"/>
     </row>
-    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="W84" s="18"/>
       <c r="X84" s="19"/>
     </row>
-    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -9536,7 +9536,7 @@
       <c r="W85" s="18"/>
       <c r="X85" s="19"/>
     </row>
-    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="W86" s="18"/>
       <c r="X86" s="19"/>
     </row>
-    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9632,7 +9632,7 @@
       <c r="W87" s="18"/>
       <c r="X87" s="19"/>
     </row>
-    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="W88" s="18"/>
       <c r="X88" s="19"/>
     </row>
-    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9876,7 +9876,7 @@
       <c r="W92" s="18"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -9926,7 +9926,7 @@
       <c r="W93" s="18"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -10077,7 +10077,7 @@
       <c r="W96" s="18"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="W98" s="18"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="W99" s="18"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10265,7 +10265,7 @@
       <c r="W100" s="18"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -10317,7 +10317,7 @@
       <c r="W101" s="18"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="W102" s="18"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10412,7 +10412,7 @@
       <c r="W103" s="18"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="W104" s="18"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="W105" s="18"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="W106" s="18"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="W107" s="18"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="W108" s="18"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -10807,7 +10807,7 @@
       <c r="W111" s="18"/>
       <c r="X111" s="19"/>
     </row>
-    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10861,7 +10861,7 @@
       <c r="W112" s="18"/>
       <c r="X112" s="19"/>
     </row>
-    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="W113" s="18"/>
       <c r="X113" s="19"/>
     </row>
-    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="W114" s="18"/>
       <c r="X114" s="19"/>
     </row>
-    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -11011,7 +11011,7 @@
       <c r="W115" s="18"/>
       <c r="X115" s="19"/>
     </row>
-    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="W116" s="18"/>
       <c r="X116" s="19"/>
     </row>
-    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -11113,7 +11113,7 @@
       <c r="W117" s="18"/>
       <c r="X117" s="19"/>
     </row>
-    <row r="118" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -11165,7 +11165,7 @@
       <c r="W118" s="18"/>
       <c r="X118" s="19"/>
     </row>
-    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="W119" s="18"/>
       <c r="X119" s="19"/>
     </row>
-    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="W121" s="18"/>
       <c r="X121" s="19"/>
     </row>
-    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="W122" s="18"/>
       <c r="X122" s="19"/>
     </row>
-    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -11408,7 +11408,7 @@
       <c r="W123" s="18"/>
       <c r="X123" s="19"/>
     </row>
-    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="W126" s="18"/>
       <c r="X126" s="19"/>
     </row>
-    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -11606,7 +11606,7 @@
       <c r="W127" s="18"/>
       <c r="X127" s="19"/>
     </row>
-    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -11658,7 +11658,7 @@
       <c r="W128" s="18"/>
       <c r="X128" s="19"/>
     </row>
-    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11712,7 +11712,7 @@
       <c r="W129" s="18"/>
       <c r="X129" s="19"/>
     </row>
-    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11815,7 +11815,7 @@
       <c r="W131" s="18"/>
       <c r="X131" s="19"/>
     </row>
-    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="W133" s="18"/>
       <c r="X133" s="19"/>
     </row>
-    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="W134" s="18"/>
       <c r="X134" s="19"/>
     </row>
-    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -12157,7 +12157,7 @@
       <c r="W138" s="18"/>
       <c r="X138" s="19"/>
     </row>
-    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -12203,7 +12203,7 @@
       <c r="W139" s="18"/>
       <c r="X139" s="19"/>
     </row>
-    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -12250,7 +12250,7 @@
       <c r="W140" s="18"/>
       <c r="X140" s="19"/>
     </row>
-    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -12490,7 +12490,7 @@
       <c r="W145" s="18"/>
       <c r="X145" s="19"/>
     </row>
-    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -12532,7 +12532,7 @@
       <c r="W146" s="18"/>
       <c r="X146" s="19"/>
     </row>
-    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -12619,7 +12619,7 @@
       <c r="W148" s="18"/>
       <c r="X148" s="19"/>
     </row>
-    <row r="149" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>2013</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>1100</v>
       </c>
       <c r="J149" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K149" s="34">
         <v>41543</v>
@@ -12704,7 +12704,7 @@
       <c r="W150" s="18"/>
       <c r="X150" s="19"/>
     </row>
-    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -12824,7 +12824,7 @@
       <c r="W153" s="18"/>
       <c r="X153" s="19"/>
     </row>
-    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="W154" s="18"/>
       <c r="X154" s="19"/>
     </row>
-    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -12896,7 +12896,7 @@
       <c r="W155" s="18"/>
       <c r="X155" s="19"/>
     </row>
-    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -12932,7 +12932,7 @@
       <c r="W156" s="18"/>
       <c r="X156" s="19"/>
     </row>
-    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12977,7 +12977,7 @@
       <c r="W157" s="18"/>
       <c r="X157" s="19"/>
     </row>
-    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -13022,7 +13022,7 @@
       <c r="W158" s="18"/>
       <c r="X158" s="19"/>
     </row>
-    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -13193,7 +13193,7 @@
       <c r="W162" s="18"/>
       <c r="X162" s="19"/>
     </row>
-    <row r="163" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>2013</v>
       </c>
@@ -13232,7 +13232,7 @@
       <c r="W163" s="18"/>
       <c r="X163" s="19"/>
     </row>
-    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -13268,7 +13268,7 @@
       <c r="W164" s="18"/>
       <c r="X164" s="19"/>
     </row>
-    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="W165" s="18"/>
       <c r="X165" s="19"/>
     </row>
-    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="W166" s="18"/>
       <c r="X166" s="19"/>
     </row>
-    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="W167" s="18"/>
       <c r="X167" s="19"/>
     </row>
-    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="W168" s="18"/>
       <c r="X168" s="19"/>
     </row>
-    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -13581,7 +13581,7 @@
       <c r="W171" s="18"/>
       <c r="X171" s="19"/>
     </row>
-    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13632,7 +13632,7 @@
       <c r="W172" s="18"/>
       <c r="X172" s="19"/>
     </row>
-    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -13781,7 +13781,7 @@
       <c r="W175" s="18"/>
       <c r="X175" s="19"/>
     </row>
-    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -14017,7 +14017,7 @@
       <c r="W180" s="18"/>
       <c r="X180" s="19"/>
     </row>
-    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="W185" s="18"/>
       <c r="X185" s="19"/>
     </row>
-    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -14295,7 +14295,7 @@
       <c r="W186" s="18"/>
       <c r="X186" s="19"/>
     </row>
-    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -14391,7 +14391,7 @@
       <c r="W188" s="18"/>
       <c r="X188" s="19"/>
     </row>
-    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -14579,7 +14579,7 @@
       <c r="W192" s="18"/>
       <c r="X192" s="19"/>
     </row>
-    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -14623,7 +14623,7 @@
       <c r="W193" s="18"/>
       <c r="X193" s="19"/>
     </row>
-    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -14665,7 +14665,7 @@
       <c r="W194" s="18"/>
       <c r="X194" s="19"/>
     </row>
-    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -14707,7 +14707,7 @@
       <c r="W195" s="18"/>
       <c r="X195" s="19"/>
     </row>
-    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -14749,7 +14749,7 @@
       <c r="W196" s="18"/>
       <c r="X196" s="19"/>
     </row>
-    <row r="197" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>2014</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>1100</v>
       </c>
       <c r="J197" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K197" s="34">
         <v>41899</v>
@@ -14849,7 +14849,7 @@
       <c r="W198" s="18"/>
       <c r="X198" s="19"/>
     </row>
-    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -14891,7 +14891,7 @@
       <c r="W199" s="18"/>
       <c r="X199" s="19"/>
     </row>
-    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -14942,7 +14942,7 @@
       <c r="W200" s="18"/>
       <c r="X200" s="19"/>
     </row>
-    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -15093,7 +15093,7 @@
       <c r="W203" s="18"/>
       <c r="X203" s="19"/>
     </row>
-    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -15144,7 +15144,7 @@
       <c r="W204" s="18"/>
       <c r="X204" s="19"/>
     </row>
-    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -15195,7 +15195,7 @@
       <c r="W205" s="18"/>
       <c r="X205" s="19"/>
     </row>
-    <row r="206" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>2014</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>1244</v>
       </c>
       <c r="J206" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K206" s="34">
         <v>41907</v>
@@ -15249,7 +15249,7 @@
       <c r="W206" s="18"/>
       <c r="X206" s="19"/>
     </row>
-    <row r="207" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>2014</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>1247</v>
       </c>
       <c r="J207" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K207" s="34">
         <v>41907</v>
@@ -15303,7 +15303,7 @@
       <c r="W207" s="18"/>
       <c r="X207" s="19"/>
     </row>
-    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15411,7 +15411,7 @@
       <c r="W209" s="18"/>
       <c r="X209" s="19"/>
     </row>
-    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -15502,7 +15502,7 @@
       <c r="W211" s="18"/>
       <c r="X211" s="19"/>
     </row>
-    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15547,7 +15547,7 @@
       <c r="W212" s="18"/>
       <c r="X212" s="19"/>
     </row>
-    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15639,7 +15639,7 @@
       <c r="W214" s="18"/>
       <c r="X214" s="19"/>
     </row>
-    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -15861,7 +15861,7 @@
       <c r="W218" s="18"/>
       <c r="X218" s="19"/>
     </row>
-    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="W223" s="18"/>
       <c r="X223" s="19"/>
     </row>
-    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -16547,7 +16547,7 @@
       <c r="W231" s="18"/>
       <c r="X231" s="19"/>
     </row>
-    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -16645,7 +16645,7 @@
       <c r="W233" s="18"/>
       <c r="X233" s="19"/>
     </row>
-    <row r="234" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>2015</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>986</v>
       </c>
       <c r="J234" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K234" s="34">
         <v>42252</v>
@@ -16698,7 +16698,7 @@
       <c r="W234" s="18"/>
       <c r="X234" s="19"/>
     </row>
-    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -16750,7 +16750,7 @@
       <c r="W235" s="18"/>
       <c r="X235" s="19"/>
     </row>
-    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -16803,7 +16803,7 @@
       <c r="W236" s="18"/>
       <c r="X236" s="19"/>
     </row>
-    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -16852,7 +16852,7 @@
       <c r="W237" s="18"/>
       <c r="X237" s="19"/>
     </row>
-    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -16901,7 +16901,7 @@
       <c r="W238" s="18"/>
       <c r="X238" s="19"/>
     </row>
-    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -16950,7 +16950,7 @@
       <c r="W239" s="18"/>
       <c r="X239" s="19"/>
     </row>
-    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -17001,7 +17001,7 @@
       <c r="W240" s="18"/>
       <c r="X240" s="19"/>
     </row>
-    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -17049,7 +17049,7 @@
       <c r="W241" s="18"/>
       <c r="X241" s="19"/>
     </row>
-    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -17104,7 +17104,7 @@
       <c r="W242" s="18"/>
       <c r="X242" s="19"/>
     </row>
-    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -17154,7 +17154,7 @@
       <c r="W243" s="18"/>
       <c r="X243" s="19"/>
     </row>
-    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -17207,7 +17207,7 @@
       <c r="W244" s="18"/>
       <c r="X244" s="19"/>
     </row>
-    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -17258,7 +17258,7 @@
       <c r="W245" s="18"/>
       <c r="X245" s="19"/>
     </row>
-    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -17309,7 +17309,7 @@
       <c r="W246" s="18"/>
       <c r="X246" s="19"/>
     </row>
-    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17461,7 +17461,7 @@
       <c r="W249" s="18"/>
       <c r="X249" s="19"/>
     </row>
-    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -17518,7 +17518,7 @@
       <c r="W250" s="18"/>
       <c r="X250" s="19"/>
     </row>
-    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -17670,7 +17670,7 @@
       <c r="W253" s="18"/>
       <c r="X253" s="19"/>
     </row>
-    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -17718,7 +17718,7 @@
       <c r="W254" s="18"/>
       <c r="X254" s="19"/>
     </row>
-    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -17765,7 +17765,7 @@
       <c r="W255" s="18"/>
       <c r="X255" s="19"/>
     </row>
-    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -17816,7 +17816,7 @@
       <c r="W256" s="18"/>
       <c r="X256" s="19"/>
     </row>
-    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -17969,7 +17969,7 @@
       <c r="W259" s="18"/>
       <c r="X259" s="19"/>
     </row>
-    <row r="260" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>2015</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>994</v>
       </c>
       <c r="J260" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K260" s="29">
         <v>42261</v>
@@ -18026,7 +18026,7 @@
       <c r="W260" s="18"/>
       <c r="X260" s="19"/>
     </row>
-    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -18132,7 +18132,7 @@
       <c r="W262" s="18"/>
       <c r="X262" s="19"/>
     </row>
-    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -18232,7 +18232,7 @@
       <c r="W264" s="18"/>
       <c r="X264" s="19"/>
     </row>
-    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -18338,7 +18338,7 @@
       <c r="W266" s="18"/>
       <c r="X266" s="19"/>
     </row>
-    <row r="267" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>2015</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>1444</v>
       </c>
       <c r="J267" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K267" s="29">
         <v>42273</v>
@@ -18389,7 +18389,7 @@
       <c r="W267" s="18"/>
       <c r="X267" s="19"/>
     </row>
-    <row r="268" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>2015</v>
       </c>
@@ -18414,7 +18414,7 @@
       </c>
       <c r="I268" s="43"/>
       <c r="J268" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K268" s="29">
         <v>42273</v>
@@ -18497,7 +18497,7 @@
       <c r="W269" s="18"/>
       <c r="X269" s="19"/>
     </row>
-    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -18603,7 +18603,7 @@
       <c r="W271" s="18"/>
       <c r="X271" s="19"/>
     </row>
-    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -18648,7 +18648,7 @@
       <c r="W272" s="18"/>
       <c r="X272" s="19"/>
     </row>
-    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18695,7 +18695,7 @@
       <c r="W273" s="18"/>
       <c r="X273" s="19"/>
     </row>
-    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -18942,7 +18942,7 @@
       <c r="W278" s="18"/>
       <c r="X278" s="19"/>
     </row>
-    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -19331,7 +19331,7 @@
       <c r="W286" s="18"/>
       <c r="X286" s="19"/>
     </row>
-    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -19381,7 +19381,7 @@
       <c r="W287" s="18"/>
       <c r="X287" s="19"/>
     </row>
-    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="W288" s="18"/>
       <c r="X288" s="19"/>
     </row>
-    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -19480,7 +19480,7 @@
       <c r="W289" s="18"/>
       <c r="X289" s="19"/>
     </row>
-    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19528,7 +19528,7 @@
       <c r="W290" s="18"/>
       <c r="X290" s="19"/>
     </row>
-    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -19571,7 +19571,7 @@
       <c r="W291" s="18"/>
       <c r="X291" s="19"/>
     </row>
-    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -19680,7 +19680,7 @@
       <c r="W293" s="18"/>
       <c r="X293" s="19"/>
     </row>
-    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="W294" s="18"/>
       <c r="X294" s="19"/>
     </row>
-    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -19825,7 +19825,7 @@
       <c r="W296" s="18"/>
       <c r="X296" s="19"/>
     </row>
-    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -20077,7 +20077,7 @@
       <c r="W301" s="18"/>
       <c r="X301" s="19"/>
     </row>
-    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -20225,7 +20225,7 @@
       <c r="W304" s="18"/>
       <c r="X304" s="19"/>
     </row>
-    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -20419,7 +20419,7 @@
       <c r="W308" s="18"/>
       <c r="X308" s="19"/>
     </row>
-    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -20513,7 +20513,7 @@
       <c r="W310" s="18"/>
       <c r="X310" s="19"/>
     </row>
-    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -20560,7 +20560,7 @@
       <c r="W311" s="18"/>
       <c r="X311" s="19"/>
     </row>
-    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -21481,7 +21481,7 @@
       <c r="AA327"/>
       <c r="AB327" s="6"/>
     </row>
-    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -21918,7 +21918,7 @@
       <c r="AA334"/>
       <c r="AB334" s="6"/>
     </row>
-    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -22293,7 +22293,7 @@
       <c r="W340" s="18"/>
       <c r="X340" s="19"/>
     </row>
-    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -22636,7 +22636,7 @@
       <c r="W346" s="18"/>
       <c r="X346" s="19"/>
     </row>
-    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -22851,7 +22851,7 @@
       <c r="W350" s="18"/>
       <c r="X350" s="19"/>
     </row>
-    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -23387,7 +23387,7 @@
       <c r="W360" s="18"/>
       <c r="X360" s="19"/>
     </row>
-    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -23680,7 +23680,7 @@
       <c r="W366" s="18"/>
       <c r="X366" s="19"/>
     </row>
-    <row r="367" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>2016</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>1100</v>
       </c>
       <c r="J367" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K367" s="34">
         <v>42654</v>
@@ -23729,7 +23729,7 @@
       <c r="W367" s="18"/>
       <c r="X367" s="19"/>
     </row>
-    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -23787,7 +23787,7 @@
       <c r="W368" s="18"/>
       <c r="X368" s="19"/>
     </row>
-    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -23897,7 +23897,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -23937,7 +23937,7 @@
       <c r="W371" s="18"/>
       <c r="X371" s="19"/>
     </row>
-    <row r="372" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>1100</v>
       </c>
       <c r="J372" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K372" s="34">
         <v>42664</v>
@@ -24075,7 +24075,7 @@
       <c r="W374" s="18"/>
       <c r="X374" s="19"/>
     </row>
-    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -24127,7 +24127,7 @@
       <c r="W375" s="18"/>
       <c r="X375" s="19"/>
     </row>
-    <row r="376" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>2016</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>1284</v>
       </c>
       <c r="J376" s="13" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K376" s="34">
         <v>42669</v>
@@ -24223,7 +24223,7 @@
       <c r="W377" s="18"/>
       <c r="X377" s="19"/>
     </row>
-    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -24706,7 +24706,7 @@
       <c r="W386" s="18"/>
       <c r="X386" s="19"/>
     </row>
-    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -24810,7 +24810,7 @@
       <c r="W388" s="18"/>
       <c r="X388" s="19"/>
     </row>
-    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -25129,7 +25129,7 @@
       <c r="W394" s="18"/>
       <c r="X394" s="19"/>
     </row>
-    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -25237,7 +25237,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -25287,7 +25287,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -25333,7 +25333,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -25490,7 +25490,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -25811,7 +25811,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -26127,7 +26127,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -26541,7 +26541,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -26657,7 +26657,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -26707,7 +26707,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -27245,7 +27245,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -27410,7 +27410,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>2018</v>
       </c>
@@ -27469,7 +27469,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -27524,7 +27524,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -27683,7 +27683,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>2018</v>
       </c>
@@ -28054,7 +28054,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2018</v>
       </c>
@@ -28431,7 +28431,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>2018</v>
       </c>
@@ -28535,7 +28535,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>2018</v>
       </c>
@@ -28692,7 +28692,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>2018</v>
       </c>
@@ -28800,7 +28800,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -28857,7 +28857,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -29016,7 +29016,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -29067,7 +29067,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>2018</v>
       </c>
@@ -29122,7 +29122,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>2018</v>
       </c>
@@ -29179,7 +29179,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>2018</v>
       </c>
@@ -29238,7 +29238,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -29603,7 +29603,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>2018</v>
       </c>
@@ -29907,7 +29907,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>2018</v>
       </c>
@@ -29964,7 +29964,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -30021,7 +30021,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>2018</v>
       </c>
@@ -30131,7 +30131,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>2018</v>
       </c>
@@ -30190,7 +30190,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -30245,7 +30245,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -30296,7 +30296,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -30345,7 +30345,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -30394,7 +30394,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>2018</v>
       </c>
@@ -30596,7 +30596,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -30647,7 +30647,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -30980,7 +30980,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -31013,7 +31013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>2018</v>
       </c>
@@ -31213,7 +31213,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -31682,7 +31682,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>2018</v>
       </c>
@@ -31851,7 +31851,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -31991,7 +31991,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -32044,7 +32044,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -32091,7 +32091,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -32138,7 +32138,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -32185,7 +32185,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -32232,7 +32232,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -32279,7 +32279,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -32326,7 +32326,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -32373,7 +32373,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -32420,7 +32420,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -32467,7 +32467,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -32514,7 +32514,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -32563,7 +32563,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -32610,7 +32610,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -32657,7 +32657,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -32704,7 +32704,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -32751,7 +32751,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -32798,7 +32798,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -32845,7 +32845,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -32892,7 +32892,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -32939,7 +32939,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -32986,7 +32986,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -33033,7 +33033,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -33080,7 +33080,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -33127,7 +33127,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -33174,7 +33174,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -33221,7 +33221,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -33268,7 +33268,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -33315,7 +33315,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -33362,7 +33362,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -33409,7 +33409,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -33456,7 +33456,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -33503,7 +33503,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -33550,7 +33550,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -33597,7 +33597,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -33644,7 +33644,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -33691,7 +33691,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -33736,7 +33736,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -33781,7 +33781,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -33826,7 +33826,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -33871,7 +33871,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -33916,7 +33916,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -33961,7 +33961,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -34006,7 +34006,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -34051,7 +34051,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -34092,7 +34092,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -34137,7 +34137,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -34182,7 +34182,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -34272,7 +34272,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -34317,7 +34317,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -34362,7 +34362,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -34407,7 +34407,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -34452,7 +34452,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -34501,7 +34501,7 @@
       <c r="X579" s="10"/>
       <c r="Y579" s="7"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -34774,7 +34774,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="585" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
         <v>2022</v>
       </c>
@@ -34797,7 +34797,7 @@
       </c>
       <c r="I585" s="3"/>
       <c r="J585" s="28" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="K585" s="36">
         <v>44815</v>
@@ -34841,7 +34841,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -34992,7 +34992,7 @@
       <c r="X588" s="10"/>
       <c r="Y588" s="7"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -35289,7 +35289,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -35348,7 +35348,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -35919,7 +35919,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -36045,7 +36045,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -36581,7 +36581,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -36803,7 +36803,7 @@
       <c r="X617" s="10"/>
       <c r="Y617" s="7"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -36860,7 +36860,7 @@
       <c r="X618" s="10"/>
       <c r="Y618" s="7"/>
     </row>
-    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -36960,7 +36960,7 @@
       <c r="X620" s="10"/>
       <c r="Y620" s="7"/>
     </row>
-    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -37017,7 +37017,7 @@
       <c r="X621" s="10"/>
       <c r="Y621" s="7"/>
     </row>
-    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -37074,7 +37074,7 @@
       <c r="X622" s="10"/>
       <c r="Y622" s="7"/>
     </row>
-    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -37196,7 +37196,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -37261,7 +37261,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -37326,7 +37326,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -37448,7 +37448,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -37570,7 +37570,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -37824,7 +37824,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -37889,7 +37889,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -37948,7 +37948,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -38007,7 +38007,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -38072,7 +38072,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -38255,7 +38255,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -38391,7 +38391,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -38448,7 +38448,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -38743,7 +38743,7 @@
       <c r="X649" s="10"/>
       <c r="Y649" s="7"/>
     </row>
-    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -38861,7 +38861,7 @@
       <c r="X651" s="10"/>
       <c r="Y651" s="7"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -38975,7 +38975,7 @@
       <c r="X653" s="10"/>
       <c r="Y653" s="7"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -39030,7 +39030,7 @@
       <c r="X654" s="10"/>
       <c r="Y654" s="7"/>
     </row>
-    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -39144,7 +39144,7 @@
       <c r="X656" s="10"/>
       <c r="Y656" s="7"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -39197,7 +39197,7 @@
       <c r="X657" s="10"/>
       <c r="Y657" s="7"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -39248,7 +39248,7 @@
       <c r="X658" s="10"/>
       <c r="Y658" s="7"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -39301,7 +39301,7 @@
       <c r="X659" s="10"/>
       <c r="Y659" s="7"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -39354,7 +39354,7 @@
       <c r="X660" s="10"/>
       <c r="Y660" s="7"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -39456,7 +39456,7 @@
       <c r="X662" s="10"/>
       <c r="Y662" s="7"/>
     </row>
-    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -39509,7 +39509,7 @@
       <c r="X663" s="10"/>
       <c r="Y663" s="7"/>
     </row>
-    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -39562,7 +39562,7 @@
       <c r="X664" s="10"/>
       <c r="Y664" s="7"/>
     </row>
-    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -39619,7 +39619,7 @@
       <c r="X665" s="10"/>
       <c r="Y665" s="7"/>
     </row>
-    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -39833,7 +39833,7 @@
       <c r="X669" s="10"/>
       <c r="Y669" s="7"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -39940,7 +39940,7 @@
       <c r="X671" s="10"/>
       <c r="Y671" s="7"/>
     </row>
-    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -40359,7 +40359,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -40539,7 +40539,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -40597,7 +40597,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -40657,7 +40657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -40715,7 +40715,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -40774,7 +40774,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -40895,7 +40895,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -41119,7 +41119,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -41184,7 +41184,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -41363,7 +41363,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -41483,7 +41483,7 @@
       <c r="X697" s="10"/>
       <c r="Y697" s="7"/>
     </row>
-    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -41696,7 +41696,7 @@
       <c r="X701" s="10"/>
       <c r="Y701" s="7"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -41758,7 +41758,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -41862,7 +41862,7 @@
       <c r="X704" s="10"/>
       <c r="Y704" s="7"/>
     </row>
-    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -41912,7 +41912,7 @@
       <c r="X705" s="10"/>
       <c r="Y705" s="7"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -42016,7 +42016,7 @@
       <c r="X707" s="10"/>
       <c r="Y707" s="7"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -42070,7 +42070,7 @@
       <c r="X708" s="10"/>
       <c r="Y708" s="7"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -42122,7 +42122,7 @@
       <c r="X709" s="10"/>
       <c r="Y709" s="7"/>
     </row>
-    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -42189,7 +42189,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="711" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -42314,7 +42314,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -42374,7 +42374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -42438,7 +42438,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -42501,7 +42501,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -42568,7 +42568,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -42690,7 +42690,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -42750,7 +42750,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -42807,7 +42807,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -42923,7 +42923,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -42973,7 +42973,7 @@
       <c r="X723" s="10"/>
       <c r="Y723" s="7"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -43094,7 +43094,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -43148,7 +43148,7 @@
       <c r="X726" s="10"/>
       <c r="Y726" s="7"/>
     </row>
-    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -43247,7 +43247,7 @@
       <c r="X728" s="10"/>
       <c r="Y728" s="7"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -43301,7 +43301,7 @@
       <c r="X729" s="10"/>
       <c r="Y729" s="7"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -43351,7 +43351,7 @@
       <c r="X730" s="10"/>
       <c r="Y730" s="7"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -43401,7 +43401,7 @@
       <c r="X731" s="10"/>
       <c r="Y731" s="7"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -43451,7 +43451,7 @@
       <c r="X732" s="10"/>
       <c r="Y732" s="7"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -43724,7 +43724,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -43817,7 +43817,7 @@
       <c r="X739" s="10"/>
       <c r="Y739" s="7"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -44118,7 +44118,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -44177,7 +44177,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -44359,7 +44359,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -44422,7 +44422,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -44605,7 +44605,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -44666,7 +44666,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -44903,7 +44903,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -44966,7 +44966,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -45276,7 +45276,7 @@
       <c r="X765" s="10"/>
       <c r="Y765" s="7"/>
     </row>
-    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -45374,7 +45374,7 @@
       <c r="X767" s="10"/>
       <c r="Y767" s="7"/>
     </row>
-    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -45434,7 +45434,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -45662,7 +45662,7 @@
       <c r="W772" s="9"/>
       <c r="Y772" s="3"/>
     </row>
-    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -45711,7 +45711,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -45773,7 +45773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -46089,7 +46089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -46152,7 +46152,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -46271,7 +46271,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -46391,7 +46391,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -46513,7 +46513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -46573,7 +46573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -46639,7 +46639,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -46699,7 +46699,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="790" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -46884,7 +46884,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="793" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -47005,7 +47005,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="795" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -47182,7 +47182,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="798" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -47367,7 +47367,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="801" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -47425,7 +47425,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="802" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -47488,7 +47488,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="803" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -47554,7 +47554,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="804" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -47726,7 +47726,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="807" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -47786,7 +47786,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="808" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -47914,7 +47914,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="810" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -47972,7 +47972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="811" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -48028,7 +48028,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="812" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -48086,7 +48086,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="813" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -48142,7 +48142,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="814" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -48207,7 +48207,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="815" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -48329,7 +48329,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="817" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -48389,7 +48389,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="818" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -48449,7 +48449,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="819" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -48505,7 +48505,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="820" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -48626,7 +48626,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="823" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -49033,7 +49033,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="829" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -49091,7 +49091,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="830" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -49258,7 +49258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -49321,7 +49321,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -49377,7 +49377,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -49492,7 +49492,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -49617,7 +49617,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -49789,7 +49789,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -49912,7 +49912,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -50099,7 +50099,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -50147,7 +50147,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -50552,7 +50552,7 @@
   <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
     <filterColumn colId="9">
       <filters>
-        <filter val="GOOD"/>
+        <filter val="ABCL"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01FB31-818A-AB41-8422-4AD4469D6F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BA85A-8C9D-7C45-AD31-328678F632B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$851</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7030" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7033" uniqueCount="1491">
   <si>
     <t>Year</t>
   </si>
@@ -4811,6 +4812,9 @@
   </si>
   <si>
     <t>FOUND ONE COLD EGG, DESERTED</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -5345,12 +5349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J861" sqref="J861"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5450,7 +5453,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>1100</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K2" s="34">
         <v>39695</v>
@@ -5505,7 +5508,7 @@
       </c>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5555,7 +5558,7 @@
       </c>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5608,7 +5611,7 @@
       </c>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5659,7 +5662,7 @@
       </c>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>1100</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K6" s="38">
         <v>39697</v>
@@ -5714,7 +5717,7 @@
       </c>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5760,7 +5763,7 @@
       <c r="W7" s="18"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5809,7 +5812,7 @@
       </c>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5855,7 +5858,7 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5905,7 +5908,7 @@
       </c>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5958,7 +5961,7 @@
       </c>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -6016,7 +6019,7 @@
       </c>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -6074,7 +6077,7 @@
       </c>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6124,7 +6127,7 @@
       </c>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6170,7 +6173,7 @@
       <c r="W15" s="18"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6219,7 +6222,7 @@
       </c>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6269,7 +6272,7 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6318,7 +6321,7 @@
       <c r="W18"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6366,7 +6369,7 @@
       </c>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6416,7 +6419,7 @@
       </c>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6470,7 +6473,7 @@
       </c>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6516,7 +6519,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6575,7 +6578,7 @@
       </c>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6619,7 +6622,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6663,7 +6666,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6703,7 +6706,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6751,7 +6754,7 @@
       </c>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6795,7 +6798,7 @@
       <c r="W28" s="18"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6839,7 +6842,7 @@
       <c r="W29" s="18"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6882,7 +6885,7 @@
       </c>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6930,7 +6933,7 @@
       </c>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6978,7 +6981,7 @@
       </c>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -7031,7 +7034,7 @@
       </c>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -7075,7 +7078,7 @@
       <c r="W34" s="18"/>
       <c r="X34" s="19"/>
     </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7116,7 +7119,7 @@
       <c r="W35" s="18"/>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7170,7 +7173,7 @@
       </c>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7222,7 +7225,7 @@
       </c>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7280,7 +7283,7 @@
       </c>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7327,7 +7330,7 @@
       <c r="W39" s="18"/>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7371,7 +7374,7 @@
       <c r="W40" s="18"/>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7423,7 +7426,7 @@
       </c>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7471,7 +7474,7 @@
       </c>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7515,7 +7518,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7569,7 +7572,7 @@
       </c>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7627,7 +7630,7 @@
       </c>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7674,7 +7677,7 @@
       </c>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7718,7 +7721,7 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7766,7 +7769,7 @@
       </c>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7814,7 +7817,7 @@
       </c>
       <c r="X49"/>
     </row>
-    <row r="50" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7862,7 +7865,7 @@
       </c>
       <c r="X50"/>
     </row>
-    <row r="51" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7913,7 +7916,7 @@
       </c>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7960,7 +7963,7 @@
       </c>
       <c r="X52"/>
     </row>
-    <row r="53" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -8008,7 +8011,7 @@
       </c>
       <c r="X53"/>
     </row>
-    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>1100</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K54" s="38">
         <v>39758</v>
@@ -8061,7 +8064,7 @@
       </c>
       <c r="X54"/>
     </row>
-    <row r="55" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -8108,7 +8111,7 @@
       <c r="W55" s="18"/>
       <c r="X55" s="19"/>
     </row>
-    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8157,7 +8160,7 @@
       <c r="W56" s="18"/>
       <c r="X56" s="19"/>
     </row>
-    <row r="57" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -8206,7 +8209,7 @@
       <c r="W57" s="18"/>
       <c r="X57" s="19"/>
     </row>
-    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8259,7 +8262,7 @@
       <c r="W58" s="18"/>
       <c r="X58" s="19"/>
     </row>
-    <row r="59" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -8308,7 +8311,7 @@
       <c r="W59" s="18"/>
       <c r="X59" s="19"/>
     </row>
-    <row r="60" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8356,7 +8359,7 @@
       <c r="W60" s="18"/>
       <c r="X60" s="19"/>
     </row>
-    <row r="61" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8404,7 +8407,7 @@
       <c r="W61" s="18"/>
       <c r="X61" s="19"/>
     </row>
-    <row r="62" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8448,7 +8451,7 @@
       <c r="W62" s="18"/>
       <c r="X62" s="19"/>
     </row>
-    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8492,7 +8495,7 @@
       <c r="W63" s="18"/>
       <c r="X63" s="19"/>
     </row>
-    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8543,7 +8546,7 @@
       <c r="W64" s="18"/>
       <c r="X64" s="19"/>
     </row>
-    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>1100</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K65" s="34">
         <v>39794</v>
@@ -8592,7 +8595,7 @@
       <c r="W65" s="18"/>
       <c r="X65" s="19"/>
     </row>
-    <row r="66" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8636,7 +8639,7 @@
       <c r="W66" s="18"/>
       <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8685,7 +8688,7 @@
       <c r="W67" s="18"/>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8734,7 +8737,7 @@
       <c r="W68" s="18"/>
       <c r="X68" s="19"/>
     </row>
-    <row r="69" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8778,7 +8781,7 @@
       <c r="W69" s="18"/>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8822,7 +8825,7 @@
       <c r="W70" s="18"/>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8864,7 +8867,7 @@
       <c r="W71" s="18"/>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2009</v>
       </c>
@@ -8910,7 +8913,7 @@
       <c r="W72" s="18"/>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -8956,7 +8959,7 @@
       <c r="W73" s="18"/>
       <c r="X73" s="19"/>
     </row>
-    <row r="74" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2009</v>
       </c>
@@ -9005,7 +9008,7 @@
       <c r="W74" s="18"/>
       <c r="X74" s="19"/>
     </row>
-    <row r="75" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -9051,7 +9054,7 @@
       <c r="W75" s="18"/>
       <c r="X75" s="19"/>
     </row>
-    <row r="76" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -9100,7 +9103,7 @@
       <c r="W76" s="18"/>
       <c r="X76" s="19"/>
     </row>
-    <row r="77" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2009</v>
       </c>
@@ -9151,7 +9154,7 @@
       <c r="W77" s="18"/>
       <c r="X77" s="19"/>
     </row>
-    <row r="78" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2009</v>
       </c>
@@ -9200,7 +9203,7 @@
       <c r="W78" s="18"/>
       <c r="X78" s="19"/>
     </row>
-    <row r="79" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2009</v>
       </c>
@@ -9249,7 +9252,7 @@
       <c r="W79" s="18"/>
       <c r="X79" s="19"/>
     </row>
-    <row r="80" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2009</v>
       </c>
@@ -9298,7 +9301,7 @@
       <c r="W80" s="18"/>
       <c r="X80" s="19"/>
     </row>
-    <row r="81" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2009</v>
       </c>
@@ -9347,7 +9350,7 @@
       <c r="W81" s="18"/>
       <c r="X81" s="19"/>
     </row>
-    <row r="82" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2009</v>
       </c>
@@ -9400,7 +9403,7 @@
       <c r="W82" s="18"/>
       <c r="X82" s="19"/>
     </row>
-    <row r="83" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2009</v>
       </c>
@@ -9456,7 +9459,7 @@
       <c r="W83" s="18"/>
       <c r="X83" s="19"/>
     </row>
-    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -9495,7 +9498,7 @@
       <c r="W84" s="18"/>
       <c r="X84" s="19"/>
     </row>
-    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -9536,7 +9539,7 @@
       <c r="W85" s="18"/>
       <c r="X85" s="19"/>
     </row>
-    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>1100</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K86" s="34"/>
       <c r="L86" s="13" t="s">
@@ -9584,7 +9587,7 @@
       <c r="W86" s="18"/>
       <c r="X86" s="19"/>
     </row>
-    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>1100</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K87" s="34"/>
       <c r="L87" s="13" t="s">
@@ -9632,7 +9635,7 @@
       <c r="W87" s="18"/>
       <c r="X87" s="19"/>
     </row>
-    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9653,7 +9656,7 @@
         <v>1100</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K88" s="34"/>
       <c r="L88" s="13" t="s">
@@ -9680,7 +9683,7 @@
       <c r="W88" s="18"/>
       <c r="X88" s="19"/>
     </row>
-    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9701,7 +9704,7 @@
         <v>1100</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K89" s="34"/>
       <c r="L89" s="13" t="s">
@@ -9728,7 +9731,7 @@
       <c r="W89" s="18"/>
       <c r="X89" s="19"/>
     </row>
-    <row r="90" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -9778,7 +9781,7 @@
       <c r="W90" s="18"/>
       <c r="X90" s="19"/>
     </row>
-    <row r="91" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2010</v>
       </c>
@@ -9826,7 +9829,7 @@
       <c r="W91" s="18"/>
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -9876,7 +9879,7 @@
       <c r="W92" s="18"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -9926,7 +9929,7 @@
       <c r="W93" s="18"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -9975,7 +9978,7 @@
       <c r="W94" s="18"/>
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2010</v>
       </c>
@@ -10028,7 +10031,7 @@
       <c r="W95" s="18"/>
       <c r="X95" s="19"/>
     </row>
-    <row r="96" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2010</v>
       </c>
@@ -10077,7 +10080,7 @@
       <c r="W96" s="18"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -10121,7 +10124,7 @@
       <c r="W97" s="18"/>
       <c r="X97" s="19"/>
     </row>
-    <row r="98" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2010</v>
       </c>
@@ -10169,7 +10172,7 @@
       <c r="W98" s="18"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10190,7 +10193,7 @@
         <v>1100</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K99" s="34"/>
       <c r="L99" s="13" t="s">
@@ -10217,7 +10220,7 @@
       <c r="W99" s="18"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>1100</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K100" s="34"/>
       <c r="L100" s="13" t="s">
@@ -10265,7 +10268,7 @@
       <c r="W100" s="18"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -10317,7 +10320,7 @@
       <c r="W101" s="18"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -10364,7 +10367,7 @@
       <c r="W102" s="18"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>1100</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K103" s="34"/>
       <c r="L103" s="13" t="s">
@@ -10412,7 +10415,7 @@
       <c r="W103" s="18"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -10462,7 +10465,7 @@
       <c r="W104" s="18"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>1100</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K105" s="34"/>
       <c r="L105" s="13" t="s">
@@ -10510,7 +10513,7 @@
       <c r="W105" s="18"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -10553,7 +10556,7 @@
       <c r="W106" s="18"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10606,7 +10609,7 @@
       <c r="W107" s="18"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10654,7 +10657,7 @@
       <c r="W108" s="18"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -10704,7 +10707,7 @@
       <c r="W109" s="18"/>
       <c r="X109" s="19"/>
     </row>
-    <row r="110" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -10758,7 +10761,7 @@
       <c r="W110" s="18"/>
       <c r="X110" s="19"/>
     </row>
-    <row r="111" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -10807,7 +10810,7 @@
       <c r="W111" s="18"/>
       <c r="X111" s="19"/>
     </row>
-    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10861,7 +10864,7 @@
       <c r="W112" s="18"/>
       <c r="X112" s="19"/>
     </row>
-    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -10908,7 +10911,7 @@
       <c r="W113" s="18"/>
       <c r="X113" s="19"/>
     </row>
-    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10929,7 +10932,7 @@
         <v>1100</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K114" s="34">
         <v>40422</v>
@@ -10959,7 +10962,7 @@
       <c r="W114" s="18"/>
       <c r="X114" s="19"/>
     </row>
-    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -11011,7 +11014,7 @@
       <c r="W115" s="18"/>
       <c r="X115" s="19"/>
     </row>
-    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -11063,7 +11066,7 @@
       <c r="W116" s="18"/>
       <c r="X116" s="19"/>
     </row>
-    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -11165,7 +11168,7 @@
       <c r="W118" s="18"/>
       <c r="X118" s="19"/>
     </row>
-    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -11214,7 +11217,7 @@
       <c r="W119" s="18"/>
       <c r="X119" s="19"/>
     </row>
-    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11266,7 +11269,7 @@
       <c r="W120" s="18"/>
       <c r="X120" s="19"/>
     </row>
-    <row r="121" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -11311,7 +11314,7 @@
       <c r="W121" s="18"/>
       <c r="X121" s="19"/>
     </row>
-    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11366,7 +11369,7 @@
       <c r="W122" s="18"/>
       <c r="X122" s="19"/>
     </row>
-    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -11408,7 +11411,7 @@
       <c r="W123" s="18"/>
       <c r="X123" s="19"/>
     </row>
-    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -11429,7 +11432,7 @@
         <v>1100</v>
       </c>
       <c r="J124" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K124" s="34">
         <v>40427</v>
@@ -11455,7 +11458,7 @@
       <c r="W124" s="18"/>
       <c r="X124" s="19"/>
     </row>
-    <row r="125" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -11509,7 +11512,7 @@
       <c r="W125" s="18"/>
       <c r="X125" s="19"/>
     </row>
-    <row r="126" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2010</v>
       </c>
@@ -11555,7 +11558,7 @@
       <c r="W126" s="18"/>
       <c r="X126" s="19"/>
     </row>
-    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -11606,7 +11609,7 @@
       <c r="W127" s="18"/>
       <c r="X127" s="19"/>
     </row>
-    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -11630,7 +11633,7 @@
         <v>1214</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K128" s="34">
         <v>40434</v>
@@ -11658,7 +11661,7 @@
       <c r="W128" s="18"/>
       <c r="X128" s="19"/>
     </row>
-    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11712,7 +11715,7 @@
       <c r="W129" s="18"/>
       <c r="X129" s="19"/>
     </row>
-    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11761,7 +11764,7 @@
       <c r="W130" s="18"/>
       <c r="X130" s="19"/>
     </row>
-    <row r="131" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2010</v>
       </c>
@@ -11815,7 +11818,7 @@
       <c r="W131" s="18"/>
       <c r="X131" s="19"/>
     </row>
-    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -11869,7 +11872,7 @@
       <c r="W132" s="18"/>
       <c r="X132" s="19"/>
     </row>
-    <row r="133" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -11918,7 +11921,7 @@
       <c r="W133" s="18"/>
       <c r="X133" s="19"/>
     </row>
-    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -11969,7 +11972,7 @@
       <c r="W134" s="18"/>
       <c r="X134" s="19"/>
     </row>
-    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>1100</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K135" s="34">
         <v>40445</v>
@@ -12018,7 +12021,7 @@
       <c r="W135" s="18"/>
       <c r="X135" s="19"/>
     </row>
-    <row r="136" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -12067,7 +12070,7 @@
       <c r="W136" s="18"/>
       <c r="X136" s="19"/>
     </row>
-    <row r="137" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2010</v>
       </c>
@@ -12119,7 +12122,7 @@
       <c r="W137" s="18"/>
       <c r="X137" s="19"/>
     </row>
-    <row r="138" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2010</v>
       </c>
@@ -12157,7 +12160,7 @@
       <c r="W138" s="18"/>
       <c r="X138" s="19"/>
     </row>
-    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -12203,7 +12206,7 @@
       <c r="W139" s="18"/>
       <c r="X139" s="19"/>
     </row>
-    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -12222,7 +12225,7 @@
         <v>1100</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K140" s="34">
         <v>40476</v>
@@ -12250,7 +12253,7 @@
       <c r="W140" s="18"/>
       <c r="X140" s="19"/>
     </row>
-    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>1147</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K141" s="34">
         <v>40480</v>
@@ -12300,7 +12303,7 @@
       <c r="W141" s="18"/>
       <c r="X141" s="19"/>
     </row>
-    <row r="142" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2010</v>
       </c>
@@ -12347,7 +12350,7 @@
       <c r="W142" s="18"/>
       <c r="X142" s="19"/>
     </row>
-    <row r="143" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2010</v>
       </c>
@@ -12397,7 +12400,7 @@
       <c r="W143" s="18"/>
       <c r="X143" s="19"/>
     </row>
-    <row r="144" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2010</v>
       </c>
@@ -12444,7 +12447,7 @@
       <c r="W144" s="18"/>
       <c r="X144" s="19"/>
     </row>
-    <row r="145" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2013</v>
       </c>
@@ -12490,7 +12493,7 @@
       <c r="W145" s="18"/>
       <c r="X145" s="19"/>
     </row>
-    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -12532,7 +12535,7 @@
       <c r="W146" s="18"/>
       <c r="X146" s="19"/>
     </row>
-    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -12574,7 +12577,7 @@
       <c r="W147" s="18"/>
       <c r="X147" s="19"/>
     </row>
-    <row r="148" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -12640,13 +12643,17 @@
         <v>1100</v>
       </c>
       <c r="J149" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K149" s="34">
         <v>41543</v>
       </c>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
+      <c r="L149" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M149" s="13" t="s">
+        <v>1100</v>
+      </c>
       <c r="N149" s="13"/>
       <c r="O149" s="28">
         <v>32</v>
@@ -12664,7 +12671,7 @@
       <c r="W149" s="18"/>
       <c r="X149" s="19"/>
     </row>
-    <row r="150" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>2013</v>
       </c>
@@ -12704,7 +12711,7 @@
       <c r="W150" s="18"/>
       <c r="X150" s="19"/>
     </row>
-    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -12743,7 +12750,7 @@
       <c r="W151" s="18"/>
       <c r="X151" s="19"/>
     </row>
-    <row r="152" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>2013</v>
       </c>
@@ -12790,7 +12797,7 @@
       <c r="W152" s="18"/>
       <c r="X152" s="19"/>
     </row>
-    <row r="153" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>2013</v>
       </c>
@@ -12807,7 +12814,9 @@
       <c r="F153" s="13">
         <v>1</v>
       </c>
-      <c r="J153" s="13"/>
+      <c r="J153" s="13" t="s">
+        <v>936</v>
+      </c>
       <c r="K153" s="34">
         <v>41544</v>
       </c>
@@ -12824,7 +12833,7 @@
       <c r="W153" s="18"/>
       <c r="X153" s="19"/>
     </row>
-    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -12860,7 +12869,7 @@
       <c r="W154" s="18"/>
       <c r="X154" s="19"/>
     </row>
-    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -12896,7 +12905,7 @@
       <c r="W155" s="18"/>
       <c r="X155" s="19"/>
     </row>
-    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -12932,7 +12941,7 @@
       <c r="W156" s="18"/>
       <c r="X156" s="19"/>
     </row>
-    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12977,7 +12986,7 @@
       <c r="W157" s="18"/>
       <c r="X157" s="19"/>
     </row>
-    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -13022,7 +13031,7 @@
       <c r="W158" s="18"/>
       <c r="X158" s="19"/>
     </row>
-    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -13067,7 +13076,7 @@
       <c r="W159" s="18"/>
       <c r="X159" s="19"/>
     </row>
-    <row r="160" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>2013</v>
       </c>
@@ -13114,7 +13123,7 @@
       <c r="W160" s="18"/>
       <c r="X160" s="19"/>
     </row>
-    <row r="161" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>2013</v>
       </c>
@@ -13155,7 +13164,7 @@
       <c r="W161" s="18"/>
       <c r="X161" s="19"/>
     </row>
-    <row r="162" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>2013</v>
       </c>
@@ -13232,7 +13241,7 @@
       <c r="W163" s="18"/>
       <c r="X163" s="19"/>
     </row>
-    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -13268,7 +13277,7 @@
       <c r="W164" s="18"/>
       <c r="X164" s="19"/>
     </row>
-    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -13310,7 +13319,7 @@
       <c r="W165" s="18"/>
       <c r="X165" s="19"/>
     </row>
-    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -13346,7 +13355,7 @@
       <c r="W166" s="18"/>
       <c r="X166" s="19"/>
     </row>
-    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -13382,7 +13391,7 @@
       <c r="W167" s="18"/>
       <c r="X167" s="19"/>
     </row>
-    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -13418,7 +13427,7 @@
       <c r="W168" s="18"/>
       <c r="X168" s="19"/>
     </row>
-    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -13439,7 +13448,7 @@
         <v>1100</v>
       </c>
       <c r="J169" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K169" s="34">
         <v>41880</v>
@@ -13474,7 +13483,7 @@
       <c r="W169" s="18"/>
       <c r="X169" s="19"/>
     </row>
-    <row r="170" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>2014</v>
       </c>
@@ -13529,7 +13538,7 @@
       <c r="W170" s="18"/>
       <c r="X170" s="19"/>
     </row>
-    <row r="171" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>2014</v>
       </c>
@@ -13581,7 +13590,7 @@
       <c r="W171" s="18"/>
       <c r="X171" s="19"/>
     </row>
-    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13632,7 +13641,7 @@
       <c r="W172" s="18"/>
       <c r="X172" s="19"/>
     </row>
-    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -13653,7 +13662,7 @@
         <v>1100</v>
       </c>
       <c r="J173" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K173" s="34">
         <v>41880</v>
@@ -13683,7 +13692,7 @@
       <c r="W173" s="18"/>
       <c r="X173" s="19"/>
     </row>
-    <row r="174" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>2014</v>
       </c>
@@ -13729,7 +13738,7 @@
       <c r="W174" s="18"/>
       <c r="X174" s="19"/>
     </row>
-    <row r="175" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>2014</v>
       </c>
@@ -13781,7 +13790,7 @@
       <c r="W175" s="18"/>
       <c r="X175" s="19"/>
     </row>
-    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -13826,7 +13835,7 @@
       <c r="W176" s="18"/>
       <c r="X176" s="19"/>
     </row>
-    <row r="177" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>2014</v>
       </c>
@@ -13874,7 +13883,7 @@
       <c r="W177" s="18"/>
       <c r="X177" s="19"/>
     </row>
-    <row r="178" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>2014</v>
       </c>
@@ -13920,7 +13929,7 @@
       <c r="W178" s="18"/>
       <c r="X178" s="19"/>
     </row>
-    <row r="179" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>2014</v>
       </c>
@@ -13966,7 +13975,7 @@
       <c r="W179" s="18"/>
       <c r="X179" s="19"/>
     </row>
-    <row r="180" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>2014</v>
       </c>
@@ -14017,7 +14026,7 @@
       <c r="W180" s="18"/>
       <c r="X180" s="19"/>
     </row>
-    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -14059,7 +14068,7 @@
       <c r="W181" s="18"/>
       <c r="X181" s="19"/>
     </row>
-    <row r="182" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>2014</v>
       </c>
@@ -14114,7 +14123,7 @@
       <c r="W182" s="18"/>
       <c r="X182" s="19"/>
     </row>
-    <row r="183" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>2014</v>
       </c>
@@ -14162,7 +14171,7 @@
       <c r="W183" s="18"/>
       <c r="X183" s="19"/>
     </row>
-    <row r="184" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>2014</v>
       </c>
@@ -14207,7 +14216,7 @@
       <c r="W184" s="18"/>
       <c r="X184" s="19"/>
     </row>
-    <row r="185" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>2014</v>
       </c>
@@ -14250,7 +14259,7 @@
       <c r="W185" s="18"/>
       <c r="X185" s="19"/>
     </row>
-    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -14295,7 +14304,7 @@
       <c r="W186" s="18"/>
       <c r="X186" s="19"/>
     </row>
-    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -14340,7 +14349,7 @@
       <c r="W187" s="18"/>
       <c r="X187" s="19"/>
     </row>
-    <row r="188" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -14391,7 +14400,7 @@
       <c r="W188" s="18"/>
       <c r="X188" s="19"/>
     </row>
-    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -14433,7 +14442,7 @@
       <c r="W189" s="18"/>
       <c r="X189" s="19"/>
     </row>
-    <row r="190" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>2014</v>
       </c>
@@ -14478,7 +14487,7 @@
       <c r="W190" s="18"/>
       <c r="X190" s="19"/>
     </row>
-    <row r="191" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>2014</v>
       </c>
@@ -14533,7 +14542,7 @@
       <c r="W191" s="18"/>
       <c r="X191" s="19"/>
     </row>
-    <row r="192" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>2014</v>
       </c>
@@ -14579,7 +14588,7 @@
       <c r="W192" s="18"/>
       <c r="X192" s="19"/>
     </row>
-    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -14623,7 +14632,7 @@
       <c r="W193" s="18"/>
       <c r="X193" s="19"/>
     </row>
-    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -14665,7 +14674,7 @@
       <c r="W194" s="18"/>
       <c r="X194" s="19"/>
     </row>
-    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -14707,7 +14716,7 @@
       <c r="W195" s="18"/>
       <c r="X195" s="19"/>
     </row>
-    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -14773,7 +14782,7 @@
         <v>1100</v>
       </c>
       <c r="J197" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K197" s="34">
         <v>41899</v>
@@ -14803,7 +14812,7 @@
       <c r="W197" s="18"/>
       <c r="X197" s="19"/>
     </row>
-    <row r="198" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>2014</v>
       </c>
@@ -14849,7 +14858,7 @@
       <c r="W198" s="18"/>
       <c r="X198" s="19"/>
     </row>
-    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -14891,7 +14900,7 @@
       <c r="W199" s="18"/>
       <c r="X199" s="19"/>
     </row>
-    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -14912,7 +14921,7 @@
         <v>1100</v>
       </c>
       <c r="J200" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K200" s="34">
         <v>41899</v>
@@ -14942,7 +14951,7 @@
       <c r="W200" s="18"/>
       <c r="X200" s="19"/>
     </row>
-    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -14987,7 +14996,7 @@
       <c r="W201" s="18"/>
       <c r="X201" s="19"/>
     </row>
-    <row r="202" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>2014</v>
       </c>
@@ -15047,7 +15056,7 @@
       <c r="W202" s="18"/>
       <c r="X202" s="19"/>
     </row>
-    <row r="203" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>2014</v>
       </c>
@@ -15093,7 +15102,7 @@
       <c r="W203" s="18"/>
       <c r="X203" s="19"/>
     </row>
-    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -15114,7 +15123,7 @@
         <v>1100</v>
       </c>
       <c r="J204" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K204" s="34">
         <v>41907</v>
@@ -15144,7 +15153,7 @@
       <c r="W204" s="18"/>
       <c r="X204" s="19"/>
     </row>
-    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -15165,7 +15174,7 @@
         <v>1100</v>
       </c>
       <c r="J205" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K205" s="34">
         <v>41907</v>
@@ -15219,7 +15228,7 @@
         <v>1244</v>
       </c>
       <c r="J206" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K206" s="34">
         <v>41907</v>
@@ -15273,7 +15282,7 @@
         <v>1247</v>
       </c>
       <c r="J207" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K207" s="34">
         <v>41907</v>
@@ -15303,7 +15312,7 @@
       <c r="W207" s="18"/>
       <c r="X207" s="19"/>
     </row>
-    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15351,7 +15360,7 @@
       <c r="W208" s="18"/>
       <c r="X208" s="19"/>
     </row>
-    <row r="209" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>2014</v>
       </c>
@@ -15411,7 +15420,7 @@
       <c r="W209" s="18"/>
       <c r="X209" s="19"/>
     </row>
-    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -15453,7 +15462,7 @@
       <c r="W210" s="18"/>
       <c r="X210" s="19"/>
     </row>
-    <row r="211" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>2014</v>
       </c>
@@ -15502,7 +15511,7 @@
       <c r="W211" s="18"/>
       <c r="X211" s="19"/>
     </row>
-    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15547,7 +15556,7 @@
       <c r="W212" s="18"/>
       <c r="X212" s="19"/>
     </row>
-    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15596,7 +15605,7 @@
       <c r="W213" s="18"/>
       <c r="X213" s="19"/>
     </row>
-    <row r="214" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>2014</v>
       </c>
@@ -15639,7 +15648,7 @@
       <c r="W214" s="18"/>
       <c r="X214" s="19"/>
     </row>
-    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -15696,7 +15705,7 @@
       <c r="W215" s="18"/>
       <c r="X215" s="19"/>
     </row>
-    <row r="216" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>2014</v>
       </c>
@@ -15754,7 +15763,7 @@
       <c r="W216" s="18"/>
       <c r="X216" s="19"/>
     </row>
-    <row r="217" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>2014</v>
       </c>
@@ -15804,7 +15813,7 @@
       <c r="W217" s="18"/>
       <c r="X217" s="19"/>
     </row>
-    <row r="218" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>2014</v>
       </c>
@@ -15861,7 +15870,7 @@
       <c r="W218" s="18"/>
       <c r="X218" s="19"/>
     </row>
-    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -15918,7 +15927,7 @@
       <c r="W219" s="18"/>
       <c r="X219" s="19"/>
     </row>
-    <row r="220" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>2014</v>
       </c>
@@ -15967,7 +15976,7 @@
       <c r="W220" s="18"/>
       <c r="X220" s="19"/>
     </row>
-    <row r="221" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>2014</v>
       </c>
@@ -16019,7 +16028,7 @@
       <c r="W221" s="18"/>
       <c r="X221" s="19"/>
     </row>
-    <row r="222" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>2014</v>
       </c>
@@ -16073,7 +16082,7 @@
       <c r="W222" s="18"/>
       <c r="X222" s="19"/>
     </row>
-    <row r="223" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>2014</v>
       </c>
@@ -16130,7 +16139,7 @@
       <c r="W223" s="18"/>
       <c r="X223" s="19"/>
     </row>
-    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -16182,7 +16191,7 @@
       <c r="W224" s="18"/>
       <c r="X224" s="19"/>
     </row>
-    <row r="225" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>2014</v>
       </c>
@@ -16234,7 +16243,7 @@
       <c r="W225" s="18"/>
       <c r="X225" s="19"/>
     </row>
-    <row r="226" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>2014</v>
       </c>
@@ -16291,7 +16300,7 @@
       <c r="W226" s="18"/>
       <c r="X226" s="19"/>
     </row>
-    <row r="227" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>2014</v>
       </c>
@@ -16343,7 +16352,7 @@
       <c r="W227" s="18"/>
       <c r="X227" s="19"/>
     </row>
-    <row r="228" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>2014</v>
       </c>
@@ -16397,7 +16406,7 @@
       <c r="W228" s="18"/>
       <c r="X228" s="19"/>
     </row>
-    <row r="229" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>2014</v>
       </c>
@@ -16446,7 +16455,7 @@
       <c r="W229" s="18"/>
       <c r="X229" s="19"/>
     </row>
-    <row r="230" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>2014</v>
       </c>
@@ -16492,7 +16501,7 @@
       <c r="W230" s="18"/>
       <c r="X230" s="19"/>
     </row>
-    <row r="231" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>2015</v>
       </c>
@@ -16547,7 +16556,7 @@
       <c r="W231" s="18"/>
       <c r="X231" s="19"/>
     </row>
-    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -16594,7 +16603,7 @@
       <c r="W232" s="18"/>
       <c r="X232" s="19"/>
     </row>
-    <row r="233" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>2015</v>
       </c>
@@ -16698,7 +16707,7 @@
       <c r="W234" s="18"/>
       <c r="X234" s="19"/>
     </row>
-    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -16750,7 +16759,7 @@
       <c r="W235" s="18"/>
       <c r="X235" s="19"/>
     </row>
-    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -16803,7 +16812,7 @@
       <c r="W236" s="18"/>
       <c r="X236" s="19"/>
     </row>
-    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -16852,7 +16861,7 @@
       <c r="W237" s="18"/>
       <c r="X237" s="19"/>
     </row>
-    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -16901,7 +16910,7 @@
       <c r="W238" s="18"/>
       <c r="X238" s="19"/>
     </row>
-    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -16950,7 +16959,7 @@
       <c r="W239" s="18"/>
       <c r="X239" s="19"/>
     </row>
-    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -17001,7 +17010,7 @@
       <c r="W240" s="18"/>
       <c r="X240" s="19"/>
     </row>
-    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -17049,7 +17058,7 @@
       <c r="W241" s="18"/>
       <c r="X241" s="19"/>
     </row>
-    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -17104,7 +17113,7 @@
       <c r="W242" s="18"/>
       <c r="X242" s="19"/>
     </row>
-    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -17154,7 +17163,7 @@
       <c r="W243" s="18"/>
       <c r="X243" s="19"/>
     </row>
-    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -17207,7 +17216,7 @@
       <c r="W244" s="18"/>
       <c r="X244" s="19"/>
     </row>
-    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -17258,7 +17267,7 @@
       <c r="W245" s="18"/>
       <c r="X245" s="19"/>
     </row>
-    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -17309,7 +17318,7 @@
       <c r="W246" s="18"/>
       <c r="X246" s="19"/>
     </row>
-    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17359,7 +17368,7 @@
       <c r="W247" s="18"/>
       <c r="X247" s="19"/>
     </row>
-    <row r="248" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>2015</v>
       </c>
@@ -17412,7 +17421,7 @@
       <c r="W248" s="18"/>
       <c r="X248" s="19"/>
     </row>
-    <row r="249" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>2015</v>
       </c>
@@ -17461,7 +17470,7 @@
       <c r="W249" s="18"/>
       <c r="X249" s="19"/>
     </row>
-    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -17488,7 +17497,7 @@
         <v>991</v>
       </c>
       <c r="J250" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K250" s="34">
         <v>42254</v>
@@ -17518,7 +17527,7 @@
       <c r="W250" s="18"/>
       <c r="X250" s="19"/>
     </row>
-    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -17567,7 +17576,7 @@
       <c r="W251" s="18"/>
       <c r="X251" s="19"/>
     </row>
-    <row r="252" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>2015</v>
       </c>
@@ -17619,7 +17628,7 @@
       <c r="W252" s="18"/>
       <c r="X252" s="19"/>
     </row>
-    <row r="253" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>2015</v>
       </c>
@@ -17670,7 +17679,7 @@
       <c r="W253" s="18"/>
       <c r="X253" s="19"/>
     </row>
-    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -17718,7 +17727,7 @@
       <c r="W254" s="18"/>
       <c r="X254" s="19"/>
     </row>
-    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -17765,7 +17774,7 @@
       <c r="W255" s="18"/>
       <c r="X255" s="19"/>
     </row>
-    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -17816,7 +17825,7 @@
       <c r="W256" s="18"/>
       <c r="X256" s="19"/>
     </row>
-    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -17865,7 +17874,7 @@
       <c r="W257" s="18"/>
       <c r="X257" s="19"/>
     </row>
-    <row r="258" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>2015</v>
       </c>
@@ -17916,7 +17925,7 @@
       <c r="W258" s="18"/>
       <c r="X258" s="19"/>
     </row>
-    <row r="259" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>2015</v>
       </c>
@@ -17996,7 +18005,7 @@
         <v>994</v>
       </c>
       <c r="J260" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K260" s="29">
         <v>42261</v>
@@ -18026,7 +18035,7 @@
       <c r="W260" s="18"/>
       <c r="X260" s="19"/>
     </row>
-    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -18049,7 +18058,7 @@
       </c>
       <c r="I261" s="43"/>
       <c r="J261" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K261" s="29">
         <v>42263</v>
@@ -18079,7 +18088,7 @@
       <c r="W261" s="18"/>
       <c r="X261" s="19"/>
     </row>
-    <row r="262" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>2015</v>
       </c>
@@ -18132,7 +18141,7 @@
       <c r="W262" s="18"/>
       <c r="X262" s="19"/>
     </row>
-    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -18179,7 +18188,7 @@
       <c r="W263" s="18"/>
       <c r="X263" s="19"/>
     </row>
-    <row r="264" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>2015</v>
       </c>
@@ -18232,7 +18241,7 @@
       <c r="W264" s="18"/>
       <c r="X264" s="19"/>
     </row>
-    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -18255,7 +18264,7 @@
       </c>
       <c r="I265" s="43"/>
       <c r="J265" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K265" s="29">
         <v>42268</v>
@@ -18285,7 +18294,7 @@
       <c r="W265" s="18"/>
       <c r="X265" s="19"/>
     </row>
-    <row r="266" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -18414,7 +18423,7 @@
       </c>
       <c r="I268" s="43"/>
       <c r="J268" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K268" s="29">
         <v>42273</v>
@@ -18444,7 +18453,7 @@
       <c r="W268" s="18"/>
       <c r="X268" s="19"/>
     </row>
-    <row r="269" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>2015</v>
       </c>
@@ -18497,7 +18506,7 @@
       <c r="W269" s="18"/>
       <c r="X269" s="19"/>
     </row>
-    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -18522,7 +18531,7 @@
       </c>
       <c r="I270" s="43"/>
       <c r="J270" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K270" s="29">
         <v>42276</v>
@@ -18552,7 +18561,7 @@
       <c r="W270" s="18"/>
       <c r="X270" s="19"/>
     </row>
-    <row r="271" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>2015</v>
       </c>
@@ -18603,7 +18612,7 @@
       <c r="W271" s="18"/>
       <c r="X271" s="19"/>
     </row>
-    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -18648,7 +18657,7 @@
       <c r="W272" s="18"/>
       <c r="X272" s="19"/>
     </row>
-    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18695,7 +18704,7 @@
       <c r="W273" s="18"/>
       <c r="X273" s="19"/>
     </row>
-    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -18746,7 +18755,7 @@
       <c r="W274" s="18"/>
       <c r="X274" s="19"/>
     </row>
-    <row r="275" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>2015</v>
       </c>
@@ -18795,7 +18804,7 @@
       <c r="W275" s="18"/>
       <c r="X275" s="19"/>
     </row>
-    <row r="276" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>2015</v>
       </c>
@@ -18844,7 +18853,7 @@
       <c r="W276" s="18"/>
       <c r="X276" s="19"/>
     </row>
-    <row r="277" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>2015</v>
       </c>
@@ -18893,7 +18902,7 @@
       <c r="W277" s="18"/>
       <c r="X277" s="19"/>
     </row>
-    <row r="278" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>2015</v>
       </c>
@@ -18942,7 +18951,7 @@
       <c r="W278" s="18"/>
       <c r="X278" s="19"/>
     </row>
-    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -18989,7 +18998,7 @@
       <c r="W279" s="18"/>
       <c r="X279" s="19"/>
     </row>
-    <row r="280" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>2015</v>
       </c>
@@ -19038,7 +19047,7 @@
       <c r="W280" s="18"/>
       <c r="X280" s="19"/>
     </row>
-    <row r="281" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>2015</v>
       </c>
@@ -19089,7 +19098,7 @@
       <c r="W281" s="18"/>
       <c r="X281" s="19"/>
     </row>
-    <row r="282" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>2015</v>
       </c>
@@ -19136,7 +19145,7 @@
       <c r="W282" s="18"/>
       <c r="X282" s="19"/>
     </row>
-    <row r="283" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>2015</v>
       </c>
@@ -19188,7 +19197,7 @@
       <c r="W283" s="18"/>
       <c r="X283" s="19"/>
     </row>
-    <row r="284" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>2015</v>
       </c>
@@ -19235,7 +19244,7 @@
       <c r="W284" s="18"/>
       <c r="X284" s="19"/>
     </row>
-    <row r="285" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>2015</v>
       </c>
@@ -19284,7 +19293,7 @@
       <c r="W285" s="18"/>
       <c r="X285" s="19"/>
     </row>
-    <row r="286" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>2015</v>
       </c>
@@ -19331,7 +19340,7 @@
       <c r="W286" s="18"/>
       <c r="X286" s="19"/>
     </row>
-    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -19381,7 +19390,7 @@
       <c r="W287" s="18"/>
       <c r="X287" s="19"/>
     </row>
-    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -19429,7 +19438,7 @@
       <c r="W288" s="18"/>
       <c r="X288" s="19"/>
     </row>
-    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -19450,7 +19459,7 @@
       </c>
       <c r="I289" s="43"/>
       <c r="J289" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K289" s="29">
         <v>42304</v>
@@ -19480,7 +19489,7 @@
       <c r="W289" s="18"/>
       <c r="X289" s="19"/>
     </row>
-    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19528,7 +19537,7 @@
       <c r="W290" s="18"/>
       <c r="X290" s="19"/>
     </row>
-    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -19571,7 +19580,7 @@
       <c r="W291" s="18"/>
       <c r="X291" s="19"/>
     </row>
-    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -19594,7 +19603,7 @@
       </c>
       <c r="I292"/>
       <c r="J292" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K292" s="29">
         <v>42305</v>
@@ -19624,7 +19633,7 @@
       <c r="W292" s="18"/>
       <c r="X292" s="19"/>
     </row>
-    <row r="293" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>2015</v>
       </c>
@@ -19680,7 +19689,7 @@
       <c r="W293" s="18"/>
       <c r="X293" s="19"/>
     </row>
-    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19730,7 +19739,7 @@
       <c r="W294" s="18"/>
       <c r="X294" s="19"/>
     </row>
-    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -19778,7 +19787,7 @@
       <c r="W295" s="18"/>
       <c r="X295" s="19"/>
     </row>
-    <row r="296" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>2015</v>
       </c>
@@ -19825,7 +19834,7 @@
       <c r="W296" s="18"/>
       <c r="X296" s="19"/>
     </row>
-    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -19845,7 +19854,7 @@
         <v>1100</v>
       </c>
       <c r="J297" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K297" s="29">
         <v>42317</v>
@@ -19875,7 +19884,7 @@
       <c r="W297" s="18"/>
       <c r="X297" s="19"/>
     </row>
-    <row r="298" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>2015</v>
       </c>
@@ -19923,7 +19932,7 @@
       <c r="W298" s="18"/>
       <c r="X298" s="19"/>
     </row>
-    <row r="299" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>2015</v>
       </c>
@@ -19970,7 +19979,7 @@
       <c r="W299" s="18"/>
       <c r="X299" s="19"/>
     </row>
-    <row r="300" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -20020,7 +20029,7 @@
       <c r="W300" s="18"/>
       <c r="X300" s="19"/>
     </row>
-    <row r="301" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>2015</v>
       </c>
@@ -20077,7 +20086,7 @@
       <c r="W301" s="18"/>
       <c r="X301" s="19"/>
     </row>
-    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -20127,7 +20136,7 @@
       <c r="W302" s="18"/>
       <c r="X302" s="19"/>
     </row>
-    <row r="303" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>2015</v>
       </c>
@@ -20180,7 +20189,7 @@
       <c r="W303" s="18"/>
       <c r="X303" s="19"/>
     </row>
-    <row r="304" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>2015</v>
       </c>
@@ -20225,7 +20234,7 @@
       <c r="W304" s="18"/>
       <c r="X304" s="19"/>
     </row>
-    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -20245,7 +20254,7 @@
         <v>1100</v>
       </c>
       <c r="J305" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K305" s="29">
         <v>42358</v>
@@ -20275,7 +20284,7 @@
       <c r="W305" s="18"/>
       <c r="X305" s="19"/>
     </row>
-    <row r="306" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>2015</v>
       </c>
@@ -20322,7 +20331,7 @@
       <c r="W306" s="18"/>
       <c r="X306" s="19"/>
     </row>
-    <row r="307" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>2015</v>
       </c>
@@ -20372,7 +20381,7 @@
       <c r="W307" s="18"/>
       <c r="X307" s="19"/>
     </row>
-    <row r="308" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>2015</v>
       </c>
@@ -20419,7 +20428,7 @@
       <c r="W308" s="18"/>
       <c r="X308" s="19"/>
     </row>
-    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -20466,7 +20475,7 @@
       <c r="W309" s="18"/>
       <c r="X309" s="19"/>
     </row>
-    <row r="310" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>2015</v>
       </c>
@@ -20513,7 +20522,7 @@
       <c r="W310" s="18"/>
       <c r="X310" s="19"/>
     </row>
-    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -20560,7 +20569,7 @@
       <c r="W311" s="18"/>
       <c r="X311" s="19"/>
     </row>
-    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -20607,7 +20616,7 @@
       <c r="W312" s="18"/>
       <c r="X312" s="19"/>
     </row>
-    <row r="313" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>2015</v>
       </c>
@@ -20653,7 +20662,7 @@
       <c r="W313" s="18"/>
       <c r="X313" s="19"/>
     </row>
-    <row r="314" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -20699,7 +20708,7 @@
       <c r="W314" s="18"/>
       <c r="X314" s="19"/>
     </row>
-    <row r="315" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>2015</v>
       </c>
@@ -20752,7 +20761,7 @@
       <c r="W315" s="18"/>
       <c r="X315" s="19"/>
     </row>
-    <row r="316" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>2015</v>
       </c>
@@ -20802,7 +20811,7 @@
       <c r="W316" s="18"/>
       <c r="X316" s="19"/>
     </row>
-    <row r="317" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -20852,7 +20861,7 @@
       <c r="W317" s="18"/>
       <c r="X317" s="19"/>
     </row>
-    <row r="318" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>2016</v>
       </c>
@@ -20901,7 +20910,7 @@
       <c r="W318" s="18"/>
       <c r="X318" s="19"/>
     </row>
-    <row r="319" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>2016</v>
       </c>
@@ -20963,7 +20972,7 @@
       <c r="AA319"/>
       <c r="AB319" s="6"/>
     </row>
-    <row r="320" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>2016</v>
       </c>
@@ -21024,7 +21033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -21087,7 +21096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -21112,7 +21121,7 @@
       </c>
       <c r="I322" s="41"/>
       <c r="J322" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K322" s="34">
         <v>42623</v>
@@ -21148,7 +21157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>2016</v>
       </c>
@@ -21212,7 +21221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>2016</v>
       </c>
@@ -21281,7 +21290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>2016</v>
       </c>
@@ -21348,7 +21357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -21375,7 +21384,7 @@
         <v>1263</v>
       </c>
       <c r="J326" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K326" s="34">
         <v>42624</v>
@@ -21415,7 +21424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>2016</v>
       </c>
@@ -21481,7 +21490,7 @@
       <c r="AA327"/>
       <c r="AB327" s="6"/>
     </row>
-    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -21508,7 +21517,7 @@
         <v>1259</v>
       </c>
       <c r="J328" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K328" s="34">
         <v>42624</v>
@@ -21544,7 +21553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -21607,7 +21616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>2016</v>
       </c>
@@ -21669,7 +21678,7 @@
       <c r="AA330"/>
       <c r="AB330" s="6"/>
     </row>
-    <row r="331" spans="1:28" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>2016</v>
       </c>
@@ -21729,7 +21738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -21756,7 +21765,7 @@
         <v>1264</v>
       </c>
       <c r="J332" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K332" s="34">
         <v>42624</v>
@@ -21792,7 +21801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -21856,7 +21865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:28" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>2016</v>
       </c>
@@ -21918,7 +21927,7 @@
       <c r="AA334"/>
       <c r="AB334" s="6"/>
     </row>
-    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -21980,7 +21989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -22042,7 +22051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -22106,7 +22115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -22133,7 +22142,7 @@
         <v>1253</v>
       </c>
       <c r="J338" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K338" s="34">
         <v>42625</v>
@@ -22172,7 +22181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -22236,7 +22245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -22260,7 +22269,7 @@
         <v>1268</v>
       </c>
       <c r="J340" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K340" s="34">
         <v>42626</v>
@@ -22293,7 +22302,7 @@
       <c r="W340" s="18"/>
       <c r="X340" s="19"/>
     </row>
-    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -22347,7 +22356,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="342" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>2016</v>
       </c>
@@ -22405,7 +22414,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="343" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>2016</v>
       </c>
@@ -22465,7 +22474,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="344" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>2016</v>
       </c>
@@ -22523,7 +22532,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -22582,7 +22591,7 @@
       <c r="W345" s="18"/>
       <c r="X345" s="19"/>
     </row>
-    <row r="346" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -22636,7 +22645,7 @@
       <c r="W346" s="18"/>
       <c r="X346" s="19"/>
     </row>
-    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -22657,7 +22666,7 @@
         <v>1100</v>
       </c>
       <c r="J347" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K347" s="34">
         <v>42638</v>
@@ -22690,7 +22699,7 @@
       <c r="W347" s="18"/>
       <c r="X347" s="19"/>
     </row>
-    <row r="348" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>2016</v>
       </c>
@@ -22750,7 +22759,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="349" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>2016</v>
       </c>
@@ -22799,7 +22808,7 @@
       <c r="W349" s="18"/>
       <c r="X349" s="19"/>
     </row>
-    <row r="350" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>2016</v>
       </c>
@@ -22851,7 +22860,7 @@
       <c r="W350" s="18"/>
       <c r="X350" s="19"/>
     </row>
-    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -22912,7 +22921,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -22973,7 +22982,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="353" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>2016</v>
       </c>
@@ -23021,7 +23030,7 @@
       <c r="W353" s="18"/>
       <c r="X353" s="19"/>
     </row>
-    <row r="354" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>2016</v>
       </c>
@@ -23079,7 +23088,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -23100,7 +23109,7 @@
         <v>1100</v>
       </c>
       <c r="J355" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K355" s="34">
         <v>42644</v>
@@ -23133,7 +23142,7 @@
       <c r="W355" s="18"/>
       <c r="X355" s="19"/>
     </row>
-    <row r="356" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>2016</v>
       </c>
@@ -23181,7 +23190,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="357" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>2016</v>
       </c>
@@ -23228,7 +23237,7 @@
       <c r="W357" s="18"/>
       <c r="X357" s="19"/>
     </row>
-    <row r="358" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>2016</v>
       </c>
@@ -23286,7 +23295,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="359" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>2016</v>
       </c>
@@ -23342,7 +23351,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="360" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>2016</v>
       </c>
@@ -23387,7 +23396,7 @@
       <c r="W360" s="18"/>
       <c r="X360" s="19"/>
     </row>
-    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -23409,7 +23418,7 @@
         <v>1280</v>
       </c>
       <c r="J361" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K361" s="34">
         <v>42650</v>
@@ -23442,7 +23451,7 @@
       <c r="W361" s="18"/>
       <c r="X361" s="19"/>
     </row>
-    <row r="362" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>2016</v>
       </c>
@@ -23501,7 +23510,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="363" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>2016</v>
       </c>
@@ -23545,7 +23554,7 @@
       <c r="W363" s="18"/>
       <c r="X363" s="19"/>
     </row>
-    <row r="364" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>2016</v>
       </c>
@@ -23589,7 +23598,7 @@
       <c r="W364" s="18"/>
       <c r="X364" s="19"/>
     </row>
-    <row r="365" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>2016</v>
       </c>
@@ -23636,7 +23645,7 @@
       <c r="W365" s="18"/>
       <c r="X365" s="19"/>
     </row>
-    <row r="366" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>2016</v>
       </c>
@@ -23699,7 +23708,7 @@
         <v>1100</v>
       </c>
       <c r="J367" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K367" s="34">
         <v>42654</v>
@@ -23729,7 +23738,7 @@
       <c r="W367" s="18"/>
       <c r="X367" s="19"/>
     </row>
-    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -23754,7 +23763,7 @@
         <v>1285</v>
       </c>
       <c r="J368" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K368" s="34">
         <v>42656</v>
@@ -23787,7 +23796,7 @@
       <c r="W368" s="18"/>
       <c r="X368" s="19"/>
     </row>
-    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -23841,7 +23850,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -23897,7 +23906,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -23956,7 +23965,7 @@
         <v>1100</v>
       </c>
       <c r="J372" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K372" s="34">
         <v>42664</v>
@@ -23986,7 +23995,7 @@
       <c r="W372" s="18"/>
       <c r="X372" s="19"/>
     </row>
-    <row r="373" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -24028,7 +24037,7 @@
       <c r="W373" s="18"/>
       <c r="X373" s="19"/>
     </row>
-    <row r="374" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>2016</v>
       </c>
@@ -24075,7 +24084,7 @@
       <c r="W374" s="18"/>
       <c r="X374" s="19"/>
     </row>
-    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -24094,7 +24103,7 @@
         <v>1100</v>
       </c>
       <c r="J375" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K375" s="34">
         <v>42668</v>
@@ -24149,7 +24158,7 @@
         <v>1284</v>
       </c>
       <c r="J376" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K376" s="34">
         <v>42669</v>
@@ -24179,7 +24188,7 @@
       <c r="W376" s="18"/>
       <c r="X376" s="19"/>
     </row>
-    <row r="377" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>2016</v>
       </c>
@@ -24223,7 +24232,7 @@
       <c r="W377" s="18"/>
       <c r="X377" s="19"/>
     </row>
-    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -24242,7 +24251,7 @@
         <v>1100</v>
       </c>
       <c r="J378" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K378" s="34">
         <v>42669</v>
@@ -24275,7 +24284,7 @@
       <c r="W378" s="18"/>
       <c r="X378" s="19"/>
     </row>
-    <row r="379" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -24338,7 +24347,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="380" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -24392,7 +24401,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -24443,7 +24452,7 @@
       <c r="W381" s="18"/>
       <c r="X381" s="19"/>
     </row>
-    <row r="382" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -24487,7 +24496,7 @@
       <c r="W382" s="18"/>
       <c r="X382" s="19"/>
     </row>
-    <row r="383" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -24531,7 +24540,7 @@
       <c r="W383" s="18"/>
       <c r="X383" s="19"/>
     </row>
-    <row r="384" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -24589,7 +24598,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -24649,7 +24658,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="386" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>2016</v>
       </c>
@@ -24706,7 +24715,7 @@
       <c r="W386" s="18"/>
       <c r="X386" s="19"/>
     </row>
-    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -24725,7 +24734,7 @@
         <v>1100</v>
       </c>
       <c r="J387" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K387" s="34">
         <v>42696</v>
@@ -24758,7 +24767,7 @@
       <c r="W387" s="18"/>
       <c r="X387" s="19"/>
     </row>
-    <row r="388" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -24810,7 +24819,7 @@
       <c r="W388" s="18"/>
       <c r="X388" s="19"/>
     </row>
-    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -24870,7 +24879,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>2016</v>
       </c>
@@ -24930,7 +24939,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -24949,7 +24958,7 @@
         <v>1100</v>
       </c>
       <c r="J391" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K391" s="34">
         <v>42704</v>
@@ -24982,7 +24991,7 @@
       <c r="W391" s="18"/>
       <c r="X391" s="19"/>
     </row>
-    <row r="392" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>2016</v>
       </c>
@@ -25031,7 +25040,7 @@
       <c r="W392" s="18"/>
       <c r="X392" s="19"/>
     </row>
-    <row r="393" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>2016</v>
       </c>
@@ -25080,7 +25089,7 @@
       <c r="W393" s="18"/>
       <c r="X393" s="19"/>
     </row>
-    <row r="394" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>2016</v>
       </c>
@@ -25129,7 +25138,7 @@
       <c r="W394" s="18"/>
       <c r="X394" s="19"/>
     </row>
-    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -25189,7 +25198,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="396" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>2017</v>
       </c>
@@ -25237,7 +25246,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -25287,7 +25296,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -25333,7 +25342,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -25386,7 +25395,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>2017</v>
       </c>
@@ -25440,7 +25449,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>2017</v>
       </c>
@@ -25490,7 +25499,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -25542,7 +25551,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>2017</v>
       </c>
@@ -25594,7 +25603,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>2017</v>
       </c>
@@ -25646,7 +25655,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>2017</v>
       </c>
@@ -25700,7 +25709,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>2017</v>
       </c>
@@ -25759,7 +25768,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>2017</v>
       </c>
@@ -25811,7 +25820,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -25832,7 +25841,7 @@
       </c>
       <c r="I408" s="3"/>
       <c r="J408" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K408" s="34">
         <v>43024</v>
@@ -25867,7 +25876,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>2017</v>
       </c>
@@ -25921,7 +25930,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>2017</v>
       </c>
@@ -25966,7 +25975,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>2017</v>
       </c>
@@ -26018,7 +26027,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -26077,7 +26086,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>2017</v>
       </c>
@@ -26127,7 +26136,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -26150,7 +26159,7 @@
         <v>1034</v>
       </c>
       <c r="J414" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K414" s="34">
         <v>43026</v>
@@ -26185,7 +26194,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>2017</v>
       </c>
@@ -26233,7 +26242,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>2017</v>
       </c>
@@ -26285,7 +26294,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>2017</v>
       </c>
@@ -26332,7 +26341,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>2017</v>
       </c>
@@ -26388,7 +26397,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>2017</v>
       </c>
@@ -26441,7 +26450,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>2017</v>
       </c>
@@ -26489,7 +26498,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>2017</v>
       </c>
@@ -26541,7 +26550,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -26562,7 +26571,7 @@
       </c>
       <c r="I422" s="3"/>
       <c r="J422" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K422" s="34">
         <v>43037</v>
@@ -26596,7 +26605,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>2017</v>
       </c>
@@ -26657,7 +26666,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -26707,7 +26716,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -26757,7 +26766,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>2017</v>
       </c>
@@ -26818,7 +26827,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>2017</v>
       </c>
@@ -26879,7 +26888,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>2017</v>
       </c>
@@ -26932,7 +26941,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>2017</v>
       </c>
@@ -26981,7 +26990,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>2017</v>
       </c>
@@ -27034,7 +27043,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>2017</v>
       </c>
@@ -27085,7 +27094,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>2017</v>
       </c>
@@ -27137,7 +27146,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>2017</v>
       </c>
@@ -27196,7 +27205,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>2017</v>
       </c>
@@ -27245,7 +27254,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -27296,7 +27305,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -27355,7 +27364,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -27410,7 +27419,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>2018</v>
       </c>
@@ -27433,7 +27442,7 @@
       </c>
       <c r="I438" s="3"/>
       <c r="J438" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K438" s="34">
         <v>43330</v>
@@ -27469,7 +27478,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -27524,7 +27533,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -27573,7 +27582,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -27626,7 +27635,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -27683,7 +27692,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>2018</v>
       </c>
@@ -27706,7 +27715,7 @@
       </c>
       <c r="I443" s="3"/>
       <c r="J443" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K443" s="34">
         <v>43336</v>
@@ -27738,7 +27747,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -27791,7 +27800,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -27848,7 +27857,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -27899,7 +27908,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -27950,7 +27959,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -27999,7 +28008,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -28054,7 +28063,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2018</v>
       </c>
@@ -28079,7 +28088,7 @@
         <v>1322</v>
       </c>
       <c r="J450" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K450" s="34">
         <v>43342</v>
@@ -28113,7 +28122,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -28166,7 +28175,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -28223,7 +28232,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -28274,7 +28283,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -28327,7 +28336,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -28378,7 +28387,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -28431,7 +28440,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>2018</v>
       </c>
@@ -28454,7 +28463,7 @@
       </c>
       <c r="I457" s="3"/>
       <c r="J457" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K457" s="34">
         <v>43348</v>
@@ -28486,7 +28495,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -28535,7 +28544,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>2018</v>
       </c>
@@ -28558,7 +28567,7 @@
       </c>
       <c r="I459" s="3"/>
       <c r="J459" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K459" s="34">
         <v>43348</v>
@@ -28590,7 +28599,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -28639,7 +28648,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -28692,7 +28701,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>2018</v>
       </c>
@@ -28715,7 +28724,7 @@
       </c>
       <c r="I462" s="3"/>
       <c r="J462" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K462" s="34">
         <v>43350</v>
@@ -28747,7 +28756,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -28800,7 +28809,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -28857,7 +28866,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -28914,7 +28923,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -28971,7 +28980,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -29016,7 +29025,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -29067,7 +29076,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>2018</v>
       </c>
@@ -29090,7 +29099,7 @@
       </c>
       <c r="I469" s="3"/>
       <c r="J469" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K469" s="34">
         <v>43351</v>
@@ -29122,7 +29131,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>2018</v>
       </c>
@@ -29145,7 +29154,7 @@
       </c>
       <c r="I470" s="3"/>
       <c r="J470" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K470" s="34">
         <v>43352</v>
@@ -29179,7 +29188,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>2018</v>
       </c>
@@ -29202,7 +29211,7 @@
       </c>
       <c r="I471" s="3"/>
       <c r="J471" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K471" s="34">
         <v>43352</v>
@@ -29238,7 +29247,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -29287,7 +29296,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -29342,7 +29351,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -29389,7 +29398,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -29440,7 +29449,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -29497,7 +29506,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -29552,7 +29561,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -29603,7 +29612,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>2018</v>
       </c>
@@ -29626,7 +29635,7 @@
       </c>
       <c r="I479" s="3"/>
       <c r="J479" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K479" s="34">
         <v>43359</v>
@@ -29660,7 +29669,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -29705,7 +29714,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -29750,7 +29759,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -29803,7 +29812,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -29854,7 +29863,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -29907,7 +29916,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>2018</v>
       </c>
@@ -29930,7 +29939,7 @@
       </c>
       <c r="I485" s="3"/>
       <c r="J485" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K485" s="34">
         <v>43362</v>
@@ -29964,7 +29973,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -30021,7 +30030,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>2018</v>
       </c>
@@ -30044,7 +30053,7 @@
       </c>
       <c r="I487" s="3"/>
       <c r="J487" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K487" s="34">
         <v>43362</v>
@@ -30078,7 +30087,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -30131,7 +30140,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>2018</v>
       </c>
@@ -30156,7 +30165,7 @@
         <v>1025</v>
       </c>
       <c r="J489" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K489" s="34">
         <v>43365</v>
@@ -30190,7 +30199,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -30245,7 +30254,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -30296,7 +30305,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -30345,7 +30354,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -30394,7 +30403,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>2018</v>
       </c>
@@ -30419,7 +30428,7 @@
         <v>1027</v>
       </c>
       <c r="J494" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K494" s="34">
         <v>43371</v>
@@ -30453,7 +30462,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -30504,7 +30513,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -30553,7 +30562,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -30596,7 +30605,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -30647,7 +30656,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -30696,7 +30705,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -30745,7 +30754,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -30796,7 +30805,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -30839,7 +30848,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -30886,7 +30895,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -30933,7 +30942,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505" spans="1:25" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -30980,7 +30989,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -31013,7 +31022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>2018</v>
       </c>
@@ -31034,7 +31043,7 @@
       </c>
       <c r="I507" s="3"/>
       <c r="J507" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K507" s="34">
         <v>43383</v>
@@ -31068,7 +31077,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -31113,7 +31122,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -31162,7 +31171,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -31213,7 +31222,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -31260,7 +31269,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -31311,7 +31320,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -31362,7 +31371,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -31413,7 +31422,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -31466,7 +31475,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -31517,7 +31526,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -31580,7 +31589,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -31635,7 +31644,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -31682,7 +31691,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>2018</v>
       </c>
@@ -31703,7 +31712,7 @@
       </c>
       <c r="I520" s="3"/>
       <c r="J520" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K520" s="34">
         <v>43410</v>
@@ -31737,7 +31746,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -31788,7 +31797,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -31851,7 +31860,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -31893,7 +31902,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -31938,7 +31947,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -31991,7 +32000,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -32014,7 +32023,7 @@
       </c>
       <c r="I526"/>
       <c r="J526" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K526" s="34"/>
       <c r="L526" s="13" t="s">
@@ -32044,7 +32053,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -32061,7 +32070,7 @@
       </c>
       <c r="I527"/>
       <c r="J527" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K527" s="34"/>
       <c r="L527" s="13" t="s">
@@ -32091,7 +32100,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -32138,7 +32147,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -32155,7 +32164,7 @@
       </c>
       <c r="I529"/>
       <c r="J529" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K529" s="34"/>
       <c r="L529" s="13" t="s">
@@ -32185,7 +32194,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -32232,7 +32241,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -32249,7 +32258,7 @@
       </c>
       <c r="I531"/>
       <c r="J531" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K531" s="34"/>
       <c r="L531" s="13" t="s">
@@ -32279,7 +32288,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -32296,7 +32305,7 @@
       </c>
       <c r="I532"/>
       <c r="J532" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K532" s="34"/>
       <c r="L532" s="13" t="s">
@@ -32326,7 +32335,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -32373,7 +32382,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -32420,7 +32429,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -32467,7 +32476,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -32514,7 +32523,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -32563,7 +32572,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -32610,7 +32619,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -32657,7 +32666,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -32704,7 +32713,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -32751,7 +32760,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -32798,7 +32807,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -32845,7 +32854,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -32892,7 +32901,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -32939,7 +32948,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -32956,7 +32965,7 @@
       </c>
       <c r="I546"/>
       <c r="J546" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K546" s="34"/>
       <c r="L546" s="13" t="s">
@@ -32986,7 +32995,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -33033,7 +33042,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -33080,7 +33089,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -33127,7 +33136,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -33144,7 +33153,7 @@
       </c>
       <c r="I550"/>
       <c r="J550" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K550" s="34"/>
       <c r="L550" s="13" t="s">
@@ -33174,7 +33183,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -33221,7 +33230,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -33268,7 +33277,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -33315,7 +33324,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -33362,7 +33371,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -33379,7 +33388,7 @@
       </c>
       <c r="I555"/>
       <c r="J555" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K555" s="34"/>
       <c r="L555" s="13" t="s">
@@ -33409,7 +33418,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -33426,7 +33435,7 @@
       </c>
       <c r="I556"/>
       <c r="J556" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K556" s="34"/>
       <c r="L556" s="13" t="s">
@@ -33456,7 +33465,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -33503,7 +33512,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -33550,7 +33559,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -33597,7 +33606,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -33644,7 +33653,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -33691,7 +33700,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -33736,7 +33745,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -33781,7 +33790,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -33826,7 +33835,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -33871,7 +33880,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -33916,7 +33925,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -33961,7 +33970,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -34006,7 +34015,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -34051,7 +34060,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -34092,7 +34101,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -34137,7 +34146,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -34182,7 +34191,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -34197,7 +34206,7 @@
       </c>
       <c r="I573"/>
       <c r="J573" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K573" s="34"/>
       <c r="L573" s="13" t="s">
@@ -34227,7 +34236,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
         <v>2019</v>
       </c>
@@ -34272,7 +34281,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -34287,7 +34296,7 @@
       </c>
       <c r="I575"/>
       <c r="J575" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K575" s="34"/>
       <c r="L575" s="13" t="s">
@@ -34317,7 +34326,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -34332,7 +34341,7 @@
       </c>
       <c r="I576"/>
       <c r="J576" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K576" s="34"/>
       <c r="L576" s="13" t="s">
@@ -34362,7 +34371,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -34377,7 +34386,7 @@
       </c>
       <c r="I577"/>
       <c r="J577" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K577" s="34"/>
       <c r="L577" s="13" t="s">
@@ -34407,7 +34416,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:25" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -34452,7 +34461,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -34501,7 +34510,7 @@
       <c r="X579" s="10"/>
       <c r="Y579" s="7"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -34558,7 +34567,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="581" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
         <v>2022</v>
       </c>
@@ -34601,7 +34610,7 @@
       <c r="X581" s="10"/>
       <c r="Y581" s="7"/>
     </row>
-    <row r="582" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
         <v>2022</v>
       </c>
@@ -34656,7 +34665,7 @@
       <c r="X582" s="10"/>
       <c r="Y582" s="7"/>
     </row>
-    <row r="583" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>2022</v>
       </c>
@@ -34715,7 +34724,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="584" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
         <v>2022</v>
       </c>
@@ -34796,8 +34805,8 @@
         <v>1100</v>
       </c>
       <c r="I585" s="3"/>
-      <c r="J585" s="28" t="s">
-        <v>836</v>
+      <c r="J585" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K585" s="36">
         <v>44815</v>
@@ -34841,7 +34850,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="586" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -34890,7 +34899,7 @@
       <c r="X586" s="10"/>
       <c r="Y586" s="7"/>
     </row>
-    <row r="587" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6">
         <v>2022</v>
       </c>
@@ -34941,7 +34950,7 @@
       <c r="X587" s="10"/>
       <c r="Y587" s="7"/>
     </row>
-    <row r="588" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
         <v>2022</v>
       </c>
@@ -34992,7 +35001,7 @@
       <c r="X588" s="10"/>
       <c r="Y588" s="7"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -35041,7 +35050,7 @@
       <c r="X589" s="10"/>
       <c r="Y589" s="7"/>
     </row>
-    <row r="590" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
         <v>2022</v>
       </c>
@@ -35092,7 +35101,7 @@
       <c r="X590" s="10"/>
       <c r="Y590" s="7"/>
     </row>
-    <row r="591" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
         <v>2022</v>
       </c>
@@ -35159,7 +35168,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="592" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -35224,7 +35233,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="593" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -35289,7 +35298,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="594" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -35348,7 +35357,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="595" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -35370,8 +35379,8 @@
         <v>1100</v>
       </c>
       <c r="I595" s="3"/>
-      <c r="J595" s="28" t="s">
-        <v>836</v>
+      <c r="J595" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K595" s="36">
         <v>44831</v>
@@ -35413,7 +35422,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="596" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
         <v>2022</v>
       </c>
@@ -35476,7 +35485,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="597" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
         <v>2022</v>
       </c>
@@ -35539,7 +35548,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="598" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
         <v>2022</v>
       </c>
@@ -35594,7 +35603,7 @@
       <c r="X598" s="10"/>
       <c r="Y598" s="7"/>
     </row>
-    <row r="599" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
         <v>2022</v>
       </c>
@@ -35659,7 +35668,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="600" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6">
         <v>2022</v>
       </c>
@@ -35722,7 +35731,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="601" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6">
         <v>2022</v>
       </c>
@@ -35785,7 +35794,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="602" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
         <v>2022</v>
       </c>
@@ -35848,7 +35857,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="603" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
         <v>2022</v>
       </c>
@@ -35919,7 +35928,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="604" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -35941,8 +35950,8 @@
         <v>1100</v>
       </c>
       <c r="I604" s="3"/>
-      <c r="J604" s="28" t="s">
-        <v>836</v>
+      <c r="J604" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K604" s="36">
         <v>44833</v>
@@ -35986,7 +35995,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="605" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
         <v>2022</v>
       </c>
@@ -36045,7 +36054,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="606" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -36067,8 +36076,8 @@
         <v>1100</v>
       </c>
       <c r="I606" s="7"/>
-      <c r="J606" s="28" t="s">
-        <v>836</v>
+      <c r="J606" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K606" s="36">
         <v>44833</v>
@@ -36104,7 +36113,7 @@
       <c r="X606" s="10"/>
       <c r="Y606" s="7"/>
     </row>
-    <row r="607" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
         <v>2022</v>
       </c>
@@ -36175,7 +36184,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="608" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
         <v>2022</v>
       </c>
@@ -36246,7 +36255,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="609" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
         <v>2022</v>
       </c>
@@ -36317,7 +36326,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="610" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
         <v>2022</v>
       </c>
@@ -36380,7 +36389,7 @@
       <c r="X610" s="10"/>
       <c r="Y610" s="7"/>
     </row>
-    <row r="611" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
         <v>2022</v>
       </c>
@@ -36451,7 +36460,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="612" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
         <v>2022</v>
       </c>
@@ -36510,7 +36519,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="613" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
         <v>2022</v>
       </c>
@@ -36581,7 +36590,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="614" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -36601,8 +36610,8 @@
         <v>1100</v>
       </c>
       <c r="I614" s="3"/>
-      <c r="J614" s="28" t="s">
-        <v>836</v>
+      <c r="J614" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K614" s="36">
         <v>44837</v>
@@ -36646,7 +36655,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="615" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
         <v>2022</v>
       </c>
@@ -36697,7 +36706,7 @@
       <c r="X615" s="10"/>
       <c r="Y615" s="7"/>
     </row>
-    <row r="616" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
         <v>2022</v>
       </c>
@@ -36748,7 +36757,7 @@
       <c r="X616" s="10"/>
       <c r="Y616" s="7"/>
     </row>
-    <row r="617" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
         <v>2022</v>
       </c>
@@ -36803,7 +36812,7 @@
       <c r="X617" s="10"/>
       <c r="Y617" s="7"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -36823,8 +36832,8 @@
         <v>1100</v>
       </c>
       <c r="I618" s="7"/>
-      <c r="J618" s="28" t="s">
-        <v>836</v>
+      <c r="J618" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K618" s="36">
         <v>44841</v>
@@ -36860,7 +36869,7 @@
       <c r="X618" s="10"/>
       <c r="Y618" s="7"/>
     </row>
-    <row r="619" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -36911,7 +36920,7 @@
       <c r="X619" s="10"/>
       <c r="Y619" s="7"/>
     </row>
-    <row r="620" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
         <v>2022</v>
       </c>
@@ -36960,7 +36969,7 @@
       <c r="X620" s="10"/>
       <c r="Y620" s="7"/>
     </row>
-    <row r="621" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -36980,8 +36989,8 @@
         <v>1100</v>
       </c>
       <c r="I621" s="7"/>
-      <c r="J621" s="28" t="s">
-        <v>836</v>
+      <c r="J621" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K621" s="36">
         <v>44842</v>
@@ -37017,7 +37026,7 @@
       <c r="X621" s="10"/>
       <c r="Y621" s="7"/>
     </row>
-    <row r="622" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -37037,8 +37046,8 @@
         <v>1100</v>
       </c>
       <c r="I622" s="7"/>
-      <c r="J622" s="28" t="s">
-        <v>836</v>
+      <c r="J622" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K622" s="36">
         <v>44844</v>
@@ -37074,7 +37083,7 @@
       <c r="X622" s="10"/>
       <c r="Y622" s="7"/>
     </row>
-    <row r="623" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -37137,7 +37146,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="624" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
         <v>2022</v>
       </c>
@@ -37196,7 +37205,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="625" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -37216,8 +37225,8 @@
         <v>1100</v>
       </c>
       <c r="I625" s="3"/>
-      <c r="J625" s="28" t="s">
-        <v>836</v>
+      <c r="J625" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K625" s="36">
         <v>44847</v>
@@ -37261,7 +37270,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="626" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -37281,8 +37290,8 @@
         <v>1100</v>
       </c>
       <c r="I626" s="3"/>
-      <c r="J626" s="28" t="s">
-        <v>836</v>
+      <c r="J626" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K626" s="36">
         <v>44847</v>
@@ -37326,7 +37335,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="627" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -37346,8 +37355,8 @@
         <v>1100</v>
       </c>
       <c r="I627" s="3"/>
-      <c r="J627" s="28" t="s">
-        <v>836</v>
+      <c r="J627" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K627" s="36">
         <v>44847</v>
@@ -37387,7 +37396,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="628" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
         <v>2022</v>
       </c>
@@ -37448,7 +37457,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="629" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -37468,8 +37477,8 @@
         <v>1100</v>
       </c>
       <c r="I629" s="3"/>
-      <c r="J629" s="28" t="s">
-        <v>836</v>
+      <c r="J629" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K629" s="36">
         <v>44847</v>
@@ -37509,7 +37518,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="630" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6">
         <v>2022</v>
       </c>
@@ -37570,7 +37579,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="631" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -37590,8 +37599,8 @@
         <v>1100</v>
       </c>
       <c r="I631" s="3"/>
-      <c r="J631" s="28" t="s">
-        <v>836</v>
+      <c r="J631" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K631" s="36">
         <v>44850</v>
@@ -37635,7 +37644,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="632" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
         <v>2022</v>
       </c>
@@ -37688,7 +37697,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="633" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
         <v>2022</v>
       </c>
@@ -37759,7 +37768,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="634" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -37824,7 +37833,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="635" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -37844,8 +37853,8 @@
         <v>1100</v>
       </c>
       <c r="I635" s="3"/>
-      <c r="J635" s="28" t="s">
-        <v>836</v>
+      <c r="J635" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K635" s="36">
         <v>44853</v>
@@ -37889,7 +37898,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="636" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -37948,7 +37957,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="637" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -38007,7 +38016,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="638" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -38027,8 +38036,8 @@
         <v>1100</v>
       </c>
       <c r="I638" s="3"/>
-      <c r="J638" s="28" t="s">
-        <v>836</v>
+      <c r="J638" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K638" s="36">
         <v>44853</v>
@@ -38072,7 +38081,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="639" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -38092,8 +38101,8 @@
         <v>1100</v>
       </c>
       <c r="I639" s="3"/>
-      <c r="J639" s="28" t="s">
-        <v>836</v>
+      <c r="J639" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K639" s="36">
         <v>44853</v>
@@ -38133,7 +38142,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="640" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
         <v>2022</v>
       </c>
@@ -38190,7 +38199,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="641" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -38255,7 +38264,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="642" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -38275,8 +38284,8 @@
         <v>1100</v>
       </c>
       <c r="I642" s="3"/>
-      <c r="J642" s="28" t="s">
-        <v>836</v>
+      <c r="J642" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K642" s="36">
         <v>44856</v>
@@ -38320,7 +38329,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="643" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
         <v>2022</v>
       </c>
@@ -38391,7 +38400,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="644" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -38448,7 +38457,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="645" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -38505,7 +38514,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="646" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
         <v>2022</v>
       </c>
@@ -38564,7 +38573,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="647" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
         <v>2022</v>
       </c>
@@ -38627,7 +38636,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="648" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
         <v>2022</v>
       </c>
@@ -38690,7 +38699,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="649" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
         <v>2022</v>
       </c>
@@ -38743,7 +38752,7 @@
       <c r="X649" s="10"/>
       <c r="Y649" s="7"/>
     </row>
-    <row r="650" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -38763,8 +38772,8 @@
         <v>1100</v>
       </c>
       <c r="I650" s="3"/>
-      <c r="J650" s="28" t="s">
-        <v>836</v>
+      <c r="J650" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K650" s="36">
         <v>44863</v>
@@ -38808,7 +38817,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="651" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
         <v>2022</v>
       </c>
@@ -38861,7 +38870,7 @@
       <c r="X651" s="10"/>
       <c r="Y651" s="7"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -38912,7 +38921,7 @@
       <c r="X652" s="10"/>
       <c r="Y652" s="7"/>
     </row>
-    <row r="653" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
         <v>2022</v>
       </c>
@@ -38975,7 +38984,7 @@
       <c r="X653" s="10"/>
       <c r="Y653" s="7"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -38995,8 +39004,8 @@
         <v>1100</v>
       </c>
       <c r="I654" s="7"/>
-      <c r="J654" s="28" t="s">
-        <v>836</v>
+      <c r="J654" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K654" s="36">
         <v>44870</v>
@@ -39030,7 +39039,7 @@
       <c r="X654" s="10"/>
       <c r="Y654" s="7"/>
     </row>
-    <row r="655" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -39081,7 +39090,7 @@
       <c r="X655" s="10"/>
       <c r="Y655" s="7"/>
     </row>
-    <row r="656" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
         <v>2022</v>
       </c>
@@ -39144,7 +39153,7 @@
       <c r="X656" s="10"/>
       <c r="Y656" s="7"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -39164,8 +39173,8 @@
         <v>1100</v>
       </c>
       <c r="I657" s="7"/>
-      <c r="J657" s="28" t="s">
-        <v>836</v>
+      <c r="J657" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K657" s="36">
         <v>44876</v>
@@ -39197,7 +39206,7 @@
       <c r="X657" s="10"/>
       <c r="Y657" s="7"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -39248,7 +39257,7 @@
       <c r="X658" s="10"/>
       <c r="Y658" s="7"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -39268,8 +39277,8 @@
         <v>1100</v>
       </c>
       <c r="I659" s="7"/>
-      <c r="J659" s="28" t="s">
-        <v>836</v>
+      <c r="J659" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K659" s="36">
         <v>44881</v>
@@ -39301,7 +39310,7 @@
       <c r="X659" s="10"/>
       <c r="Y659" s="7"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -39354,7 +39363,7 @@
       <c r="X660" s="10"/>
       <c r="Y660" s="7"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -39374,8 +39383,8 @@
         <v>1100</v>
       </c>
       <c r="I661" s="7"/>
-      <c r="J661" s="28" t="s">
-        <v>836</v>
+      <c r="J661" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K661" s="36">
         <v>44887</v>
@@ -39411,7 +39420,7 @@
       <c r="X661" s="10"/>
       <c r="Y661" s="7"/>
     </row>
-    <row r="662" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
         <v>2022</v>
       </c>
@@ -39456,7 +39465,7 @@
       <c r="X662" s="10"/>
       <c r="Y662" s="7"/>
     </row>
-    <row r="663" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -39476,8 +39485,8 @@
         <v>1100</v>
       </c>
       <c r="I663" s="7"/>
-      <c r="J663" s="28" t="s">
-        <v>836</v>
+      <c r="J663" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K663" s="36">
         <v>44893</v>
@@ -39509,7 +39518,7 @@
       <c r="X663" s="10"/>
       <c r="Y663" s="7"/>
     </row>
-    <row r="664" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -39529,8 +39538,8 @@
         <v>1100</v>
       </c>
       <c r="I664" s="7"/>
-      <c r="J664" s="28" t="s">
-        <v>836</v>
+      <c r="J664" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K664" s="36">
         <v>44893</v>
@@ -39562,7 +39571,7 @@
       <c r="X664" s="10"/>
       <c r="Y664" s="7"/>
     </row>
-    <row r="665" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -39582,8 +39591,8 @@
         <v>1100</v>
       </c>
       <c r="I665" s="7"/>
-      <c r="J665" s="28" t="s">
-        <v>836</v>
+      <c r="J665" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K665" s="36">
         <v>44893</v>
@@ -39619,7 +39628,7 @@
       <c r="X665" s="10"/>
       <c r="Y665" s="7"/>
     </row>
-    <row r="666" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -39639,8 +39648,8 @@
         <v>1100</v>
       </c>
       <c r="I666" s="7"/>
-      <c r="J666" s="28" t="s">
-        <v>836</v>
+      <c r="J666" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K666" s="36">
         <v>44898</v>
@@ -39672,7 +39681,7 @@
       <c r="X666" s="10"/>
       <c r="Y666" s="7"/>
     </row>
-    <row r="667" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
         <v>2022</v>
       </c>
@@ -39725,7 +39734,7 @@
       <c r="X667" s="10"/>
       <c r="Y667" s="7"/>
     </row>
-    <row r="668" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
         <v>2022</v>
       </c>
@@ -39780,7 +39789,7 @@
       <c r="X668" s="10"/>
       <c r="Y668" s="7"/>
     </row>
-    <row r="669" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
         <v>2022</v>
       </c>
@@ -39833,7 +39842,7 @@
       <c r="X669" s="10"/>
       <c r="Y669" s="7"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -39885,7 +39894,7 @@
       <c r="X670" s="10"/>
       <c r="Y670" s="7"/>
     </row>
-    <row r="671" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -39940,7 +39949,7 @@
       <c r="X671" s="10"/>
       <c r="Y671" s="7"/>
     </row>
-    <row r="672" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -39960,8 +39969,8 @@
         <v>1100</v>
       </c>
       <c r="I672" s="7"/>
-      <c r="J672" s="28" t="s">
-        <v>836</v>
+      <c r="J672" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K672" s="36">
         <v>44904</v>
@@ -39995,7 +40004,7 @@
       <c r="X672" s="10"/>
       <c r="Y672" s="7"/>
     </row>
-    <row r="673" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
         <v>2022</v>
       </c>
@@ -40056,7 +40065,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="674" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
         <v>2022</v>
       </c>
@@ -40115,7 +40124,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="675" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
         <v>2022</v>
       </c>
@@ -40176,7 +40185,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="676" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
         <v>2022</v>
       </c>
@@ -40239,7 +40248,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="677" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
         <v>2022</v>
       </c>
@@ -40302,7 +40311,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="678" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -40359,7 +40368,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="679" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -40381,8 +40390,8 @@
         <v>1100</v>
       </c>
       <c r="I679" s="3"/>
-      <c r="J679" s="31" t="s">
-        <v>836</v>
+      <c r="J679" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K679" s="36">
         <v>45157</v>
@@ -40419,7 +40428,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="680" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11">
         <v>2023</v>
       </c>
@@ -40479,7 +40488,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="681" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="11">
         <v>2023</v>
       </c>
@@ -40539,7 +40548,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="682" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -40597,7 +40606,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="683" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -40657,7 +40666,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="684" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -40715,7 +40724,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="685" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -40774,7 +40783,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="686" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -40833,7 +40842,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="687" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="11">
         <v>2023</v>
       </c>
@@ -40895,7 +40904,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="688" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -40953,7 +40962,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="689" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="11">
         <v>2023</v>
       </c>
@@ -41011,7 +41020,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="690" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="11">
         <v>2023</v>
       </c>
@@ -41063,7 +41072,7 @@
       <c r="X690" s="10"/>
       <c r="Y690" s="3"/>
     </row>
-    <row r="691" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="11">
         <v>2023</v>
       </c>
@@ -41119,7 +41128,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="692" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -41143,8 +41152,8 @@
       <c r="I692" s="3" t="s">
         <v>1428</v>
       </c>
-      <c r="J692" s="31" t="s">
-        <v>836</v>
+      <c r="J692" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K692" s="36">
         <v>45160</v>
@@ -41184,7 +41193,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="693" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -41208,8 +41217,8 @@
       <c r="I693" t="s">
         <v>1145</v>
       </c>
-      <c r="J693" s="31" t="s">
-        <v>836</v>
+      <c r="J693" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K693" s="36">
         <v>45160</v>
@@ -41249,7 +41258,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="694" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="11">
         <v>2023</v>
       </c>
@@ -41306,7 +41315,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="695" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="11">
         <v>2023</v>
       </c>
@@ -41363,7 +41372,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="696" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -41385,8 +41394,8 @@
         <v>1100</v>
       </c>
       <c r="I696" s="3"/>
-      <c r="J696" s="31" t="s">
-        <v>836</v>
+      <c r="J696" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K696" s="36">
         <v>45160</v>
@@ -41428,7 +41437,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="697" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="11">
         <v>2023</v>
       </c>
@@ -41483,7 +41492,7 @@
       <c r="X697" s="10"/>
       <c r="Y697" s="7"/>
     </row>
-    <row r="698" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -41505,8 +41514,8 @@
         <v>1100</v>
       </c>
       <c r="I698" s="3"/>
-      <c r="J698" s="31" t="s">
-        <v>836</v>
+      <c r="J698" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K698" s="35">
         <v>45162</v>
@@ -41543,7 +41552,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="699" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="11">
         <v>2023</v>
       </c>
@@ -41594,7 +41603,7 @@
       <c r="X699" s="10"/>
       <c r="Y699" s="7"/>
     </row>
-    <row r="700" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -41646,7 +41655,7 @@
       <c r="X700" s="10"/>
       <c r="Y700" s="7"/>
     </row>
-    <row r="701" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="11">
         <v>2023</v>
       </c>
@@ -41696,7 +41705,7 @@
       <c r="X701" s="10"/>
       <c r="Y701" s="7"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -41758,7 +41767,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="703" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -41780,8 +41789,8 @@
         <v>1100</v>
       </c>
       <c r="I703" s="7"/>
-      <c r="J703" s="31" t="s">
-        <v>836</v>
+      <c r="J703" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K703" s="36">
         <v>45170</v>
@@ -41810,7 +41819,7 @@
       <c r="X703" s="10"/>
       <c r="Y703" s="7"/>
     </row>
-    <row r="704" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="11">
         <v>2023</v>
       </c>
@@ -41862,7 +41871,7 @@
       <c r="X704" s="10"/>
       <c r="Y704" s="7"/>
     </row>
-    <row r="705" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -41912,7 +41921,7 @@
       <c r="X705" s="10"/>
       <c r="Y705" s="7"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -41964,7 +41973,7 @@
       <c r="X706" s="10"/>
       <c r="Y706" s="7"/>
     </row>
-    <row r="707" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="11">
         <v>2023</v>
       </c>
@@ -42016,7 +42025,7 @@
       <c r="X707" s="10"/>
       <c r="Y707" s="7"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -42040,8 +42049,8 @@
       <c r="I708" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="J708" s="31" t="s">
-        <v>836</v>
+      <c r="J708" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K708" s="36">
         <v>45176</v>
@@ -42070,7 +42079,7 @@
       <c r="X708" s="10"/>
       <c r="Y708" s="7"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -42122,7 +42131,7 @@
       <c r="X709" s="10"/>
       <c r="Y709" s="7"/>
     </row>
-    <row r="710" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -42148,8 +42157,8 @@
       <c r="I710" t="s">
         <v>1146</v>
       </c>
-      <c r="J710" s="31" t="s">
-        <v>836</v>
+      <c r="J710" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K710" s="36">
         <v>45182</v>
@@ -42254,7 +42263,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="712" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="11">
         <v>2023</v>
       </c>
@@ -42314,7 +42323,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="713" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -42374,7 +42383,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="714" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -42397,8 +42406,8 @@
       <c r="H714" s="13" t="s">
         <v>1100</v>
       </c>
-      <c r="J714" s="31" t="s">
-        <v>836</v>
+      <c r="J714" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K714" s="36">
         <v>45187</v>
@@ -42438,7 +42447,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="715" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -42460,8 +42469,8 @@
         <v>1100</v>
       </c>
       <c r="I715" s="3"/>
-      <c r="J715" s="31" t="s">
-        <v>836</v>
+      <c r="J715" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K715" s="36">
         <v>45193</v>
@@ -42501,7 +42510,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="716" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -42525,8 +42534,8 @@
       <c r="I716" t="s">
         <v>1144</v>
       </c>
-      <c r="J716" s="31" t="s">
-        <v>836</v>
+      <c r="J716" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K716" s="36">
         <v>45195</v>
@@ -42568,7 +42577,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="717" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -42630,7 +42639,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="718" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -42690,7 +42699,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="719" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -42750,7 +42759,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="720" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -42807,7 +42816,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="721" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -42865,7 +42874,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="722" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="11">
         <v>2023</v>
       </c>
@@ -42923,7 +42932,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="723" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -42973,7 +42982,7 @@
       <c r="X723" s="10"/>
       <c r="Y723" s="7"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -42999,8 +43008,8 @@
       <c r="I724" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="J724" s="31" t="s">
-        <v>836</v>
+      <c r="J724" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K724" s="36">
         <v>45201</v>
@@ -43034,7 +43043,7 @@
       <c r="X724" s="10"/>
       <c r="Y724" s="7"/>
     </row>
-    <row r="725" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -43094,7 +43103,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="726" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -43118,8 +43127,8 @@
       <c r="I726" t="s">
         <v>1139</v>
       </c>
-      <c r="J726" s="31" t="s">
-        <v>836</v>
+      <c r="J726" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K726" s="36">
         <v>45204</v>
@@ -43148,7 +43157,7 @@
       <c r="X726" s="10"/>
       <c r="Y726" s="7"/>
     </row>
-    <row r="727" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -43196,7 +43205,7 @@
       <c r="X727" s="10"/>
       <c r="Y727" s="7"/>
     </row>
-    <row r="728" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="11">
         <v>2023</v>
       </c>
@@ -43247,7 +43256,7 @@
       <c r="X728" s="10"/>
       <c r="Y728" s="7"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -43271,8 +43280,8 @@
       <c r="I729" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="J729" s="31" t="s">
-        <v>836</v>
+      <c r="J729" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K729" s="36">
         <v>45204</v>
@@ -43301,7 +43310,7 @@
       <c r="X729" s="10"/>
       <c r="Y729" s="7"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -43351,7 +43360,7 @@
       <c r="X730" s="10"/>
       <c r="Y730" s="7"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -43401,7 +43410,7 @@
       <c r="X731" s="10"/>
       <c r="Y731" s="7"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -43451,7 +43460,7 @@
       <c r="X732" s="10"/>
       <c r="Y732" s="7"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -43471,8 +43480,8 @@
         <v>1100</v>
       </c>
       <c r="I733" s="3"/>
-      <c r="J733" s="31" t="s">
-        <v>836</v>
+      <c r="J733" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K733" s="36">
         <v>45206</v>
@@ -43509,7 +43518,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="734" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="11">
         <v>2023</v>
       </c>
@@ -43570,7 +43579,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="735" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="11">
         <v>2023</v>
       </c>
@@ -43623,7 +43632,7 @@
       <c r="X735" s="10"/>
       <c r="Y735" s="7"/>
     </row>
-    <row r="736" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="11">
         <v>2023</v>
       </c>
@@ -43684,7 +43693,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="737" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="11">
         <v>2023</v>
       </c>
@@ -43724,7 +43733,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="738" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -43769,7 +43778,7 @@
       <c r="X738" s="10"/>
       <c r="Y738" s="7"/>
     </row>
-    <row r="739" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="11">
         <v>2023</v>
       </c>
@@ -43817,7 +43826,7 @@
       <c r="X739" s="10"/>
       <c r="Y739" s="7"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -43864,7 +43873,7 @@
       <c r="X740" s="10"/>
       <c r="Y740" s="7"/>
     </row>
-    <row r="741" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="11">
         <v>2023</v>
       </c>
@@ -43914,7 +43923,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="742" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="11">
         <v>2023</v>
       </c>
@@ -43979,7 +43988,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="743" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="11">
         <v>2023</v>
       </c>
@@ -44032,7 +44041,7 @@
       <c r="X743" s="10"/>
       <c r="Y743" s="7"/>
     </row>
-    <row r="744" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="11">
         <v>2023</v>
       </c>
@@ -44069,7 +44078,7 @@
       <c r="X744" s="10"/>
       <c r="Y744" s="7"/>
     </row>
-    <row r="745" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="11">
         <v>2023</v>
       </c>
@@ -44118,7 +44127,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="746" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -44177,7 +44186,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="747" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -44201,8 +44210,8 @@
       <c r="I747" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="J747" s="31" t="s">
-        <v>836</v>
+      <c r="J747" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K747" s="36">
         <v>45211</v>
@@ -44244,7 +44253,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="748" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="11">
         <v>2023</v>
       </c>
@@ -44303,7 +44312,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="749" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="11">
         <v>2023</v>
       </c>
@@ -44359,7 +44368,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="750" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -44381,8 +44390,8 @@
       <c r="I750" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="J750" s="31" t="s">
-        <v>836</v>
+      <c r="J750" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K750" s="36">
         <v>45212</v>
@@ -44422,7 +44431,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="751" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -44479,7 +44488,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="752" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="11">
         <v>2023</v>
       </c>
@@ -44544,7 +44553,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="753" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -44605,7 +44614,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="754" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -44625,8 +44634,8 @@
         <v>1100</v>
       </c>
       <c r="I754" s="3"/>
-      <c r="J754" s="31" t="s">
-        <v>836</v>
+      <c r="J754" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K754" s="36">
         <v>45218</v>
@@ -44666,7 +44675,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="755" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -44730,7 +44739,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="756" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="11">
         <v>2023</v>
       </c>
@@ -44779,7 +44788,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="757" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="11">
         <v>2023</v>
       </c>
@@ -44842,7 +44851,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="758" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="11">
         <v>2023</v>
       </c>
@@ -44903,7 +44912,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="759" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -44925,8 +44934,8 @@
       <c r="I759" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="J759" s="31" t="s">
-        <v>836</v>
+      <c r="J759" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K759" s="36">
         <v>45223</v>
@@ -44966,7 +44975,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="760" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -44986,8 +44995,8 @@
         <v>1100</v>
       </c>
       <c r="I760" s="3"/>
-      <c r="J760" s="31" t="s">
-        <v>836</v>
+      <c r="J760" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K760" s="36">
         <v>45224</v>
@@ -45027,7 +45036,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="761" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="11">
         <v>2023</v>
       </c>
@@ -45078,7 +45087,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="762" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="11">
         <v>2023</v>
       </c>
@@ -45123,7 +45132,7 @@
       <c r="X762" s="10"/>
       <c r="Y762" s="7"/>
     </row>
-    <row r="763" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="11">
         <v>2023</v>
       </c>
@@ -45168,7 +45177,7 @@
       <c r="X763" s="10"/>
       <c r="Y763" s="7"/>
     </row>
-    <row r="764" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="11">
         <v>2023</v>
       </c>
@@ -45213,7 +45222,7 @@
       <c r="X764" s="10"/>
       <c r="Y764" s="7"/>
     </row>
-    <row r="765" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="11">
         <v>2023</v>
       </c>
@@ -45276,7 +45285,7 @@
       <c r="X765" s="10"/>
       <c r="Y765" s="7"/>
     </row>
-    <row r="766" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -45327,7 +45336,7 @@
       <c r="X766" s="10"/>
       <c r="Y766" s="7"/>
     </row>
-    <row r="767" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="11">
         <v>2023</v>
       </c>
@@ -45374,7 +45383,7 @@
       <c r="X767" s="10"/>
       <c r="Y767" s="7"/>
     </row>
-    <row r="768" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -45434,7 +45443,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="769" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -45483,7 +45492,7 @@
       <c r="X769" s="10"/>
       <c r="Y769" s="7"/>
     </row>
-    <row r="770" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="11">
         <v>2023</v>
       </c>
@@ -45551,7 +45560,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="771" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="11">
         <v>2023</v>
       </c>
@@ -45600,7 +45609,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="772" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="11">
         <v>2023</v>
       </c>
@@ -45662,7 +45671,7 @@
       <c r="W772" s="9"/>
       <c r="Y772" s="3"/>
     </row>
-    <row r="773" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -45711,7 +45720,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="774" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -45773,7 +45782,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="775" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -45838,7 +45847,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="776" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -45906,7 +45915,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="777" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -45969,7 +45978,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="778" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -46029,7 +46038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="779" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -46089,7 +46098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="780" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -46152,7 +46161,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="781" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -46213,7 +46222,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="782" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -46271,7 +46280,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="783" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -46333,7 +46342,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="784" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -46391,7 +46400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="785" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -46412,8 +46421,8 @@
         <v>1100</v>
       </c>
       <c r="I785" s="3"/>
-      <c r="J785" s="14" t="s">
-        <v>836</v>
+      <c r="J785" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K785" s="42">
         <v>45530</v>
@@ -46455,7 +46464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="786" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -46513,7 +46522,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="787" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -46573,7 +46582,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="788" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -46639,7 +46648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="789" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -46699,7 +46708,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="790" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -46758,7 +46767,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="791" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -46823,7 +46832,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="792" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -46884,7 +46893,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="793" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -46905,8 +46914,8 @@
         <v>1100</v>
       </c>
       <c r="I793" s="3"/>
-      <c r="J793" s="14" t="s">
-        <v>836</v>
+      <c r="J793" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K793" s="42">
         <v>45539</v>
@@ -46945,7 +46954,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="794" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -47005,7 +47014,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="795" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -47065,7 +47074,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="796" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -47125,7 +47134,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="797" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -47182,7 +47191,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="798" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -47203,8 +47212,8 @@
         <v>1100</v>
       </c>
       <c r="I798" s="3"/>
-      <c r="J798" s="14" t="s">
-        <v>836</v>
+      <c r="J798" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K798" s="35">
         <v>45545</v>
@@ -47246,7 +47255,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="799" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -47304,7 +47313,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="800" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -47367,7 +47376,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="801" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -47425,7 +47434,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="802" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -47448,8 +47457,8 @@
       <c r="I802" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="J802" s="14" t="s">
-        <v>836</v>
+      <c r="J802" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K802" s="35">
         <v>45548</v>
@@ -47488,7 +47497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="803" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -47511,8 +47520,8 @@
       <c r="I803" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="J803" s="14" t="s">
-        <v>836</v>
+      <c r="J803" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K803" s="35">
         <v>45548</v>
@@ -47554,7 +47563,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="804" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -47614,7 +47623,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="805" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -47666,7 +47675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="806" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -47726,7 +47735,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="807" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -47786,7 +47795,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="808" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -47811,8 +47820,8 @@
       <c r="I808" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="J808" s="14" t="s">
-        <v>836</v>
+      <c r="J808" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K808" s="35">
         <v>45554</v>
@@ -47854,7 +47863,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="809" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -47914,7 +47923,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="810" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -47972,7 +47981,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="811" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -48028,7 +48037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="812" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -48086,7 +48095,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="813" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -48142,7 +48151,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="814" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -48167,8 +48176,8 @@
       <c r="I814" t="s">
         <v>1375</v>
       </c>
-      <c r="J814" s="14" t="s">
-        <v>836</v>
+      <c r="J814" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K814" s="35">
         <v>45562</v>
@@ -48207,7 +48216,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="815" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -48267,7 +48276,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="816" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2024</v>
       </c>
@@ -48329,7 +48338,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="817" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -48389,7 +48398,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="818" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -48449,7 +48458,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="819" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -48505,7 +48514,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="820" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -48561,7 +48570,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="821" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -48626,7 +48635,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="822" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -48680,7 +48689,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="823" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -48741,7 +48750,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="824" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -48805,7 +48814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="825" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2024</v>
       </c>
@@ -48860,7 +48869,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="826" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2024</v>
       </c>
@@ -48918,7 +48927,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="827" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2024</v>
       </c>
@@ -48976,7 +48985,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="828" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2024</v>
       </c>
@@ -49033,7 +49042,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="829" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -49054,8 +49063,8 @@
         <v>1100</v>
       </c>
       <c r="I829" s="3"/>
-      <c r="J829" s="14" t="s">
-        <v>836</v>
+      <c r="J829" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K829" s="35">
         <v>45589</v>
@@ -49091,7 +49100,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="830" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -49149,7 +49158,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="831" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2024</v>
       </c>
@@ -49200,7 +49209,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="832" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -49221,8 +49230,8 @@
         <v>1100</v>
       </c>
       <c r="I832" s="3"/>
-      <c r="J832" s="14" t="s">
-        <v>836</v>
+      <c r="J832" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K832" s="35">
         <v>45593</v>
@@ -49258,7 +49267,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="833" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -49281,8 +49290,8 @@
       <c r="I833" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="J833" s="14" t="s">
-        <v>836</v>
+      <c r="J833" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K833" s="35">
         <v>45594</v>
@@ -49321,7 +49330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="834" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -49377,7 +49386,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="835" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -49430,7 +49439,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="836" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2024</v>
       </c>
@@ -49492,7 +49501,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="837" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -49513,8 +49522,8 @@
         <v>1100</v>
       </c>
       <c r="I837" s="3"/>
-      <c r="J837" s="14" t="s">
-        <v>836</v>
+      <c r="J837" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K837" s="35">
         <v>45600</v>
@@ -49553,7 +49562,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="838" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -49617,7 +49626,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="839" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -49672,7 +49681,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="840" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2024</v>
       </c>
@@ -49732,7 +49741,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="841" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -49789,7 +49798,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="842" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -49810,8 +49819,8 @@
         <v>1100</v>
       </c>
       <c r="I842" s="3"/>
-      <c r="J842" s="14" t="s">
-        <v>836</v>
+      <c r="J842" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K842" s="35">
         <v>45608</v>
@@ -49853,7 +49862,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="843" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2024</v>
       </c>
@@ -49912,7 +49921,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="844" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -49938,7 +49947,7 @@
         <v>1063</v>
       </c>
       <c r="J844" s="13" t="s">
-        <v>836</v>
+        <v>1490</v>
       </c>
       <c r="K844" s="35">
         <v>45620</v>
@@ -49977,7 +49986,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="845" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2024</v>
       </c>
@@ -50038,7 +50047,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="846" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2024</v>
       </c>
@@ -50099,7 +50108,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="847" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -50147,7 +50156,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="848" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -50166,8 +50175,8 @@
       <c r="H848" s="13" t="s">
         <v>1100</v>
       </c>
-      <c r="J848" s="14" t="s">
-        <v>836</v>
+      <c r="J848" s="13" t="s">
+        <v>1490</v>
       </c>
       <c r="K848" s="35">
         <v>45625</v>
@@ -50197,7 +50206,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="849" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2024</v>
       </c>
@@ -50243,7 +50252,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="850" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2024</v>
       </c>
@@ -50282,7 +50291,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="851" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2024</v>
       </c>
@@ -50549,13 +50558,7 @@
       <c r="K884" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="ABCL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB592B-E24E-064A-8529-00AD391080C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D12BB6-0345-F641-BF67-AC4280A00218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6893" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6890" uniqueCount="1500">
   <si>
     <t>Year</t>
   </si>
@@ -4841,9 +4841,6 @@
   </si>
   <si>
     <t>YR/WB, -/Y, BR/BW</t>
-  </si>
-  <si>
-    <t>UNKNOWN_HATCH_DATA</t>
   </si>
 </sst>
 </file>
@@ -4966,7 +4963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5063,10 +5060,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5381,11 +5374,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L859" sqref="L859"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G858" sqref="G858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5478,7 +5472,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5529,7 +5523,7 @@
       </c>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5575,7 +5569,7 @@
       </c>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5624,7 +5618,7 @@
       </c>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5675,7 +5669,7 @@
       </c>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -5726,7 +5720,7 @@
       </c>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5770,7 +5764,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5815,7 +5809,7 @@
       </c>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5857,7 +5851,7 @@
       </c>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5903,7 +5897,7 @@
       </c>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5952,7 +5946,7 @@
       </c>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -6006,7 +6000,7 @@
       </c>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -6060,7 +6054,7 @@
       </c>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6106,7 +6100,7 @@
       </c>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6150,7 +6144,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6195,7 +6189,7 @@
       </c>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6241,7 +6235,7 @@
       </c>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6288,7 +6282,7 @@
       <c r="S18"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6336,7 +6330,7 @@
       </c>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6382,7 +6376,7 @@
       </c>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6432,7 +6426,7 @@
       </c>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6476,7 +6470,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6531,7 +6525,7 @@
       </c>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6573,7 +6567,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6615,7 +6609,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6653,7 +6647,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6697,7 +6691,7 @@
       </c>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6739,7 +6733,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6781,7 +6775,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6828,7 +6822,7 @@
       </c>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6872,7 +6866,7 @@
       </c>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6916,7 +6910,7 @@
       </c>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -6965,7 +6959,7 @@
       </c>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -7007,7 +7001,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7049,7 +7043,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7099,7 +7093,7 @@
       </c>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7147,7 +7141,7 @@
       </c>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7201,7 +7195,7 @@
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7246,7 +7240,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7288,7 +7282,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7336,7 +7330,7 @@
       </c>
       <c r="T41"/>
     </row>
-    <row r="42" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7380,7 +7374,7 @@
       </c>
       <c r="T42"/>
     </row>
-    <row r="43" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7422,7 +7416,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7472,7 +7466,7 @@
       </c>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7526,7 +7520,7 @@
       </c>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7569,7 +7563,7 @@
       </c>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7611,7 +7605,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7655,7 +7649,7 @@
       </c>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7699,7 +7693,7 @@
       </c>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7743,7 +7737,7 @@
       </c>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7790,7 +7784,7 @@
       </c>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7833,7 +7827,7 @@
       </c>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7877,7 +7871,7 @@
       </c>
       <c r="T53"/>
     </row>
-    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -7926,7 +7920,7 @@
       </c>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -7971,7 +7965,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="19"/>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8018,7 +8012,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="19"/>
     </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -8065,7 +8059,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="19"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8116,7 +8110,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -8163,7 +8157,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="19"/>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8209,7 +8203,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="19"/>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8255,7 +8249,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="19"/>
     </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8297,7 +8291,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="19"/>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8339,7 +8333,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="19"/>
     </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8386,7 +8380,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="19"/>
     </row>
-    <row r="65" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -8433,7 +8427,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8475,7 +8469,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8522,7 +8516,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="19"/>
     </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8567,7 +8561,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="19"/>
     </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8609,7 +8603,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8649,7 +8643,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="19"/>
     </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8687,7 +8681,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="19"/>
     </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2009</v>
       </c>
@@ -8731,7 +8725,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -8775,7 +8769,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="19"/>
     </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2009</v>
       </c>
@@ -8822,7 +8816,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="19"/>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -8866,7 +8860,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="19"/>
     </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -8913,7 +8907,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="19"/>
     </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2009</v>
       </c>
@@ -8962,7 +8956,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="19"/>
     </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2009</v>
       </c>
@@ -9009,7 +9003,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="19"/>
     </row>
-    <row r="79" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2009</v>
       </c>
@@ -9056,7 +9050,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="19"/>
     </row>
-    <row r="80" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2009</v>
       </c>
@@ -9103,7 +9097,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="19"/>
     </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2009</v>
       </c>
@@ -9150,7 +9144,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="19"/>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2009</v>
       </c>
@@ -9201,7 +9195,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="19"/>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2009</v>
       </c>
@@ -9255,7 +9249,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="19"/>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -9298,7 +9292,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="19"/>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -9341,7 +9335,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="19"/>
     </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9391,7 +9385,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="19"/>
     </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9441,7 +9435,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="19"/>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9491,7 +9485,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="19"/>
     </row>
-    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9541,7 +9535,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="19"/>
     </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -9591,7 +9585,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="19"/>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2010</v>
       </c>
@@ -9641,7 +9635,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="19"/>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -9693,7 +9687,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="19"/>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -9743,7 +9737,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="19"/>
     </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -9796,7 +9790,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="19"/>
     </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2010</v>
       </c>
@@ -9849,7 +9843,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="19"/>
     </row>
-    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2010</v>
       </c>
@@ -9902,7 +9896,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -9952,7 +9946,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="19"/>
     </row>
-    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2010</v>
       </c>
@@ -10002,7 +9996,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="19"/>
     </row>
-    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10052,7 +10046,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="19"/>
     </row>
-    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10102,7 +10096,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -10154,7 +10148,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="19"/>
     </row>
-    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -10201,7 +10195,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="19"/>
     </row>
-    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10251,7 +10245,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="19"/>
     </row>
-    <row r="104" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -10301,7 +10295,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="19"/>
     </row>
-    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10351,7 +10345,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="19"/>
     </row>
-    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -10394,7 +10388,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="19"/>
     </row>
-    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10447,7 +10441,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="19"/>
     </row>
-    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10495,7 +10489,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="19"/>
     </row>
-    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -10545,7 +10539,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="19"/>
     </row>
-    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -10597,7 +10591,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="19"/>
     </row>
-    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -10644,7 +10638,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="19"/>
     </row>
-    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10696,7 +10690,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="19"/>
     </row>
-    <row r="113" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -10741,7 +10735,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="19"/>
     </row>
-    <row r="114" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10790,7 +10784,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="19"/>
     </row>
-    <row r="115" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -10840,7 +10834,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="19"/>
     </row>
-    <row r="116" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -10890,7 +10884,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="19"/>
     </row>
-    <row r="117" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -10938,7 +10932,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="19"/>
     </row>
-    <row r="118" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -10988,7 +10982,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -11035,7 +11029,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="19"/>
     </row>
-    <row r="120" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11085,7 +11079,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="19"/>
     </row>
-    <row r="121" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -11128,7 +11122,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="19"/>
     </row>
-    <row r="122" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11181,7 +11175,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="19"/>
     </row>
-    <row r="123" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -11221,7 +11215,7 @@
       <c r="S123" s="18"/>
       <c r="T123" s="19"/>
     </row>
-    <row r="124" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -11270,7 +11264,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="19"/>
     </row>
-    <row r="125" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -11322,7 +11316,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="19"/>
     </row>
-    <row r="126" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2010</v>
       </c>
@@ -11366,7 +11360,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="19"/>
     </row>
-    <row r="127" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -11415,7 +11409,7 @@
       <c r="S127" s="18"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -11465,7 +11459,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11517,7 +11511,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="19"/>
     </row>
-    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11564,7 +11558,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="19"/>
     </row>
-    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2010</v>
       </c>
@@ -11616,7 +11610,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="19"/>
     </row>
-    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -11668,7 +11662,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="19"/>
     </row>
-    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -11715,7 +11709,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="19"/>
     </row>
-    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -11764,7 +11758,7 @@
       <c r="S134" s="18"/>
       <c r="T134" s="19"/>
     </row>
-    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -11811,7 +11805,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="19"/>
     </row>
-    <row r="136" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -11858,7 +11852,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="19"/>
     </row>
-    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2010</v>
       </c>
@@ -11908,7 +11902,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="19"/>
     </row>
-    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2010</v>
       </c>
@@ -11946,7 +11940,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="19"/>
     </row>
-    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -11990,7 +11984,7 @@
       <c r="S139" s="18"/>
       <c r="T139" s="19"/>
     </row>
-    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -12035,7 +12029,7 @@
       <c r="S140" s="18"/>
       <c r="T140" s="19"/>
     </row>
-    <row r="141" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -12083,7 +12077,7 @@
       <c r="S141" s="18"/>
       <c r="T141" s="19"/>
     </row>
-    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2010</v>
       </c>
@@ -12128,7 +12122,7 @@
       <c r="S142" s="18"/>
       <c r="T142" s="19"/>
     </row>
-    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2010</v>
       </c>
@@ -12176,7 +12170,7 @@
       <c r="S143" s="18"/>
       <c r="T143" s="19"/>
     </row>
-    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2010</v>
       </c>
@@ -12221,7 +12215,7 @@
       <c r="S144" s="18"/>
       <c r="T144" s="19"/>
     </row>
-    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2013</v>
       </c>
@@ -12265,7 +12259,7 @@
       <c r="S145" s="18"/>
       <c r="T145" s="19"/>
     </row>
-    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -12305,7 +12299,7 @@
       <c r="S146" s="18"/>
       <c r="T146" s="19"/>
     </row>
-    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -12345,7 +12339,7 @@
       <c r="S147" s="18"/>
       <c r="T147" s="19"/>
     </row>
-    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -12392,7 +12386,7 @@
       <c r="S148" s="18"/>
       <c r="T148" s="19"/>
     </row>
-    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>2013</v>
       </c>
@@ -12439,7 +12433,7 @@
       <c r="S149" s="18"/>
       <c r="T149" s="19"/>
     </row>
-    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>2013</v>
       </c>
@@ -12479,7 +12473,7 @@
       <c r="S150" s="18"/>
       <c r="T150" s="19"/>
     </row>
-    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -12522,7 +12516,7 @@
       <c r="S151" s="18"/>
       <c r="T151" s="19"/>
     </row>
-    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>2013</v>
       </c>
@@ -12569,7 +12563,7 @@
       <c r="S152" s="18"/>
       <c r="T152" s="19"/>
     </row>
-    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>2013</v>
       </c>
@@ -12612,7 +12606,7 @@
       <c r="S153" s="18"/>
       <c r="T153" s="19"/>
     </row>
-    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -12652,7 +12646,7 @@
       <c r="S154" s="18"/>
       <c r="T154" s="19"/>
     </row>
-    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -12692,7 +12686,7 @@
       <c r="S155" s="18"/>
       <c r="T155" s="19"/>
     </row>
-    <row r="156" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -12732,7 +12726,7 @@
       <c r="S156" s="18"/>
       <c r="T156" s="19"/>
     </row>
-    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12775,7 +12769,7 @@
       <c r="S157" s="18"/>
       <c r="T157" s="19"/>
     </row>
-    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -12818,7 +12812,7 @@
       <c r="S158" s="18"/>
       <c r="T158" s="19"/>
     </row>
-    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -12878,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="49" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="G160" s="31">
         <v>41549</v>
@@ -12911,7 +12905,7 @@
       <c r="S160" s="18"/>
       <c r="T160" s="19"/>
     </row>
-    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>2013</v>
       </c>
@@ -12954,7 +12948,7 @@
       <c r="S161" s="18"/>
       <c r="T161" s="19"/>
     </row>
-    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>2013</v>
       </c>
@@ -12994,7 +12988,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="19"/>
     </row>
-    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>2013</v>
       </c>
@@ -13037,7 +13031,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="19"/>
     </row>
-    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -13077,7 +13071,7 @@
       <c r="S164" s="18"/>
       <c r="T164" s="19"/>
     </row>
-    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -13117,7 +13111,7 @@
       <c r="S165" s="18"/>
       <c r="T165" s="19"/>
     </row>
-    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -13157,7 +13151,7 @@
       <c r="S166" s="18"/>
       <c r="T166" s="19"/>
     </row>
-    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -13197,7 +13191,7 @@
       <c r="S167" s="18"/>
       <c r="T167" s="19"/>
     </row>
-    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -13237,7 +13231,7 @@
       <c r="S168" s="18"/>
       <c r="T168" s="19"/>
     </row>
-    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -13289,7 +13283,7 @@
       <c r="S169" s="18"/>
       <c r="T169" s="19"/>
     </row>
-    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>2014</v>
       </c>
@@ -13342,7 +13336,7 @@
       <c r="S170" s="18"/>
       <c r="T170" s="19"/>
     </row>
-    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>2014</v>
       </c>
@@ -13392,7 +13386,7 @@
       <c r="S171" s="18"/>
       <c r="T171" s="19"/>
     </row>
-    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13441,7 +13435,7 @@
       <c r="S172" s="18"/>
       <c r="T172" s="19"/>
     </row>
-    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -13490,7 +13484,7 @@
       <c r="S173" s="18"/>
       <c r="T173" s="19"/>
     </row>
-    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>2014</v>
       </c>
@@ -13534,7 +13528,7 @@
       <c r="S174" s="18"/>
       <c r="T174" s="19"/>
     </row>
-    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>2014</v>
       </c>
@@ -13584,7 +13578,7 @@
       <c r="S175" s="18"/>
       <c r="T175" s="19"/>
     </row>
-    <row r="176" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -13627,7 +13621,7 @@
       <c r="S176" s="18"/>
       <c r="T176" s="19"/>
     </row>
-    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>2014</v>
       </c>
@@ -13673,7 +13667,7 @@
       <c r="S177" s="18"/>
       <c r="T177" s="19"/>
     </row>
-    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>2014</v>
       </c>
@@ -13717,7 +13711,7 @@
       <c r="S178" s="18"/>
       <c r="T178" s="19"/>
     </row>
-    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>2014</v>
       </c>
@@ -13761,7 +13755,7 @@
       <c r="S179" s="18"/>
       <c r="T179" s="19"/>
     </row>
-    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>2014</v>
       </c>
@@ -13810,7 +13804,7 @@
       <c r="S180" s="18"/>
       <c r="T180" s="19"/>
     </row>
-    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -13850,7 +13844,7 @@
       <c r="S181" s="18"/>
       <c r="T181" s="19"/>
     </row>
-    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>2014</v>
       </c>
@@ -13903,7 +13897,7 @@
       <c r="S182" s="18"/>
       <c r="T182" s="19"/>
     </row>
-    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>2014</v>
       </c>
@@ -13949,7 +13943,7 @@
       <c r="S183" s="18"/>
       <c r="T183" s="19"/>
     </row>
-    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>2014</v>
       </c>
@@ -13992,7 +13986,7 @@
       <c r="S184" s="18"/>
       <c r="T184" s="19"/>
     </row>
-    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>2014</v>
       </c>
@@ -14037,7 +14031,7 @@
       <c r="S185" s="18"/>
       <c r="T185" s="19"/>
     </row>
-    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -14080,7 +14074,7 @@
       <c r="S186" s="18"/>
       <c r="T186" s="19"/>
     </row>
-    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -14123,7 +14117,7 @@
       <c r="S187" s="18"/>
       <c r="T187" s="19"/>
     </row>
-    <row r="188" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -14172,7 +14166,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="19"/>
     </row>
-    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -14212,7 +14206,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="19"/>
     </row>
-    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>2014</v>
       </c>
@@ -14261,7 +14255,7 @@
       <c r="S190" s="18"/>
       <c r="T190" s="19"/>
     </row>
-    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>2014</v>
       </c>
@@ -14314,7 +14308,7 @@
       <c r="S191" s="18"/>
       <c r="T191" s="19"/>
     </row>
-    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>2014</v>
       </c>
@@ -14358,7 +14352,7 @@
       <c r="S192" s="18"/>
       <c r="T192" s="19"/>
     </row>
-    <row r="193" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -14400,7 +14394,7 @@
       <c r="S193" s="18"/>
       <c r="T193" s="19"/>
     </row>
-    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -14440,7 +14434,7 @@
       <c r="S194" s="18"/>
       <c r="T194" s="19"/>
     </row>
-    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -14480,7 +14474,7 @@
       <c r="S195" s="18"/>
       <c r="T195" s="19"/>
     </row>
-    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -14520,7 +14514,7 @@
       <c r="S196" s="18"/>
       <c r="T196" s="19"/>
     </row>
-    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>2014</v>
       </c>
@@ -14572,7 +14566,7 @@
       <c r="S197" s="18"/>
       <c r="T197" s="19"/>
     </row>
-    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>2014</v>
       </c>
@@ -14616,7 +14610,7 @@
       <c r="S198" s="18"/>
       <c r="T198" s="19"/>
     </row>
-    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -14656,7 +14650,7 @@
       <c r="S199" s="18"/>
       <c r="T199" s="19"/>
     </row>
-    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -14705,7 +14699,7 @@
       <c r="S200" s="18"/>
       <c r="T200" s="19"/>
     </row>
-    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -14748,7 +14742,7 @@
       <c r="S201" s="18"/>
       <c r="T201" s="19"/>
     </row>
-    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>2014</v>
       </c>
@@ -14806,7 +14800,7 @@
       <c r="S202" s="18"/>
       <c r="T202" s="19"/>
     </row>
-    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>2014</v>
       </c>
@@ -14850,7 +14844,7 @@
       <c r="S203" s="18"/>
       <c r="T203" s="19"/>
     </row>
-    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -14899,7 +14893,7 @@
       <c r="S204" s="18"/>
       <c r="T204" s="19"/>
     </row>
-    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -14948,7 +14942,7 @@
       <c r="S205" s="18"/>
       <c r="T205" s="19"/>
     </row>
-    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>2014</v>
       </c>
@@ -15000,7 +14994,7 @@
       <c r="S206" s="18"/>
       <c r="T206" s="19"/>
     </row>
-    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>2014</v>
       </c>
@@ -15052,7 +15046,7 @@
       <c r="S207" s="18"/>
       <c r="T207" s="19"/>
     </row>
-    <row r="208" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15098,7 +15092,7 @@
       <c r="S208" s="18"/>
       <c r="T208" s="19"/>
     </row>
-    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>2014</v>
       </c>
@@ -15156,7 +15150,7 @@
       <c r="S209" s="18"/>
       <c r="T209" s="19"/>
     </row>
-    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -15196,7 +15190,7 @@
       <c r="S210" s="18"/>
       <c r="T210" s="19"/>
     </row>
-    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>2014</v>
       </c>
@@ -15243,7 +15237,7 @@
       <c r="S211" s="18"/>
       <c r="T211" s="19"/>
     </row>
-    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15286,7 +15280,7 @@
       <c r="S212" s="18"/>
       <c r="T212" s="19"/>
     </row>
-    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15333,7 +15327,7 @@
       <c r="S213" s="18"/>
       <c r="T213" s="19"/>
     </row>
-    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>2014</v>
       </c>
@@ -15374,7 +15368,7 @@
       <c r="S214" s="18"/>
       <c r="T214" s="19"/>
     </row>
-    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -15425,7 +15419,7 @@
       <c r="S215" s="18"/>
       <c r="T215" s="19"/>
     </row>
-    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>2014</v>
       </c>
@@ -15481,7 +15475,7 @@
       <c r="S216" s="18"/>
       <c r="T216" s="19"/>
     </row>
-    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>2014</v>
       </c>
@@ -15529,7 +15523,7 @@
       <c r="S217" s="18"/>
       <c r="T217" s="19"/>
     </row>
-    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>2014</v>
       </c>
@@ -15580,7 +15574,7 @@
       <c r="S218" s="18"/>
       <c r="T218" s="19"/>
     </row>
-    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -15631,7 +15625,7 @@
       <c r="S219" s="18"/>
       <c r="T219" s="19"/>
     </row>
-    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>2014</v>
       </c>
@@ -15678,7 +15672,7 @@
       <c r="S220" s="18"/>
       <c r="T220" s="19"/>
     </row>
-    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>2014</v>
       </c>
@@ -15728,7 +15722,7 @@
       <c r="S221" s="18"/>
       <c r="T221" s="19"/>
     </row>
-    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>2014</v>
       </c>
@@ -15780,7 +15774,7 @@
       <c r="S222" s="18"/>
       <c r="T222" s="19"/>
     </row>
-    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>2014</v>
       </c>
@@ -15831,7 +15825,7 @@
       <c r="S223" s="18"/>
       <c r="T223" s="19"/>
     </row>
-    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -15875,7 +15869,7 @@
       <c r="S224" s="18"/>
       <c r="T224" s="19"/>
     </row>
-    <row r="225" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>2014</v>
       </c>
@@ -15925,7 +15919,7 @@
       <c r="S225" s="18"/>
       <c r="T225" s="19"/>
     </row>
-    <row r="226" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>2014</v>
       </c>
@@ -15980,7 +15974,7 @@
       <c r="S226" s="18"/>
       <c r="T226" s="19"/>
     </row>
-    <row r="227" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>2014</v>
       </c>
@@ -16030,7 +16024,7 @@
       <c r="S227" s="18"/>
       <c r="T227" s="19"/>
     </row>
-    <row r="228" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>2014</v>
       </c>
@@ -16082,7 +16076,7 @@
       <c r="S228" s="18"/>
       <c r="T228" s="19"/>
     </row>
-    <row r="229" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>2014</v>
       </c>
@@ -16129,7 +16123,7 @@
       <c r="S229" s="18"/>
       <c r="T229" s="19"/>
     </row>
-    <row r="230" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>2014</v>
       </c>
@@ -16173,7 +16167,7 @@
       <c r="S230" s="18"/>
       <c r="T230" s="19"/>
     </row>
-    <row r="231" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>2015</v>
       </c>
@@ -16226,7 +16220,7 @@
       <c r="S231" s="18"/>
       <c r="T231" s="19"/>
     </row>
-    <row r="232" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -16271,7 +16265,7 @@
       <c r="S232" s="18"/>
       <c r="T232" s="19"/>
     </row>
-    <row r="233" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>2015</v>
       </c>
@@ -16320,7 +16314,7 @@
       <c r="S233" s="18"/>
       <c r="T233" s="19"/>
     </row>
-    <row r="234" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>2015</v>
       </c>
@@ -16371,7 +16365,7 @@
       <c r="S234" s="18"/>
       <c r="T234" s="19"/>
     </row>
-    <row r="235" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -16421,7 +16415,7 @@
       <c r="S235" s="18"/>
       <c r="T235" s="19"/>
     </row>
-    <row r="236" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -16472,7 +16466,7 @@
       <c r="S236" s="18"/>
       <c r="T236" s="19"/>
     </row>
-    <row r="237" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -16519,7 +16513,7 @@
       <c r="S237" s="18"/>
       <c r="T237" s="19"/>
     </row>
-    <row r="238" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -16566,7 +16560,7 @@
       <c r="S238" s="18"/>
       <c r="T238" s="19"/>
     </row>
-    <row r="239" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -16613,7 +16607,7 @@
       <c r="S239" s="18"/>
       <c r="T239" s="19"/>
     </row>
-    <row r="240" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -16662,7 +16656,7 @@
       <c r="S240" s="18"/>
       <c r="T240" s="19"/>
     </row>
-    <row r="241" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -16708,7 +16702,7 @@
       <c r="S241" s="18"/>
       <c r="T241" s="19"/>
     </row>
-    <row r="242" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -16761,7 +16755,7 @@
       <c r="S242" s="18"/>
       <c r="T242" s="19"/>
     </row>
-    <row r="243" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -16809,7 +16803,7 @@
       <c r="S243" s="18"/>
       <c r="T243" s="19"/>
     </row>
-    <row r="244" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -16860,7 +16854,7 @@
       <c r="S244" s="18"/>
       <c r="T244" s="19"/>
     </row>
-    <row r="245" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -16909,7 +16903,7 @@
       <c r="S245" s="18"/>
       <c r="T245" s="19"/>
     </row>
-    <row r="246" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -16958,7 +16952,7 @@
       <c r="S246" s="18"/>
       <c r="T246" s="19"/>
     </row>
-    <row r="247" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17006,7 +17000,7 @@
       <c r="S247" s="18"/>
       <c r="T247" s="19"/>
     </row>
-    <row r="248" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>2015</v>
       </c>
@@ -17057,7 +17051,7 @@
       <c r="S248" s="18"/>
       <c r="T248" s="19"/>
     </row>
-    <row r="249" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>2015</v>
       </c>
@@ -17104,7 +17098,7 @@
       <c r="S249" s="18"/>
       <c r="T249" s="19"/>
     </row>
-    <row r="250" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -17159,7 +17153,7 @@
       <c r="S250" s="18"/>
       <c r="T250" s="19"/>
     </row>
-    <row r="251" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -17206,7 +17200,7 @@
       <c r="S251" s="18"/>
       <c r="T251" s="19"/>
     </row>
-    <row r="252" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>2015</v>
       </c>
@@ -17256,7 +17250,7 @@
       <c r="S252" s="18"/>
       <c r="T252" s="19"/>
     </row>
-    <row r="253" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>2015</v>
       </c>
@@ -17305,7 +17299,7 @@
       <c r="S253" s="18"/>
       <c r="T253" s="19"/>
     </row>
-    <row r="254" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -17351,7 +17345,7 @@
       <c r="S254" s="18"/>
       <c r="T254" s="19"/>
     </row>
-    <row r="255" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -17396,7 +17390,7 @@
       <c r="S255" s="18"/>
       <c r="T255" s="19"/>
     </row>
-    <row r="256" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -17445,7 +17439,7 @@
       <c r="S256" s="18"/>
       <c r="T256" s="19"/>
     </row>
-    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -17492,7 +17486,7 @@
       <c r="S257" s="18"/>
       <c r="T257" s="19"/>
     </row>
-    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>2015</v>
       </c>
@@ -17541,7 +17535,7 @@
       <c r="S258" s="18"/>
       <c r="T258" s="19"/>
     </row>
-    <row r="259" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>2015</v>
       </c>
@@ -17592,7 +17586,7 @@
       <c r="S259" s="18"/>
       <c r="T259" s="19"/>
     </row>
-    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>2015</v>
       </c>
@@ -17647,7 +17641,7 @@
       <c r="S260" s="18"/>
       <c r="T260" s="19"/>
     </row>
-    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -17698,7 +17692,7 @@
       <c r="S261" s="18"/>
       <c r="T261" s="19"/>
     </row>
-    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>2015</v>
       </c>
@@ -17749,7 +17743,7 @@
       <c r="S262" s="18"/>
       <c r="T262" s="19"/>
     </row>
-    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -17794,7 +17788,7 @@
       <c r="S263" s="18"/>
       <c r="T263" s="19"/>
     </row>
-    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>2015</v>
       </c>
@@ -17845,7 +17839,7 @@
       <c r="S264" s="18"/>
       <c r="T264" s="19"/>
     </row>
-    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -17896,7 +17890,7 @@
       <c r="S265" s="18"/>
       <c r="T265" s="19"/>
     </row>
-    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -17947,7 +17941,7 @@
       <c r="S266" s="18"/>
       <c r="T266" s="19"/>
     </row>
-    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>2015</v>
       </c>
@@ -17996,7 +17990,7 @@
       <c r="S267" s="18"/>
       <c r="T267" s="19"/>
     </row>
-    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>2015</v>
       </c>
@@ -18049,7 +18043,7 @@
       <c r="S268" s="18"/>
       <c r="T268" s="19"/>
     </row>
-    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>2015</v>
       </c>
@@ -18100,7 +18094,7 @@
       <c r="S269" s="18"/>
       <c r="T269" s="19"/>
     </row>
-    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -18153,7 +18147,7 @@
       <c r="S270" s="18"/>
       <c r="T270" s="19"/>
     </row>
-    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>2015</v>
       </c>
@@ -18202,7 +18196,7 @@
       <c r="S271" s="18"/>
       <c r="T271" s="19"/>
     </row>
-    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -18245,7 +18239,7 @@
       <c r="S272" s="18"/>
       <c r="T272" s="19"/>
     </row>
-    <row r="273" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18290,7 +18284,7 @@
       <c r="S273" s="18"/>
       <c r="T273" s="19"/>
     </row>
-    <row r="274" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -18339,7 +18333,7 @@
       <c r="S274" s="18"/>
       <c r="T274" s="19"/>
     </row>
-    <row r="275" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>2015</v>
       </c>
@@ -18386,7 +18380,7 @@
       <c r="S275" s="18"/>
       <c r="T275" s="19"/>
     </row>
-    <row r="276" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>2015</v>
       </c>
@@ -18433,7 +18427,7 @@
       <c r="S276" s="18"/>
       <c r="T276" s="19"/>
     </row>
-    <row r="277" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>2015</v>
       </c>
@@ -18480,7 +18474,7 @@
       <c r="S277" s="18"/>
       <c r="T277" s="19"/>
     </row>
-    <row r="278" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>2015</v>
       </c>
@@ -18527,7 +18521,7 @@
       <c r="S278" s="18"/>
       <c r="T278" s="19"/>
     </row>
-    <row r="279" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -18572,7 +18566,7 @@
       <c r="S279" s="18"/>
       <c r="T279" s="19"/>
     </row>
-    <row r="280" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>2015</v>
       </c>
@@ -18619,7 +18613,7 @@
       <c r="S280" s="18"/>
       <c r="T280" s="19"/>
     </row>
-    <row r="281" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>2015</v>
       </c>
@@ -18668,7 +18662,7 @@
       <c r="S281" s="18"/>
       <c r="T281" s="19"/>
     </row>
-    <row r="282" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>2015</v>
       </c>
@@ -18713,7 +18707,7 @@
       <c r="S282" s="18"/>
       <c r="T282" s="19"/>
     </row>
-    <row r="283" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>2015</v>
       </c>
@@ -18763,7 +18757,7 @@
       <c r="S283" s="18"/>
       <c r="T283" s="19"/>
     </row>
-    <row r="284" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>2015</v>
       </c>
@@ -18808,7 +18802,7 @@
       <c r="S284" s="18"/>
       <c r="T284" s="19"/>
     </row>
-    <row r="285" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>2015</v>
       </c>
@@ -18855,7 +18849,7 @@
       <c r="S285" s="18"/>
       <c r="T285" s="19"/>
     </row>
-    <row r="286" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>2015</v>
       </c>
@@ -18900,7 +18894,7 @@
       <c r="S286" s="18"/>
       <c r="T286" s="19"/>
     </row>
-    <row r="287" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -18948,7 +18942,7 @@
       <c r="S287" s="18"/>
       <c r="T287" s="19"/>
     </row>
-    <row r="288" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -18994,7 +18988,7 @@
       <c r="S288" s="18"/>
       <c r="T288" s="19"/>
     </row>
-    <row r="289" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -19043,7 +19037,7 @@
       <c r="S289" s="18"/>
       <c r="T289" s="19"/>
     </row>
-    <row r="290" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19089,7 +19083,7 @@
       <c r="S290" s="18"/>
       <c r="T290" s="19"/>
     </row>
-    <row r="291" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -19130,7 +19124,7 @@
       <c r="S291" s="18"/>
       <c r="T291" s="19"/>
     </row>
-    <row r="292" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -19181,7 +19175,7 @@
       <c r="S292" s="18"/>
       <c r="T292" s="19"/>
     </row>
-    <row r="293" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>2015</v>
       </c>
@@ -19235,7 +19229,7 @@
       <c r="S293" s="18"/>
       <c r="T293" s="19"/>
     </row>
-    <row r="294" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19283,7 +19277,7 @@
       <c r="S294" s="18"/>
       <c r="T294" s="19"/>
     </row>
-    <row r="295" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -19329,7 +19323,7 @@
       <c r="S295" s="18"/>
       <c r="T295" s="19"/>
     </row>
-    <row r="296" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>2015</v>
       </c>
@@ -19374,7 +19368,7 @@
       <c r="S296" s="18"/>
       <c r="T296" s="19"/>
     </row>
-    <row r="297" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -19422,7 +19416,7 @@
       <c r="S297" s="18"/>
       <c r="T297" s="19"/>
     </row>
-    <row r="298" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>2015</v>
       </c>
@@ -19468,7 +19462,7 @@
       <c r="S298" s="18"/>
       <c r="T298" s="19"/>
     </row>
-    <row r="299" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>2015</v>
       </c>
@@ -19513,7 +19507,7 @@
       <c r="S299" s="18"/>
       <c r="T299" s="19"/>
     </row>
-    <row r="300" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -19561,7 +19555,7 @@
       <c r="S300" s="18"/>
       <c r="T300" s="19"/>
     </row>
-    <row r="301" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>2015</v>
       </c>
@@ -19616,7 +19610,7 @@
       <c r="S301" s="18"/>
       <c r="T301" s="19"/>
     </row>
-    <row r="302" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -19660,7 +19654,7 @@
       <c r="S302" s="18"/>
       <c r="T302" s="19"/>
     </row>
-    <row r="303" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>2015</v>
       </c>
@@ -19711,7 +19705,7 @@
       <c r="S303" s="18"/>
       <c r="T303" s="19"/>
     </row>
-    <row r="304" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>2015</v>
       </c>
@@ -19752,7 +19746,7 @@
       <c r="S304" s="18"/>
       <c r="T304" s="19"/>
     </row>
-    <row r="305" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -19800,7 +19794,7 @@
       <c r="S305" s="18"/>
       <c r="T305" s="19"/>
     </row>
-    <row r="306" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>2015</v>
       </c>
@@ -19845,7 +19839,7 @@
       <c r="S306" s="18"/>
       <c r="T306" s="19"/>
     </row>
-    <row r="307" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>2015</v>
       </c>
@@ -19893,7 +19887,7 @@
       <c r="S307" s="18"/>
       <c r="T307" s="19"/>
     </row>
-    <row r="308" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>2015</v>
       </c>
@@ -19938,7 +19932,7 @@
       <c r="S308" s="18"/>
       <c r="T308" s="19"/>
     </row>
-    <row r="309" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -19979,7 +19973,7 @@
       <c r="S309" s="18"/>
       <c r="T309" s="19"/>
     </row>
-    <row r="310" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>2015</v>
       </c>
@@ -20024,7 +20018,7 @@
       <c r="S310" s="18"/>
       <c r="T310" s="19"/>
     </row>
-    <row r="311" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -20065,7 +20059,7 @@
       <c r="S311" s="18"/>
       <c r="T311" s="19"/>
     </row>
-    <row r="312" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -20106,7 +20100,7 @@
       <c r="S312" s="18"/>
       <c r="T312" s="19"/>
     </row>
-    <row r="313" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>2015</v>
       </c>
@@ -20154,7 +20148,7 @@
       <c r="S313" s="18"/>
       <c r="T313" s="19"/>
     </row>
-    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -20202,7 +20196,7 @@
       <c r="S314" s="18"/>
       <c r="T314" s="19"/>
     </row>
-    <row r="315" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>2015</v>
       </c>
@@ -20253,7 +20247,7 @@
       <c r="S315" s="18"/>
       <c r="T315" s="19"/>
     </row>
-    <row r="316" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>2015</v>
       </c>
@@ -20301,7 +20295,7 @@
       <c r="S316" s="18"/>
       <c r="T316" s="19"/>
     </row>
-    <row r="317" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -20349,7 +20343,7 @@
       <c r="S317" s="18"/>
       <c r="T317" s="19"/>
     </row>
-    <row r="318" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>2016</v>
       </c>
@@ -20396,7 +20390,7 @@
       <c r="S318" s="18"/>
       <c r="T318" s="19"/>
     </row>
-    <row r="319" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>2016</v>
       </c>
@@ -20454,7 +20448,7 @@
       <c r="W319"/>
       <c r="X319" s="6"/>
     </row>
-    <row r="320" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>2016</v>
       </c>
@@ -20517,7 +20511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -20578,7 +20572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -20637,7 +20631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>2016</v>
       </c>
@@ -20697,7 +20691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>2016</v>
       </c>
@@ -20762,7 +20756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>2016</v>
       </c>
@@ -20825,7 +20819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:24" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -20888,7 +20882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>2016</v>
       </c>
@@ -20950,7 +20944,7 @@
       <c r="W327"/>
       <c r="X327" s="6"/>
     </row>
-    <row r="328" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -21011,7 +21005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -21072,7 +21066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:24" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>2016</v>
       </c>
@@ -21130,7 +21124,7 @@
       <c r="W330"/>
       <c r="X330" s="6"/>
     </row>
-    <row r="331" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>2016</v>
       </c>
@@ -21190,7 +21184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:24" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -21251,7 +21245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -21313,7 +21307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>2016</v>
       </c>
@@ -21371,7 +21365,7 @@
       <c r="W334"/>
       <c r="X334" s="6"/>
     </row>
-    <row r="335" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -21429,7 +21423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -21487,7 +21481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -21547,7 +21541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -21611,7 +21605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -21671,7 +21665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -21726,7 +21720,7 @@
       <c r="S340" s="18"/>
       <c r="T340" s="19"/>
     </row>
-    <row r="341" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -21776,7 +21770,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="342" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>2016</v>
       </c>
@@ -21830,7 +21824,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="343" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>2016</v>
       </c>
@@ -21886,7 +21880,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="344" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>2016</v>
       </c>
@@ -21940,7 +21934,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -21995,7 +21989,7 @@
       <c r="S345" s="18"/>
       <c r="T345" s="19"/>
     </row>
-    <row r="346" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -22047,7 +22041,7 @@
       <c r="S346" s="18"/>
       <c r="T346" s="19"/>
     </row>
-    <row r="347" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -22099,7 +22093,7 @@
       <c r="S347" s="18"/>
       <c r="T347" s="19"/>
     </row>
-    <row r="348" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>2016</v>
       </c>
@@ -22155,7 +22149,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="349" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>2016</v>
       </c>
@@ -22202,7 +22196,7 @@
       <c r="S349" s="18"/>
       <c r="T349" s="19"/>
     </row>
-    <row r="350" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>2016</v>
       </c>
@@ -22252,7 +22246,7 @@
       <c r="S350" s="18"/>
       <c r="T350" s="19"/>
     </row>
-    <row r="351" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -22309,7 +22303,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="352" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -22364,7 +22358,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="353" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>2016</v>
       </c>
@@ -22408,7 +22402,7 @@
       <c r="S353" s="18"/>
       <c r="T353" s="19"/>
     </row>
-    <row r="354" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>2016</v>
       </c>
@@ -22462,7 +22456,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="355" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -22514,7 +22508,7 @@
       <c r="S355" s="18"/>
       <c r="T355" s="19"/>
     </row>
-    <row r="356" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>2016</v>
       </c>
@@ -22564,7 +22558,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="357" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>2016</v>
       </c>
@@ -22609,7 +22603,7 @@
       <c r="S357" s="18"/>
       <c r="T357" s="19"/>
     </row>
-    <row r="358" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>2016</v>
       </c>
@@ -22663,7 +22657,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="359" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>2016</v>
       </c>
@@ -22715,7 +22709,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="360" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>2016</v>
       </c>
@@ -22756,7 +22750,7 @@
       <c r="S360" s="18"/>
       <c r="T360" s="19"/>
     </row>
-    <row r="361" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -22809,7 +22803,7 @@
       <c r="S361" s="18"/>
       <c r="T361" s="19"/>
     </row>
-    <row r="362" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>2016</v>
       </c>
@@ -22862,7 +22856,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="363" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>2016</v>
       </c>
@@ -22904,7 +22898,7 @@
       <c r="S363" s="18"/>
       <c r="T363" s="19"/>
     </row>
-    <row r="364" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>2016</v>
       </c>
@@ -22946,7 +22940,7 @@
       <c r="S364" s="18"/>
       <c r="T364" s="19"/>
     </row>
-    <row r="365" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>2016</v>
       </c>
@@ -22991,7 +22985,7 @@
       <c r="S365" s="18"/>
       <c r="T365" s="19"/>
     </row>
-    <row r="366" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>2016</v>
       </c>
@@ -23033,7 +23027,7 @@
       <c r="S366" s="18"/>
       <c r="T366" s="19"/>
     </row>
-    <row r="367" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>2016</v>
       </c>
@@ -23080,7 +23074,7 @@
       <c r="S367" s="18"/>
       <c r="T367" s="19"/>
     </row>
-    <row r="368" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -23136,7 +23130,7 @@
       <c r="S368" s="18"/>
       <c r="T368" s="19"/>
     </row>
-    <row r="369" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -23184,7 +23178,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -23234,7 +23228,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="371" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -23272,7 +23266,7 @@
       <c r="S371" s="18"/>
       <c r="T371" s="19"/>
     </row>
-    <row r="372" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -23319,7 +23313,7 @@
       <c r="S372" s="18"/>
       <c r="T372" s="19"/>
     </row>
-    <row r="373" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -23357,7 +23351,7 @@
       <c r="S373" s="18"/>
       <c r="T373" s="19"/>
     </row>
-    <row r="374" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>2016</v>
       </c>
@@ -23402,7 +23396,7 @@
       <c r="S374" s="18"/>
       <c r="T374" s="19"/>
     </row>
-    <row r="375" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -23452,7 +23446,7 @@
       <c r="S375" s="18"/>
       <c r="T375" s="19"/>
     </row>
-    <row r="376" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>2016</v>
       </c>
@@ -23502,7 +23496,7 @@
       <c r="S376" s="18"/>
       <c r="T376" s="19"/>
     </row>
-    <row r="377" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>2016</v>
       </c>
@@ -23544,7 +23538,7 @@
       <c r="S377" s="18"/>
       <c r="T377" s="19"/>
     </row>
-    <row r="378" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -23594,7 +23588,7 @@
       <c r="S378" s="18"/>
       <c r="T378" s="19"/>
     </row>
-    <row r="379" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -23651,7 +23645,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="380" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -23699,7 +23693,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="381" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -23746,7 +23740,7 @@
       <c r="S381" s="18"/>
       <c r="T381" s="19"/>
     </row>
-    <row r="382" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -23788,7 +23782,7 @@
       <c r="S382" s="18"/>
       <c r="T382" s="19"/>
     </row>
-    <row r="383" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -23830,7 +23824,7 @@
       <c r="S383" s="18"/>
       <c r="T383" s="19"/>
     </row>
-    <row r="384" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -23882,7 +23876,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -23917,9 +23911,7 @@
       <c r="L385" s="13">
         <v>6</v>
       </c>
-      <c r="M385" s="13" t="s">
-        <v>1097</v>
-      </c>
+      <c r="M385" s="13"/>
       <c r="N385" s="13"/>
       <c r="P385" s="3"/>
       <c r="Q385" s="13" t="s">
@@ -23936,7 +23928,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="386" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>2016</v>
       </c>
@@ -23991,7 +23983,7 @@
       <c r="S386" s="18"/>
       <c r="T386" s="19"/>
     </row>
-    <row r="387" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -24041,7 +24033,7 @@
       <c r="S387" s="18"/>
       <c r="T387" s="19"/>
     </row>
-    <row r="388" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -24091,7 +24083,7 @@
       <c r="S388" s="18"/>
       <c r="T388" s="19"/>
     </row>
-    <row r="389" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -24126,9 +24118,7 @@
       <c r="L389" s="13">
         <v>4</v>
       </c>
-      <c r="M389" s="13" t="s">
-        <v>1097</v>
-      </c>
+      <c r="M389" s="13"/>
       <c r="N389" s="13"/>
       <c r="P389" s="3"/>
       <c r="Q389" s="13" t="s">
@@ -24145,7 +24135,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>2016</v>
       </c>
@@ -24201,7 +24191,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -24251,7 +24241,7 @@
       <c r="S391" s="18"/>
       <c r="T391" s="19"/>
     </row>
-    <row r="392" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>2016</v>
       </c>
@@ -24298,7 +24288,7 @@
       <c r="S392" s="18"/>
       <c r="T392" s="19"/>
     </row>
-    <row r="393" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>2016</v>
       </c>
@@ -24345,7 +24335,7 @@
       <c r="S393" s="18"/>
       <c r="T393" s="19"/>
     </row>
-    <row r="394" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>2016</v>
       </c>
@@ -24392,7 +24382,7 @@
       <c r="S394" s="18"/>
       <c r="T394" s="19"/>
     </row>
-    <row r="395" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -24427,9 +24417,7 @@
       <c r="L395" s="13">
         <v>4</v>
       </c>
-      <c r="M395" s="13" t="s">
-        <v>1097</v>
-      </c>
+      <c r="M395" s="13"/>
       <c r="N395" s="13"/>
       <c r="P395" s="3"/>
       <c r="Q395" s="28" t="s">
@@ -24446,7 +24434,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>2017</v>
       </c>
@@ -24492,7 +24480,7 @@
       <c r="T396" s="2"/>
       <c r="U396" s="2"/>
     </row>
-    <row r="397" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -24536,7 +24524,7 @@
       <c r="T397" s="2"/>
       <c r="U397" s="2"/>
     </row>
-    <row r="398" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -24578,7 +24566,7 @@
       <c r="T398" s="2"/>
       <c r="U398" s="2"/>
     </row>
-    <row r="399" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -24625,7 +24613,7 @@
       <c r="T399" s="2"/>
       <c r="U399" s="2"/>
     </row>
-    <row r="400" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>2017</v>
       </c>
@@ -24675,7 +24663,7 @@
       <c r="T400" s="2"/>
       <c r="U400" s="2"/>
     </row>
-    <row r="401" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>2017</v>
       </c>
@@ -24721,7 +24709,7 @@
       <c r="T401" s="2"/>
       <c r="U401" s="2"/>
     </row>
-    <row r="402" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -24767,7 +24755,7 @@
       <c r="T402" s="2"/>
       <c r="U402" s="2"/>
     </row>
-    <row r="403" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>2017</v>
       </c>
@@ -24815,7 +24803,7 @@
       <c r="T403" s="2"/>
       <c r="U403" s="2"/>
     </row>
-    <row r="404" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>2017</v>
       </c>
@@ -24863,7 +24851,7 @@
       <c r="T404" s="2"/>
       <c r="U404" s="2"/>
     </row>
-    <row r="405" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>2017</v>
       </c>
@@ -24913,7 +24901,7 @@
       <c r="T405" s="2"/>
       <c r="U405" s="2"/>
     </row>
-    <row r="406" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>2017</v>
       </c>
@@ -24950,7 +24938,7 @@
         <v>1</v>
       </c>
       <c r="N406" s="13"/>
-      <c r="O406" s="53" t="s">
+      <c r="O406" s="8" t="s">
         <v>833</v>
       </c>
       <c r="P406" s="3"/>
@@ -24964,7 +24952,7 @@
       <c r="T406" s="2"/>
       <c r="U406" s="2"/>
     </row>
-    <row r="407" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>2017</v>
       </c>
@@ -25012,7 +25000,7 @@
       <c r="T407" s="2"/>
       <c r="U407" s="2"/>
     </row>
-    <row r="408" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -25064,7 +25052,7 @@
       <c r="T408" s="2"/>
       <c r="U408" s="2"/>
     </row>
-    <row r="409" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>2017</v>
       </c>
@@ -25114,7 +25102,7 @@
       <c r="T409" s="2"/>
       <c r="U409" s="2"/>
     </row>
-    <row r="410" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>2017</v>
       </c>
@@ -25163,7 +25151,7 @@
       <c r="T410" s="2"/>
       <c r="U410" s="2"/>
     </row>
-    <row r="411" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>2017</v>
       </c>
@@ -25211,7 +25199,7 @@
       <c r="T411" s="2"/>
       <c r="U411" s="2"/>
     </row>
-    <row r="412" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -25266,7 +25254,7 @@
       <c r="T412" s="2"/>
       <c r="U412" s="2"/>
     </row>
-    <row r="413" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>2017</v>
       </c>
@@ -25312,7 +25300,7 @@
       <c r="T413" s="2"/>
       <c r="U413" s="2"/>
     </row>
-    <row r="414" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -25366,7 +25354,7 @@
       <c r="T414" s="2"/>
       <c r="U414" s="2"/>
     </row>
-    <row r="415" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>2017</v>
       </c>
@@ -25412,7 +25400,7 @@
       <c r="T415" s="2"/>
       <c r="U415" s="2"/>
     </row>
-    <row r="416" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>2017</v>
       </c>
@@ -25460,7 +25448,7 @@
       <c r="T416" s="2"/>
       <c r="U416" s="2"/>
     </row>
-    <row r="417" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>2017</v>
       </c>
@@ -25511,7 +25499,7 @@
       <c r="T417" s="2"/>
       <c r="U417" s="2"/>
     </row>
-    <row r="418" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>2017</v>
       </c>
@@ -25563,7 +25551,7 @@
       <c r="T418" s="2"/>
       <c r="U418" s="2"/>
     </row>
-    <row r="419" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>2017</v>
       </c>
@@ -25612,7 +25600,7 @@
       <c r="T419" s="2"/>
       <c r="U419" s="2"/>
     </row>
-    <row r="420" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>2017</v>
       </c>
@@ -25656,7 +25644,7 @@
       <c r="T420" s="2"/>
       <c r="U420" s="2"/>
     </row>
-    <row r="421" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>2017</v>
       </c>
@@ -25706,7 +25694,7 @@
       <c r="T421" s="2"/>
       <c r="U421" s="2"/>
     </row>
-    <row r="422" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -25759,7 +25747,7 @@
       <c r="T422" s="2"/>
       <c r="U422" s="2"/>
     </row>
-    <row r="423" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>2017</v>
       </c>
@@ -25818,7 +25806,7 @@
       <c r="T423" s="2"/>
       <c r="U423" s="2"/>
     </row>
-    <row r="424" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -25862,7 +25850,7 @@
       <c r="T424" s="2"/>
       <c r="U424" s="2"/>
     </row>
-    <row r="425" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -25906,7 +25894,7 @@
       <c r="T425" s="2"/>
       <c r="U425" s="2"/>
     </row>
-    <row r="426" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>2017</v>
       </c>
@@ -25965,7 +25953,7 @@
       <c r="T426" s="2"/>
       <c r="U426" s="2"/>
     </row>
-    <row r="427" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>2017</v>
       </c>
@@ -26024,7 +26012,7 @@
       <c r="T427" s="2"/>
       <c r="U427" s="2"/>
     </row>
-    <row r="428" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>2017</v>
       </c>
@@ -26073,7 +26061,7 @@
       <c r="T428" s="2"/>
       <c r="U428" s="2"/>
     </row>
-    <row r="429" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>2017</v>
       </c>
@@ -26124,7 +26112,7 @@
       <c r="T429" s="2"/>
       <c r="U429" s="2"/>
     </row>
-    <row r="430" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>2017</v>
       </c>
@@ -26177,7 +26165,7 @@
       <c r="T430" s="2"/>
       <c r="U430" s="2"/>
     </row>
-    <row r="431" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>2017</v>
       </c>
@@ -26228,7 +26216,7 @@
       <c r="T431" s="2"/>
       <c r="U431" s="2"/>
     </row>
-    <row r="432" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>2017</v>
       </c>
@@ -26278,7 +26266,7 @@
       <c r="T432" s="2"/>
       <c r="U432" s="2"/>
     </row>
-    <row r="433" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>2017</v>
       </c>
@@ -26335,7 +26323,7 @@
       <c r="T433" s="2"/>
       <c r="U433" s="2"/>
     </row>
-    <row r="434" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>2017</v>
       </c>
@@ -26386,7 +26374,7 @@
       <c r="T434" s="2"/>
       <c r="U434" s="2"/>
     </row>
-    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -26433,7 +26421,7 @@
       <c r="T435" s="2"/>
       <c r="U435" s="2"/>
     </row>
-    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -26488,7 +26476,7 @@
       <c r="T436" s="2"/>
       <c r="U436" s="2"/>
     </row>
-    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -26539,7 +26527,7 @@
       <c r="T437" s="2"/>
       <c r="U437" s="2"/>
     </row>
-    <row r="438" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6">
         <v>2018</v>
       </c>
@@ -26594,7 +26582,7 @@
       <c r="T438" s="2"/>
       <c r="U438" s="2"/>
     </row>
-    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -26647,7 +26635,7 @@
       <c r="T439" s="2"/>
       <c r="U439" s="2"/>
     </row>
-    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -26692,7 +26680,7 @@
       <c r="T440" s="2"/>
       <c r="U440" s="2"/>
     </row>
-    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -26741,7 +26729,7 @@
       <c r="T441" s="2"/>
       <c r="U441" s="2"/>
     </row>
-    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -26794,7 +26782,7 @@
       <c r="T442" s="2"/>
       <c r="U442" s="2"/>
     </row>
-    <row r="443" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>2018</v>
       </c>
@@ -26845,7 +26833,7 @@
       <c r="T443" s="2"/>
       <c r="U443" s="2"/>
     </row>
-    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -26894,7 +26882,7 @@
       <c r="T444" s="2"/>
       <c r="U444" s="2"/>
     </row>
-    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -26947,7 +26935,7 @@
       <c r="T445" s="2"/>
       <c r="U445" s="2"/>
     </row>
-    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -26979,11 +26967,11 @@
       <c r="K446" s="26">
         <v>6</v>
       </c>
-      <c r="L446" s="52">
+      <c r="L446" s="13">
         <v>5</v>
       </c>
-      <c r="M446" s="52"/>
-      <c r="N446" s="52">
+      <c r="M446" s="13"/>
+      <c r="N446" s="13">
         <v>3</v>
       </c>
       <c r="O446" s="43"/>
@@ -26996,7 +26984,7 @@
       <c r="T446" s="2"/>
       <c r="U446" s="2"/>
     </row>
-    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -27043,7 +27031,7 @@
       <c r="T447" s="2"/>
       <c r="U447" s="2"/>
     </row>
-    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -27090,7 +27078,7 @@
       <c r="T448" s="2"/>
       <c r="U448" s="2"/>
     </row>
-    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -27141,7 +27129,7 @@
       <c r="T449" s="2"/>
       <c r="U449" s="2"/>
     </row>
-    <row r="450" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>2018</v>
       </c>
@@ -27196,7 +27184,7 @@
       <c r="T450" s="2"/>
       <c r="U450" s="2"/>
     </row>
-    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -27245,7 +27233,7 @@
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -27298,7 +27286,7 @@
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -27345,7 +27333,7 @@
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -27394,7 +27382,7 @@
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -27441,7 +27429,7 @@
       <c r="T455" s="2"/>
       <c r="U455" s="2"/>
     </row>
-    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -27490,7 +27478,7 @@
       <c r="T456" s="2"/>
       <c r="U456" s="2"/>
     </row>
-    <row r="457" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
         <v>2018</v>
       </c>
@@ -27541,7 +27529,7 @@
       <c r="T457" s="2"/>
       <c r="U457" s="2"/>
     </row>
-    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -27586,7 +27574,7 @@
       <c r="T458" s="2"/>
       <c r="U458" s="2"/>
     </row>
-    <row r="459" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="6">
         <v>2018</v>
       </c>
@@ -27637,7 +27625,7 @@
       <c r="T459" s="2"/>
       <c r="U459" s="2"/>
     </row>
-    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -27684,7 +27672,7 @@
       <c r="T460" s="2"/>
       <c r="U460" s="2"/>
     </row>
-    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -27733,7 +27721,7 @@
       <c r="T461" s="2"/>
       <c r="U461" s="2"/>
     </row>
-    <row r="462" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="6">
         <v>2018</v>
       </c>
@@ -27784,7 +27772,7 @@
       <c r="T462" s="2"/>
       <c r="U462" s="2"/>
     </row>
-    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -27833,7 +27821,7 @@
       <c r="T463" s="2"/>
       <c r="U463" s="2"/>
     </row>
-    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -27886,7 +27874,7 @@
       <c r="T464" s="2"/>
       <c r="U464" s="2"/>
     </row>
-    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -27939,7 +27927,7 @@
       <c r="T465" s="2"/>
       <c r="U465" s="2"/>
     </row>
-    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -27992,7 +27980,7 @@
       <c r="T466" s="2"/>
       <c r="U466" s="2"/>
     </row>
-    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -28039,7 +28027,7 @@
       <c r="T467" s="2"/>
       <c r="U467" s="2"/>
     </row>
-    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -28086,7 +28074,7 @@
       <c r="T468" s="2"/>
       <c r="U468" s="2"/>
     </row>
-    <row r="469" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="6">
         <v>2018</v>
       </c>
@@ -28137,7 +28125,7 @@
       <c r="T469" s="2"/>
       <c r="U469" s="2"/>
     </row>
-    <row r="470" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="6">
         <v>2018</v>
       </c>
@@ -28190,7 +28178,7 @@
       <c r="T470" s="2"/>
       <c r="U470" s="2"/>
     </row>
-    <row r="471" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="6">
         <v>2018</v>
       </c>
@@ -28245,7 +28233,7 @@
       <c r="T471" s="2"/>
       <c r="U471" s="2"/>
     </row>
-    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -28290,7 +28278,7 @@
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -28341,7 +28329,7 @@
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -28390,7 +28378,7 @@
       <c r="T474" s="2"/>
       <c r="U474" s="2"/>
     </row>
-    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -28437,7 +28425,7 @@
       <c r="T475" s="2"/>
       <c r="U475" s="2"/>
     </row>
-    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -28490,7 +28478,7 @@
       <c r="T476" s="2"/>
       <c r="U476" s="2"/>
     </row>
-    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -28541,7 +28529,7 @@
       <c r="T477" s="2"/>
       <c r="U477" s="2"/>
     </row>
-    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -28588,7 +28576,7 @@
       <c r="T478" s="2"/>
       <c r="U478" s="2"/>
     </row>
-    <row r="479" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="6">
         <v>2018</v>
       </c>
@@ -28641,7 +28629,7 @@
       <c r="T479" s="2"/>
       <c r="U479" s="2"/>
     </row>
-    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -28688,7 +28676,7 @@
       <c r="T480" s="2"/>
       <c r="U480" s="2"/>
     </row>
-    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -28735,7 +28723,7 @@
       <c r="T481" s="2"/>
       <c r="U481" s="2"/>
     </row>
-    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -28786,7 +28774,7 @@
       <c r="T482" s="2"/>
       <c r="U482" s="2"/>
     </row>
-    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -28833,7 +28821,7 @@
       <c r="T483" s="2"/>
       <c r="U483" s="2"/>
     </row>
-    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -28882,7 +28870,7 @@
       <c r="T484" s="2"/>
       <c r="U484" s="2"/>
     </row>
-    <row r="485" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6">
         <v>2018</v>
       </c>
@@ -28935,7 +28923,7 @@
       <c r="T485" s="2"/>
       <c r="U485" s="2"/>
     </row>
-    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -28988,7 +28976,7 @@
       <c r="T486" s="2"/>
       <c r="U486" s="2"/>
     </row>
-    <row r="487" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="6">
         <v>2018</v>
       </c>
@@ -29041,7 +29029,7 @@
       <c r="T487" s="2"/>
       <c r="U487" s="2"/>
     </row>
-    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -29090,7 +29078,7 @@
       <c r="T488" s="2"/>
       <c r="U488" s="2"/>
     </row>
-    <row r="489" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="6">
         <v>2018</v>
       </c>
@@ -29145,7 +29133,7 @@
       <c r="T489" s="2"/>
       <c r="U489" s="2"/>
     </row>
-    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -29196,7 +29184,7 @@
       <c r="T490" s="2"/>
       <c r="U490" s="2"/>
     </row>
-    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -29243,7 +29231,7 @@
       <c r="T491" s="2"/>
       <c r="U491" s="2"/>
     </row>
-    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -29288,7 +29276,7 @@
       <c r="T492" s="2"/>
       <c r="U492" s="2"/>
     </row>
-    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -29333,7 +29321,7 @@
       <c r="T493" s="2"/>
       <c r="U493" s="2"/>
     </row>
-    <row r="494" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="6">
         <v>2018</v>
       </c>
@@ -29388,7 +29376,7 @@
       <c r="T494" s="2"/>
       <c r="U494" s="2"/>
     </row>
-    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -29435,7 +29423,7 @@
       <c r="T495" s="2"/>
       <c r="U495" s="2"/>
     </row>
-    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -29484,7 +29472,7 @@
       <c r="T496" s="2"/>
       <c r="U496" s="2"/>
     </row>
-    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -29529,7 +29517,7 @@
       <c r="T497" s="2"/>
       <c r="U497" s="2"/>
     </row>
-    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -29576,7 +29564,7 @@
       <c r="T498" s="2"/>
       <c r="U498" s="2"/>
     </row>
-    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -29621,7 +29609,7 @@
       <c r="T499" s="2"/>
       <c r="U499" s="2"/>
     </row>
-    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -29672,7 +29660,7 @@
       <c r="T500" s="2"/>
       <c r="U500" s="2"/>
     </row>
-    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -29719,7 +29707,7 @@
       <c r="T501" s="2"/>
       <c r="U501" s="2"/>
     </row>
-    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -29764,7 +29752,7 @@
       <c r="T502" s="2"/>
       <c r="U502" s="2"/>
     </row>
-    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -29815,7 +29803,7 @@
       <c r="T503" s="2"/>
       <c r="U503" s="2"/>
     </row>
-    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -29860,7 +29848,7 @@
       <c r="T504" s="2"/>
       <c r="U504" s="2"/>
     </row>
-    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -29907,7 +29895,7 @@
       <c r="T505" s="2"/>
       <c r="U505" s="2"/>
     </row>
-    <row r="506" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -29939,7 +29927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="6">
         <v>2018</v>
       </c>
@@ -29990,7 +29978,7 @@
       <c r="T507" s="2"/>
       <c r="U507" s="2"/>
     </row>
-    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -30035,7 +30023,7 @@
       <c r="T508" s="2"/>
       <c r="U508" s="2"/>
     </row>
-    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -30086,7 +30074,7 @@
       <c r="T509" s="2"/>
       <c r="U509" s="2"/>
     </row>
-    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -30133,7 +30121,7 @@
       <c r="T510" s="2"/>
       <c r="U510" s="2"/>
     </row>
-    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -30176,7 +30164,7 @@
       <c r="T511" s="2"/>
       <c r="U511" s="2"/>
     </row>
-    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -30225,7 +30213,7 @@
       <c r="T512" s="2"/>
       <c r="U512" s="2"/>
     </row>
-    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -30272,7 +30260,7 @@
       <c r="T513" s="2"/>
       <c r="U513" s="2"/>
     </row>
-    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -30319,7 +30307,7 @@
       <c r="T514" s="2"/>
       <c r="U514" s="2"/>
     </row>
-    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -30368,7 +30356,7 @@
       <c r="T515" s="2"/>
       <c r="U515" s="2"/>
     </row>
-    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -30415,7 +30403,7 @@
       <c r="T516" s="2"/>
       <c r="U516" s="2"/>
     </row>
-    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -30474,7 +30462,7 @@
       <c r="T517" s="2"/>
       <c r="U517" s="2"/>
     </row>
-    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -30525,7 +30513,7 @@
       <c r="T518" s="2"/>
       <c r="U518" s="2"/>
     </row>
-    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -30570,7 +30558,7 @@
       <c r="T519" s="2"/>
       <c r="U519" s="2"/>
     </row>
-    <row r="520" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6">
         <v>2018</v>
       </c>
@@ -30621,7 +30609,7 @@
       <c r="T520" s="2"/>
       <c r="U520" s="2"/>
     </row>
-    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -30668,7 +30656,7 @@
       <c r="T521" s="2"/>
       <c r="U521" s="2"/>
     </row>
-    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -30727,7 +30715,7 @@
       <c r="T522" s="2"/>
       <c r="U522" s="2"/>
     </row>
-    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -30769,7 +30757,7 @@
       <c r="T523" s="2"/>
       <c r="U523" s="2"/>
     </row>
-    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -30816,7 +30804,7 @@
       <c r="T524" s="2"/>
       <c r="U524" s="2"/>
     </row>
-    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -30865,7 +30853,7 @@
       <c r="T525" s="2"/>
       <c r="U525" s="2"/>
     </row>
-    <row r="526" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -30918,7 +30906,7 @@
       <c r="T526" s="2"/>
       <c r="U526" s="2"/>
     </row>
-    <row r="527" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -30971,7 +30959,7 @@
       <c r="T527" s="2"/>
       <c r="U527" s="2"/>
     </row>
-    <row r="528" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -31018,7 +31006,7 @@
       <c r="T528" s="2"/>
       <c r="U528" s="2"/>
     </row>
-    <row r="529" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -31071,7 +31059,7 @@
       <c r="T529" s="2"/>
       <c r="U529" s="2"/>
     </row>
-    <row r="530" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -31118,7 +31106,7 @@
       <c r="T530" s="2"/>
       <c r="U530" s="2"/>
     </row>
-    <row r="531" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -31171,7 +31159,7 @@
       <c r="T531" s="2"/>
       <c r="U531" s="2"/>
     </row>
-    <row r="532" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -31224,7 +31212,7 @@
       <c r="T532" s="2"/>
       <c r="U532" s="2"/>
     </row>
-    <row r="533" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -31271,7 +31259,7 @@
       <c r="T533" s="2"/>
       <c r="U533" s="2"/>
     </row>
-    <row r="534" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -31318,7 +31306,7 @@
       <c r="T534" s="2"/>
       <c r="U534" s="2"/>
     </row>
-    <row r="535" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -31365,7 +31353,7 @@
       <c r="T535" s="2"/>
       <c r="U535" s="2"/>
     </row>
-    <row r="536" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -31412,7 +31400,7 @@
       <c r="T536" s="2"/>
       <c r="U536" s="2"/>
     </row>
-    <row r="537" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -31461,7 +31449,7 @@
       <c r="T537" s="2"/>
       <c r="U537" s="2"/>
     </row>
-    <row r="538" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -31508,7 +31496,7 @@
       <c r="T538" s="2"/>
       <c r="U538" s="2"/>
     </row>
-    <row r="539" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -31555,7 +31543,7 @@
       <c r="T539" s="2"/>
       <c r="U539" s="2"/>
     </row>
-    <row r="540" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -31602,7 +31590,7 @@
       <c r="T540" s="2"/>
       <c r="U540" s="2"/>
     </row>
-    <row r="541" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -31649,7 +31637,7 @@
       <c r="T541" s="2"/>
       <c r="U541" s="2"/>
     </row>
-    <row r="542" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -31696,7 +31684,7 @@
       <c r="T542" s="2"/>
       <c r="U542" s="2"/>
     </row>
-    <row r="543" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -31743,7 +31731,7 @@
       <c r="T543" s="2"/>
       <c r="U543" s="2"/>
     </row>
-    <row r="544" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -31790,7 +31778,7 @@
       <c r="T544" s="2"/>
       <c r="U544" s="2"/>
     </row>
-    <row r="545" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -31837,7 +31825,7 @@
       <c r="T545" s="2"/>
       <c r="U545" s="2"/>
     </row>
-    <row r="546" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -31890,7 +31878,7 @@
       <c r="T546" s="2"/>
       <c r="U546" s="2"/>
     </row>
-    <row r="547" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -31937,7 +31925,7 @@
       <c r="T547" s="2"/>
       <c r="U547" s="2"/>
     </row>
-    <row r="548" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -31984,7 +31972,7 @@
       <c r="T548" s="2"/>
       <c r="U548" s="2"/>
     </row>
-    <row r="549" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -32031,7 +32019,7 @@
       <c r="T549" s="2"/>
       <c r="U549" s="2"/>
     </row>
-    <row r="550" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -32084,7 +32072,7 @@
       <c r="T550" s="2"/>
       <c r="U550" s="2"/>
     </row>
-    <row r="551" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -32131,7 +32119,7 @@
       <c r="T551" s="2"/>
       <c r="U551" s="2"/>
     </row>
-    <row r="552" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -32178,7 +32166,7 @@
       <c r="T552" s="2"/>
       <c r="U552" s="2"/>
     </row>
-    <row r="553" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -32225,7 +32213,7 @@
       <c r="T553" s="2"/>
       <c r="U553" s="2"/>
     </row>
-    <row r="554" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -32272,7 +32260,7 @@
       <c r="T554" s="2"/>
       <c r="U554" s="2"/>
     </row>
-    <row r="555" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -32325,7 +32313,7 @@
       <c r="T555" s="2"/>
       <c r="U555" s="2"/>
     </row>
-    <row r="556" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -32378,7 +32366,7 @@
       <c r="T556" s="2"/>
       <c r="U556" s="2"/>
     </row>
-    <row r="557" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -32425,7 +32413,7 @@
       <c r="T557" s="2"/>
       <c r="U557" s="2"/>
     </row>
-    <row r="558" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -32472,7 +32460,7 @@
       <c r="T558" s="2"/>
       <c r="U558" s="2"/>
     </row>
-    <row r="559" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -32519,7 +32507,7 @@
       <c r="T559" s="2"/>
       <c r="U559" s="2"/>
     </row>
-    <row r="560" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -32566,7 +32554,7 @@
       <c r="T560" s="2"/>
       <c r="U560" s="2"/>
     </row>
-    <row r="561" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -32613,7 +32601,7 @@
       <c r="T561" s="2"/>
       <c r="U561" s="2"/>
     </row>
-    <row r="562" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -32658,7 +32646,7 @@
       <c r="T562" s="2"/>
       <c r="U562" s="2"/>
     </row>
-    <row r="563" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -32703,7 +32691,7 @@
       <c r="T563" s="2"/>
       <c r="U563" s="2"/>
     </row>
-    <row r="564" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -32748,7 +32736,7 @@
       <c r="T564" s="2"/>
       <c r="U564" s="2"/>
     </row>
-    <row r="565" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -32793,7 +32781,7 @@
       <c r="T565" s="2"/>
       <c r="U565" s="2"/>
     </row>
-    <row r="566" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -32838,7 +32826,7 @@
       <c r="T566" s="2"/>
       <c r="U566" s="2"/>
     </row>
-    <row r="567" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -32883,7 +32871,7 @@
       <c r="T567" s="2"/>
       <c r="U567" s="2"/>
     </row>
-    <row r="568" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -32928,7 +32916,7 @@
       <c r="T568" s="2"/>
       <c r="U568" s="2"/>
     </row>
-    <row r="569" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -32973,7 +32961,7 @@
       <c r="T569" s="2"/>
       <c r="U569" s="2"/>
     </row>
-    <row r="570" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -33020,7 +33008,7 @@
       <c r="T570" s="2"/>
       <c r="U570" s="2"/>
     </row>
-    <row r="571" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -33065,7 +33053,7 @@
       <c r="T571" s="2"/>
       <c r="U571" s="2"/>
     </row>
-    <row r="572" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -33110,7 +33098,7 @@
       <c r="T572" s="2"/>
       <c r="U572" s="2"/>
     </row>
-    <row r="573" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -33161,7 +33149,7 @@
       <c r="T573" s="2"/>
       <c r="U573" s="2"/>
     </row>
-    <row r="574" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
         <v>2019</v>
       </c>
@@ -33206,7 +33194,7 @@
       <c r="T574" s="2"/>
       <c r="U574" s="2"/>
     </row>
-    <row r="575" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -33257,7 +33245,7 @@
       <c r="T575" s="2"/>
       <c r="U575" s="2"/>
     </row>
-    <row r="576" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -33308,7 +33296,7 @@
       <c r="T576" s="2"/>
       <c r="U576" s="2"/>
     </row>
-    <row r="577" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -33359,7 +33347,7 @@
       <c r="T577" s="2"/>
       <c r="U577" s="2"/>
     </row>
-    <row r="578" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -33404,7 +33392,7 @@
       <c r="T578" s="2"/>
       <c r="U578" s="2"/>
     </row>
-    <row r="579" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -33449,7 +33437,7 @@
       <c r="T579" s="10"/>
       <c r="U579" s="7"/>
     </row>
-    <row r="580" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -33500,7 +33488,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="581" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
         <v>2022</v>
       </c>
@@ -33547,7 +33535,7 @@
       <c r="T581" s="10"/>
       <c r="U581" s="7"/>
     </row>
-    <row r="582" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
         <v>2022</v>
       </c>
@@ -33598,7 +33586,7 @@
       <c r="T582" s="10"/>
       <c r="U582" s="7"/>
     </row>
-    <row r="583" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>2022</v>
       </c>
@@ -33651,7 +33639,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="584" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
         <v>2022</v>
       </c>
@@ -33704,7 +33692,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
         <v>2022</v>
       </c>
@@ -33765,7 +33753,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -33810,7 +33798,7 @@
       <c r="T586" s="10"/>
       <c r="U586" s="7"/>
     </row>
-    <row r="587" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6">
         <v>2022</v>
       </c>
@@ -33857,7 +33845,7 @@
       <c r="T587" s="10"/>
       <c r="U587" s="7"/>
     </row>
-    <row r="588" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
         <v>2022</v>
       </c>
@@ -33904,7 +33892,7 @@
       <c r="T588" s="10"/>
       <c r="U588" s="7"/>
     </row>
-    <row r="589" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -33949,7 +33937,7 @@
       <c r="T589" s="10"/>
       <c r="U589" s="7"/>
     </row>
-    <row r="590" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
         <v>2022</v>
       </c>
@@ -33996,7 +33984,7 @@
       <c r="T590" s="10"/>
       <c r="U590" s="7"/>
     </row>
-    <row r="591" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
         <v>2022</v>
       </c>
@@ -34057,7 +34045,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="592" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -34116,7 +34104,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="593" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -34175,7 +34163,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="594" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -34228,7 +34216,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="595" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -34287,7 +34275,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="596" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
         <v>2022</v>
       </c>
@@ -34344,7 +34332,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="597" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
         <v>2022</v>
       </c>
@@ -34401,7 +34389,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="598" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
         <v>2022</v>
       </c>
@@ -34452,7 +34440,7 @@
       <c r="T598" s="10"/>
       <c r="U598" s="7"/>
     </row>
-    <row r="599" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
         <v>2022</v>
       </c>
@@ -34511,7 +34499,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="600" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6">
         <v>2022</v>
       </c>
@@ -34568,7 +34556,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="601" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6">
         <v>2022</v>
       </c>
@@ -34625,7 +34613,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="602" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
         <v>2022</v>
       </c>
@@ -34682,7 +34670,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="603" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
         <v>2022</v>
       </c>
@@ -34747,7 +34735,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="604" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -34808,7 +34796,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="605" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
         <v>2022</v>
       </c>
@@ -34861,7 +34849,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="606" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -34916,7 +34904,7 @@
       <c r="T606" s="10"/>
       <c r="U606" s="7"/>
     </row>
-    <row r="607" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
         <v>2022</v>
       </c>
@@ -34981,7 +34969,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="608" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
         <v>2022</v>
       </c>
@@ -35046,7 +35034,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="609" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
         <v>2022</v>
       </c>
@@ -35111,7 +35099,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="610" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
         <v>2022</v>
       </c>
@@ -35170,7 +35158,7 @@
       <c r="T610" s="10"/>
       <c r="U610" s="7"/>
     </row>
-    <row r="611" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
         <v>2022</v>
       </c>
@@ -35235,7 +35223,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="612" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
         <v>2022</v>
       </c>
@@ -35290,7 +35278,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="613" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
         <v>2022</v>
       </c>
@@ -35355,7 +35343,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="614" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -35414,7 +35402,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="615" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
         <v>2022</v>
       </c>
@@ -35461,7 +35449,7 @@
       <c r="T615" s="10"/>
       <c r="U615" s="7"/>
     </row>
-    <row r="616" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
         <v>2022</v>
       </c>
@@ -35508,7 +35496,7 @@
       <c r="T616" s="10"/>
       <c r="U616" s="7"/>
     </row>
-    <row r="617" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
         <v>2022</v>
       </c>
@@ -35559,7 +35547,7 @@
       <c r="T617" s="10"/>
       <c r="U617" s="7"/>
     </row>
-    <row r="618" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -35612,7 +35600,7 @@
       <c r="T618" s="10"/>
       <c r="U618" s="7"/>
     </row>
-    <row r="619" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -35657,7 +35645,7 @@
       <c r="T619" s="10"/>
       <c r="U619" s="7"/>
     </row>
-    <row r="620" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
         <v>2022</v>
       </c>
@@ -35702,7 +35690,7 @@
       <c r="T620" s="10"/>
       <c r="U620" s="7"/>
     </row>
-    <row r="621" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -35755,7 +35743,7 @@
       <c r="T621" s="10"/>
       <c r="U621" s="7"/>
     </row>
-    <row r="622" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -35808,7 +35796,7 @@
       <c r="T622" s="10"/>
       <c r="U622" s="7"/>
     </row>
-    <row r="623" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -35863,7 +35851,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="624" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
         <v>2022</v>
       </c>
@@ -35914,7 +35902,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="625" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -35973,7 +35961,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="626" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -36032,7 +36020,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="627" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -36087,7 +36075,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="628" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
         <v>2022</v>
       </c>
@@ -36142,7 +36130,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="629" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -36197,7 +36185,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="630" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6">
         <v>2022</v>
       </c>
@@ -36250,7 +36238,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="631" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -36309,7 +36297,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="632" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
         <v>2022</v>
       </c>
@@ -36362,7 +36350,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="633" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
         <v>2022</v>
       </c>
@@ -36427,7 +36415,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="634" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -36486,7 +36474,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="635" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -36545,7 +36533,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="636" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -36596,7 +36584,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="637" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -36647,7 +36635,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="638" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -36706,7 +36694,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="639" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -36761,7 +36749,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="640" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
         <v>2022</v>
       </c>
@@ -36812,7 +36800,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="641" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -36871,7 +36859,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="642" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -36930,7 +36918,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="643" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
         <v>2022</v>
       </c>
@@ -36995,7 +36983,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="644" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -37044,7 +37032,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="645" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -37093,7 +37081,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="646" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
         <v>2022</v>
       </c>
@@ -37146,7 +37134,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="647" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
         <v>2022</v>
       </c>
@@ -37203,7 +37191,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="648" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
         <v>2022</v>
       </c>
@@ -37260,7 +37248,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="649" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
         <v>2022</v>
       </c>
@@ -37309,7 +37297,7 @@
       <c r="T649" s="10"/>
       <c r="U649" s="7"/>
     </row>
-    <row r="650" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -37368,7 +37356,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="651" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
         <v>2022</v>
       </c>
@@ -37417,7 +37405,7 @@
       <c r="T651" s="10"/>
       <c r="U651" s="7"/>
     </row>
-    <row r="652" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -37460,7 +37448,7 @@
       <c r="T652" s="10"/>
       <c r="U652" s="7"/>
     </row>
-    <row r="653" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
         <v>2022</v>
       </c>
@@ -37519,7 +37507,7 @@
       <c r="T653" s="10"/>
       <c r="U653" s="7"/>
     </row>
-    <row r="654" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -37570,7 +37558,7 @@
       <c r="T654" s="10"/>
       <c r="U654" s="7"/>
     </row>
-    <row r="655" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -37613,7 +37601,7 @@
       <c r="T655" s="10"/>
       <c r="U655" s="7"/>
     </row>
-    <row r="656" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
         <v>2022</v>
       </c>
@@ -37672,7 +37660,7 @@
       <c r="T656" s="10"/>
       <c r="U656" s="7"/>
     </row>
-    <row r="657" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -37721,7 +37709,7 @@
       <c r="T657" s="10"/>
       <c r="U657" s="7"/>
     </row>
-    <row r="658" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -37764,7 +37752,7 @@
       <c r="T658" s="10"/>
       <c r="U658" s="7"/>
     </row>
-    <row r="659" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -37813,7 +37801,7 @@
       <c r="T659" s="10"/>
       <c r="U659" s="7"/>
     </row>
-    <row r="660" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -37858,7 +37846,7 @@
       <c r="T660" s="10"/>
       <c r="U660" s="7"/>
     </row>
-    <row r="661" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -37911,7 +37899,7 @@
       <c r="T661" s="10"/>
       <c r="U661" s="7"/>
     </row>
-    <row r="662" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
         <v>2022</v>
       </c>
@@ -37958,7 +37946,7 @@
       <c r="T662" s="10"/>
       <c r="U662" s="7"/>
     </row>
-    <row r="663" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -38007,7 +37995,7 @@
       <c r="T663" s="10"/>
       <c r="U663" s="7"/>
     </row>
-    <row r="664" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -38056,7 +38044,7 @@
       <c r="T664" s="10"/>
       <c r="U664" s="7"/>
     </row>
-    <row r="665" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -38109,7 +38097,7 @@
       <c r="T665" s="10"/>
       <c r="U665" s="7"/>
     </row>
-    <row r="666" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -38158,7 +38146,7 @@
       <c r="T666" s="10"/>
       <c r="U666" s="7"/>
     </row>
-    <row r="667" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
         <v>2022</v>
       </c>
@@ -38207,7 +38195,7 @@
       <c r="T667" s="10"/>
       <c r="U667" s="7"/>
     </row>
-    <row r="668" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
         <v>2022</v>
       </c>
@@ -38258,7 +38246,7 @@
       <c r="T668" s="10"/>
       <c r="U668" s="7"/>
     </row>
-    <row r="669" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
         <v>2022</v>
       </c>
@@ -38307,7 +38295,7 @@
       <c r="T669" s="10"/>
       <c r="U669" s="7"/>
     </row>
-    <row r="670" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -38351,7 +38339,7 @@
       <c r="T670" s="10"/>
       <c r="U670" s="7"/>
     </row>
-    <row r="671" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -38402,7 +38390,7 @@
       <c r="T671" s="10"/>
       <c r="U671" s="7"/>
     </row>
-    <row r="672" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -38453,7 +38441,7 @@
       <c r="T672" s="10"/>
       <c r="U672" s="7"/>
     </row>
-    <row r="673" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
         <v>2022</v>
       </c>
@@ -38508,7 +38496,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="674" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
         <v>2022</v>
       </c>
@@ -38557,7 +38545,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="675" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
         <v>2022</v>
       </c>
@@ -38612,7 +38600,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="676" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
         <v>2022</v>
       </c>
@@ -38669,7 +38657,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="677" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
         <v>2022</v>
       </c>
@@ -38726,7 +38714,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="678" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -38780,7 +38768,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="679" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -38836,7 +38824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="680" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11">
         <v>2023</v>
       </c>
@@ -38892,7 +38880,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="681" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="11">
         <v>2023</v>
       </c>
@@ -38948,7 +38936,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="682" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -39002,7 +38990,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="683" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -39058,7 +39046,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="684" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -39112,7 +39100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="685" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -39167,7 +39155,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="686" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -39222,7 +39210,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="687" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="11">
         <v>2023</v>
       </c>
@@ -39280,7 +39268,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="688" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -39334,7 +39322,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="689" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="11">
         <v>2023</v>
       </c>
@@ -39388,7 +39376,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="690" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="11">
         <v>2023</v>
       </c>
@@ -39438,7 +39426,7 @@
       <c r="T690" s="10"/>
       <c r="U690" s="3"/>
     </row>
-    <row r="691" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="11">
         <v>2023</v>
       </c>
@@ -39494,7 +39482,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="692" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -39555,7 +39543,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="693" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -39616,7 +39604,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="694" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="11">
         <v>2023</v>
       </c>
@@ -39673,7 +39661,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="695" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="11">
         <v>2023</v>
       </c>
@@ -39726,7 +39714,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="696" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -39787,7 +39775,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="697" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="11">
         <v>2023</v>
       </c>
@@ -39840,7 +39828,7 @@
       <c r="T697" s="10"/>
       <c r="U697" s="7"/>
     </row>
-    <row r="698" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -39896,7 +39884,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="699" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="11">
         <v>2023</v>
       </c>
@@ -39945,7 +39933,7 @@
       <c r="T699" s="10"/>
       <c r="U699" s="7"/>
     </row>
-    <row r="700" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -39995,7 +39983,7 @@
       <c r="T700" s="10"/>
       <c r="U700" s="7"/>
     </row>
-    <row r="701" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="11">
         <v>2023</v>
       </c>
@@ -40043,7 +40031,7 @@
       <c r="T701" s="10"/>
       <c r="U701" s="7"/>
     </row>
-    <row r="702" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -40101,7 +40089,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="703" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -40151,7 +40139,7 @@
       <c r="T703" s="10"/>
       <c r="U703" s="7"/>
     </row>
-    <row r="704" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="11">
         <v>2023</v>
       </c>
@@ -40201,7 +40189,7 @@
       <c r="T704" s="10"/>
       <c r="U704" s="7"/>
     </row>
-    <row r="705" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -40250,7 +40238,7 @@
       <c r="T705" s="10"/>
       <c r="U705" s="7"/>
     </row>
-    <row r="706" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -40300,7 +40288,7 @@
       <c r="T706" s="10"/>
       <c r="U706" s="7"/>
     </row>
-    <row r="707" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="11">
         <v>2023</v>
       </c>
@@ -40350,7 +40338,7 @@
       <c r="T707" s="10"/>
       <c r="U707" s="7"/>
     </row>
-    <row r="708" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -40402,7 +40390,7 @@
       <c r="T708" s="10"/>
       <c r="U708" s="7"/>
     </row>
-    <row r="709" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -40452,7 +40440,7 @@
       <c r="T709" s="10"/>
       <c r="U709" s="7"/>
     </row>
-    <row r="710" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -40515,7 +40503,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="711" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -40576,7 +40564,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="712" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="11">
         <v>2023</v>
       </c>
@@ -40632,7 +40620,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="713" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -40688,7 +40676,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="714" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -40748,7 +40736,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="715" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -40807,7 +40795,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="716" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -40870,7 +40858,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="717" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -40928,7 +40916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="718" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -40984,7 +40972,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="719" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -41040,7 +41028,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="720" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -41093,7 +41081,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="721" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -41147,7 +41135,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="722" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="11">
         <v>2023</v>
       </c>
@@ -41201,7 +41189,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="723" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -41249,7 +41237,7 @@
       <c r="T723" s="10"/>
       <c r="U723" s="7"/>
     </row>
-    <row r="724" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -41308,7 +41296,7 @@
       <c r="T724" s="10"/>
       <c r="U724" s="7"/>
     </row>
-    <row r="725" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -41364,7 +41352,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="726" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -41416,7 +41404,7 @@
       <c r="T726" s="10"/>
       <c r="U726" s="7"/>
     </row>
-    <row r="727" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -41462,7 +41450,7 @@
       <c r="T727" s="10"/>
       <c r="U727" s="7"/>
     </row>
-    <row r="728" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="11">
         <v>2023</v>
       </c>
@@ -41511,7 +41499,7 @@
       <c r="T728" s="10"/>
       <c r="U728" s="7"/>
     </row>
-    <row r="729" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -41563,7 +41551,7 @@
       <c r="T729" s="10"/>
       <c r="U729" s="7"/>
     </row>
-    <row r="730" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -41611,7 +41599,7 @@
       <c r="T730" s="10"/>
       <c r="U730" s="7"/>
     </row>
-    <row r="731" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -41659,7 +41647,7 @@
       <c r="T731" s="10"/>
       <c r="U731" s="7"/>
     </row>
-    <row r="732" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -41707,7 +41695,7 @@
       <c r="T732" s="10"/>
       <c r="U732" s="7"/>
     </row>
-    <row r="733" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -41761,7 +41749,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="734" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="11">
         <v>2023</v>
       </c>
@@ -41818,7 +41806,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="735" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="11">
         <v>2023</v>
       </c>
@@ -41873,7 +41861,7 @@
       <c r="T735" s="10"/>
       <c r="U735" s="7"/>
     </row>
-    <row r="736" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="11">
         <v>2023</v>
       </c>
@@ -41934,7 +41922,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="737" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="11">
         <v>2023</v>
       </c>
@@ -41973,7 +41961,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="738" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -42016,7 +42004,7 @@
       <c r="T738" s="10"/>
       <c r="U738" s="7"/>
     </row>
-    <row r="739" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="11">
         <v>2023</v>
       </c>
@@ -42062,7 +42050,7 @@
       <c r="T739" s="10"/>
       <c r="U739" s="7"/>
     </row>
-    <row r="740" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -42109,7 +42097,7 @@
       <c r="T740" s="10"/>
       <c r="U740" s="7"/>
     </row>
-    <row r="741" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="11">
         <v>2023</v>
       </c>
@@ -42159,7 +42147,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="742" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="11">
         <v>2023</v>
       </c>
@@ -42218,7 +42206,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="743" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="11">
         <v>2023</v>
       </c>
@@ -42271,7 +42259,7 @@
       <c r="T743" s="10"/>
       <c r="U743" s="7"/>
     </row>
-    <row r="744" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="11">
         <v>2023</v>
       </c>
@@ -42314,7 +42302,7 @@
       <c r="T744" s="10"/>
       <c r="U744" s="7"/>
     </row>
-    <row r="745" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="11">
         <v>2023</v>
       </c>
@@ -42363,7 +42351,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="746" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -42416,7 +42404,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="747" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -42477,7 +42465,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="748" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="11">
         <v>2023</v>
       </c>
@@ -42530,7 +42518,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="749" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="11">
         <v>2023</v>
       </c>
@@ -42580,7 +42568,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="750" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -42637,7 +42625,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="751" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -42688,7 +42676,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="752" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="11">
         <v>2023</v>
       </c>
@@ -42747,7 +42735,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="753" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -42802,7 +42790,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="754" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -42857,7 +42845,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="755" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -42915,7 +42903,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="756" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="11">
         <v>2023</v>
       </c>
@@ -42964,7 +42952,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="757" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="11">
         <v>2023</v>
       </c>
@@ -43021,7 +43009,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="758" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="11">
         <v>2023</v>
       </c>
@@ -43076,7 +43064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="759" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -43133,7 +43121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="760" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -43188,7 +43176,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="761" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="11">
         <v>2023</v>
       </c>
@@ -43239,7 +43227,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="762" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="11">
         <v>2023</v>
       </c>
@@ -43284,7 +43272,7 @@
       <c r="T762" s="10"/>
       <c r="U762" s="7"/>
     </row>
-    <row r="763" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="11">
         <v>2023</v>
       </c>
@@ -43329,7 +43317,7 @@
       <c r="T763" s="10"/>
       <c r="U763" s="7"/>
     </row>
-    <row r="764" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="11">
         <v>2023</v>
       </c>
@@ -43372,7 +43360,7 @@
       <c r="T764" s="10"/>
       <c r="U764" s="7"/>
     </row>
-    <row r="765" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="11">
         <v>2023</v>
       </c>
@@ -43431,7 +43419,7 @@
       <c r="T765" s="10"/>
       <c r="U765" s="7"/>
     </row>
-    <row r="766" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -43478,7 +43466,7 @@
       <c r="T766" s="10"/>
       <c r="U766" s="7"/>
     </row>
-    <row r="767" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="11">
         <v>2023</v>
       </c>
@@ -43527,7 +43515,7 @@
       <c r="T767" s="10"/>
       <c r="U767" s="7"/>
     </row>
-    <row r="768" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -43581,7 +43569,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="769" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -43626,7 +43614,7 @@
       <c r="T769" s="10"/>
       <c r="U769" s="7"/>
     </row>
-    <row r="770" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="11">
         <v>2023</v>
       </c>
@@ -43688,7 +43676,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="771" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="11">
         <v>2023</v>
       </c>
@@ -43737,7 +43725,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="772" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="11">
         <v>2023</v>
       </c>
@@ -43795,7 +43783,7 @@
       <c r="S772" s="9"/>
       <c r="U772" s="3"/>
     </row>
-    <row r="773" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -43840,7 +43828,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="774" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -43899,7 +43887,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="775" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -43961,7 +43949,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="776" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -44026,7 +44014,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="777" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -44086,7 +44074,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="778" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -44143,7 +44131,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="779" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -44200,7 +44188,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="780" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -44260,7 +44248,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="781" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -44318,7 +44306,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="782" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -44373,7 +44361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="783" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -44432,7 +44420,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="784" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -44487,7 +44475,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="785" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -44548,7 +44536,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="786" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -44603,7 +44591,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="787" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -44660,7 +44648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="788" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -44723,7 +44711,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="789" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -44780,7 +44768,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="790" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -44836,7 +44824,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="791" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -44898,7 +44886,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="792" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -44956,7 +44944,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="793" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -45014,7 +45002,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="794" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -45071,7 +45059,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="795" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -45128,7 +45116,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="796" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -45185,7 +45173,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="797" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -45239,7 +45227,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="798" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -45300,7 +45288,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="799" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -45355,7 +45343,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="800" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -45415,7 +45403,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="801" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -45470,7 +45458,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="802" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -45530,7 +45518,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="803" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -45593,7 +45581,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="804" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -45650,7 +45638,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="805" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -45705,7 +45693,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="806" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -45762,7 +45750,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="807" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -45819,7 +45807,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="808" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -45884,7 +45872,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="809" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -45941,7 +45929,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="810" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -45996,7 +45984,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="811" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -46049,7 +46037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="812" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -46104,7 +46092,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="813" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -46157,7 +46145,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="814" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -46219,7 +46207,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="815" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -46276,7 +46264,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="816" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2024</v>
       </c>
@@ -46335,7 +46323,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="817" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -46392,7 +46380,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="818" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -46449,7 +46437,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="819" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -46502,7 +46490,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="820" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -46555,7 +46543,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="821" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -46617,7 +46605,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="822" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -46668,7 +46656,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="823" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -46723,7 +46711,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="824" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -46784,7 +46772,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="825" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2024</v>
       </c>
@@ -46836,7 +46824,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="826" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2024</v>
       </c>
@@ -46888,7 +46876,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="827" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2024</v>
       </c>
@@ -46940,7 +46928,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="828" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2024</v>
       </c>
@@ -46994,7 +46982,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="829" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -47049,7 +47037,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="830" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -47101,7 +47089,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="831" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2024</v>
       </c>
@@ -47153,7 +47141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="832" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -47208,7 +47196,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="833" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -47268,7 +47256,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="834" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -47318,7 +47306,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="835" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -47368,7 +47356,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="836" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2024</v>
       </c>
@@ -47427,7 +47415,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="837" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -47485,7 +47473,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="838" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -47546,7 +47534,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="839" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -47598,7 +47586,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="840" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2024</v>
       </c>
@@ -47655,7 +47643,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="841" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -47709,7 +47697,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="842" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -47770,7 +47758,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="843" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2024</v>
       </c>
@@ -47820,7 +47808,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="844" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -47882,7 +47870,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="845" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2024</v>
       </c>
@@ -47940,7 +47928,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="846" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2024</v>
       </c>
@@ -47992,7 +47980,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="847" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -48034,7 +48022,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="848" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -48084,7 +48072,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="849" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2024</v>
       </c>
@@ -48130,7 +48118,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="850" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2024</v>
       </c>
@@ -48175,7 +48163,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="851" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2024</v>
       </c>
@@ -48425,7 +48413,13 @@
       <c r="G884" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}"/>
+  <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="UNKNOWN_HATCH_DATA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D12BB6-0345-F641-BF67-AC4280A00218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F672A2C-780F-2C40-9890-B20243D50E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6890" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6888" uniqueCount="1500">
   <si>
     <t>Year</t>
   </si>
@@ -5378,8 +5378,8 @@
   <dimension ref="A1:X884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G858" sqref="G858"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L862" sqref="L862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12855,7 +12855,7 @@
       <c r="S159" s="18"/>
       <c r="T159" s="19"/>
     </row>
-    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>2013</v>
       </c>
@@ -20148,7 +20148,7 @@
       <c r="S313" s="18"/>
       <c r="T313" s="19"/>
     </row>
-    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -20183,12 +20183,8 @@
       <c r="L314" s="13">
         <v>10</v>
       </c>
-      <c r="M314" s="13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="N314" s="13" t="s">
-        <v>1097</v>
-      </c>
+      <c r="M314" s="13"/>
+      <c r="N314" s="13"/>
       <c r="O314" s="8" t="s">
         <v>848</v>
       </c>
@@ -48416,7 +48412,12 @@
   <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
     <filterColumn colId="5">
       <filters>
-        <filter val="UNKNOWN_HATCH_DATA"/>
+        <filter val="GOOD"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="NA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F672A2C-780F-2C40-9890-B20243D50E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA867A-1663-6641-8BDC-84B05BE4CDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933CE18D-CD4E-FD40-AD95-653BCA359572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49407FA1-B187-2F4D-BDE3-5352DF805C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5374,11 +5374,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5522,7 +5523,7 @@
       </c>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5568,7 +5569,7 @@
       </c>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5617,7 +5618,7 @@
       </c>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5719,7 +5720,7 @@
       </c>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5763,7 +5764,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5808,7 +5809,7 @@
       </c>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5850,7 +5851,7 @@
       </c>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5896,7 +5897,7 @@
       </c>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5945,7 +5946,7 @@
       </c>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -5999,7 +6000,7 @@
       </c>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -6053,7 +6054,7 @@
       </c>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6099,7 +6100,7 @@
       </c>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6143,7 +6144,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6188,7 +6189,7 @@
       </c>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6234,7 +6235,7 @@
       </c>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6281,7 +6282,7 @@
       <c r="S18"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6329,7 +6330,7 @@
       </c>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6375,7 +6376,7 @@
       </c>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6425,7 +6426,7 @@
       </c>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6469,7 +6470,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6524,7 +6525,7 @@
       </c>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6566,7 +6567,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6608,7 +6609,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6646,7 +6647,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6690,7 +6691,7 @@
       </c>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6732,7 +6733,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6774,7 +6775,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6821,7 +6822,7 @@
       </c>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6865,7 +6866,7 @@
       </c>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6909,7 +6910,7 @@
       </c>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -6958,7 +6959,7 @@
       </c>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -7000,7 +7001,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -7042,7 +7043,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -7092,7 +7093,7 @@
       </c>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -7140,7 +7141,7 @@
       </c>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -7194,7 +7195,7 @@
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -7239,7 +7240,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -7281,7 +7282,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -7329,7 +7330,7 @@
       </c>
       <c r="T41"/>
     </row>
-    <row r="42" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7373,7 +7374,7 @@
       </c>
       <c r="T42"/>
     </row>
-    <row r="43" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7415,7 +7416,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7465,7 +7466,7 @@
       </c>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7519,7 +7520,7 @@
       </c>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7562,7 +7563,7 @@
       </c>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7604,7 +7605,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7648,7 +7649,7 @@
       </c>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7692,7 +7693,7 @@
       </c>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7736,7 +7737,7 @@
       </c>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7783,7 +7784,7 @@
       </c>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7826,7 +7827,7 @@
       </c>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7919,7 +7920,7 @@
       </c>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -7964,7 +7965,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="19"/>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -8011,7 +8012,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="19"/>
     </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -8058,7 +8059,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="19"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -8109,7 +8110,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -8156,7 +8157,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="19"/>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -8202,7 +8203,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="19"/>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -8248,7 +8249,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="19"/>
     </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -8290,7 +8291,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="19"/>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -8332,7 +8333,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="19"/>
     </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -8426,7 +8427,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -8468,7 +8469,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -8515,7 +8516,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="19"/>
     </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8560,7 +8561,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="19"/>
     </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8602,7 +8603,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8642,7 +8643,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="19"/>
     </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8680,7 +8681,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="19"/>
     </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2009</v>
       </c>
@@ -8724,7 +8725,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -8768,7 +8769,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="19"/>
     </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2009</v>
       </c>
@@ -8815,7 +8816,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="19"/>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -8859,7 +8860,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="19"/>
     </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -8906,7 +8907,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="19"/>
     </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2009</v>
       </c>
@@ -8955,7 +8956,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="19"/>
     </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2009</v>
       </c>
@@ -9002,7 +9003,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="19"/>
     </row>
-    <row r="79" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2009</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="19"/>
     </row>
-    <row r="80" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2009</v>
       </c>
@@ -9096,7 +9097,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="19"/>
     </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2009</v>
       </c>
@@ -9143,7 +9144,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="19"/>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2009</v>
       </c>
@@ -9194,7 +9195,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="19"/>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2009</v>
       </c>
@@ -9248,7 +9249,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="19"/>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -9291,7 +9292,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="19"/>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -9334,7 +9335,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="19"/>
     </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -9384,7 +9385,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="19"/>
     </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -9434,7 +9435,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="19"/>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -9484,7 +9485,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="19"/>
     </row>
-    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -9534,7 +9535,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="19"/>
     </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -9584,7 +9585,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="19"/>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2010</v>
       </c>
@@ -9634,7 +9635,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="19"/>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -9686,7 +9687,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="19"/>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -9736,7 +9737,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="19"/>
     </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -9789,7 +9790,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="19"/>
     </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2010</v>
       </c>
@@ -9842,7 +9843,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="19"/>
     </row>
-    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2010</v>
       </c>
@@ -9895,7 +9896,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -9945,7 +9946,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="19"/>
     </row>
-    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2010</v>
       </c>
@@ -9995,7 +9996,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="19"/>
     </row>
-    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -10045,7 +10046,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="19"/>
     </row>
-    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -10095,7 +10096,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -10147,7 +10148,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="19"/>
     </row>
-    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -10194,7 +10195,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="19"/>
     </row>
-    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -10244,7 +10245,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="19"/>
     </row>
-    <row r="104" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -10294,7 +10295,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="19"/>
     </row>
-    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -10344,7 +10345,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="19"/>
     </row>
-    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -10387,7 +10388,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="19"/>
     </row>
-    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -10440,7 +10441,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="19"/>
     </row>
-    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -10488,7 +10489,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="19"/>
     </row>
-    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -10538,7 +10539,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="19"/>
     </row>
-    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -10590,7 +10591,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="19"/>
     </row>
-    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -10637,7 +10638,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="19"/>
     </row>
-    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -10689,7 +10690,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="19"/>
     </row>
-    <row r="113" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -10783,7 +10784,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="19"/>
     </row>
-    <row r="115" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -10833,7 +10834,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="19"/>
     </row>
-    <row r="116" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -10883,7 +10884,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="19"/>
     </row>
-    <row r="117" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -10931,7 +10932,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="19"/>
     </row>
-    <row r="118" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -10981,7 +10982,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -11028,7 +11029,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="19"/>
     </row>
-    <row r="120" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -11078,7 +11079,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="19"/>
     </row>
-    <row r="121" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -11121,7 +11122,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="19"/>
     </row>
-    <row r="122" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -11174,7 +11175,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="19"/>
     </row>
-    <row r="123" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -11263,7 +11264,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="19"/>
     </row>
-    <row r="125" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -11315,7 +11316,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="19"/>
     </row>
-    <row r="126" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2010</v>
       </c>
@@ -11359,7 +11360,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="19"/>
     </row>
-    <row r="127" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -11458,7 +11459,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -11510,7 +11511,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="19"/>
     </row>
-    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -11557,7 +11558,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="19"/>
     </row>
-    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2010</v>
       </c>
@@ -11609,7 +11610,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="19"/>
     </row>
-    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -11661,7 +11662,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="19"/>
     </row>
-    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -11708,7 +11709,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="19"/>
     </row>
-    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -11804,7 +11805,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="19"/>
     </row>
-    <row r="136" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -11851,7 +11852,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="19"/>
     </row>
-    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2010</v>
       </c>
@@ -11901,7 +11902,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="19"/>
     </row>
-    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2010</v>
       </c>
@@ -11939,7 +11940,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="19"/>
     </row>
-    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -12076,7 +12077,7 @@
       <c r="S141" s="18"/>
       <c r="T141" s="19"/>
     </row>
-    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2010</v>
       </c>
@@ -12121,7 +12122,7 @@
       <c r="S142" s="18"/>
       <c r="T142" s="19"/>
     </row>
-    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2010</v>
       </c>
@@ -12169,7 +12170,7 @@
       <c r="S143" s="18"/>
       <c r="T143" s="19"/>
     </row>
-    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2010</v>
       </c>
@@ -12214,7 +12215,7 @@
       <c r="S144" s="18"/>
       <c r="T144" s="19"/>
     </row>
-    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2013</v>
       </c>
@@ -12258,7 +12259,7 @@
       <c r="S145" s="18"/>
       <c r="T145" s="19"/>
     </row>
-    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -12298,7 +12299,7 @@
       <c r="S146" s="18"/>
       <c r="T146" s="19"/>
     </row>
-    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -12338,7 +12339,7 @@
       <c r="S147" s="18"/>
       <c r="T147" s="19"/>
     </row>
-    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -12432,7 +12433,7 @@
       <c r="S149" s="18"/>
       <c r="T149" s="19"/>
     </row>
-    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>2013</v>
       </c>
@@ -12472,7 +12473,7 @@
       <c r="S150" s="18"/>
       <c r="T150" s="19"/>
     </row>
-    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -12515,7 +12516,7 @@
       <c r="S151" s="18"/>
       <c r="T151" s="19"/>
     </row>
-    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>2013</v>
       </c>
@@ -12562,7 +12563,7 @@
       <c r="S152" s="18"/>
       <c r="T152" s="19"/>
     </row>
-    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>2013</v>
       </c>
@@ -12605,7 +12606,7 @@
       <c r="S153" s="18"/>
       <c r="T153" s="19"/>
     </row>
-    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -12645,7 +12646,7 @@
       <c r="S154" s="18"/>
       <c r="T154" s="19"/>
     </row>
-    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -12685,7 +12686,7 @@
       <c r="S155" s="18"/>
       <c r="T155" s="19"/>
     </row>
-    <row r="156" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -12725,7 +12726,7 @@
       <c r="S156" s="18"/>
       <c r="T156" s="19"/>
     </row>
-    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -12768,7 +12769,7 @@
       <c r="S157" s="18"/>
       <c r="T157" s="19"/>
     </row>
-    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -12811,7 +12812,7 @@
       <c r="S158" s="18"/>
       <c r="T158" s="19"/>
     </row>
-    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -12854,7 +12855,7 @@
       <c r="S159" s="18"/>
       <c r="T159" s="19"/>
     </row>
-    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>2013</v>
       </c>
@@ -12904,7 +12905,7 @@
       <c r="S160" s="18"/>
       <c r="T160" s="19"/>
     </row>
-    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>2013</v>
       </c>
@@ -12947,7 +12948,7 @@
       <c r="S161" s="18"/>
       <c r="T161" s="19"/>
     </row>
-    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>2013</v>
       </c>
@@ -12987,7 +12988,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="19"/>
     </row>
-    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>2013</v>
       </c>
@@ -13030,7 +13031,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="19"/>
     </row>
-    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -13070,7 +13071,7 @@
       <c r="S164" s="18"/>
       <c r="T164" s="19"/>
     </row>
-    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -13110,7 +13111,7 @@
       <c r="S165" s="18"/>
       <c r="T165" s="19"/>
     </row>
-    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -13150,7 +13151,7 @@
       <c r="S166" s="18"/>
       <c r="T166" s="19"/>
     </row>
-    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -13190,7 +13191,7 @@
       <c r="S167" s="18"/>
       <c r="T167" s="19"/>
     </row>
-    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -13282,7 +13283,7 @@
       <c r="S169" s="18"/>
       <c r="T169" s="19"/>
     </row>
-    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>2014</v>
       </c>
@@ -13335,7 +13336,7 @@
       <c r="S170" s="18"/>
       <c r="T170" s="19"/>
     </row>
-    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>2014</v>
       </c>
@@ -13385,7 +13386,7 @@
       <c r="S171" s="18"/>
       <c r="T171" s="19"/>
     </row>
-    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -13483,7 +13484,7 @@
       <c r="S173" s="18"/>
       <c r="T173" s="19"/>
     </row>
-    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>2014</v>
       </c>
@@ -13527,7 +13528,7 @@
       <c r="S174" s="18"/>
       <c r="T174" s="19"/>
     </row>
-    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>2014</v>
       </c>
@@ -13577,7 +13578,7 @@
       <c r="S175" s="18"/>
       <c r="T175" s="19"/>
     </row>
-    <row r="176" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -13620,7 +13621,7 @@
       <c r="S176" s="18"/>
       <c r="T176" s="19"/>
     </row>
-    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>2014</v>
       </c>
@@ -13666,7 +13667,7 @@
       <c r="S177" s="18"/>
       <c r="T177" s="19"/>
     </row>
-    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>2014</v>
       </c>
@@ -13710,7 +13711,7 @@
       <c r="S178" s="18"/>
       <c r="T178" s="19"/>
     </row>
-    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>2014</v>
       </c>
@@ -13754,7 +13755,7 @@
       <c r="S179" s="18"/>
       <c r="T179" s="19"/>
     </row>
-    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>2014</v>
       </c>
@@ -13803,7 +13804,7 @@
       <c r="S180" s="18"/>
       <c r="T180" s="19"/>
     </row>
-    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -13843,7 +13844,7 @@
       <c r="S181" s="18"/>
       <c r="T181" s="19"/>
     </row>
-    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>2014</v>
       </c>
@@ -13896,7 +13897,7 @@
       <c r="S182" s="18"/>
       <c r="T182" s="19"/>
     </row>
-    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>2014</v>
       </c>
@@ -13942,7 +13943,7 @@
       <c r="S183" s="18"/>
       <c r="T183" s="19"/>
     </row>
-    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>2014</v>
       </c>
@@ -13985,7 +13986,7 @@
       <c r="S184" s="18"/>
       <c r="T184" s="19"/>
     </row>
-    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>2014</v>
       </c>
@@ -14030,7 +14031,7 @@
       <c r="S185" s="18"/>
       <c r="T185" s="19"/>
     </row>
-    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -14073,7 +14074,7 @@
       <c r="S186" s="18"/>
       <c r="T186" s="19"/>
     </row>
-    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -14116,7 +14117,7 @@
       <c r="S187" s="18"/>
       <c r="T187" s="19"/>
     </row>
-    <row r="188" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -14165,7 +14166,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="19"/>
     </row>
-    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -14205,7 +14206,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="19"/>
     </row>
-    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>2014</v>
       </c>
@@ -14254,7 +14255,7 @@
       <c r="S190" s="18"/>
       <c r="T190" s="19"/>
     </row>
-    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>2014</v>
       </c>
@@ -14307,7 +14308,7 @@
       <c r="S191" s="18"/>
       <c r="T191" s="19"/>
     </row>
-    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>2014</v>
       </c>
@@ -14351,7 +14352,7 @@
       <c r="S192" s="18"/>
       <c r="T192" s="19"/>
     </row>
-    <row r="193" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -14393,7 +14394,7 @@
       <c r="S193" s="18"/>
       <c r="T193" s="19"/>
     </row>
-    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -14433,7 +14434,7 @@
       <c r="S194" s="18"/>
       <c r="T194" s="19"/>
     </row>
-    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -14473,7 +14474,7 @@
       <c r="S195" s="18"/>
       <c r="T195" s="19"/>
     </row>
-    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -14565,7 +14566,7 @@
       <c r="S197" s="18"/>
       <c r="T197" s="19"/>
     </row>
-    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>2014</v>
       </c>
@@ -14609,7 +14610,7 @@
       <c r="S198" s="18"/>
       <c r="T198" s="19"/>
     </row>
-    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -14698,7 +14699,7 @@
       <c r="S200" s="18"/>
       <c r="T200" s="19"/>
     </row>
-    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -14741,7 +14742,7 @@
       <c r="S201" s="18"/>
       <c r="T201" s="19"/>
     </row>
-    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>2014</v>
       </c>
@@ -14799,7 +14800,7 @@
       <c r="S202" s="18"/>
       <c r="T202" s="19"/>
     </row>
-    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>2014</v>
       </c>
@@ -15045,7 +15046,7 @@
       <c r="S207" s="18"/>
       <c r="T207" s="19"/>
     </row>
-    <row r="208" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -15091,7 +15092,7 @@
       <c r="S208" s="18"/>
       <c r="T208" s="19"/>
     </row>
-    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>2014</v>
       </c>
@@ -15149,7 +15150,7 @@
       <c r="S209" s="18"/>
       <c r="T209" s="19"/>
     </row>
-    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -15189,7 +15190,7 @@
       <c r="S210" s="18"/>
       <c r="T210" s="19"/>
     </row>
-    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>2014</v>
       </c>
@@ -15236,7 +15237,7 @@
       <c r="S211" s="18"/>
       <c r="T211" s="19"/>
     </row>
-    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -15279,7 +15280,7 @@
       <c r="S212" s="18"/>
       <c r="T212" s="19"/>
     </row>
-    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -15326,7 +15327,7 @@
       <c r="S213" s="18"/>
       <c r="T213" s="19"/>
     </row>
-    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>2014</v>
       </c>
@@ -15367,7 +15368,7 @@
       <c r="S214" s="18"/>
       <c r="T214" s="19"/>
     </row>
-    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -15418,7 +15419,7 @@
       <c r="S215" s="18"/>
       <c r="T215" s="19"/>
     </row>
-    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>2014</v>
       </c>
@@ -15474,7 +15475,7 @@
       <c r="S216" s="18"/>
       <c r="T216" s="19"/>
     </row>
-    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>2014</v>
       </c>
@@ -15522,7 +15523,7 @@
       <c r="S217" s="18"/>
       <c r="T217" s="19"/>
     </row>
-    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>2014</v>
       </c>
@@ -15573,7 +15574,7 @@
       <c r="S218" s="18"/>
       <c r="T218" s="19"/>
     </row>
-    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -15624,7 +15625,7 @@
       <c r="S219" s="18"/>
       <c r="T219" s="19"/>
     </row>
-    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>2014</v>
       </c>
@@ -15671,7 +15672,7 @@
       <c r="S220" s="18"/>
       <c r="T220" s="19"/>
     </row>
-    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>2014</v>
       </c>
@@ -15721,7 +15722,7 @@
       <c r="S221" s="18"/>
       <c r="T221" s="19"/>
     </row>
-    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>2014</v>
       </c>
@@ -15773,7 +15774,7 @@
       <c r="S222" s="18"/>
       <c r="T222" s="19"/>
     </row>
-    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>2014</v>
       </c>
@@ -15824,7 +15825,7 @@
       <c r="S223" s="18"/>
       <c r="T223" s="19"/>
     </row>
-    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -15868,7 +15869,7 @@
       <c r="S224" s="18"/>
       <c r="T224" s="19"/>
     </row>
-    <row r="225" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>2014</v>
       </c>
@@ -15918,7 +15919,7 @@
       <c r="S225" s="18"/>
       <c r="T225" s="19"/>
     </row>
-    <row r="226" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>2014</v>
       </c>
@@ -15973,7 +15974,7 @@
       <c r="S226" s="18"/>
       <c r="T226" s="19"/>
     </row>
-    <row r="227" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>2014</v>
       </c>
@@ -16023,7 +16024,7 @@
       <c r="S227" s="18"/>
       <c r="T227" s="19"/>
     </row>
-    <row r="228" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>2014</v>
       </c>
@@ -16075,7 +16076,7 @@
       <c r="S228" s="18"/>
       <c r="T228" s="19"/>
     </row>
-    <row r="229" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>2014</v>
       </c>
@@ -16122,7 +16123,7 @@
       <c r="S229" s="18"/>
       <c r="T229" s="19"/>
     </row>
-    <row r="230" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>2014</v>
       </c>
@@ -16166,7 +16167,7 @@
       <c r="S230" s="18"/>
       <c r="T230" s="19"/>
     </row>
-    <row r="231" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>2015</v>
       </c>
@@ -16219,7 +16220,7 @@
       <c r="S231" s="18"/>
       <c r="T231" s="19"/>
     </row>
-    <row r="232" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -16267,7 +16268,7 @@
       <c r="S232" s="18"/>
       <c r="T232" s="19"/>
     </row>
-    <row r="233" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>2015</v>
       </c>
@@ -16316,7 +16317,7 @@
       <c r="S233" s="18"/>
       <c r="T233" s="19"/>
     </row>
-    <row r="234" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>2015</v>
       </c>
@@ -16367,7 +16368,7 @@
       <c r="S234" s="18"/>
       <c r="T234" s="19"/>
     </row>
-    <row r="235" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -16417,7 +16418,7 @@
       <c r="S235" s="18"/>
       <c r="T235" s="19"/>
     </row>
-    <row r="236" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -16466,7 +16467,7 @@
       <c r="S236" s="18"/>
       <c r="T236" s="19"/>
     </row>
-    <row r="237" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -16513,7 +16514,7 @@
       <c r="S237" s="18"/>
       <c r="T237" s="19"/>
     </row>
-    <row r="238" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -16560,7 +16561,7 @@
       <c r="S238" s="18"/>
       <c r="T238" s="19"/>
     </row>
-    <row r="239" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -16607,7 +16608,7 @@
       <c r="S239" s="18"/>
       <c r="T239" s="19"/>
     </row>
-    <row r="240" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -16656,7 +16657,7 @@
       <c r="S240" s="18"/>
       <c r="T240" s="19"/>
     </row>
-    <row r="241" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -16702,7 +16703,7 @@
       <c r="S241" s="18"/>
       <c r="T241" s="19"/>
     </row>
-    <row r="242" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -16755,7 +16756,7 @@
       <c r="S242" s="18"/>
       <c r="T242" s="19"/>
     </row>
-    <row r="243" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -16805,7 +16806,7 @@
       <c r="S243" s="18"/>
       <c r="T243" s="19"/>
     </row>
-    <row r="244" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -16859,7 +16860,7 @@
       <c r="S244" s="18"/>
       <c r="T244" s="19"/>
     </row>
-    <row r="245" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -16908,7 +16909,7 @@
       <c r="S245" s="18"/>
       <c r="T245" s="19"/>
     </row>
-    <row r="246" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -16957,7 +16958,7 @@
       <c r="S246" s="18"/>
       <c r="T246" s="19"/>
     </row>
-    <row r="247" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -17005,7 +17006,7 @@
       <c r="S247" s="18"/>
       <c r="T247" s="19"/>
     </row>
-    <row r="248" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>2015</v>
       </c>
@@ -17056,7 +17057,7 @@
       <c r="S248" s="18"/>
       <c r="T248" s="19"/>
     </row>
-    <row r="249" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>2015</v>
       </c>
@@ -17158,7 +17159,7 @@
       <c r="S250" s="18"/>
       <c r="T250" s="19"/>
     </row>
-    <row r="251" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -17205,7 +17206,7 @@
       <c r="S251" s="18"/>
       <c r="T251" s="19"/>
     </row>
-    <row r="252" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>2015</v>
       </c>
@@ -17255,7 +17256,7 @@
       <c r="S252" s="18"/>
       <c r="T252" s="19"/>
     </row>
-    <row r="253" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>2015</v>
       </c>
@@ -17304,7 +17305,7 @@
       <c r="S253" s="18"/>
       <c r="T253" s="19"/>
     </row>
-    <row r="254" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -17350,7 +17351,7 @@
       <c r="S254" s="18"/>
       <c r="T254" s="19"/>
     </row>
-    <row r="255" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -17395,7 +17396,7 @@
       <c r="S255" s="18"/>
       <c r="T255" s="19"/>
     </row>
-    <row r="256" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -17444,7 +17445,7 @@
       <c r="S256" s="18"/>
       <c r="T256" s="19"/>
     </row>
-    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -17491,7 +17492,7 @@
       <c r="S257" s="18"/>
       <c r="T257" s="19"/>
     </row>
-    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>2015</v>
       </c>
@@ -17540,7 +17541,7 @@
       <c r="S258" s="18"/>
       <c r="T258" s="19"/>
     </row>
-    <row r="259" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>2015</v>
       </c>
@@ -17697,7 +17698,7 @@
       <c r="S261" s="18"/>
       <c r="T261" s="19"/>
     </row>
-    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>2015</v>
       </c>
@@ -17748,7 +17749,7 @@
       <c r="S262" s="18"/>
       <c r="T262" s="19"/>
     </row>
-    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -17793,7 +17794,7 @@
       <c r="S263" s="18"/>
       <c r="T263" s="19"/>
     </row>
-    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>2015</v>
       </c>
@@ -17895,7 +17896,7 @@
       <c r="S265" s="18"/>
       <c r="T265" s="19"/>
     </row>
-    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -17946,7 +17947,7 @@
       <c r="S266" s="18"/>
       <c r="T266" s="19"/>
     </row>
-    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>2015</v>
       </c>
@@ -18048,7 +18049,7 @@
       <c r="S268" s="18"/>
       <c r="T268" s="19"/>
     </row>
-    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>2015</v>
       </c>
@@ -18152,7 +18153,7 @@
       <c r="S270" s="18"/>
       <c r="T270" s="19"/>
     </row>
-    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>2015</v>
       </c>
@@ -18201,7 +18202,7 @@
       <c r="S271" s="18"/>
       <c r="T271" s="19"/>
     </row>
-    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -18244,7 +18245,7 @@
       <c r="S272" s="18"/>
       <c r="T272" s="19"/>
     </row>
-    <row r="273" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -18289,7 +18290,7 @@
       <c r="S273" s="18"/>
       <c r="T273" s="19"/>
     </row>
-    <row r="274" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -18338,7 +18339,7 @@
       <c r="S274" s="18"/>
       <c r="T274" s="19"/>
     </row>
-    <row r="275" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>2015</v>
       </c>
@@ -18385,7 +18386,7 @@
       <c r="S275" s="18"/>
       <c r="T275" s="19"/>
     </row>
-    <row r="276" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>2015</v>
       </c>
@@ -18432,7 +18433,7 @@
       <c r="S276" s="18"/>
       <c r="T276" s="19"/>
     </row>
-    <row r="277" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>2015</v>
       </c>
@@ -18479,7 +18480,7 @@
       <c r="S277" s="18"/>
       <c r="T277" s="19"/>
     </row>
-    <row r="278" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>2015</v>
       </c>
@@ -18526,7 +18527,7 @@
       <c r="S278" s="18"/>
       <c r="T278" s="19"/>
     </row>
-    <row r="279" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -18571,7 +18572,7 @@
       <c r="S279" s="18"/>
       <c r="T279" s="19"/>
     </row>
-    <row r="280" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>2015</v>
       </c>
@@ -18618,7 +18619,7 @@
       <c r="S280" s="18"/>
       <c r="T280" s="19"/>
     </row>
-    <row r="281" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>2015</v>
       </c>
@@ -18667,7 +18668,7 @@
       <c r="S281" s="18"/>
       <c r="T281" s="19"/>
     </row>
-    <row r="282" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>2015</v>
       </c>
@@ -18712,7 +18713,7 @@
       <c r="S282" s="18"/>
       <c r="T282" s="19"/>
     </row>
-    <row r="283" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>2015</v>
       </c>
@@ -18762,7 +18763,7 @@
       <c r="S283" s="18"/>
       <c r="T283" s="19"/>
     </row>
-    <row r="284" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>2015</v>
       </c>
@@ -18807,7 +18808,7 @@
       <c r="S284" s="18"/>
       <c r="T284" s="19"/>
     </row>
-    <row r="285" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>2015</v>
       </c>
@@ -18854,7 +18855,7 @@
       <c r="S285" s="18"/>
       <c r="T285" s="19"/>
     </row>
-    <row r="286" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>2015</v>
       </c>
@@ -18899,7 +18900,7 @@
       <c r="S286" s="18"/>
       <c r="T286" s="19"/>
     </row>
-    <row r="287" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -18947,7 +18948,7 @@
       <c r="S287" s="18"/>
       <c r="T287" s="19"/>
     </row>
-    <row r="288" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -19044,7 +19045,7 @@
       <c r="S289" s="18"/>
       <c r="T289" s="19"/>
     </row>
-    <row r="290" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -19090,7 +19091,7 @@
       <c r="S290" s="18"/>
       <c r="T290" s="19"/>
     </row>
-    <row r="291" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -19182,7 +19183,7 @@
       <c r="S292" s="18"/>
       <c r="T292" s="19"/>
     </row>
-    <row r="293" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>2015</v>
       </c>
@@ -19236,7 +19237,7 @@
       <c r="S293" s="18"/>
       <c r="T293" s="19"/>
     </row>
-    <row r="294" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -19284,7 +19285,7 @@
       <c r="S294" s="18"/>
       <c r="T294" s="19"/>
     </row>
-    <row r="295" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -19330,7 +19331,7 @@
       <c r="S295" s="18"/>
       <c r="T295" s="19"/>
     </row>
-    <row r="296" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>2015</v>
       </c>
@@ -19423,7 +19424,7 @@
       <c r="S297" s="18"/>
       <c r="T297" s="19"/>
     </row>
-    <row r="298" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>2015</v>
       </c>
@@ -19469,7 +19470,7 @@
       <c r="S298" s="18"/>
       <c r="T298" s="19"/>
     </row>
-    <row r="299" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>2015</v>
       </c>
@@ -19514,7 +19515,7 @@
       <c r="S299" s="18"/>
       <c r="T299" s="19"/>
     </row>
-    <row r="300" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -19562,7 +19563,7 @@
       <c r="S300" s="18"/>
       <c r="T300" s="19"/>
     </row>
-    <row r="301" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>2015</v>
       </c>
@@ -19617,7 +19618,7 @@
       <c r="S301" s="18"/>
       <c r="T301" s="19"/>
     </row>
-    <row r="302" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -19661,7 +19662,7 @@
       <c r="S302" s="18"/>
       <c r="T302" s="19"/>
     </row>
-    <row r="303" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>2015</v>
       </c>
@@ -19712,7 +19713,7 @@
       <c r="S303" s="18"/>
       <c r="T303" s="19"/>
     </row>
-    <row r="304" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>2015</v>
       </c>
@@ -19801,7 +19802,7 @@
       <c r="S305" s="18"/>
       <c r="T305" s="19"/>
     </row>
-    <row r="306" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>2015</v>
       </c>
@@ -19846,7 +19847,7 @@
       <c r="S306" s="18"/>
       <c r="T306" s="19"/>
     </row>
-    <row r="307" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>2015</v>
       </c>
@@ -19894,7 +19895,7 @@
       <c r="S307" s="18"/>
       <c r="T307" s="19"/>
     </row>
-    <row r="308" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>2015</v>
       </c>
@@ -19939,7 +19940,7 @@
       <c r="S308" s="18"/>
       <c r="T308" s="19"/>
     </row>
-    <row r="309" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -19980,7 +19981,7 @@
       <c r="S309" s="18"/>
       <c r="T309" s="19"/>
     </row>
-    <row r="310" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>2015</v>
       </c>
@@ -20025,7 +20026,7 @@
       <c r="S310" s="18"/>
       <c r="T310" s="19"/>
     </row>
-    <row r="311" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -20069,7 +20070,7 @@
       <c r="S311" s="18"/>
       <c r="T311" s="19"/>
     </row>
-    <row r="312" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -20113,7 +20114,7 @@
       <c r="S312" s="18"/>
       <c r="T312" s="19"/>
     </row>
-    <row r="313" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>2015</v>
       </c>
@@ -20161,7 +20162,7 @@
       <c r="S313" s="18"/>
       <c r="T313" s="19"/>
     </row>
-    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -20205,7 +20206,7 @@
       <c r="S314" s="18"/>
       <c r="T314" s="19"/>
     </row>
-    <row r="315" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>2015</v>
       </c>
@@ -20256,7 +20257,7 @@
       <c r="S315" s="18"/>
       <c r="T315" s="19"/>
     </row>
-    <row r="316" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>2015</v>
       </c>
@@ -20304,7 +20305,7 @@
       <c r="S316" s="18"/>
       <c r="T316" s="19"/>
     </row>
-    <row r="317" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -20352,7 +20353,7 @@
       <c r="S317" s="18"/>
       <c r="T317" s="19"/>
     </row>
-    <row r="318" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>2016</v>
       </c>
@@ -20399,7 +20400,7 @@
       <c r="S318" s="18"/>
       <c r="T318" s="19"/>
     </row>
-    <row r="319" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>2016</v>
       </c>
@@ -20457,7 +20458,7 @@
       <c r="W319"/>
       <c r="X319" s="6"/>
     </row>
-    <row r="320" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>2016</v>
       </c>
@@ -20520,7 +20521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>2016</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>2016</v>
       </c>
@@ -20765,7 +20766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>2016</v>
       </c>
@@ -20891,7 +20892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>2016</v>
       </c>
@@ -21014,7 +21015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:24" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>2016</v>
       </c>
@@ -21133,7 +21134,7 @@
       <c r="W330"/>
       <c r="X330" s="6"/>
     </row>
-    <row r="331" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>2016</v>
       </c>
@@ -21254,7 +21255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -21316,7 +21317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>2016</v>
       </c>
@@ -21374,7 +21375,7 @@
       <c r="W334"/>
       <c r="X334" s="6"/>
     </row>
-    <row r="335" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -21432,7 +21433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -21490,7 +21491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -21614,7 +21615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -21729,7 +21730,7 @@
       <c r="S340" s="18"/>
       <c r="T340" s="19"/>
     </row>
-    <row r="341" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -21779,7 +21780,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="342" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>2016</v>
       </c>
@@ -21833,7 +21834,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="343" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>2016</v>
       </c>
@@ -21889,7 +21890,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="344" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>2016</v>
       </c>
@@ -21943,7 +21944,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -21998,7 +21999,7 @@
       <c r="S345" s="18"/>
       <c r="T345" s="19"/>
     </row>
-    <row r="346" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -22102,7 +22103,7 @@
       <c r="S347" s="18"/>
       <c r="T347" s="19"/>
     </row>
-    <row r="348" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>2016</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="349" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>2016</v>
       </c>
@@ -22205,7 +22206,7 @@
       <c r="S349" s="18"/>
       <c r="T349" s="19"/>
     </row>
-    <row r="350" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>2016</v>
       </c>
@@ -22255,7 +22256,7 @@
       <c r="S350" s="18"/>
       <c r="T350" s="19"/>
     </row>
-    <row r="351" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -22312,7 +22313,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="352" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="353" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>2016</v>
       </c>
@@ -22411,7 +22412,7 @@
       <c r="S353" s="18"/>
       <c r="T353" s="19"/>
     </row>
-    <row r="354" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>2016</v>
       </c>
@@ -22517,7 +22518,7 @@
       <c r="S355" s="18"/>
       <c r="T355" s="19"/>
     </row>
-    <row r="356" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>2016</v>
       </c>
@@ -22567,7 +22568,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="357" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>2016</v>
       </c>
@@ -22612,7 +22613,7 @@
       <c r="S357" s="18"/>
       <c r="T357" s="19"/>
     </row>
-    <row r="358" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>2016</v>
       </c>
@@ -22666,7 +22667,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="359" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>2016</v>
       </c>
@@ -22718,7 +22719,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="360" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>2016</v>
       </c>
@@ -22812,7 +22813,7 @@
       <c r="S361" s="18"/>
       <c r="T361" s="19"/>
     </row>
-    <row r="362" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>2016</v>
       </c>
@@ -22865,7 +22866,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="363" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>2016</v>
       </c>
@@ -22907,7 +22908,7 @@
       <c r="S363" s="18"/>
       <c r="T363" s="19"/>
     </row>
-    <row r="364" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>2016</v>
       </c>
@@ -22949,7 +22950,7 @@
       <c r="S364" s="18"/>
       <c r="T364" s="19"/>
     </row>
-    <row r="365" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>2016</v>
       </c>
@@ -22994,7 +22995,7 @@
       <c r="S365" s="18"/>
       <c r="T365" s="19"/>
     </row>
-    <row r="366" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>2016</v>
       </c>
@@ -23139,7 +23140,7 @@
       <c r="S368" s="18"/>
       <c r="T368" s="19"/>
     </row>
-    <row r="369" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -23187,7 +23188,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -23237,7 +23238,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="371" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -23322,7 +23323,7 @@
       <c r="S372" s="18"/>
       <c r="T372" s="19"/>
     </row>
-    <row r="373" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -23360,7 +23361,7 @@
       <c r="S373" s="18"/>
       <c r="T373" s="19"/>
     </row>
-    <row r="374" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>2016</v>
       </c>
@@ -23505,7 +23506,7 @@
       <c r="S376" s="18"/>
       <c r="T376" s="19"/>
     </row>
-    <row r="377" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>2016</v>
       </c>
@@ -23597,7 +23598,7 @@
       <c r="S378" s="18"/>
       <c r="T378" s="19"/>
     </row>
-    <row r="379" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -23654,7 +23655,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="380" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -23702,7 +23703,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="381" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -23749,7 +23750,7 @@
       <c r="S381" s="18"/>
       <c r="T381" s="19"/>
     </row>
-    <row r="382" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -23791,7 +23792,7 @@
       <c r="S382" s="18"/>
       <c r="T382" s="19"/>
     </row>
-    <row r="383" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -23833,7 +23834,7 @@
       <c r="S383" s="18"/>
       <c r="T383" s="19"/>
     </row>
-    <row r="384" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -23885,7 +23886,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -23937,7 +23938,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="386" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>2016</v>
       </c>
@@ -24042,7 +24043,7 @@
       <c r="S387" s="18"/>
       <c r="T387" s="19"/>
     </row>
-    <row r="388" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -24092,7 +24093,7 @@
       <c r="S388" s="18"/>
       <c r="T388" s="19"/>
     </row>
-    <row r="389" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -24144,7 +24145,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>2016</v>
       </c>
@@ -24250,7 +24251,7 @@
       <c r="S391" s="18"/>
       <c r="T391" s="19"/>
     </row>
-    <row r="392" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>2016</v>
       </c>
@@ -24297,7 +24298,7 @@
       <c r="S392" s="18"/>
       <c r="T392" s="19"/>
     </row>
-    <row r="393" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>2016</v>
       </c>
@@ -24344,7 +24345,7 @@
       <c r="S393" s="18"/>
       <c r="T393" s="19"/>
     </row>
-    <row r="394" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>2016</v>
       </c>
@@ -24391,7 +24392,7 @@
       <c r="S394" s="18"/>
       <c r="T394" s="19"/>
     </row>
-    <row r="395" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -24443,7 +24444,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>2017</v>
       </c>
@@ -24489,7 +24490,7 @@
       <c r="T396" s="2"/>
       <c r="U396" s="2"/>
     </row>
-    <row r="397" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -24533,7 +24534,7 @@
       <c r="T397" s="2"/>
       <c r="U397" s="2"/>
     </row>
-    <row r="398" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -24575,7 +24576,7 @@
       <c r="T398" s="2"/>
       <c r="U398" s="2"/>
     </row>
-    <row r="399" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -24622,7 +24623,7 @@
       <c r="T399" s="2"/>
       <c r="U399" s="2"/>
     </row>
-    <row r="400" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>2017</v>
       </c>
@@ -24672,7 +24673,7 @@
       <c r="T400" s="2"/>
       <c r="U400" s="2"/>
     </row>
-    <row r="401" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>2017</v>
       </c>
@@ -24718,7 +24719,7 @@
       <c r="T401" s="2"/>
       <c r="U401" s="2"/>
     </row>
-    <row r="402" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -24764,7 +24765,7 @@
       <c r="T402" s="2"/>
       <c r="U402" s="2"/>
     </row>
-    <row r="403" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>2017</v>
       </c>
@@ -24812,7 +24813,7 @@
       <c r="T403" s="2"/>
       <c r="U403" s="2"/>
     </row>
-    <row r="404" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>2017</v>
       </c>
@@ -24860,7 +24861,7 @@
       <c r="T404" s="2"/>
       <c r="U404" s="2"/>
     </row>
-    <row r="405" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>2017</v>
       </c>
@@ -24910,7 +24911,7 @@
       <c r="T405" s="2"/>
       <c r="U405" s="2"/>
     </row>
-    <row r="406" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>2017</v>
       </c>
@@ -24961,7 +24962,7 @@
       <c r="T406" s="2"/>
       <c r="U406" s="2"/>
     </row>
-    <row r="407" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>2017</v>
       </c>
@@ -25061,7 +25062,7 @@
       <c r="T408" s="2"/>
       <c r="U408" s="2"/>
     </row>
-    <row r="409" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>2017</v>
       </c>
@@ -25111,7 +25112,7 @@
       <c r="T409" s="2"/>
       <c r="U409" s="2"/>
     </row>
-    <row r="410" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>2017</v>
       </c>
@@ -25160,7 +25161,7 @@
       <c r="T410" s="2"/>
       <c r="U410" s="2"/>
     </row>
-    <row r="411" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>2017</v>
       </c>
@@ -25208,7 +25209,7 @@
       <c r="T411" s="2"/>
       <c r="U411" s="2"/>
     </row>
-    <row r="412" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -25263,7 +25264,7 @@
       <c r="T412" s="2"/>
       <c r="U412" s="2"/>
     </row>
-    <row r="413" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>2017</v>
       </c>
@@ -25363,7 +25364,7 @@
       <c r="T414" s="2"/>
       <c r="U414" s="2"/>
     </row>
-    <row r="415" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>2017</v>
       </c>
@@ -25409,7 +25410,7 @@
       <c r="T415" s="2"/>
       <c r="U415" s="2"/>
     </row>
-    <row r="416" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>2017</v>
       </c>
@@ -25457,7 +25458,7 @@
       <c r="T416" s="2"/>
       <c r="U416" s="2"/>
     </row>
-    <row r="417" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>2017</v>
       </c>
@@ -25508,7 +25509,7 @@
       <c r="T417" s="2"/>
       <c r="U417" s="2"/>
     </row>
-    <row r="418" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>2017</v>
       </c>
@@ -25560,7 +25561,7 @@
       <c r="T418" s="2"/>
       <c r="U418" s="2"/>
     </row>
-    <row r="419" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>2017</v>
       </c>
@@ -25609,7 +25610,7 @@
       <c r="T419" s="2"/>
       <c r="U419" s="2"/>
     </row>
-    <row r="420" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>2017</v>
       </c>
@@ -25653,7 +25654,7 @@
       <c r="T420" s="2"/>
       <c r="U420" s="2"/>
     </row>
-    <row r="421" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>2017</v>
       </c>
@@ -25756,7 +25757,7 @@
       <c r="T422" s="2"/>
       <c r="U422" s="2"/>
     </row>
-    <row r="423" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>2017</v>
       </c>
@@ -25815,7 +25816,7 @@
       <c r="T423" s="2"/>
       <c r="U423" s="2"/>
     </row>
-    <row r="424" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -25859,7 +25860,7 @@
       <c r="T424" s="2"/>
       <c r="U424" s="2"/>
     </row>
-    <row r="425" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -25903,7 +25904,7 @@
       <c r="T425" s="2"/>
       <c r="U425" s="2"/>
     </row>
-    <row r="426" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>2017</v>
       </c>
@@ -25962,7 +25963,7 @@
       <c r="T426" s="2"/>
       <c r="U426" s="2"/>
     </row>
-    <row r="427" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>2017</v>
       </c>
@@ -26021,7 +26022,7 @@
       <c r="T427" s="2"/>
       <c r="U427" s="2"/>
     </row>
-    <row r="428" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>2017</v>
       </c>
@@ -26070,7 +26071,7 @@
       <c r="T428" s="2"/>
       <c r="U428" s="2"/>
     </row>
-    <row r="429" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>2017</v>
       </c>
@@ -26121,7 +26122,7 @@
       <c r="T429" s="2"/>
       <c r="U429" s="2"/>
     </row>
-    <row r="430" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>2017</v>
       </c>
@@ -26174,7 +26175,7 @@
       <c r="T430" s="2"/>
       <c r="U430" s="2"/>
     </row>
-    <row r="431" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>2017</v>
       </c>
@@ -26225,7 +26226,7 @@
       <c r="T431" s="2"/>
       <c r="U431" s="2"/>
     </row>
-    <row r="432" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>2017</v>
       </c>
@@ -26275,7 +26276,7 @@
       <c r="T432" s="2"/>
       <c r="U432" s="2"/>
     </row>
-    <row r="433" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>2017</v>
       </c>
@@ -26332,7 +26333,7 @@
       <c r="T433" s="2"/>
       <c r="U433" s="2"/>
     </row>
-    <row r="434" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>2017</v>
       </c>
@@ -26383,7 +26384,7 @@
       <c r="T434" s="2"/>
       <c r="U434" s="2"/>
     </row>
-    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -26430,7 +26431,7 @@
       <c r="T435" s="2"/>
       <c r="U435" s="2"/>
     </row>
-    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -26485,7 +26486,7 @@
       <c r="T436" s="2"/>
       <c r="U436" s="2"/>
     </row>
-    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -26591,7 +26592,7 @@
       <c r="T438" s="2"/>
       <c r="U438" s="2"/>
     </row>
-    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -26644,7 +26645,7 @@
       <c r="T439" s="2"/>
       <c r="U439" s="2"/>
     </row>
-    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -26689,7 +26690,7 @@
       <c r="T440" s="2"/>
       <c r="U440" s="2"/>
     </row>
-    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -26738,7 +26739,7 @@
       <c r="T441" s="2"/>
       <c r="U441" s="2"/>
     </row>
-    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -26842,7 +26843,7 @@
       <c r="T443" s="2"/>
       <c r="U443" s="2"/>
     </row>
-    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -26891,7 +26892,7 @@
       <c r="T444" s="2"/>
       <c r="U444" s="2"/>
     </row>
-    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -26944,7 +26945,7 @@
       <c r="T445" s="2"/>
       <c r="U445" s="2"/>
     </row>
-    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -26993,7 +26994,7 @@
       <c r="T446" s="2"/>
       <c r="U446" s="2"/>
     </row>
-    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -27040,7 +27041,7 @@
       <c r="T447" s="2"/>
       <c r="U447" s="2"/>
     </row>
-    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -27087,7 +27088,7 @@
       <c r="T448" s="2"/>
       <c r="U448" s="2"/>
     </row>
-    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -27193,7 +27194,7 @@
       <c r="T450" s="2"/>
       <c r="U450" s="2"/>
     </row>
-    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -27242,7 +27243,7 @@
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -27295,7 +27296,7 @@
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -27342,7 +27343,7 @@
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -27391,7 +27392,7 @@
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -27438,7 +27439,7 @@
       <c r="T455" s="2"/>
       <c r="U455" s="2"/>
     </row>
-    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -27538,7 +27539,7 @@
       <c r="T457" s="2"/>
       <c r="U457" s="2"/>
     </row>
-    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -27634,7 +27635,7 @@
       <c r="T459" s="2"/>
       <c r="U459" s="2"/>
     </row>
-    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -27681,7 +27682,7 @@
       <c r="T460" s="2"/>
       <c r="U460" s="2"/>
     </row>
-    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -27781,7 +27782,7 @@
       <c r="T462" s="2"/>
       <c r="U462" s="2"/>
     </row>
-    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -27830,7 +27831,7 @@
       <c r="T463" s="2"/>
       <c r="U463" s="2"/>
     </row>
-    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -27883,7 +27884,7 @@
       <c r="T464" s="2"/>
       <c r="U464" s="2"/>
     </row>
-    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -27936,7 +27937,7 @@
       <c r="T465" s="2"/>
       <c r="U465" s="2"/>
     </row>
-    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -27989,7 +27990,7 @@
       <c r="T466" s="2"/>
       <c r="U466" s="2"/>
     </row>
-    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -28036,7 +28037,7 @@
       <c r="T467" s="2"/>
       <c r="U467" s="2"/>
     </row>
-    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -28242,7 +28243,7 @@
       <c r="T471" s="2"/>
       <c r="U471" s="2"/>
     </row>
-    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -28287,7 +28288,7 @@
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -28338,7 +28339,7 @@
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -28387,7 +28388,7 @@
       <c r="T474" s="2"/>
       <c r="U474" s="2"/>
     </row>
-    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -28434,7 +28435,7 @@
       <c r="T475" s="2"/>
       <c r="U475" s="2"/>
     </row>
-    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -28487,7 +28488,7 @@
       <c r="T476" s="2"/>
       <c r="U476" s="2"/>
     </row>
-    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -28538,7 +28539,7 @@
       <c r="T477" s="2"/>
       <c r="U477" s="2"/>
     </row>
-    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -28638,7 +28639,7 @@
       <c r="T479" s="2"/>
       <c r="U479" s="2"/>
     </row>
-    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -28685,7 +28686,7 @@
       <c r="T480" s="2"/>
       <c r="U480" s="2"/>
     </row>
-    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -28732,7 +28733,7 @@
       <c r="T481" s="2"/>
       <c r="U481" s="2"/>
     </row>
-    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -28783,7 +28784,7 @@
       <c r="T482" s="2"/>
       <c r="U482" s="2"/>
     </row>
-    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -28830,7 +28831,7 @@
       <c r="T483" s="2"/>
       <c r="U483" s="2"/>
     </row>
-    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -28932,7 +28933,7 @@
       <c r="T485" s="2"/>
       <c r="U485" s="2"/>
     </row>
-    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -29038,7 +29039,7 @@
       <c r="T487" s="2"/>
       <c r="U487" s="2"/>
     </row>
-    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -29142,7 +29143,7 @@
       <c r="T489" s="2"/>
       <c r="U489" s="2"/>
     </row>
-    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -29193,7 +29194,7 @@
       <c r="T490" s="2"/>
       <c r="U490" s="2"/>
     </row>
-    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -29240,7 +29241,7 @@
       <c r="T491" s="2"/>
       <c r="U491" s="2"/>
     </row>
-    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -29285,7 +29286,7 @@
       <c r="T492" s="2"/>
       <c r="U492" s="2"/>
     </row>
-    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -29385,7 +29386,7 @@
       <c r="T494" s="2"/>
       <c r="U494" s="2"/>
     </row>
-    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -29432,7 +29433,7 @@
       <c r="T495" s="2"/>
       <c r="U495" s="2"/>
     </row>
-    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -29481,7 +29482,7 @@
       <c r="T496" s="2"/>
       <c r="U496" s="2"/>
     </row>
-    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -29526,7 +29527,7 @@
       <c r="T497" s="2"/>
       <c r="U497" s="2"/>
     </row>
-    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -29573,7 +29574,7 @@
       <c r="T498" s="2"/>
       <c r="U498" s="2"/>
     </row>
-    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -29618,7 +29619,7 @@
       <c r="T499" s="2"/>
       <c r="U499" s="2"/>
     </row>
-    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -29669,7 +29670,7 @@
       <c r="T500" s="2"/>
       <c r="U500" s="2"/>
     </row>
-    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -29716,7 +29717,7 @@
       <c r="T501" s="2"/>
       <c r="U501" s="2"/>
     </row>
-    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -29761,7 +29762,7 @@
       <c r="T502" s="2"/>
       <c r="U502" s="2"/>
     </row>
-    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -29812,7 +29813,7 @@
       <c r="T503" s="2"/>
       <c r="U503" s="2"/>
     </row>
-    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -29857,7 +29858,7 @@
       <c r="T504" s="2"/>
       <c r="U504" s="2"/>
     </row>
-    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -29904,7 +29905,7 @@
       <c r="T505" s="2"/>
       <c r="U505" s="2"/>
     </row>
-    <row r="506" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -29987,7 +29988,7 @@
       <c r="T507" s="2"/>
       <c r="U507" s="2"/>
     </row>
-    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -30032,7 +30033,7 @@
       <c r="T508" s="2"/>
       <c r="U508" s="2"/>
     </row>
-    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -30083,7 +30084,7 @@
       <c r="T509" s="2"/>
       <c r="U509" s="2"/>
     </row>
-    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -30130,7 +30131,7 @@
       <c r="T510" s="2"/>
       <c r="U510" s="2"/>
     </row>
-    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -30173,7 +30174,7 @@
       <c r="T511" s="2"/>
       <c r="U511" s="2"/>
     </row>
-    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -30222,7 +30223,7 @@
       <c r="T512" s="2"/>
       <c r="U512" s="2"/>
     </row>
-    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -30269,7 +30270,7 @@
       <c r="T513" s="2"/>
       <c r="U513" s="2"/>
     </row>
-    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -30316,7 +30317,7 @@
       <c r="T514" s="2"/>
       <c r="U514" s="2"/>
     </row>
-    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -30365,7 +30366,7 @@
       <c r="T515" s="2"/>
       <c r="U515" s="2"/>
     </row>
-    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -30412,7 +30413,7 @@
       <c r="T516" s="2"/>
       <c r="U516" s="2"/>
     </row>
-    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -30471,7 +30472,7 @@
       <c r="T517" s="2"/>
       <c r="U517" s="2"/>
     </row>
-    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -30522,7 +30523,7 @@
       <c r="T518" s="2"/>
       <c r="U518" s="2"/>
     </row>
-    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -30618,7 +30619,7 @@
       <c r="T520" s="2"/>
       <c r="U520" s="2"/>
     </row>
-    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -30665,7 +30666,7 @@
       <c r="T521" s="2"/>
       <c r="U521" s="2"/>
     </row>
-    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -30724,7 +30725,7 @@
       <c r="T522" s="2"/>
       <c r="U522" s="2"/>
     </row>
-    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -30766,7 +30767,7 @@
       <c r="T523" s="2"/>
       <c r="U523" s="2"/>
     </row>
-    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -30813,7 +30814,7 @@
       <c r="T524" s="2"/>
       <c r="U524" s="2"/>
     </row>
-    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -30862,7 +30863,7 @@
       <c r="T525" s="2"/>
       <c r="U525" s="2"/>
     </row>
-    <row r="526" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -30915,7 +30916,7 @@
       <c r="T526" s="2"/>
       <c r="U526" s="2"/>
     </row>
-    <row r="527" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -30968,7 +30969,7 @@
       <c r="T527" s="2"/>
       <c r="U527" s="2"/>
     </row>
-    <row r="528" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -31015,7 +31016,7 @@
       <c r="T528" s="2"/>
       <c r="U528" s="2"/>
     </row>
-    <row r="529" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -31068,7 +31069,7 @@
       <c r="T529" s="2"/>
       <c r="U529" s="2"/>
     </row>
-    <row r="530" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -31115,7 +31116,7 @@
       <c r="T530" s="2"/>
       <c r="U530" s="2"/>
     </row>
-    <row r="531" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -31168,7 +31169,7 @@
       <c r="T531" s="2"/>
       <c r="U531" s="2"/>
     </row>
-    <row r="532" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -31221,7 +31222,7 @@
       <c r="T532" s="2"/>
       <c r="U532" s="2"/>
     </row>
-    <row r="533" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -31268,7 +31269,7 @@
       <c r="T533" s="2"/>
       <c r="U533" s="2"/>
     </row>
-    <row r="534" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -31315,7 +31316,7 @@
       <c r="T534" s="2"/>
       <c r="U534" s="2"/>
     </row>
-    <row r="535" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -31362,7 +31363,7 @@
       <c r="T535" s="2"/>
       <c r="U535" s="2"/>
     </row>
-    <row r="536" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -31409,7 +31410,7 @@
       <c r="T536" s="2"/>
       <c r="U536" s="2"/>
     </row>
-    <row r="537" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -31458,7 +31459,7 @@
       <c r="T537" s="2"/>
       <c r="U537" s="2"/>
     </row>
-    <row r="538" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -31505,7 +31506,7 @@
       <c r="T538" s="2"/>
       <c r="U538" s="2"/>
     </row>
-    <row r="539" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -31552,7 +31553,7 @@
       <c r="T539" s="2"/>
       <c r="U539" s="2"/>
     </row>
-    <row r="540" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -31599,7 +31600,7 @@
       <c r="T540" s="2"/>
       <c r="U540" s="2"/>
     </row>
-    <row r="541" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -31646,7 +31647,7 @@
       <c r="T541" s="2"/>
       <c r="U541" s="2"/>
     </row>
-    <row r="542" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -31693,7 +31694,7 @@
       <c r="T542" s="2"/>
       <c r="U542" s="2"/>
     </row>
-    <row r="543" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -31740,7 +31741,7 @@
       <c r="T543" s="2"/>
       <c r="U543" s="2"/>
     </row>
-    <row r="544" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -31787,7 +31788,7 @@
       <c r="T544" s="2"/>
       <c r="U544" s="2"/>
     </row>
-    <row r="545" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -31834,7 +31835,7 @@
       <c r="T545" s="2"/>
       <c r="U545" s="2"/>
     </row>
-    <row r="546" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -31887,7 +31888,7 @@
       <c r="T546" s="2"/>
       <c r="U546" s="2"/>
     </row>
-    <row r="547" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -31934,7 +31935,7 @@
       <c r="T547" s="2"/>
       <c r="U547" s="2"/>
     </row>
-    <row r="548" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -31981,7 +31982,7 @@
       <c r="T548" s="2"/>
       <c r="U548" s="2"/>
     </row>
-    <row r="549" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -32028,7 +32029,7 @@
       <c r="T549" s="2"/>
       <c r="U549" s="2"/>
     </row>
-    <row r="550" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -32081,7 +32082,7 @@
       <c r="T550" s="2"/>
       <c r="U550" s="2"/>
     </row>
-    <row r="551" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -32128,7 +32129,7 @@
       <c r="T551" s="2"/>
       <c r="U551" s="2"/>
     </row>
-    <row r="552" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -32175,7 +32176,7 @@
       <c r="T552" s="2"/>
       <c r="U552" s="2"/>
     </row>
-    <row r="553" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -32222,7 +32223,7 @@
       <c r="T553" s="2"/>
       <c r="U553" s="2"/>
     </row>
-    <row r="554" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -32269,7 +32270,7 @@
       <c r="T554" s="2"/>
       <c r="U554" s="2"/>
     </row>
-    <row r="555" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -32322,7 +32323,7 @@
       <c r="T555" s="2"/>
       <c r="U555" s="2"/>
     </row>
-    <row r="556" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -32375,7 +32376,7 @@
       <c r="T556" s="2"/>
       <c r="U556" s="2"/>
     </row>
-    <row r="557" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -32422,7 +32423,7 @@
       <c r="T557" s="2"/>
       <c r="U557" s="2"/>
     </row>
-    <row r="558" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -32469,7 +32470,7 @@
       <c r="T558" s="2"/>
       <c r="U558" s="2"/>
     </row>
-    <row r="559" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -32516,7 +32517,7 @@
       <c r="T559" s="2"/>
       <c r="U559" s="2"/>
     </row>
-    <row r="560" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -32563,7 +32564,7 @@
       <c r="T560" s="2"/>
       <c r="U560" s="2"/>
     </row>
-    <row r="561" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -32610,7 +32611,7 @@
       <c r="T561" s="2"/>
       <c r="U561" s="2"/>
     </row>
-    <row r="562" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -32655,7 +32656,7 @@
       <c r="T562" s="2"/>
       <c r="U562" s="2"/>
     </row>
-    <row r="563" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -32700,7 +32701,7 @@
       <c r="T563" s="2"/>
       <c r="U563" s="2"/>
     </row>
-    <row r="564" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -32745,7 +32746,7 @@
       <c r="T564" s="2"/>
       <c r="U564" s="2"/>
     </row>
-    <row r="565" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -32790,7 +32791,7 @@
       <c r="T565" s="2"/>
       <c r="U565" s="2"/>
     </row>
-    <row r="566" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -32835,7 +32836,7 @@
       <c r="T566" s="2"/>
       <c r="U566" s="2"/>
     </row>
-    <row r="567" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -32880,7 +32881,7 @@
       <c r="T567" s="2"/>
       <c r="U567" s="2"/>
     </row>
-    <row r="568" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -32925,7 +32926,7 @@
       <c r="T568" s="2"/>
       <c r="U568" s="2"/>
     </row>
-    <row r="569" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -32970,7 +32971,7 @@
       <c r="T569" s="2"/>
       <c r="U569" s="2"/>
     </row>
-    <row r="570" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -33017,7 +33018,7 @@
       <c r="T570" s="2"/>
       <c r="U570" s="2"/>
     </row>
-    <row r="571" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -33062,7 +33063,7 @@
       <c r="T571" s="2"/>
       <c r="U571" s="2"/>
     </row>
-    <row r="572" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -33107,7 +33108,7 @@
       <c r="T572" s="2"/>
       <c r="U572" s="2"/>
     </row>
-    <row r="573" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -33158,7 +33159,7 @@
       <c r="T573" s="2"/>
       <c r="U573" s="2"/>
     </row>
-    <row r="574" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
         <v>2019</v>
       </c>
@@ -33203,7 +33204,7 @@
       <c r="T574" s="2"/>
       <c r="U574" s="2"/>
     </row>
-    <row r="575" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -33254,7 +33255,7 @@
       <c r="T575" s="2"/>
       <c r="U575" s="2"/>
     </row>
-    <row r="576" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -33305,7 +33306,7 @@
       <c r="T576" s="2"/>
       <c r="U576" s="2"/>
     </row>
-    <row r="577" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -33356,7 +33357,7 @@
       <c r="T577" s="2"/>
       <c r="U577" s="2"/>
     </row>
-    <row r="578" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -33401,7 +33402,7 @@
       <c r="T578" s="2"/>
       <c r="U578" s="2"/>
     </row>
-    <row r="579" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -33446,7 +33447,7 @@
       <c r="T579" s="10"/>
       <c r="U579" s="7"/>
     </row>
-    <row r="580" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -33497,7 +33498,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="581" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
         <v>2022</v>
       </c>
@@ -33544,7 +33545,7 @@
       <c r="T581" s="10"/>
       <c r="U581" s="7"/>
     </row>
-    <row r="582" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
         <v>2022</v>
       </c>
@@ -33595,7 +33596,7 @@
       <c r="T582" s="10"/>
       <c r="U582" s="7"/>
     </row>
-    <row r="583" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>2022</v>
       </c>
@@ -33648,7 +33649,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="584" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
         <v>2022</v>
       </c>
@@ -33762,7 +33763,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -33807,7 +33808,7 @@
       <c r="T586" s="10"/>
       <c r="U586" s="7"/>
     </row>
-    <row r="587" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6">
         <v>2022</v>
       </c>
@@ -33854,7 +33855,7 @@
       <c r="T587" s="10"/>
       <c r="U587" s="7"/>
     </row>
-    <row r="588" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
         <v>2022</v>
       </c>
@@ -33901,7 +33902,7 @@
       <c r="T588" s="10"/>
       <c r="U588" s="7"/>
     </row>
-    <row r="589" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -33946,7 +33947,7 @@
       <c r="T589" s="10"/>
       <c r="U589" s="7"/>
     </row>
-    <row r="590" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
         <v>2022</v>
       </c>
@@ -33993,7 +33994,7 @@
       <c r="T590" s="10"/>
       <c r="U590" s="7"/>
     </row>
-    <row r="591" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
         <v>2022</v>
       </c>
@@ -34054,7 +34055,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="592" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -34113,7 +34114,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="593" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -34172,7 +34173,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="594" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -34284,7 +34285,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="596" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
         <v>2022</v>
       </c>
@@ -34341,7 +34342,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="597" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
         <v>2022</v>
       </c>
@@ -34398,7 +34399,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="598" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
         <v>2022</v>
       </c>
@@ -34449,7 +34450,7 @@
       <c r="T598" s="10"/>
       <c r="U598" s="7"/>
     </row>
-    <row r="599" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
         <v>2022</v>
       </c>
@@ -34508,7 +34509,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="600" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6">
         <v>2022</v>
       </c>
@@ -34565,7 +34566,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="601" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6">
         <v>2022</v>
       </c>
@@ -34622,7 +34623,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="602" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
         <v>2022</v>
       </c>
@@ -34679,7 +34680,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="603" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
         <v>2022</v>
       </c>
@@ -34805,7 +34806,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="605" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
         <v>2022</v>
       </c>
@@ -34913,7 +34914,7 @@
       <c r="T606" s="10"/>
       <c r="U606" s="7"/>
     </row>
-    <row r="607" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
         <v>2022</v>
       </c>
@@ -34978,7 +34979,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="608" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
         <v>2022</v>
       </c>
@@ -35043,7 +35044,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="609" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
         <v>2022</v>
       </c>
@@ -35108,7 +35109,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="610" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
         <v>2022</v>
       </c>
@@ -35167,7 +35168,7 @@
       <c r="T610" s="10"/>
       <c r="U610" s="7"/>
     </row>
-    <row r="611" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
         <v>2022</v>
       </c>
@@ -35232,7 +35233,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="612" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
         <v>2022</v>
       </c>
@@ -35287,7 +35288,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="613" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
         <v>2022</v>
       </c>
@@ -35411,7 +35412,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="615" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
         <v>2022</v>
       </c>
@@ -35458,7 +35459,7 @@
       <c r="T615" s="10"/>
       <c r="U615" s="7"/>
     </row>
-    <row r="616" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
         <v>2022</v>
       </c>
@@ -35505,7 +35506,7 @@
       <c r="T616" s="10"/>
       <c r="U616" s="7"/>
     </row>
-    <row r="617" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
         <v>2022</v>
       </c>
@@ -35609,7 +35610,7 @@
       <c r="T618" s="10"/>
       <c r="U618" s="7"/>
     </row>
-    <row r="619" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -35654,7 +35655,7 @@
       <c r="T619" s="10"/>
       <c r="U619" s="7"/>
     </row>
-    <row r="620" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
         <v>2022</v>
       </c>
@@ -35805,7 +35806,7 @@
       <c r="T622" s="10"/>
       <c r="U622" s="7"/>
     </row>
-    <row r="623" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -35860,7 +35861,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="624" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
         <v>2022</v>
       </c>
@@ -36084,7 +36085,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="628" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
         <v>2022</v>
       </c>
@@ -36194,7 +36195,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="630" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6">
         <v>2022</v>
       </c>
@@ -36306,7 +36307,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="632" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
         <v>2022</v>
       </c>
@@ -36359,7 +36360,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="633" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
         <v>2022</v>
       </c>
@@ -36424,7 +36425,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="634" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -36542,7 +36543,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="636" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -36593,7 +36594,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="637" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -36758,7 +36759,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="640" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
         <v>2022</v>
       </c>
@@ -36809,7 +36810,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="641" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -36927,7 +36928,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="643" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
         <v>2022</v>
       </c>
@@ -36992,7 +36993,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="644" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -37041,7 +37042,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="645" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -37090,7 +37091,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="646" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
         <v>2022</v>
       </c>
@@ -37143,7 +37144,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="647" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
         <v>2022</v>
       </c>
@@ -37200,7 +37201,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="648" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
         <v>2022</v>
       </c>
@@ -37257,7 +37258,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="649" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
         <v>2022</v>
       </c>
@@ -37365,7 +37366,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="651" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
         <v>2022</v>
       </c>
@@ -37414,7 +37415,7 @@
       <c r="T651" s="10"/>
       <c r="U651" s="7"/>
     </row>
-    <row r="652" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -37457,7 +37458,7 @@
       <c r="T652" s="10"/>
       <c r="U652" s="7"/>
     </row>
-    <row r="653" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
         <v>2022</v>
       </c>
@@ -37567,7 +37568,7 @@
       <c r="T654" s="10"/>
       <c r="U654" s="7"/>
     </row>
-    <row r="655" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -37610,7 +37611,7 @@
       <c r="T655" s="10"/>
       <c r="U655" s="7"/>
     </row>
-    <row r="656" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
         <v>2022</v>
       </c>
@@ -37718,7 +37719,7 @@
       <c r="T657" s="10"/>
       <c r="U657" s="7"/>
     </row>
-    <row r="658" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -37810,7 +37811,7 @@
       <c r="T659" s="10"/>
       <c r="U659" s="7"/>
     </row>
-    <row r="660" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -37908,7 +37909,7 @@
       <c r="T661" s="10"/>
       <c r="U661" s="7"/>
     </row>
-    <row r="662" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
         <v>2022</v>
       </c>
@@ -38155,7 +38156,7 @@
       <c r="T666" s="10"/>
       <c r="U666" s="7"/>
     </row>
-    <row r="667" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
         <v>2022</v>
       </c>
@@ -38204,7 +38205,7 @@
       <c r="T667" s="10"/>
       <c r="U667" s="7"/>
     </row>
-    <row r="668" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
         <v>2022</v>
       </c>
@@ -38255,7 +38256,7 @@
       <c r="T668" s="10"/>
       <c r="U668" s="7"/>
     </row>
-    <row r="669" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
         <v>2022</v>
       </c>
@@ -38304,7 +38305,7 @@
       <c r="T669" s="10"/>
       <c r="U669" s="7"/>
     </row>
-    <row r="670" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -38348,7 +38349,7 @@
       <c r="T670" s="10"/>
       <c r="U670" s="7"/>
     </row>
-    <row r="671" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -38450,7 +38451,7 @@
       <c r="T672" s="10"/>
       <c r="U672" s="7"/>
     </row>
-    <row r="673" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
         <v>2022</v>
       </c>
@@ -38505,7 +38506,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="674" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
         <v>2022</v>
       </c>
@@ -38554,7 +38555,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="675" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
         <v>2022</v>
       </c>
@@ -38609,7 +38610,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="676" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
         <v>2022</v>
       </c>
@@ -38666,7 +38667,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="677" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
         <v>2022</v>
       </c>
@@ -38723,7 +38724,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="678" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -38833,7 +38834,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="680" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11">
         <v>2023</v>
       </c>
@@ -38889,7 +38890,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="681" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="11">
         <v>2023</v>
       </c>
@@ -38945,7 +38946,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="682" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -38999,7 +39000,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="683" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -39055,7 +39056,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="684" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -39109,7 +39110,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="685" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -39164,7 +39165,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="686" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -39219,7 +39220,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="687" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="11">
         <v>2023</v>
       </c>
@@ -39277,7 +39278,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="688" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -39331,7 +39332,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="689" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="11">
         <v>2023</v>
       </c>
@@ -39385,7 +39386,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="690" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="11">
         <v>2023</v>
       </c>
@@ -39435,7 +39436,7 @@
       <c r="T690" s="10"/>
       <c r="U690" s="3"/>
     </row>
-    <row r="691" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="11">
         <v>2023</v>
       </c>
@@ -39613,7 +39614,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="694" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="11">
         <v>2023</v>
       </c>
@@ -39670,7 +39671,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="695" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="11">
         <v>2023</v>
       </c>
@@ -39784,7 +39785,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="697" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="11">
         <v>2023</v>
       </c>
@@ -39893,7 +39894,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="699" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="11">
         <v>2023</v>
       </c>
@@ -39942,7 +39943,7 @@
       <c r="T699" s="10"/>
       <c r="U699" s="7"/>
     </row>
-    <row r="700" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -39992,7 +39993,7 @@
       <c r="T700" s="10"/>
       <c r="U700" s="7"/>
     </row>
-    <row r="701" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="11">
         <v>2023</v>
       </c>
@@ -40040,7 +40041,7 @@
       <c r="T701" s="10"/>
       <c r="U701" s="7"/>
     </row>
-    <row r="702" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -40148,7 +40149,7 @@
       <c r="T703" s="10"/>
       <c r="U703" s="7"/>
     </row>
-    <row r="704" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="11">
         <v>2023</v>
       </c>
@@ -40198,7 +40199,7 @@
       <c r="T704" s="10"/>
       <c r="U704" s="7"/>
     </row>
-    <row r="705" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -40247,7 +40248,7 @@
       <c r="T705" s="10"/>
       <c r="U705" s="7"/>
     </row>
-    <row r="706" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -40297,7 +40298,7 @@
       <c r="T706" s="10"/>
       <c r="U706" s="7"/>
     </row>
-    <row r="707" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="11">
         <v>2023</v>
       </c>
@@ -40399,7 +40400,7 @@
       <c r="T708" s="10"/>
       <c r="U708" s="7"/>
     </row>
-    <row r="709" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -40514,7 +40515,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="711" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -40575,7 +40576,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="712" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="11">
         <v>2023</v>
       </c>
@@ -40631,7 +40632,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="713" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -40869,7 +40870,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="717" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -40927,7 +40928,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="718" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -40983,7 +40984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="719" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -41039,7 +41040,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="720" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -41094,7 +41095,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="721" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -41148,7 +41149,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="722" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="11">
         <v>2023</v>
       </c>
@@ -41202,7 +41203,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="723" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -41309,7 +41310,7 @@
       <c r="T724" s="10"/>
       <c r="U724" s="7"/>
     </row>
-    <row r="725" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -41417,7 +41418,7 @@
       <c r="T726" s="10"/>
       <c r="U726" s="7"/>
     </row>
-    <row r="727" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -41465,7 +41466,7 @@
       <c r="T727" s="10"/>
       <c r="U727" s="7"/>
     </row>
-    <row r="728" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="11">
         <v>2023</v>
       </c>
@@ -41566,7 +41567,7 @@
       <c r="T729" s="10"/>
       <c r="U729" s="7"/>
     </row>
-    <row r="730" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -41614,7 +41615,7 @@
       <c r="T730" s="10"/>
       <c r="U730" s="7"/>
     </row>
-    <row r="731" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -41662,7 +41663,7 @@
       <c r="T731" s="10"/>
       <c r="U731" s="7"/>
     </row>
-    <row r="732" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -41764,7 +41765,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="734" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="11">
         <v>2023</v>
       </c>
@@ -41821,7 +41822,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="735" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="11">
         <v>2023</v>
       </c>
@@ -41876,7 +41877,7 @@
       <c r="T735" s="10"/>
       <c r="U735" s="7"/>
     </row>
-    <row r="736" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="11">
         <v>2023</v>
       </c>
@@ -41937,7 +41938,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="737" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="11">
         <v>2023</v>
       </c>
@@ -41976,7 +41977,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="738" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -42019,7 +42020,7 @@
       <c r="T738" s="10"/>
       <c r="U738" s="7"/>
     </row>
-    <row r="739" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="11">
         <v>2023</v>
       </c>
@@ -42065,7 +42066,7 @@
       <c r="T739" s="10"/>
       <c r="U739" s="7"/>
     </row>
-    <row r="740" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -42112,7 +42113,7 @@
       <c r="T740" s="10"/>
       <c r="U740" s="7"/>
     </row>
-    <row r="741" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="11">
         <v>2023</v>
       </c>
@@ -42162,7 +42163,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="742" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="11">
         <v>2023</v>
       </c>
@@ -42221,7 +42222,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="743" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="11">
         <v>2023</v>
       </c>
@@ -42274,7 +42275,7 @@
       <c r="T743" s="10"/>
       <c r="U743" s="7"/>
     </row>
-    <row r="744" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="11">
         <v>2023</v>
       </c>
@@ -42317,7 +42318,7 @@
       <c r="T744" s="10"/>
       <c r="U744" s="7"/>
     </row>
-    <row r="745" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="11">
         <v>2023</v>
       </c>
@@ -42366,7 +42367,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="746" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -42480,7 +42481,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="748" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="11">
         <v>2023</v>
       </c>
@@ -42533,7 +42534,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="749" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="11">
         <v>2023</v>
       </c>
@@ -42640,7 +42641,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="751" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -42691,7 +42692,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="752" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="11">
         <v>2023</v>
       </c>
@@ -42750,7 +42751,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="753" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -42860,7 +42861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="755" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -42918,7 +42919,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="756" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="11">
         <v>2023</v>
       </c>
@@ -42967,7 +42968,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="757" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="11">
         <v>2023</v>
       </c>
@@ -43024,7 +43025,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="758" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="11">
         <v>2023</v>
       </c>
@@ -43191,7 +43192,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="761" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="11">
         <v>2023</v>
       </c>
@@ -43242,7 +43243,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="762" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="11">
         <v>2023</v>
       </c>
@@ -43287,7 +43288,7 @@
       <c r="T762" s="10"/>
       <c r="U762" s="7"/>
     </row>
-    <row r="763" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="11">
         <v>2023</v>
       </c>
@@ -43332,7 +43333,7 @@
       <c r="T763" s="10"/>
       <c r="U763" s="7"/>
     </row>
-    <row r="764" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="11">
         <v>2023</v>
       </c>
@@ -43375,7 +43376,7 @@
       <c r="T764" s="10"/>
       <c r="U764" s="7"/>
     </row>
-    <row r="765" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="11">
         <v>2023</v>
       </c>
@@ -43434,7 +43435,7 @@
       <c r="T765" s="10"/>
       <c r="U765" s="7"/>
     </row>
-    <row r="766" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -43481,7 +43482,7 @@
       <c r="T766" s="10"/>
       <c r="U766" s="7"/>
     </row>
-    <row r="767" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="11">
         <v>2023</v>
       </c>
@@ -43530,7 +43531,7 @@
       <c r="T767" s="10"/>
       <c r="U767" s="7"/>
     </row>
-    <row r="768" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -43584,7 +43585,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="769" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -43629,7 +43630,7 @@
       <c r="T769" s="10"/>
       <c r="U769" s="7"/>
     </row>
-    <row r="770" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="11">
         <v>2023</v>
       </c>
@@ -43691,7 +43692,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="771" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="11">
         <v>2023</v>
       </c>
@@ -43740,7 +43741,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="772" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="11">
         <v>2023</v>
       </c>
@@ -43798,7 +43799,7 @@
       <c r="S772" s="9"/>
       <c r="U772" s="3"/>
     </row>
-    <row r="773" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -43843,7 +43844,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="774" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -43902,7 +43903,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="775" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -43964,7 +43965,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="776" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -44029,7 +44030,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="777" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -44089,7 +44090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="778" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -44146,7 +44147,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="779" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -44203,7 +44204,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="780" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -44263,7 +44264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="781" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -44321,7 +44322,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="782" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -44376,7 +44377,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="783" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -44435,7 +44436,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="784" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -44551,7 +44552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="786" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -44606,7 +44607,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="787" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -44663,7 +44664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="788" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -44726,7 +44727,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="789" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -44783,7 +44784,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="790" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -44839,7 +44840,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="791" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -44901,7 +44902,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="792" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -45017,7 +45018,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="794" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -45074,7 +45075,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="795" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -45131,7 +45132,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="796" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -45188,7 +45189,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="797" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -45303,7 +45304,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="799" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -45358,7 +45359,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="800" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -45418,7 +45419,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="801" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -45596,7 +45597,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="804" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -45653,7 +45654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="805" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -45708,7 +45709,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="806" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -45765,7 +45766,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="807" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -45887,7 +45888,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="809" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -45944,7 +45945,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="810" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -45999,7 +46000,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="811" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -46052,7 +46053,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="812" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -46107,7 +46108,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="813" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -46222,7 +46223,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="815" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -46279,7 +46280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="816" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2024</v>
       </c>
@@ -46338,7 +46339,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="817" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -46395,7 +46396,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="818" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -46452,7 +46453,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="819" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -46505,7 +46506,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="820" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -46558,7 +46559,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="821" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -46620,7 +46621,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="822" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -46671,7 +46672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="823" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -46726,7 +46727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="824" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -46787,7 +46788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="825" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2024</v>
       </c>
@@ -46839,7 +46840,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="826" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2024</v>
       </c>
@@ -46891,7 +46892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="827" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2024</v>
       </c>
@@ -46943,7 +46944,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="828" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2024</v>
       </c>
@@ -47052,7 +47053,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="830" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -47104,7 +47105,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="831" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2024</v>
       </c>
@@ -47271,7 +47272,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="834" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -47321,7 +47322,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="835" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -47371,7 +47372,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="836" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2024</v>
       </c>
@@ -47488,7 +47489,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="838" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -47549,7 +47550,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="839" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -47601,7 +47602,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="840" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2024</v>
       </c>
@@ -47658,7 +47659,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="841" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -47773,7 +47774,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="843" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2024</v>
       </c>
@@ -47885,7 +47886,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="845" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2024</v>
       </c>
@@ -47943,7 +47944,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="846" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2024</v>
       </c>
@@ -47995,7 +47996,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="847" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -48087,7 +48088,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="849" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2024</v>
       </c>
@@ -48133,7 +48134,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="850" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2024</v>
       </c>
@@ -48178,7 +48179,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="851" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2024</v>
       </c>
@@ -48428,7 +48429,13 @@
       <c r="G884" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}"/>
+  <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="FAILED"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370FF07C-0209-4842-897A-F2024E2F3C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16714497-DACD-1242-BA50-983407C51C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -5367,8 +5367,8 @@
   <dimension ref="A1:X871"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H508" sqref="H508"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5461,7 +5461,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2008</v>
       </c>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="T53"/>
     </row>
-    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2008</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="19"/>
     </row>
-    <row r="65" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>2008</v>
       </c>
@@ -9932,7 +9932,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="19"/>
     </row>
-    <row r="114" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2010</v>
       </c>
@@ -10402,7 +10402,7 @@
       <c r="S123" s="18"/>
       <c r="T123" s="19"/>
     </row>
-    <row r="124" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>2010</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="S127" s="18"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>2010</v>
       </c>
@@ -10927,7 +10927,7 @@
       <c r="S134" s="18"/>
       <c r="T134" s="19"/>
     </row>
-    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>2010</v>
       </c>
@@ -11139,7 +11139,7 @@
       <c r="S139" s="18"/>
       <c r="T139" s="19"/>
     </row>
-    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>2010</v>
       </c>
@@ -11180,7 +11180,7 @@
       <c r="S140" s="18"/>
       <c r="T140" s="19"/>
     </row>
-    <row r="141" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>2010</v>
       </c>
@@ -11481,7 +11481,7 @@
       <c r="S148" s="18"/>
       <c r="T148" s="19"/>
     </row>
-    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
         <v>2013</v>
       </c>
@@ -12222,7 +12222,7 @@
       <c r="S168" s="18"/>
       <c r="T168" s="19"/>
     </row>
-    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>2014</v>
       </c>
@@ -12398,7 +12398,7 @@
       <c r="S172" s="18"/>
       <c r="T172" s="19"/>
     </row>
-    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>2014</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="S196" s="18"/>
       <c r="T196" s="19"/>
     </row>
-    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
         <v>2014</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="S199" s="18"/>
       <c r="T199" s="19"/>
     </row>
-    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
         <v>2014</v>
       </c>
@@ -13640,7 +13640,7 @@
       <c r="S203" s="18"/>
       <c r="T203" s="19"/>
     </row>
-    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
         <v>2014</v>
       </c>
@@ -13685,7 +13685,7 @@
       <c r="S204" s="18"/>
       <c r="T204" s="19"/>
     </row>
-    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
         <v>2014</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="S205" s="18"/>
       <c r="T205" s="19"/>
     </row>
-    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
         <v>2014</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="S206" s="18"/>
       <c r="T206" s="19"/>
     </row>
-    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
         <v>2014</v>
       </c>
@@ -15673,7 +15673,7 @@
       <c r="S249" s="18"/>
       <c r="T249" s="19"/>
     </row>
-    <row r="250" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
         <v>2015</v>
       </c>
@@ -16111,7 +16111,7 @@
       <c r="S259" s="18"/>
       <c r="T259" s="19"/>
     </row>
-    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>2015</v>
       </c>
@@ -16162,7 +16162,7 @@
       <c r="S260" s="18"/>
       <c r="T260" s="19"/>
     </row>
-    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>2015</v>
       </c>
@@ -16332,7 +16332,7 @@
       <c r="S264" s="18"/>
       <c r="T264" s="19"/>
     </row>
-    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>2015</v>
       </c>
@@ -16475,7 +16475,7 @@
       <c r="S267" s="18"/>
       <c r="T267" s="19"/>
     </row>
-    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>2015</v>
       </c>
@@ -16563,7 +16563,7 @@
       <c r="S269" s="18"/>
       <c r="T269" s="19"/>
     </row>
-    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>2015</v>
       </c>
@@ -17313,7 +17313,7 @@
       <c r="S288" s="18"/>
       <c r="T288" s="19"/>
     </row>
-    <row r="289" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>2015</v>
       </c>
@@ -17445,7 +17445,7 @@
       <c r="S291" s="18"/>
       <c r="T291" s="19"/>
     </row>
-    <row r="292" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
         <v>2015</v>
       </c>
@@ -17663,7 +17663,7 @@
       <c r="S296" s="18"/>
       <c r="T296" s="19"/>
     </row>
-    <row r="297" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
         <v>2015</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="S304" s="18"/>
       <c r="T304" s="19"/>
     </row>
-    <row r="305" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>2015</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6">
         <v>2016</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:24" s="8" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
         <v>2016</v>
       </c>
@@ -19055,7 +19055,7 @@
       <c r="W327"/>
       <c r="X327" s="6"/>
     </row>
-    <row r="328" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
         <v>2016</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:24" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
         <v>2016</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
         <v>2016</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
         <v>2016</v>
       </c>
@@ -20070,7 +20070,7 @@
       <c r="S346" s="18"/>
       <c r="T346" s="19"/>
     </row>
-    <row r="347" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="6">
         <v>2016</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="355" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
         <v>2016</v>
       </c>
@@ -20681,7 +20681,7 @@
       <c r="S360" s="18"/>
       <c r="T360" s="19"/>
     </row>
-    <row r="361" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
         <v>2016</v>
       </c>
@@ -20906,7 +20906,7 @@
       <c r="S366" s="18"/>
       <c r="T366" s="19"/>
     </row>
-    <row r="367" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
         <v>2016</v>
       </c>
@@ -20949,7 +20949,7 @@
       <c r="S367" s="18"/>
       <c r="T367" s="19"/>
     </row>
-    <row r="368" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
         <v>2016</v>
       </c>
@@ -21137,7 +21137,7 @@
       <c r="S371" s="18"/>
       <c r="T371" s="19"/>
     </row>
-    <row r="372" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
         <v>2016</v>
       </c>
@@ -21251,7 +21251,7 @@
       <c r="S374" s="18"/>
       <c r="T374" s="19"/>
     </row>
-    <row r="375" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="6">
         <v>2016</v>
       </c>
@@ -21297,7 +21297,7 @@
       <c r="S375" s="18"/>
       <c r="T375" s="19"/>
     </row>
-    <row r="376" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="6">
         <v>2016</v>
       </c>
@@ -21375,7 +21375,7 @@
       <c r="S377" s="18"/>
       <c r="T377" s="19"/>
     </row>
-    <row r="378" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
         <v>2016</v>
       </c>
@@ -21784,7 +21784,7 @@
       <c r="S386" s="18"/>
       <c r="T386" s="19"/>
     </row>
-    <row r="387" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6">
         <v>2016</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="391" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
         <v>2016</v>
       </c>
@@ -22686,7 +22686,7 @@
       <c r="T407" s="2"/>
       <c r="U407" s="2"/>
     </row>
-    <row r="408" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
         <v>2017</v>
       </c>
@@ -22950,7 +22950,7 @@
       <c r="T413" s="2"/>
       <c r="U413" s="2"/>
     </row>
-    <row r="414" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
         <v>2017</v>
       </c>
@@ -23303,7 +23303,7 @@
       <c r="T421" s="2"/>
       <c r="U421" s="2"/>
     </row>
-    <row r="422" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
         <v>2017</v>
       </c>
@@ -23856,7 +23856,7 @@
       <c r="T434" s="2"/>
       <c r="U434" s="2"/>
     </row>
-    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -23903,7 +23903,7 @@
       <c r="T435" s="2"/>
       <c r="U435" s="2"/>
     </row>
-    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -23954,7 +23954,7 @@
       <c r="T436" s="2"/>
       <c r="U436" s="2"/>
     </row>
-    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -24056,7 +24056,7 @@
       <c r="T438" s="2"/>
       <c r="U438" s="2"/>
     </row>
-    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -24109,7 +24109,7 @@
       <c r="T439" s="2"/>
       <c r="U439" s="2"/>
     </row>
-    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -24154,7 +24154,7 @@
       <c r="T440" s="2"/>
       <c r="U440" s="2"/>
     </row>
-    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -24203,7 +24203,7 @@
       <c r="T441" s="2"/>
       <c r="U441" s="2"/>
     </row>
-    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -24299,7 +24299,7 @@
       <c r="T443" s="2"/>
       <c r="U443" s="2"/>
     </row>
-    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -24336,7 +24336,7 @@
       <c r="T444" s="2"/>
       <c r="U444" s="2"/>
     </row>
-    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -24385,7 +24385,7 @@
       <c r="T445" s="2"/>
       <c r="U445" s="2"/>
     </row>
-    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -24434,7 +24434,7 @@
       <c r="T446" s="2"/>
       <c r="U446" s="2"/>
     </row>
-    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -24479,7 +24479,7 @@
       <c r="T447" s="2"/>
       <c r="U447" s="2"/>
     </row>
-    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -24526,7 +24526,7 @@
       <c r="T448" s="2"/>
       <c r="U448" s="2"/>
     </row>
-    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -24616,7 +24616,7 @@
       <c r="T450" s="2"/>
       <c r="U450" s="2"/>
     </row>
-    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -24653,7 +24653,7 @@
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -24702,7 +24702,7 @@
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -24749,7 +24749,7 @@
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -24786,7 +24786,7 @@
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -24833,7 +24833,7 @@
       <c r="T455" s="2"/>
       <c r="U455" s="2"/>
     </row>
-    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -24929,7 +24929,7 @@
       <c r="T457" s="2"/>
       <c r="U457" s="2"/>
     </row>
-    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -25013,7 +25013,7 @@
       <c r="T459" s="2"/>
       <c r="U459" s="2"/>
     </row>
-    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -25054,7 +25054,7 @@
       <c r="T460" s="2"/>
       <c r="U460" s="2"/>
     </row>
-    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -25150,7 +25150,7 @@
       <c r="T462" s="2"/>
       <c r="U462" s="2"/>
     </row>
-    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -25199,7 +25199,7 @@
       <c r="T463" s="2"/>
       <c r="U463" s="2"/>
     </row>
-    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -25252,7 +25252,7 @@
       <c r="T464" s="2"/>
       <c r="U464" s="2"/>
     </row>
-    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -25305,7 +25305,7 @@
       <c r="T465" s="2"/>
       <c r="U465" s="2"/>
     </row>
-    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -25354,7 +25354,7 @@
       <c r="T466" s="2"/>
       <c r="U466" s="2"/>
     </row>
-    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -25397,7 +25397,7 @@
       <c r="T467" s="2"/>
       <c r="U467" s="2"/>
     </row>
-    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -25591,7 +25591,7 @@
       <c r="T471" s="2"/>
       <c r="U471" s="2"/>
     </row>
-    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -25636,7 +25636,7 @@
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -25683,7 +25683,7 @@
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -25726,7 +25726,7 @@
       <c r="T474" s="2"/>
       <c r="U474" s="2"/>
     </row>
-    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -25773,7 +25773,7 @@
       <c r="T475" s="2"/>
       <c r="U475" s="2"/>
     </row>
-    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -25822,7 +25822,7 @@
       <c r="T476" s="2"/>
       <c r="U476" s="2"/>
     </row>
-    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -25869,7 +25869,7 @@
       <c r="T477" s="2"/>
       <c r="U477" s="2"/>
     </row>
-    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -25965,7 +25965,7 @@
       <c r="T479" s="2"/>
       <c r="U479" s="2"/>
     </row>
-    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -26006,7 +26006,7 @@
       <c r="T480" s="2"/>
       <c r="U480" s="2"/>
     </row>
-    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -26047,7 +26047,7 @@
       <c r="T481" s="2"/>
       <c r="U481" s="2"/>
     </row>
-    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -26098,7 +26098,7 @@
       <c r="T482" s="2"/>
       <c r="U482" s="2"/>
     </row>
-    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -26145,7 +26145,7 @@
       <c r="T483" s="2"/>
       <c r="U483" s="2"/>
     </row>
-    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -26243,7 +26243,7 @@
       <c r="T485" s="2"/>
       <c r="U485" s="2"/>
     </row>
-    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -26345,7 +26345,7 @@
       <c r="T487" s="2"/>
       <c r="U487" s="2"/>
     </row>
-    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -26445,7 +26445,7 @@
       <c r="T489" s="2"/>
       <c r="U489" s="2"/>
     </row>
-    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -26496,7 +26496,7 @@
       <c r="T490" s="2"/>
       <c r="U490" s="2"/>
     </row>
-    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -26543,7 +26543,7 @@
       <c r="T491" s="2"/>
       <c r="U491" s="2"/>
     </row>
-    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -26588,7 +26588,7 @@
       <c r="T492" s="2"/>
       <c r="U492" s="2"/>
     </row>
-    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -26684,7 +26684,7 @@
       <c r="T494" s="2"/>
       <c r="U494" s="2"/>
     </row>
-    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -26719,7 +26719,7 @@
       <c r="T495" s="2"/>
       <c r="U495" s="2"/>
     </row>
-    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -26764,7 +26764,7 @@
       <c r="T496" s="2"/>
       <c r="U496" s="2"/>
     </row>
-    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -26803,7 +26803,7 @@
       <c r="T497" s="2"/>
       <c r="U497" s="2"/>
     </row>
-    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -26850,7 +26850,7 @@
       <c r="T498" s="2"/>
       <c r="U498" s="2"/>
     </row>
-    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -26895,7 +26895,7 @@
       <c r="T499" s="2"/>
       <c r="U499" s="2"/>
     </row>
-    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -26936,7 +26936,7 @@
       <c r="T500" s="2"/>
       <c r="U500" s="2"/>
     </row>
-    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -26971,7 +26971,7 @@
       <c r="T501" s="2"/>
       <c r="U501" s="2"/>
     </row>
-    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -27010,7 +27010,7 @@
       <c r="T502" s="2"/>
       <c r="U502" s="2"/>
     </row>
-    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -27051,7 +27051,7 @@
       <c r="T503" s="2"/>
       <c r="U503" s="2"/>
     </row>
-    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -27090,7 +27090,7 @@
       <c r="T504" s="2"/>
       <c r="U504" s="2"/>
     </row>
-    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -27133,7 +27133,7 @@
       <c r="T505" s="2"/>
       <c r="U505" s="2"/>
     </row>
-    <row r="506" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -27213,7 +27213,7 @@
       <c r="T507" s="2"/>
       <c r="U507" s="2"/>
     </row>
-    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -27254,7 +27254,7 @@
       <c r="T508" s="2"/>
       <c r="U508" s="2"/>
     </row>
-    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -27299,7 +27299,7 @@
       <c r="T509" s="2"/>
       <c r="U509" s="2"/>
     </row>
-    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -27334,7 +27334,7 @@
       <c r="T510" s="2"/>
       <c r="U510" s="2"/>
     </row>
-    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -27377,7 +27377,7 @@
       <c r="T511" s="2"/>
       <c r="U511" s="2"/>
     </row>
-    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -27416,7 +27416,7 @@
       <c r="T512" s="2"/>
       <c r="U512" s="2"/>
     </row>
-    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -27451,7 +27451,7 @@
       <c r="T513" s="2"/>
       <c r="U513" s="2"/>
     </row>
-    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -27498,7 +27498,7 @@
       <c r="T514" s="2"/>
       <c r="U514" s="2"/>
     </row>
-    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -27537,7 +27537,7 @@
       <c r="T515" s="2"/>
       <c r="U515" s="2"/>
     </row>
-    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -27574,7 +27574,7 @@
       <c r="T516" s="2"/>
       <c r="U516" s="2"/>
     </row>
-    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -27608,7 +27608,7 @@
       <c r="T517" s="2"/>
       <c r="U517" s="2"/>
     </row>
-    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -27649,7 +27649,7 @@
       <c r="T518" s="2"/>
       <c r="U518" s="2"/>
     </row>
-    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -27737,7 +27737,7 @@
       <c r="T520" s="2"/>
       <c r="U520" s="2"/>
     </row>
-    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -27774,7 +27774,7 @@
       <c r="T521" s="2"/>
       <c r="U521" s="2"/>
     </row>
-    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -27808,7 +27808,7 @@
       <c r="T522" s="2"/>
       <c r="U522" s="2"/>
     </row>
-    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -27846,7 +27846,7 @@
       <c r="T523" s="2"/>
       <c r="U523" s="2"/>
     </row>
-    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -27887,7 +27887,7 @@
       <c r="T524" s="2"/>
       <c r="U524" s="2"/>
     </row>
-    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -30485,7 +30485,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="585" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
         <v>2022</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="595" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
         <v>2022</v>
       </c>
@@ -31392,7 +31392,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="604" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
         <v>2022</v>
       </c>
@@ -31502,7 +31502,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="606" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
         <v>2022</v>
       </c>
@@ -31834,7 +31834,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="614" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
         <v>2022</v>
       </c>
@@ -32002,7 +32002,7 @@
       <c r="T617" s="10"/>
       <c r="U617" s="7"/>
     </row>
-    <row r="618" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
         <v>2022</v>
       </c>
@@ -32147,7 +32147,7 @@
       <c r="T620" s="10"/>
       <c r="U620" s="7"/>
     </row>
-    <row r="621" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
         <v>2022</v>
       </c>
@@ -32196,7 +32196,7 @@
       <c r="T621" s="10"/>
       <c r="U621" s="7"/>
     </row>
-    <row r="622" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
         <v>2022</v>
       </c>
@@ -32349,7 +32349,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="625" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
         <v>2022</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="626" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
         <v>2022</v>
       </c>
@@ -32459,7 +32459,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="627" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
         <v>2022</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="629" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
         <v>2022</v>
       </c>
@@ -32657,7 +32657,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="631" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
         <v>2022</v>
       </c>
@@ -32855,7 +32855,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="635" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
         <v>2022</v>
       </c>
@@ -33010,7 +33010,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="638" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
         <v>2022</v>
       </c>
@@ -33065,7 +33065,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="639" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
         <v>2022</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="642" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
         <v>2022</v>
       </c>
@@ -33592,7 +33592,7 @@
       <c r="T649" s="10"/>
       <c r="U649" s="7"/>
     </row>
-    <row r="650" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
         <v>2022</v>
       </c>
@@ -33764,7 +33764,7 @@
       <c r="T653" s="10"/>
       <c r="U653" s="7"/>
     </row>
-    <row r="654" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
         <v>2022</v>
       </c>
@@ -33889,7 +33889,7 @@
       <c r="T656" s="10"/>
       <c r="U656" s="7"/>
     </row>
-    <row r="657" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
         <v>2022</v>
       </c>
@@ -33977,7 +33977,7 @@
       <c r="T658" s="10"/>
       <c r="U658" s="7"/>
     </row>
-    <row r="659" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
         <v>2022</v>
       </c>
@@ -34067,7 +34067,7 @@
       <c r="T660" s="10"/>
       <c r="U660" s="7"/>
     </row>
-    <row r="661" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
         <v>2022</v>
       </c>
@@ -34157,7 +34157,7 @@
       <c r="T662" s="10"/>
       <c r="U662" s="7"/>
     </row>
-    <row r="663" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
         <v>2022</v>
       </c>
@@ -34202,7 +34202,7 @@
       <c r="T663" s="10"/>
       <c r="U663" s="7"/>
     </row>
-    <row r="664" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
         <v>2022</v>
       </c>
@@ -34247,7 +34247,7 @@
       <c r="T664" s="10"/>
       <c r="U664" s="7"/>
     </row>
-    <row r="665" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
         <v>2022</v>
       </c>
@@ -34296,7 +34296,7 @@
       <c r="T665" s="10"/>
       <c r="U665" s="7"/>
     </row>
-    <row r="666" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
         <v>2022</v>
       </c>
@@ -34558,7 +34558,7 @@
       <c r="T671" s="10"/>
       <c r="U671" s="7"/>
     </row>
-    <row r="672" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
         <v>2022</v>
       </c>
@@ -34881,7 +34881,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="679" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="11">
         <v>2023</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="692" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="11">
         <v>2023</v>
       </c>
@@ -35622,7 +35622,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="693" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="11">
         <v>2023</v>
       </c>
@@ -35785,7 +35785,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="696" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="11">
         <v>2023</v>
       </c>
@@ -35883,7 +35883,7 @@
       <c r="T697" s="10"/>
       <c r="U697" s="7"/>
     </row>
-    <row r="698" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="11">
         <v>2023</v>
       </c>
@@ -36124,7 +36124,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="703" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="11">
         <v>2023</v>
       </c>
@@ -36357,7 +36357,7 @@
       <c r="T707" s="10"/>
       <c r="U707" s="7"/>
     </row>
-    <row r="708" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="11">
         <v>2023</v>
       </c>
@@ -36457,7 +36457,7 @@
       <c r="T709" s="10"/>
       <c r="U709" s="7"/>
     </row>
-    <row r="710" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="11">
         <v>2023</v>
       </c>
@@ -36675,7 +36675,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="714" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="11">
         <v>2023</v>
       </c>
@@ -36731,7 +36731,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="715" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="11">
         <v>2023</v>
       </c>
@@ -36786,7 +36786,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="716" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="11">
         <v>2023</v>
       </c>
@@ -37222,7 +37222,7 @@
       <c r="T723" s="10"/>
       <c r="U723" s="7"/>
     </row>
-    <row r="724" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="11">
         <v>2023</v>
       </c>
@@ -37329,7 +37329,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="726" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="11">
         <v>2023</v>
       </c>
@@ -37474,7 +37474,7 @@
       <c r="T728" s="10"/>
       <c r="U728" s="7"/>
     </row>
-    <row r="729" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="11">
         <v>2023</v>
       </c>
@@ -37666,7 +37666,7 @@
       <c r="T732" s="10"/>
       <c r="U732" s="7"/>
     </row>
-    <row r="733" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="11">
         <v>2023</v>
       </c>
@@ -38271,7 +38271,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="747" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="11">
         <v>2023</v>
       </c>
@@ -38421,7 +38421,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="750" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="11">
         <v>2023</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="754" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="11">
         <v>2023</v>
       </c>
@@ -38867,7 +38867,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="759" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="11">
         <v>2023</v>
       </c>
@@ -38920,7 +38920,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="760" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="11">
         <v>2023</v>
       </c>
@@ -40179,7 +40179,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="785" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2024</v>
       </c>
@@ -40638,7 +40638,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="793" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2024</v>
       </c>
@@ -40918,7 +40918,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="798" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2024</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="802" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2024</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="803" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2024</v>
       </c>
@@ -41483,7 +41483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="808" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2024</v>
       </c>
@@ -41822,7 +41822,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="814" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2024</v>
       </c>
@@ -42643,7 +42643,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="829" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2024</v>
       </c>
@@ -42800,7 +42800,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="832" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2024</v>
       </c>
@@ -42855,7 +42855,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="833" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2024</v>
       </c>
@@ -43066,7 +43066,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="837" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2024</v>
       </c>
@@ -43326,7 +43326,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="842" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2024</v>
       </c>
@@ -43434,7 +43434,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="844" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2024</v>
       </c>
@@ -43635,7 +43635,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="848" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2024</v>
       </c>
@@ -43946,9 +43946,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-    <filterColumn colId="0">
+    <filterColumn colId="4">
       <filters>
-        <filter val="2018"/>
+        <filter val="FAILED"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16714497-DACD-1242-BA50-983407C51C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52060CF-1269-8041-A640-E11EF9428DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -5363,12 +5363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X871"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5511,7 +5510,7 @@
       </c>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2008</v>
       </c>
@@ -5545,7 +5544,7 @@
       </c>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -5584,7 +5583,7 @@
       </c>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2008</v>
       </c>
@@ -5673,7 +5672,7 @@
       </c>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2008</v>
       </c>
@@ -5705,7 +5704,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -5750,7 +5749,7 @@
       </c>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
@@ -5792,7 +5791,7 @@
       </c>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -5826,7 +5825,7 @@
       </c>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2008</v>
       </c>
@@ -5875,7 +5874,7 @@
       </c>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2008</v>
       </c>
@@ -5929,7 +5928,7 @@
       </c>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -5979,7 +5978,7 @@
       </c>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2008</v>
       </c>
@@ -6013,7 +6012,7 @@
       </c>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2008</v>
       </c>
@@ -6045,7 +6044,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2008</v>
       </c>
@@ -6090,7 +6089,7 @@
       </c>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2008</v>
       </c>
@@ -6136,7 +6135,7 @@
       </c>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2008</v>
       </c>
@@ -6171,7 +6170,7 @@
       <c r="S18"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2008</v>
       </c>
@@ -6207,7 +6206,7 @@
       </c>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2008</v>
       </c>
@@ -6241,7 +6240,7 @@
       </c>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2008</v>
       </c>
@@ -6311,7 +6310,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2008</v>
       </c>
@@ -6366,7 +6365,7 @@
       </c>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2008</v>
       </c>
@@ -6396,7 +6395,7 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2008</v>
       </c>
@@ -6426,7 +6425,7 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2008</v>
       </c>
@@ -6464,7 +6463,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2008</v>
       </c>
@@ -6498,7 +6497,7 @@
       </c>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2008</v>
       </c>
@@ -6528,7 +6527,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2008</v>
       </c>
@@ -6558,7 +6557,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2008</v>
       </c>
@@ -6605,7 +6604,7 @@
       </c>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2008</v>
       </c>
@@ -6637,7 +6636,7 @@
       </c>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2008</v>
       </c>
@@ -6669,7 +6668,7 @@
       </c>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2008</v>
       </c>
@@ -6706,7 +6705,7 @@
       </c>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2008</v>
       </c>
@@ -6736,7 +6735,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2008</v>
       </c>
@@ -6766,7 +6765,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2008</v>
       </c>
@@ -6804,7 +6803,7 @@
       </c>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2008</v>
       </c>
@@ -6840,7 +6839,7 @@
       </c>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2008</v>
       </c>
@@ -6894,7 +6893,7 @@
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2008</v>
       </c>
@@ -6927,7 +6926,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2008</v>
       </c>
@@ -6957,7 +6956,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -6993,7 +6992,7 @@
       </c>
       <c r="T41"/>
     </row>
-    <row r="42" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -7025,7 +7024,7 @@
       </c>
       <c r="T42"/>
     </row>
-    <row r="43" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2008</v>
       </c>
@@ -7055,7 +7054,7 @@
       <c r="S43"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2008</v>
       </c>
@@ -7105,7 +7104,7 @@
       </c>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2008</v>
       </c>
@@ -7149,7 +7148,7 @@
       </c>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2008</v>
       </c>
@@ -7192,7 +7191,7 @@
       </c>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2008</v>
       </c>
@@ -7222,7 +7221,7 @@
       <c r="S47"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2008</v>
       </c>
@@ -7254,7 +7253,7 @@
       </c>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2008</v>
       </c>
@@ -7286,7 +7285,7 @@
       </c>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2008</v>
       </c>
@@ -7320,7 +7319,7 @@
       </c>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2008</v>
       </c>
@@ -7355,7 +7354,7 @@
       </c>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2008</v>
       </c>
@@ -7398,7 +7397,7 @@
       </c>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2008</v>
       </c>
@@ -7478,7 +7477,7 @@
       </c>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2008</v>
       </c>
@@ -7511,7 +7510,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="19"/>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2008</v>
       </c>
@@ -7558,7 +7557,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="19"/>
     </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2008</v>
       </c>
@@ -7601,7 +7600,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="19"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2008</v>
       </c>
@@ -7652,7 +7651,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2008</v>
       </c>
@@ -7695,7 +7694,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="19"/>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2008</v>
       </c>
@@ -7729,7 +7728,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="19"/>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2008</v>
       </c>
@@ -7763,7 +7762,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="19"/>
     </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2008</v>
       </c>
@@ -7793,7 +7792,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="19"/>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2008</v>
       </c>
@@ -7835,7 +7834,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="19"/>
     </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2008</v>
       </c>
@@ -7928,7 +7927,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>2008</v>
       </c>
@@ -7958,7 +7957,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>2008</v>
       </c>
@@ -7993,7 +7992,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="19"/>
     </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>2008</v>
       </c>
@@ -8038,7 +8037,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="19"/>
     </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2008</v>
       </c>
@@ -8068,7 +8067,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2008</v>
       </c>
@@ -8108,7 +8107,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="19"/>
     </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2008</v>
       </c>
@@ -8146,7 +8145,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="19"/>
     </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2009</v>
       </c>
@@ -8178,7 +8177,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="19"/>
     </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2009</v>
       </c>
@@ -8210,7 +8209,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="19"/>
     </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2009</v>
       </c>
@@ -8245,7 +8244,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="19"/>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2009</v>
       </c>
@@ -8277,7 +8276,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="19"/>
     </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2009</v>
       </c>
@@ -8312,7 +8311,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="19"/>
     </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2009</v>
       </c>
@@ -8349,7 +8348,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="19"/>
     </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2009</v>
       </c>
@@ -8384,7 +8383,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="19"/>
     </row>
-    <row r="79" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2009</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="19"/>
     </row>
-    <row r="80" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2009</v>
       </c>
@@ -8454,7 +8453,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="19"/>
     </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>2009</v>
       </c>
@@ -8489,7 +8488,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="19"/>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>2009</v>
       </c>
@@ -8528,7 +8527,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="19"/>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>2009</v>
       </c>
@@ -8570,7 +8569,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="19"/>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>2010</v>
       </c>
@@ -8607,7 +8606,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="19"/>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>2010</v>
       </c>
@@ -8646,7 +8645,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="19"/>
     </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>2010</v>
       </c>
@@ -8688,7 +8687,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="19"/>
     </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>2010</v>
       </c>
@@ -8730,7 +8729,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="19"/>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>2010</v>
       </c>
@@ -8772,7 +8771,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="19"/>
     </row>
-    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -8814,7 +8813,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="19"/>
     </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -8858,7 +8857,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="19"/>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2010</v>
       </c>
@@ -8904,7 +8903,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="19"/>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2010</v>
       </c>
@@ -8948,7 +8947,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="19"/>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2010</v>
       </c>
@@ -8996,7 +8995,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="19"/>
     </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2010</v>
       </c>
@@ -9047,7 +9046,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="19"/>
     </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2010</v>
       </c>
@@ -9098,7 +9097,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="19"/>
     </row>
-    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2010</v>
       </c>
@@ -9149,7 +9148,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2010</v>
       </c>
@@ -9193,7 +9192,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="19"/>
     </row>
-    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2010</v>
       </c>
@@ -9239,7 +9238,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="19"/>
     </row>
-    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -9281,7 +9280,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="19"/>
     </row>
-    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>2010</v>
       </c>
@@ -9323,7 +9322,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>2010</v>
       </c>
@@ -9373,7 +9372,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="19"/>
     </row>
-    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>2010</v>
       </c>
@@ -9418,7 +9417,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="19"/>
     </row>
-    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>2010</v>
       </c>
@@ -9460,7 +9459,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="19"/>
     </row>
-    <row r="104" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -9508,7 +9507,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="19"/>
     </row>
-    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>2010</v>
       </c>
@@ -9550,7 +9549,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="19"/>
     </row>
-    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>2010</v>
       </c>
@@ -9591,7 +9590,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="19"/>
     </row>
-    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>2010</v>
       </c>
@@ -9642,7 +9641,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="19"/>
     </row>
-    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>2010</v>
       </c>
@@ -9688,7 +9687,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="19"/>
     </row>
-    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>2010</v>
       </c>
@@ -9736,7 +9735,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="19"/>
     </row>
-    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -9788,7 +9787,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="19"/>
     </row>
-    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -9835,7 +9834,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="19"/>
     </row>
-    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2010</v>
       </c>
@@ -9887,7 +9886,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="19"/>
     </row>
-    <row r="113" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2010</v>
       </c>
@@ -9977,7 +9976,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="19"/>
     </row>
-    <row r="115" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2010</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="19"/>
     </row>
-    <row r="116" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2010</v>
       </c>
@@ -10077,7 +10076,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="19"/>
     </row>
-    <row r="117" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2010</v>
       </c>
@@ -10123,7 +10122,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="19"/>
     </row>
-    <row r="118" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2010</v>
       </c>
@@ -10169,7 +10168,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2010</v>
       </c>
@@ -10216,7 +10215,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="19"/>
     </row>
-    <row r="120" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>2010</v>
       </c>
@@ -10266,7 +10265,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="19"/>
     </row>
-    <row r="121" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -10309,7 +10308,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="19"/>
     </row>
-    <row r="122" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>2010</v>
       </c>
@@ -10362,7 +10361,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="19"/>
     </row>
-    <row r="123" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>2010</v>
       </c>
@@ -10447,7 +10446,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="19"/>
     </row>
-    <row r="125" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>2010</v>
       </c>
@@ -10495,7 +10494,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="19"/>
     </row>
-    <row r="126" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>2010</v>
       </c>
@@ -10537,7 +10536,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="19"/>
     </row>
-    <row r="127" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>2010</v>
       </c>
@@ -10632,7 +10631,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>2010</v>
       </c>
@@ -10684,7 +10683,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="19"/>
     </row>
-    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>2010</v>
       </c>
@@ -10731,7 +10730,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="19"/>
     </row>
-    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>2010</v>
       </c>
@@ -10783,7 +10782,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="19"/>
     </row>
-    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>2010</v>
       </c>
@@ -10835,7 +10834,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="19"/>
     </row>
-    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>2010</v>
       </c>
@@ -10878,7 +10877,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="19"/>
     </row>
-    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>2010</v>
       </c>
@@ -10970,7 +10969,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="19"/>
     </row>
-    <row r="136" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>2010</v>
       </c>
@@ -11013,7 +11012,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="19"/>
     </row>
-    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>2010</v>
       </c>
@@ -11063,7 +11062,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="19"/>
     </row>
-    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>2010</v>
       </c>
@@ -11095,7 +11094,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="19"/>
     </row>
-    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>2010</v>
       </c>
@@ -11224,7 +11223,7 @@
       <c r="S141" s="18"/>
       <c r="T141" s="19"/>
     </row>
-    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>2010</v>
       </c>
@@ -11257,7 +11256,7 @@
       <c r="S142" s="18"/>
       <c r="T142" s="19"/>
     </row>
-    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>2010</v>
       </c>
@@ -11293,7 +11292,7 @@
       <c r="S143" s="18"/>
       <c r="T143" s="19"/>
     </row>
-    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>2010</v>
       </c>
@@ -11326,7 +11325,7 @@
       <c r="S144" s="18"/>
       <c r="T144" s="19"/>
     </row>
-    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>2013</v>
       </c>
@@ -11358,7 +11357,7 @@
       <c r="S145" s="18"/>
       <c r="T145" s="19"/>
     </row>
-    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
         <v>2013</v>
       </c>
@@ -11398,7 +11397,7 @@
       <c r="S146" s="18"/>
       <c r="T146" s="19"/>
     </row>
-    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
         <v>2013</v>
       </c>
@@ -11438,7 +11437,7 @@
       <c r="S147" s="18"/>
       <c r="T147" s="19"/>
     </row>
-    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
         <v>2013</v>
       </c>
@@ -11524,7 +11523,7 @@
       <c r="S149" s="18"/>
       <c r="T149" s="19"/>
     </row>
-    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>2013</v>
       </c>
@@ -11558,7 +11557,7 @@
       <c r="S150" s="18"/>
       <c r="T150" s="19"/>
     </row>
-    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
         <v>2013</v>
       </c>
@@ -11595,7 +11594,7 @@
       <c r="S151" s="18"/>
       <c r="T151" s="19"/>
     </row>
-    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>2013</v>
       </c>
@@ -11630,7 +11629,7 @@
       <c r="S152" s="18"/>
       <c r="T152" s="19"/>
     </row>
-    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
         <v>2013</v>
       </c>
@@ -11665,7 +11664,7 @@
       <c r="S153" s="18"/>
       <c r="T153" s="19"/>
     </row>
-    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>2013</v>
       </c>
@@ -11699,7 +11698,7 @@
       <c r="S154" s="18"/>
       <c r="T154" s="19"/>
     </row>
-    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>2013</v>
       </c>
@@ -11733,7 +11732,7 @@
       <c r="S155" s="18"/>
       <c r="T155" s="19"/>
     </row>
-    <row r="156" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>2013</v>
       </c>
@@ -11767,7 +11766,7 @@
       <c r="S156" s="18"/>
       <c r="T156" s="19"/>
     </row>
-    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>2013</v>
       </c>
@@ -11810,7 +11809,7 @@
       <c r="S157" s="18"/>
       <c r="T157" s="19"/>
     </row>
-    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>2013</v>
       </c>
@@ -11853,7 +11852,7 @@
       <c r="S158" s="18"/>
       <c r="T158" s="19"/>
     </row>
-    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
         <v>2013</v>
       </c>
@@ -11896,7 +11895,7 @@
       <c r="S159" s="18"/>
       <c r="T159" s="19"/>
     </row>
-    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>2013</v>
       </c>
@@ -11936,7 +11935,7 @@
       <c r="S160" s="18"/>
       <c r="T160" s="19"/>
     </row>
-    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>2013</v>
       </c>
@@ -11975,7 +11974,7 @@
       <c r="S161" s="18"/>
       <c r="T161" s="19"/>
     </row>
-    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>2013</v>
       </c>
@@ -12009,7 +12008,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="19"/>
     </row>
-    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>2013</v>
       </c>
@@ -12046,7 +12045,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="19"/>
     </row>
-    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>2013</v>
       </c>
@@ -12080,7 +12079,7 @@
       <c r="S164" s="18"/>
       <c r="T164" s="19"/>
     </row>
-    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>2013</v>
       </c>
@@ -12120,7 +12119,7 @@
       <c r="S165" s="18"/>
       <c r="T165" s="19"/>
     </row>
-    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>2013</v>
       </c>
@@ -12154,7 +12153,7 @@
       <c r="S166" s="18"/>
       <c r="T166" s="19"/>
     </row>
-    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>2013</v>
       </c>
@@ -12188,7 +12187,7 @@
       <c r="S167" s="18"/>
       <c r="T167" s="19"/>
     </row>
-    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>2013</v>
       </c>
@@ -12270,7 +12269,7 @@
       <c r="S169" s="18"/>
       <c r="T169" s="19"/>
     </row>
-    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>2014</v>
       </c>
@@ -12311,7 +12310,7 @@
       <c r="S170" s="18"/>
       <c r="T170" s="19"/>
     </row>
-    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>2014</v>
       </c>
@@ -12349,7 +12348,7 @@
       <c r="S171" s="18"/>
       <c r="T171" s="19"/>
     </row>
-    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>2014</v>
       </c>
@@ -12443,7 +12442,7 @@
       <c r="S173" s="18"/>
       <c r="T173" s="19"/>
     </row>
-    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>2014</v>
       </c>
@@ -12477,7 +12476,7 @@
       <c r="S174" s="18"/>
       <c r="T174" s="19"/>
     </row>
-    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>2014</v>
       </c>
@@ -12515,7 +12514,7 @@
       <c r="S175" s="18"/>
       <c r="T175" s="19"/>
     </row>
-    <row r="176" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>2014</v>
       </c>
@@ -12558,7 +12557,7 @@
       <c r="S176" s="18"/>
       <c r="T176" s="19"/>
     </row>
-    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>2014</v>
       </c>
@@ -12602,7 +12601,7 @@
       <c r="S177" s="18"/>
       <c r="T177" s="19"/>
     </row>
-    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>2014</v>
       </c>
@@ -12634,7 +12633,7 @@
       <c r="S178" s="18"/>
       <c r="T178" s="19"/>
     </row>
-    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>2014</v>
       </c>
@@ -12666,7 +12665,7 @@
       <c r="S179" s="18"/>
       <c r="T179" s="19"/>
     </row>
-    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>2014</v>
       </c>
@@ -12703,7 +12702,7 @@
       <c r="S180" s="18"/>
       <c r="T180" s="19"/>
     </row>
-    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>2014</v>
       </c>
@@ -12743,7 +12742,7 @@
       <c r="S181" s="18"/>
       <c r="T181" s="19"/>
     </row>
-    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>2014</v>
       </c>
@@ -12788,7 +12787,7 @@
       <c r="S182" s="18"/>
       <c r="T182" s="19"/>
     </row>
-    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>2014</v>
       </c>
@@ -12832,7 +12831,7 @@
       <c r="S183" s="18"/>
       <c r="T183" s="19"/>
     </row>
-    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>2014</v>
       </c>
@@ -12873,7 +12872,7 @@
       <c r="S184" s="18"/>
       <c r="T184" s="19"/>
     </row>
-    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>2014</v>
       </c>
@@ -12914,7 +12913,7 @@
       <c r="S185" s="18"/>
       <c r="T185" s="19"/>
     </row>
-    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
         <v>2014</v>
       </c>
@@ -12957,7 +12956,7 @@
       <c r="S186" s="18"/>
       <c r="T186" s="19"/>
     </row>
-    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
         <v>2014</v>
       </c>
@@ -13000,7 +12999,7 @@
       <c r="S187" s="18"/>
       <c r="T187" s="19"/>
     </row>
-    <row r="188" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>2014</v>
       </c>
@@ -13045,7 +13044,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="19"/>
     </row>
-    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
         <v>2014</v>
       </c>
@@ -13085,7 +13084,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="19"/>
     </row>
-    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
         <v>2014</v>
       </c>
@@ -13128,7 +13127,7 @@
       <c r="S190" s="18"/>
       <c r="T190" s="19"/>
     </row>
-    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
         <v>2014</v>
       </c>
@@ -13171,7 +13170,7 @@
       <c r="S191" s="18"/>
       <c r="T191" s="19"/>
     </row>
-    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
         <v>2014</v>
       </c>
@@ -13203,7 +13202,7 @@
       <c r="S192" s="18"/>
       <c r="T192" s="19"/>
     </row>
-    <row r="193" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>2014</v>
       </c>
@@ -13247,7 +13246,7 @@
       <c r="S193" s="18"/>
       <c r="T193" s="19"/>
     </row>
-    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
         <v>2014</v>
       </c>
@@ -13287,7 +13286,7 @@
       <c r="S194" s="18"/>
       <c r="T194" s="19"/>
     </row>
-    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
         <v>2014</v>
       </c>
@@ -13327,7 +13326,7 @@
       <c r="S195" s="18"/>
       <c r="T195" s="19"/>
     </row>
-    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
         <v>2014</v>
       </c>
@@ -13415,7 +13414,7 @@
       <c r="S197" s="18"/>
       <c r="T197" s="19"/>
     </row>
-    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>2014</v>
       </c>
@@ -13447,7 +13446,7 @@
       <c r="S198" s="18"/>
       <c r="T198" s="19"/>
     </row>
-    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>2014</v>
       </c>
@@ -13532,7 +13531,7 @@
       <c r="S200" s="18"/>
       <c r="T200" s="19"/>
     </row>
-    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
         <v>2014</v>
       </c>
@@ -13575,7 +13574,7 @@
       <c r="S201" s="18"/>
       <c r="T201" s="19"/>
     </row>
-    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>2014</v>
       </c>
@@ -13608,7 +13607,7 @@
       <c r="S202" s="18"/>
       <c r="T202" s="19"/>
     </row>
-    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
         <v>2014</v>
       </c>
@@ -13826,7 +13825,7 @@
       <c r="S207" s="18"/>
       <c r="T207" s="19"/>
     </row>
-    <row r="208" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>2014</v>
       </c>
@@ -13872,7 +13871,7 @@
       <c r="S208" s="18"/>
       <c r="T208" s="19"/>
     </row>
-    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>2014</v>
       </c>
@@ -13905,7 +13904,7 @@
       <c r="S209" s="18"/>
       <c r="T209" s="19"/>
     </row>
-    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>2014</v>
       </c>
@@ -13945,7 +13944,7 @@
       <c r="S210" s="18"/>
       <c r="T210" s="19"/>
     </row>
-    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>2014</v>
       </c>
@@ -13980,7 +13979,7 @@
       <c r="S211" s="18"/>
       <c r="T211" s="19"/>
     </row>
-    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>2014</v>
       </c>
@@ -14023,7 +14022,7 @@
       <c r="S212" s="18"/>
       <c r="T212" s="19"/>
     </row>
-    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>2014</v>
       </c>
@@ -14070,7 +14069,7 @@
       <c r="S213" s="18"/>
       <c r="T213" s="19"/>
     </row>
-    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>2014</v>
       </c>
@@ -14099,7 +14098,7 @@
       <c r="S214" s="18"/>
       <c r="T214" s="19"/>
     </row>
-    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>2014</v>
       </c>
@@ -14150,7 +14149,7 @@
       <c r="S215" s="18"/>
       <c r="T215" s="19"/>
     </row>
-    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
         <v>2014</v>
       </c>
@@ -14194,7 +14193,7 @@
       <c r="S216" s="18"/>
       <c r="T216" s="19"/>
     </row>
-    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>2014</v>
       </c>
@@ -14230,7 +14229,7 @@
       <c r="S217" s="18"/>
       <c r="T217" s="19"/>
     </row>
-    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>2014</v>
       </c>
@@ -14279,7 +14278,7 @@
       <c r="S218" s="18"/>
       <c r="T218" s="19"/>
     </row>
-    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>2014</v>
       </c>
@@ -14330,7 +14329,7 @@
       <c r="S219" s="18"/>
       <c r="T219" s="19"/>
     </row>
-    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>2014</v>
       </c>
@@ -14365,7 +14364,7 @@
       <c r="S220" s="18"/>
       <c r="T220" s="19"/>
     </row>
-    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>2014</v>
       </c>
@@ -14408,7 +14407,7 @@
       <c r="S221" s="18"/>
       <c r="T221" s="19"/>
     </row>
-    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>2014</v>
       </c>
@@ -14450,7 +14449,7 @@
       <c r="S222" s="18"/>
       <c r="T222" s="19"/>
     </row>
-    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
         <v>2014</v>
       </c>
@@ -14501,7 +14500,7 @@
       <c r="S223" s="18"/>
       <c r="T223" s="19"/>
     </row>
-    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>2014</v>
       </c>
@@ -14545,7 +14544,7 @@
       <c r="S224" s="18"/>
       <c r="T224" s="19"/>
     </row>
-    <row r="225" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>2014</v>
       </c>
@@ -14588,7 +14587,7 @@
       <c r="S225" s="18"/>
       <c r="T225" s="19"/>
     </row>
-    <row r="226" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6">
         <v>2014</v>
       </c>
@@ -14633,7 +14632,7 @@
       <c r="S226" s="18"/>
       <c r="T226" s="19"/>
     </row>
-    <row r="227" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>2014</v>
       </c>
@@ -14671,7 +14670,7 @@
       <c r="S227" s="18"/>
       <c r="T227" s="19"/>
     </row>
-    <row r="228" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
         <v>2014</v>
       </c>
@@ -14713,7 +14712,7 @@
       <c r="S228" s="18"/>
       <c r="T228" s="19"/>
     </row>
-    <row r="229" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>2014</v>
       </c>
@@ -14750,7 +14749,7 @@
       <c r="S229" s="18"/>
       <c r="T229" s="19"/>
     </row>
-    <row r="230" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>2014</v>
       </c>
@@ -14782,7 +14781,7 @@
       <c r="S230" s="18"/>
       <c r="T230" s="19"/>
     </row>
-    <row r="231" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
         <v>2015</v>
       </c>
@@ -14823,7 +14822,7 @@
       <c r="S231" s="18"/>
       <c r="T231" s="19"/>
     </row>
-    <row r="232" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>2015</v>
       </c>
@@ -14871,7 +14870,7 @@
       <c r="S232" s="18"/>
       <c r="T232" s="19"/>
     </row>
-    <row r="233" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>2015</v>
       </c>
@@ -14910,7 +14909,7 @@
       <c r="S233" s="18"/>
       <c r="T233" s="19"/>
     </row>
-    <row r="234" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>2015</v>
       </c>
@@ -14961,7 +14960,7 @@
       <c r="S234" s="18"/>
       <c r="T234" s="19"/>
     </row>
-    <row r="235" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
         <v>2015</v>
       </c>
@@ -15011,7 +15010,7 @@
       <c r="S235" s="18"/>
       <c r="T235" s="19"/>
     </row>
-    <row r="236" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>2015</v>
       </c>
@@ -15060,7 +15059,7 @@
       <c r="S236" s="18"/>
       <c r="T236" s="19"/>
     </row>
-    <row r="237" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>2015</v>
       </c>
@@ -15107,7 +15106,7 @@
       <c r="S237" s="18"/>
       <c r="T237" s="19"/>
     </row>
-    <row r="238" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6">
         <v>2015</v>
       </c>
@@ -15154,7 +15153,7 @@
       <c r="S238" s="18"/>
       <c r="T238" s="19"/>
     </row>
-    <row r="239" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>2015</v>
       </c>
@@ -15201,7 +15200,7 @@
       <c r="S239" s="18"/>
       <c r="T239" s="19"/>
     </row>
-    <row r="240" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>2015</v>
       </c>
@@ -15250,7 +15249,7 @@
       <c r="S240" s="18"/>
       <c r="T240" s="19"/>
     </row>
-    <row r="241" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>2015</v>
       </c>
@@ -15296,7 +15295,7 @@
       <c r="S241" s="18"/>
       <c r="T241" s="19"/>
     </row>
-    <row r="242" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>2015</v>
       </c>
@@ -15349,7 +15348,7 @@
       <c r="S242" s="18"/>
       <c r="T242" s="19"/>
     </row>
-    <row r="243" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
         <v>2015</v>
       </c>
@@ -15399,7 +15398,7 @@
       <c r="S243" s="18"/>
       <c r="T243" s="19"/>
     </row>
-    <row r="244" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>2015</v>
       </c>
@@ -15453,7 +15452,7 @@
       <c r="S244" s="18"/>
       <c r="T244" s="19"/>
     </row>
-    <row r="245" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
         <v>2015</v>
       </c>
@@ -15502,7 +15501,7 @@
       <c r="S245" s="18"/>
       <c r="T245" s="19"/>
     </row>
-    <row r="246" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>2015</v>
       </c>
@@ -15551,7 +15550,7 @@
       <c r="S246" s="18"/>
       <c r="T246" s="19"/>
     </row>
-    <row r="247" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
         <v>2015</v>
       </c>
@@ -15599,7 +15598,7 @@
       <c r="S247" s="18"/>
       <c r="T247" s="19"/>
     </row>
-    <row r="248" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>2015</v>
       </c>
@@ -15638,7 +15637,7 @@
       <c r="S248" s="18"/>
       <c r="T248" s="19"/>
     </row>
-    <row r="249" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>2015</v>
       </c>
@@ -15724,7 +15723,7 @@
       <c r="S250" s="18"/>
       <c r="T250" s="19"/>
     </row>
-    <row r="251" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
         <v>2015</v>
       </c>
@@ -15771,7 +15770,7 @@
       <c r="S251" s="18"/>
       <c r="T251" s="19"/>
     </row>
-    <row r="252" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>2015</v>
       </c>
@@ -15811,7 +15810,7 @@
       <c r="S252" s="18"/>
       <c r="T252" s="19"/>
     </row>
-    <row r="253" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
         <v>2015</v>
       </c>
@@ -15848,7 +15847,7 @@
       <c r="S253" s="18"/>
       <c r="T253" s="19"/>
     </row>
-    <row r="254" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>2015</v>
       </c>
@@ -15894,7 +15893,7 @@
       <c r="S254" s="18"/>
       <c r="T254" s="19"/>
     </row>
-    <row r="255" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>2015</v>
       </c>
@@ -15939,7 +15938,7 @@
       <c r="S255" s="18"/>
       <c r="T255" s="19"/>
     </row>
-    <row r="256" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>2015</v>
       </c>
@@ -15988,7 +15987,7 @@
       <c r="S256" s="18"/>
       <c r="T256" s="19"/>
     </row>
-    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>2015</v>
       </c>
@@ -16035,7 +16034,7 @@
       <c r="S257" s="18"/>
       <c r="T257" s="19"/>
     </row>
-    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>2015</v>
       </c>
@@ -16072,7 +16071,7 @@
       <c r="S258" s="18"/>
       <c r="T258" s="19"/>
     </row>
-    <row r="259" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>2015</v>
       </c>
@@ -16209,7 +16208,7 @@
       <c r="S261" s="18"/>
       <c r="T261" s="19"/>
     </row>
-    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>2015</v>
       </c>
@@ -16248,7 +16247,7 @@
       <c r="S262" s="18"/>
       <c r="T262" s="19"/>
     </row>
-    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>2015</v>
       </c>
@@ -16293,7 +16292,7 @@
       <c r="S263" s="18"/>
       <c r="T263" s="19"/>
     </row>
-    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>2015</v>
       </c>
@@ -16379,7 +16378,7 @@
       <c r="S265" s="18"/>
       <c r="T265" s="19"/>
     </row>
-    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>2015</v>
       </c>
@@ -16426,7 +16425,7 @@
       <c r="S266" s="18"/>
       <c r="T266" s="19"/>
     </row>
-    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>2015</v>
       </c>
@@ -16524,7 +16523,7 @@
       <c r="S268" s="18"/>
       <c r="T268" s="19"/>
     </row>
-    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>2015</v>
       </c>
@@ -16612,7 +16611,7 @@
       <c r="S270" s="18"/>
       <c r="T270" s="19"/>
     </row>
-    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
         <v>2015</v>
       </c>
@@ -16649,7 +16648,7 @@
       <c r="S271" s="18"/>
       <c r="T271" s="19"/>
     </row>
-    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>2015</v>
       </c>
@@ -16692,7 +16691,7 @@
       <c r="S272" s="18"/>
       <c r="T272" s="19"/>
     </row>
-    <row r="273" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>2015</v>
       </c>
@@ -16737,7 +16736,7 @@
       <c r="S273" s="18"/>
       <c r="T273" s="19"/>
     </row>
-    <row r="274" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>2015</v>
       </c>
@@ -16786,7 +16785,7 @@
       <c r="S274" s="18"/>
       <c r="T274" s="19"/>
     </row>
-    <row r="275" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>2015</v>
       </c>
@@ -16821,7 +16820,7 @@
       <c r="S275" s="18"/>
       <c r="T275" s="19"/>
     </row>
-    <row r="276" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>2015</v>
       </c>
@@ -16856,7 +16855,7 @@
       <c r="S276" s="18"/>
       <c r="T276" s="19"/>
     </row>
-    <row r="277" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>2015</v>
       </c>
@@ -16891,7 +16890,7 @@
       <c r="S277" s="18"/>
       <c r="T277" s="19"/>
     </row>
-    <row r="278" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>2015</v>
       </c>
@@ -16926,7 +16925,7 @@
       <c r="S278" s="18"/>
       <c r="T278" s="19"/>
     </row>
-    <row r="279" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>2015</v>
       </c>
@@ -16971,7 +16970,7 @@
       <c r="S279" s="18"/>
       <c r="T279" s="19"/>
     </row>
-    <row r="280" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>2015</v>
       </c>
@@ -17006,7 +17005,7 @@
       <c r="S280" s="18"/>
       <c r="T280" s="19"/>
     </row>
-    <row r="281" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>2015</v>
       </c>
@@ -17043,7 +17042,7 @@
       <c r="S281" s="18"/>
       <c r="T281" s="19"/>
     </row>
-    <row r="282" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
         <v>2015</v>
       </c>
@@ -17078,7 +17077,7 @@
       <c r="S282" s="18"/>
       <c r="T282" s="19"/>
     </row>
-    <row r="283" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>2015</v>
       </c>
@@ -17116,7 +17115,7 @@
       <c r="S283" s="18"/>
       <c r="T283" s="19"/>
     </row>
-    <row r="284" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
         <v>2015</v>
       </c>
@@ -17149,7 +17148,7 @@
       <c r="S284" s="18"/>
       <c r="T284" s="19"/>
     </row>
-    <row r="285" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
         <v>2015</v>
       </c>
@@ -17184,7 +17183,7 @@
       <c r="S285" s="18"/>
       <c r="T285" s="19"/>
     </row>
-    <row r="286" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6">
         <v>2015</v>
       </c>
@@ -17217,7 +17216,7 @@
       <c r="S286" s="18"/>
       <c r="T286" s="19"/>
     </row>
-    <row r="287" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
         <v>2015</v>
       </c>
@@ -17265,7 +17264,7 @@
       <c r="S287" s="18"/>
       <c r="T287" s="19"/>
     </row>
-    <row r="288" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6">
         <v>2015</v>
       </c>
@@ -17358,7 +17357,7 @@
       <c r="S289" s="18"/>
       <c r="T289" s="19"/>
     </row>
-    <row r="290" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
         <v>2015</v>
       </c>
@@ -17404,7 +17403,7 @@
       <c r="S290" s="18"/>
       <c r="T290" s="19"/>
     </row>
-    <row r="291" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
         <v>2015</v>
       </c>
@@ -17492,7 +17491,7 @@
       <c r="S292" s="18"/>
       <c r="T292" s="19"/>
     </row>
-    <row r="293" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
         <v>2015</v>
       </c>
@@ -17536,7 +17535,7 @@
       <c r="S293" s="18"/>
       <c r="T293" s="19"/>
     </row>
-    <row r="294" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
         <v>2015</v>
       </c>
@@ -17584,7 +17583,7 @@
       <c r="S294" s="18"/>
       <c r="T294" s="19"/>
     </row>
-    <row r="295" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
         <v>2015</v>
       </c>
@@ -17630,7 +17629,7 @@
       <c r="S295" s="18"/>
       <c r="T295" s="19"/>
     </row>
-    <row r="296" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
         <v>2015</v>
       </c>
@@ -17707,7 +17706,7 @@
       <c r="S297" s="18"/>
       <c r="T297" s="19"/>
     </row>
-    <row r="298" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6">
         <v>2015</v>
       </c>
@@ -17741,7 +17740,7 @@
       <c r="S298" s="18"/>
       <c r="T298" s="19"/>
     </row>
-    <row r="299" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6">
         <v>2015</v>
       </c>
@@ -17774,7 +17773,7 @@
       <c r="S299" s="18"/>
       <c r="T299" s="19"/>
     </row>
-    <row r="300" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6">
         <v>2015</v>
       </c>
@@ -17818,7 +17817,7 @@
       <c r="S300" s="18"/>
       <c r="T300" s="19"/>
     </row>
-    <row r="301" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
         <v>2015</v>
       </c>
@@ -17863,7 +17862,7 @@
       <c r="S301" s="18"/>
       <c r="T301" s="19"/>
     </row>
-    <row r="302" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6">
         <v>2015</v>
       </c>
@@ -17907,7 +17906,7 @@
       <c r="S302" s="18"/>
       <c r="T302" s="19"/>
     </row>
-    <row r="303" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>2015</v>
       </c>
@@ -17948,7 +17947,7 @@
       <c r="S303" s="18"/>
       <c r="T303" s="19"/>
     </row>
-    <row r="304" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
         <v>2015</v>
       </c>
@@ -18031,7 +18030,7 @@
       <c r="S305" s="18"/>
       <c r="T305" s="19"/>
     </row>
-    <row r="306" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="6">
         <v>2015</v>
       </c>
@@ -18064,7 +18063,7 @@
       <c r="S306" s="18"/>
       <c r="T306" s="19"/>
     </row>
-    <row r="307" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6">
         <v>2015</v>
       </c>
@@ -18100,7 +18099,7 @@
       <c r="S307" s="18"/>
       <c r="T307" s="19"/>
     </row>
-    <row r="308" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
         <v>2015</v>
       </c>
@@ -18133,7 +18132,7 @@
       <c r="S308" s="18"/>
       <c r="T308" s="19"/>
     </row>
-    <row r="309" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
         <v>2015</v>
       </c>
@@ -18174,7 +18173,7 @@
       <c r="S309" s="18"/>
       <c r="T309" s="19"/>
     </row>
-    <row r="310" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
         <v>2015</v>
       </c>
@@ -18209,7 +18208,7 @@
       <c r="S310" s="18"/>
       <c r="T310" s="19"/>
     </row>
-    <row r="311" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
         <v>2015</v>
       </c>
@@ -18253,7 +18252,7 @@
       <c r="S311" s="18"/>
       <c r="T311" s="19"/>
     </row>
-    <row r="312" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
         <v>2015</v>
       </c>
@@ -18297,7 +18296,7 @@
       <c r="S312" s="18"/>
       <c r="T312" s="19"/>
     </row>
-    <row r="313" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
         <v>2015</v>
       </c>
@@ -18333,7 +18332,7 @@
       <c r="S313" s="18"/>
       <c r="T313" s="19"/>
     </row>
-    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
         <v>2015</v>
       </c>
@@ -18377,7 +18376,7 @@
       <c r="S314" s="18"/>
       <c r="T314" s="19"/>
     </row>
-    <row r="315" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="6">
         <v>2015</v>
       </c>
@@ -18418,7 +18417,7 @@
       <c r="S315" s="18"/>
       <c r="T315" s="19"/>
     </row>
-    <row r="316" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="6">
         <v>2015</v>
       </c>
@@ -18459,7 +18458,7 @@
       <c r="S316" s="18"/>
       <c r="T316" s="19"/>
     </row>
-    <row r="317" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="6">
         <v>2015</v>
       </c>
@@ -18503,7 +18502,7 @@
       <c r="S317" s="18"/>
       <c r="T317" s="19"/>
     </row>
-    <row r="318" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
         <v>2016</v>
       </c>
@@ -18543,7 +18542,7 @@
       <c r="S318" s="18"/>
       <c r="T318" s="19"/>
     </row>
-    <row r="319" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
         <v>2016</v>
       </c>
@@ -18589,7 +18588,7 @@
       <c r="W319"/>
       <c r="X319" s="6"/>
     </row>
-    <row r="320" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
         <v>2016</v>
       </c>
@@ -18646,7 +18645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
         <v>2016</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
         <v>2016</v>
       </c>
@@ -18818,7 +18817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6">
         <v>2016</v>
       </c>
@@ -18883,7 +18882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6">
         <v>2016</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
         <v>2016</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
         <v>2016</v>
       </c>
@@ -19169,7 +19168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:24" s="8" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
         <v>2016</v>
       </c>
@@ -19217,7 +19216,7 @@
       <c r="W330"/>
       <c r="X330" s="6"/>
     </row>
-    <row r="331" spans="1:24" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
         <v>2016</v>
       </c>
@@ -19330,7 +19329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
         <v>2016</v>
       </c>
@@ -19388,7 +19387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:24" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
         <v>2016</v>
       </c>
@@ -19434,7 +19433,7 @@
       <c r="W334"/>
       <c r="X334" s="6"/>
     </row>
-    <row r="335" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
         <v>2016</v>
       </c>
@@ -19492,7 +19491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
         <v>2016</v>
       </c>
@@ -19550,7 +19549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:24" s="8" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
         <v>2016</v>
       </c>
@@ -19670,7 +19669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
         <v>2016</v>
       </c>
@@ -19781,7 +19780,7 @@
       <c r="S340" s="18"/>
       <c r="T340" s="19"/>
     </row>
-    <row r="341" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
         <v>2016</v>
       </c>
@@ -19831,7 +19830,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="342" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
         <v>2016</v>
       </c>
@@ -19885,7 +19884,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="343" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6">
         <v>2016</v>
       </c>
@@ -19929,7 +19928,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="344" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="6">
         <v>2016</v>
       </c>
@@ -19971,7 +19970,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="345" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6">
         <v>2016</v>
       </c>
@@ -20022,7 +20021,7 @@
       <c r="S345" s="18"/>
       <c r="T345" s="19"/>
     </row>
-    <row r="346" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6">
         <v>2016</v>
       </c>
@@ -20118,7 +20117,7 @@
       <c r="S347" s="18"/>
       <c r="T347" s="19"/>
     </row>
-    <row r="348" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6">
         <v>2016</v>
       </c>
@@ -20162,7 +20161,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="349" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6">
         <v>2016</v>
       </c>
@@ -20197,7 +20196,7 @@
       <c r="S349" s="18"/>
       <c r="T349" s="19"/>
     </row>
-    <row r="350" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="6">
         <v>2016</v>
       </c>
@@ -20235,7 +20234,7 @@
       <c r="S350" s="18"/>
       <c r="T350" s="19"/>
     </row>
-    <row r="351" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="6">
         <v>2016</v>
       </c>
@@ -20292,7 +20291,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="352" spans="1:24" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
         <v>2016</v>
       </c>
@@ -20347,7 +20346,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="353" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
         <v>2016</v>
       </c>
@@ -20391,7 +20390,7 @@
       <c r="S353" s="18"/>
       <c r="T353" s="19"/>
     </row>
-    <row r="354" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
         <v>2016</v>
       </c>
@@ -20481,7 +20480,7 @@
       <c r="S355" s="18"/>
       <c r="T355" s="19"/>
     </row>
-    <row r="356" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
         <v>2016</v>
       </c>
@@ -20525,7 +20524,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="357" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
         <v>2016</v>
       </c>
@@ -20558,7 +20557,7 @@
       <c r="S357" s="18"/>
       <c r="T357" s="19"/>
     </row>
-    <row r="358" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
         <v>2016</v>
       </c>
@@ -20600,7 +20599,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="359" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
         <v>2016</v>
       </c>
@@ -20640,7 +20639,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="360" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6">
         <v>2016</v>
       </c>
@@ -20730,7 +20729,7 @@
       <c r="S361" s="18"/>
       <c r="T361" s="19"/>
     </row>
-    <row r="362" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
         <v>2016</v>
       </c>
@@ -20783,7 +20782,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="363" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
         <v>2016</v>
       </c>
@@ -20813,7 +20812,7 @@
       <c r="S363" s="18"/>
       <c r="T363" s="19"/>
     </row>
-    <row r="364" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
         <v>2016</v>
       </c>
@@ -20843,7 +20842,7 @@
       <c r="S364" s="18"/>
       <c r="T364" s="19"/>
     </row>
-    <row r="365" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
         <v>2016</v>
       </c>
@@ -20876,7 +20875,7 @@
       <c r="S365" s="18"/>
       <c r="T365" s="19"/>
     </row>
-    <row r="366" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
         <v>2016</v>
       </c>
@@ -21001,7 +21000,7 @@
       <c r="S368" s="18"/>
       <c r="T368" s="19"/>
     </row>
-    <row r="369" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
         <v>2016</v>
       </c>
@@ -21049,7 +21048,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
         <v>2016</v>
       </c>
@@ -21099,7 +21098,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="371" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
         <v>2016</v>
       </c>
@@ -21180,7 +21179,7 @@
       <c r="S372" s="18"/>
       <c r="T372" s="19"/>
     </row>
-    <row r="373" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
         <v>2016</v>
       </c>
@@ -21218,7 +21217,7 @@
       <c r="S373" s="18"/>
       <c r="T373" s="19"/>
     </row>
-    <row r="374" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="6">
         <v>2016</v>
       </c>
@@ -21343,7 +21342,7 @@
       <c r="S376" s="18"/>
       <c r="T376" s="19"/>
     </row>
-    <row r="377" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6">
         <v>2016</v>
       </c>
@@ -21421,7 +21420,7 @@
       <c r="S378" s="18"/>
       <c r="T378" s="19"/>
     </row>
-    <row r="379" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
         <v>2016</v>
       </c>
@@ -21478,7 +21477,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="380" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
         <v>2016</v>
       </c>
@@ -21526,7 +21525,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="381" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
         <v>2016</v>
       </c>
@@ -21575,7 +21574,7 @@
       <c r="S381" s="18"/>
       <c r="T381" s="19"/>
     </row>
-    <row r="382" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
         <v>2016</v>
       </c>
@@ -21605,7 +21604,7 @@
       <c r="S382" s="18"/>
       <c r="T382" s="19"/>
     </row>
-    <row r="383" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6">
         <v>2016</v>
       </c>
@@ -21635,7 +21634,7 @@
       <c r="S383" s="18"/>
       <c r="T383" s="19"/>
     </row>
-    <row r="384" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6">
         <v>2016</v>
       </c>
@@ -21687,7 +21686,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6">
         <v>2016</v>
       </c>
@@ -21739,7 +21738,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="386" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6">
         <v>2016</v>
       </c>
@@ -21830,7 +21829,7 @@
       <c r="S387" s="18"/>
       <c r="T387" s="19"/>
     </row>
-    <row r="388" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6">
         <v>2016</v>
       </c>
@@ -21876,7 +21875,7 @@
       <c r="S388" s="18"/>
       <c r="T388" s="19"/>
     </row>
-    <row r="389" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
         <v>2016</v>
       </c>
@@ -21928,7 +21927,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
         <v>2016</v>
       </c>
@@ -22020,7 +22019,7 @@
       <c r="S391" s="18"/>
       <c r="T391" s="19"/>
     </row>
-    <row r="392" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
         <v>2016</v>
       </c>
@@ -22060,7 +22059,7 @@
       <c r="S392" s="18"/>
       <c r="T392" s="19"/>
     </row>
-    <row r="393" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
         <v>2016</v>
       </c>
@@ -22100,7 +22099,7 @@
       <c r="S393" s="18"/>
       <c r="T393" s="19"/>
     </row>
-    <row r="394" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6">
         <v>2016</v>
       </c>
@@ -22140,7 +22139,7 @@
       <c r="S394" s="18"/>
       <c r="T394" s="19"/>
     </row>
-    <row r="395" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6">
         <v>2016</v>
       </c>
@@ -22192,7 +22191,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
         <v>2017</v>
       </c>
@@ -22226,7 +22225,7 @@
       <c r="T396" s="2"/>
       <c r="U396" s="2"/>
     </row>
-    <row r="397" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
         <v>2017</v>
       </c>
@@ -22270,7 +22269,7 @@
       <c r="T397" s="2"/>
       <c r="U397" s="2"/>
     </row>
-    <row r="398" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
         <v>2017</v>
       </c>
@@ -22312,7 +22311,7 @@
       <c r="T398" s="2"/>
       <c r="U398" s="2"/>
     </row>
-    <row r="399" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>2017</v>
       </c>
@@ -22359,7 +22358,7 @@
       <c r="T399" s="2"/>
       <c r="U399" s="2"/>
     </row>
-    <row r="400" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>2017</v>
       </c>
@@ -22397,7 +22396,7 @@
       <c r="T400" s="2"/>
       <c r="U400" s="2"/>
     </row>
-    <row r="401" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>2017</v>
       </c>
@@ -22439,7 +22438,7 @@
       <c r="T401" s="2"/>
       <c r="U401" s="2"/>
     </row>
-    <row r="402" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>2017</v>
       </c>
@@ -22485,7 +22484,7 @@
       <c r="T402" s="2"/>
       <c r="U402" s="2"/>
     </row>
-    <row r="403" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>2017</v>
       </c>
@@ -22521,7 +22520,7 @@
       <c r="T403" s="2"/>
       <c r="U403" s="2"/>
     </row>
-    <row r="404" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6">
         <v>2017</v>
       </c>
@@ -22559,7 +22558,7 @@
       <c r="T404" s="2"/>
       <c r="U404" s="2"/>
     </row>
-    <row r="405" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6">
         <v>2017</v>
       </c>
@@ -22599,7 +22598,7 @@
       <c r="T405" s="2"/>
       <c r="U405" s="2"/>
     </row>
-    <row r="406" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
         <v>2017</v>
       </c>
@@ -22650,7 +22649,7 @@
       <c r="T406" s="2"/>
       <c r="U406" s="2"/>
     </row>
-    <row r="407" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
         <v>2017</v>
       </c>
@@ -22734,7 +22733,7 @@
       <c r="T408" s="2"/>
       <c r="U408" s="2"/>
     </row>
-    <row r="409" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
         <v>2017</v>
       </c>
@@ -22772,7 +22771,7 @@
       <c r="T409" s="2"/>
       <c r="U409" s="2"/>
     </row>
-    <row r="410" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
         <v>2017</v>
       </c>
@@ -22815,7 +22814,7 @@
       <c r="T410" s="2"/>
       <c r="U410" s="2"/>
     </row>
-    <row r="411" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
         <v>2017</v>
       </c>
@@ -22853,7 +22852,7 @@
       <c r="T411" s="2"/>
       <c r="U411" s="2"/>
     </row>
-    <row r="412" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
         <v>2017</v>
       </c>
@@ -22904,7 +22903,7 @@
       <c r="T412" s="2"/>
       <c r="U412" s="2"/>
     </row>
-    <row r="413" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
         <v>2017</v>
       </c>
@@ -23000,7 +22999,7 @@
       <c r="T414" s="2"/>
       <c r="U414" s="2"/>
     </row>
-    <row r="415" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>2017</v>
       </c>
@@ -23034,7 +23033,7 @@
       <c r="T415" s="2"/>
       <c r="U415" s="2"/>
     </row>
-    <row r="416" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>2017</v>
       </c>
@@ -23070,7 +23069,7 @@
       <c r="T416" s="2"/>
       <c r="U416" s="2"/>
     </row>
-    <row r="417" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
         <v>2017</v>
       </c>
@@ -23115,7 +23114,7 @@
       <c r="T417" s="2"/>
       <c r="U417" s="2"/>
     </row>
-    <row r="418" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
         <v>2017</v>
       </c>
@@ -23167,7 +23166,7 @@
       <c r="T418" s="2"/>
       <c r="U418" s="2"/>
     </row>
-    <row r="419" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>2017</v>
       </c>
@@ -23216,7 +23215,7 @@
       <c r="T419" s="2"/>
       <c r="U419" s="2"/>
     </row>
-    <row r="420" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>2017</v>
       </c>
@@ -23260,7 +23259,7 @@
       <c r="T420" s="2"/>
       <c r="U420" s="2"/>
     </row>
-    <row r="421" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
         <v>2017</v>
       </c>
@@ -23352,7 +23351,7 @@
       <c r="T422" s="2"/>
       <c r="U422" s="2"/>
     </row>
-    <row r="423" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>2017</v>
       </c>
@@ -23386,7 +23385,7 @@
       <c r="T423" s="2"/>
       <c r="U423" s="2"/>
     </row>
-    <row r="424" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
         <v>2017</v>
       </c>
@@ -23430,7 +23429,7 @@
       <c r="T424" s="2"/>
       <c r="U424" s="2"/>
     </row>
-    <row r="425" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>2017</v>
       </c>
@@ -23474,7 +23473,7 @@
       <c r="T425" s="2"/>
       <c r="U425" s="2"/>
     </row>
-    <row r="426" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>2017</v>
       </c>
@@ -23508,7 +23507,7 @@
       <c r="T426" s="2"/>
       <c r="U426" s="2"/>
     </row>
-    <row r="427" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>2017</v>
       </c>
@@ -23542,7 +23541,7 @@
       <c r="T427" s="2"/>
       <c r="U427" s="2"/>
     </row>
-    <row r="428" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>2017</v>
       </c>
@@ -23591,7 +23590,7 @@
       <c r="T428" s="2"/>
       <c r="U428" s="2"/>
     </row>
-    <row r="429" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>2017</v>
       </c>
@@ -23632,7 +23631,7 @@
       <c r="T429" s="2"/>
       <c r="U429" s="2"/>
     </row>
-    <row r="430" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>2017</v>
       </c>
@@ -23683,7 +23682,7 @@
       <c r="T430" s="2"/>
       <c r="U430" s="2"/>
     </row>
-    <row r="431" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>2017</v>
       </c>
@@ -23730,7 +23729,7 @@
       <c r="T431" s="2"/>
       <c r="U431" s="2"/>
     </row>
-    <row r="432" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>2017</v>
       </c>
@@ -23768,7 +23767,7 @@
       <c r="T432" s="2"/>
       <c r="U432" s="2"/>
     </row>
-    <row r="433" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>2017</v>
       </c>
@@ -23815,7 +23814,7 @@
       <c r="T433" s="2"/>
       <c r="U433" s="2"/>
     </row>
-    <row r="434" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="6">
         <v>2017</v>
       </c>
@@ -23856,7 +23855,7 @@
       <c r="T434" s="2"/>
       <c r="U434" s="2"/>
     </row>
-    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="6">
         <v>2018</v>
       </c>
@@ -23903,7 +23902,7 @@
       <c r="T435" s="2"/>
       <c r="U435" s="2"/>
     </row>
-    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="6">
         <v>2018</v>
       </c>
@@ -23954,7 +23953,7 @@
       <c r="T436" s="2"/>
       <c r="U436" s="2"/>
     </row>
-    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="6">
         <v>2018</v>
       </c>
@@ -24056,7 +24055,7 @@
       <c r="T438" s="2"/>
       <c r="U438" s="2"/>
     </row>
-    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2018</v>
       </c>
@@ -24109,7 +24108,7 @@
       <c r="T439" s="2"/>
       <c r="U439" s="2"/>
     </row>
-    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>2018</v>
       </c>
@@ -24154,7 +24153,7 @@
       <c r="T440" s="2"/>
       <c r="U440" s="2"/>
     </row>
-    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>2018</v>
       </c>
@@ -24203,7 +24202,7 @@
       <c r="T441" s="2"/>
       <c r="U441" s="2"/>
     </row>
-    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
         <v>2018</v>
       </c>
@@ -24299,7 +24298,7 @@
       <c r="T443" s="2"/>
       <c r="U443" s="2"/>
     </row>
-    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>2018</v>
       </c>
@@ -24336,7 +24335,7 @@
       <c r="T444" s="2"/>
       <c r="U444" s="2"/>
     </row>
-    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>2018</v>
       </c>
@@ -24385,7 +24384,7 @@
       <c r="T445" s="2"/>
       <c r="U445" s="2"/>
     </row>
-    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
         <v>2018</v>
       </c>
@@ -24434,7 +24433,7 @@
       <c r="T446" s="2"/>
       <c r="U446" s="2"/>
     </row>
-    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>2018</v>
       </c>
@@ -24479,7 +24478,7 @@
       <c r="T447" s="2"/>
       <c r="U447" s="2"/>
     </row>
-    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>2018</v>
       </c>
@@ -24526,7 +24525,7 @@
       <c r="T448" s="2"/>
       <c r="U448" s="2"/>
     </row>
-    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>2018</v>
       </c>
@@ -24616,7 +24615,7 @@
       <c r="T450" s="2"/>
       <c r="U450" s="2"/>
     </row>
-    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>2018</v>
       </c>
@@ -24653,7 +24652,7 @@
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>2018</v>
       </c>
@@ -24702,7 +24701,7 @@
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="6">
         <v>2018</v>
       </c>
@@ -24749,7 +24748,7 @@
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
         <v>2018</v>
       </c>
@@ -24786,7 +24785,7 @@
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
         <v>2018</v>
       </c>
@@ -24833,7 +24832,7 @@
       <c r="T455" s="2"/>
       <c r="U455" s="2"/>
     </row>
-    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>2018</v>
       </c>
@@ -24929,7 +24928,7 @@
       <c r="T457" s="2"/>
       <c r="U457" s="2"/>
     </row>
-    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="6">
         <v>2018</v>
       </c>
@@ -25013,7 +25012,7 @@
       <c r="T459" s="2"/>
       <c r="U459" s="2"/>
     </row>
-    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="6">
         <v>2018</v>
       </c>
@@ -25054,7 +25053,7 @@
       <c r="T460" s="2"/>
       <c r="U460" s="2"/>
     </row>
-    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="6">
         <v>2018</v>
       </c>
@@ -25150,7 +25149,7 @@
       <c r="T462" s="2"/>
       <c r="U462" s="2"/>
     </row>
-    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="6">
         <v>2018</v>
       </c>
@@ -25199,7 +25198,7 @@
       <c r="T463" s="2"/>
       <c r="U463" s="2"/>
     </row>
-    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="6">
         <v>2018</v>
       </c>
@@ -25252,7 +25251,7 @@
       <c r="T464" s="2"/>
       <c r="U464" s="2"/>
     </row>
-    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="6">
         <v>2018</v>
       </c>
@@ -25305,7 +25304,7 @@
       <c r="T465" s="2"/>
       <c r="U465" s="2"/>
     </row>
-    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="6">
         <v>2018</v>
       </c>
@@ -25354,7 +25353,7 @@
       <c r="T466" s="2"/>
       <c r="U466" s="2"/>
     </row>
-    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="6">
         <v>2018</v>
       </c>
@@ -25397,7 +25396,7 @@
       <c r="T467" s="2"/>
       <c r="U467" s="2"/>
     </row>
-    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
         <v>2018</v>
       </c>
@@ -25591,7 +25590,7 @@
       <c r="T471" s="2"/>
       <c r="U471" s="2"/>
     </row>
-    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
         <v>2018</v>
       </c>
@@ -25636,7 +25635,7 @@
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="6">
         <v>2018</v>
       </c>
@@ -25683,7 +25682,7 @@
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="6">
         <v>2018</v>
       </c>
@@ -25726,7 +25725,7 @@
       <c r="T474" s="2"/>
       <c r="U474" s="2"/>
     </row>
-    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="6">
         <v>2018</v>
       </c>
@@ -25773,7 +25772,7 @@
       <c r="T475" s="2"/>
       <c r="U475" s="2"/>
     </row>
-    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="6">
         <v>2018</v>
       </c>
@@ -25822,7 +25821,7 @@
       <c r="T476" s="2"/>
       <c r="U476" s="2"/>
     </row>
-    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="6">
         <v>2018</v>
       </c>
@@ -25869,7 +25868,7 @@
       <c r="T477" s="2"/>
       <c r="U477" s="2"/>
     </row>
-    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="6">
         <v>2018</v>
       </c>
@@ -25965,7 +25964,7 @@
       <c r="T479" s="2"/>
       <c r="U479" s="2"/>
     </row>
-    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
         <v>2018</v>
       </c>
@@ -26006,7 +26005,7 @@
       <c r="T480" s="2"/>
       <c r="U480" s="2"/>
     </row>
-    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="6">
         <v>2018</v>
       </c>
@@ -26047,7 +26046,7 @@
       <c r="T481" s="2"/>
       <c r="U481" s="2"/>
     </row>
-    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="6">
         <v>2018</v>
       </c>
@@ -26098,7 +26097,7 @@
       <c r="T482" s="2"/>
       <c r="U482" s="2"/>
     </row>
-    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="6">
         <v>2018</v>
       </c>
@@ -26145,7 +26144,7 @@
       <c r="T483" s="2"/>
       <c r="U483" s="2"/>
     </row>
-    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="6">
         <v>2018</v>
       </c>
@@ -26243,7 +26242,7 @@
       <c r="T485" s="2"/>
       <c r="U485" s="2"/>
     </row>
-    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="6">
         <v>2018</v>
       </c>
@@ -26345,7 +26344,7 @@
       <c r="T487" s="2"/>
       <c r="U487" s="2"/>
     </row>
-    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="6">
         <v>2018</v>
       </c>
@@ -26445,7 +26444,7 @@
       <c r="T489" s="2"/>
       <c r="U489" s="2"/>
     </row>
-    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="6">
         <v>2018</v>
       </c>
@@ -26496,7 +26495,7 @@
       <c r="T490" s="2"/>
       <c r="U490" s="2"/>
     </row>
-    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="6">
         <v>2018</v>
       </c>
@@ -26543,7 +26542,7 @@
       <c r="T491" s="2"/>
       <c r="U491" s="2"/>
     </row>
-    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="6">
         <v>2018</v>
       </c>
@@ -26588,7 +26587,7 @@
       <c r="T492" s="2"/>
       <c r="U492" s="2"/>
     </row>
-    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="6">
         <v>2018</v>
       </c>
@@ -26684,7 +26683,7 @@
       <c r="T494" s="2"/>
       <c r="U494" s="2"/>
     </row>
-    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="6">
         <v>2018</v>
       </c>
@@ -26719,7 +26718,7 @@
       <c r="T495" s="2"/>
       <c r="U495" s="2"/>
     </row>
-    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="6">
         <v>2018</v>
       </c>
@@ -26764,7 +26763,7 @@
       <c r="T496" s="2"/>
       <c r="U496" s="2"/>
     </row>
-    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="6">
         <v>2018</v>
       </c>
@@ -26803,7 +26802,7 @@
       <c r="T497" s="2"/>
       <c r="U497" s="2"/>
     </row>
-    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
         <v>2018</v>
       </c>
@@ -26850,7 +26849,7 @@
       <c r="T498" s="2"/>
       <c r="U498" s="2"/>
     </row>
-    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
         <v>2018</v>
       </c>
@@ -26895,7 +26894,7 @@
       <c r="T499" s="2"/>
       <c r="U499" s="2"/>
     </row>
-    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
         <v>2018</v>
       </c>
@@ -26936,7 +26935,7 @@
       <c r="T500" s="2"/>
       <c r="U500" s="2"/>
     </row>
-    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="6">
         <v>2018</v>
       </c>
@@ -26971,7 +26970,7 @@
       <c r="T501" s="2"/>
       <c r="U501" s="2"/>
     </row>
-    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="6">
         <v>2018</v>
       </c>
@@ -27010,7 +27009,7 @@
       <c r="T502" s="2"/>
       <c r="U502" s="2"/>
     </row>
-    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="6">
         <v>2018</v>
       </c>
@@ -27051,7 +27050,7 @@
       <c r="T503" s="2"/>
       <c r="U503" s="2"/>
     </row>
-    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="6">
         <v>2018</v>
       </c>
@@ -27090,7 +27089,7 @@
       <c r="T504" s="2"/>
       <c r="U504" s="2"/>
     </row>
-    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A505" s="6">
         <v>2018</v>
       </c>
@@ -27133,7 +27132,7 @@
       <c r="T505" s="2"/>
       <c r="U505" s="2"/>
     </row>
-    <row r="506" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6">
         <v>2018</v>
       </c>
@@ -27213,7 +27212,7 @@
       <c r="T507" s="2"/>
       <c r="U507" s="2"/>
     </row>
-    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="6">
         <v>2018</v>
       </c>
@@ -27254,7 +27253,7 @@
       <c r="T508" s="2"/>
       <c r="U508" s="2"/>
     </row>
-    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="6">
         <v>2018</v>
       </c>
@@ -27299,7 +27298,7 @@
       <c r="T509" s="2"/>
       <c r="U509" s="2"/>
     </row>
-    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="6">
         <v>2018</v>
       </c>
@@ -27334,7 +27333,7 @@
       <c r="T510" s="2"/>
       <c r="U510" s="2"/>
     </row>
-    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="6">
         <v>2018</v>
       </c>
@@ -27377,7 +27376,7 @@
       <c r="T511" s="2"/>
       <c r="U511" s="2"/>
     </row>
-    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="6">
         <v>2018</v>
       </c>
@@ -27416,7 +27415,7 @@
       <c r="T512" s="2"/>
       <c r="U512" s="2"/>
     </row>
-    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="6">
         <v>2018</v>
       </c>
@@ -27451,7 +27450,7 @@
       <c r="T513" s="2"/>
       <c r="U513" s="2"/>
     </row>
-    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="6">
         <v>2018</v>
       </c>
@@ -27498,7 +27497,7 @@
       <c r="T514" s="2"/>
       <c r="U514" s="2"/>
     </row>
-    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="6">
         <v>2018</v>
       </c>
@@ -27537,7 +27536,7 @@
       <c r="T515" s="2"/>
       <c r="U515" s="2"/>
     </row>
-    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="6">
         <v>2018</v>
       </c>
@@ -27574,7 +27573,7 @@
       <c r="T516" s="2"/>
       <c r="U516" s="2"/>
     </row>
-    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="6">
         <v>2018</v>
       </c>
@@ -27608,7 +27607,7 @@
       <c r="T517" s="2"/>
       <c r="U517" s="2"/>
     </row>
-    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="6">
         <v>2018</v>
       </c>
@@ -27649,7 +27648,7 @@
       <c r="T518" s="2"/>
       <c r="U518" s="2"/>
     </row>
-    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="6">
         <v>2018</v>
       </c>
@@ -27737,7 +27736,7 @@
       <c r="T520" s="2"/>
       <c r="U520" s="2"/>
     </row>
-    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="6">
         <v>2018</v>
       </c>
@@ -27774,7 +27773,7 @@
       <c r="T521" s="2"/>
       <c r="U521" s="2"/>
     </row>
-    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A522" s="6">
         <v>2018</v>
       </c>
@@ -27808,7 +27807,7 @@
       <c r="T522" s="2"/>
       <c r="U522" s="2"/>
     </row>
-    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>2018</v>
       </c>
@@ -27846,7 +27845,7 @@
       <c r="T523" s="2"/>
       <c r="U523" s="2"/>
     </row>
-    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="6">
         <v>2018</v>
       </c>
@@ -27887,7 +27886,7 @@
       <c r="T524" s="2"/>
       <c r="U524" s="2"/>
     </row>
-    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>2018</v>
       </c>
@@ -27928,7 +27927,7 @@
       <c r="T525" s="2"/>
       <c r="U525" s="2"/>
     </row>
-    <row r="526" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
         <v>2019</v>
       </c>
@@ -27973,7 +27972,7 @@
       <c r="T526" s="2"/>
       <c r="U526" s="2"/>
     </row>
-    <row r="527" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
         <v>2019</v>
       </c>
@@ -28018,7 +28017,7 @@
       <c r="T527" s="2"/>
       <c r="U527" s="2"/>
     </row>
-    <row r="528" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="6">
         <v>2019</v>
       </c>
@@ -28061,7 +28060,7 @@
       <c r="T528" s="2"/>
       <c r="U528" s="2"/>
     </row>
-    <row r="529" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A529" s="6">
         <v>2019</v>
       </c>
@@ -28106,7 +28105,7 @@
       <c r="T529" s="2"/>
       <c r="U529" s="2"/>
     </row>
-    <row r="530" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
         <v>2019</v>
       </c>
@@ -28149,7 +28148,7 @@
       <c r="T530" s="2"/>
       <c r="U530" s="2"/>
     </row>
-    <row r="531" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="6">
         <v>2019</v>
       </c>
@@ -28194,7 +28193,7 @@
       <c r="T531" s="2"/>
       <c r="U531" s="2"/>
     </row>
-    <row r="532" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="6">
         <v>2019</v>
       </c>
@@ -28239,7 +28238,7 @@
       <c r="T532" s="2"/>
       <c r="U532" s="2"/>
     </row>
-    <row r="533" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" s="6">
         <v>2019</v>
       </c>
@@ -28282,7 +28281,7 @@
       <c r="T533" s="2"/>
       <c r="U533" s="2"/>
     </row>
-    <row r="534" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
         <v>2019</v>
       </c>
@@ -28325,7 +28324,7 @@
       <c r="T534" s="2"/>
       <c r="U534" s="2"/>
     </row>
-    <row r="535" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" s="6">
         <v>2019</v>
       </c>
@@ -28368,7 +28367,7 @@
       <c r="T535" s="2"/>
       <c r="U535" s="2"/>
     </row>
-    <row r="536" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
         <v>2019</v>
       </c>
@@ -28411,7 +28410,7 @@
       <c r="T536" s="2"/>
       <c r="U536" s="2"/>
     </row>
-    <row r="537" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
         <v>2019</v>
       </c>
@@ -28456,7 +28455,7 @@
       <c r="T537" s="2"/>
       <c r="U537" s="2"/>
     </row>
-    <row r="538" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
         <v>2019</v>
       </c>
@@ -28499,7 +28498,7 @@
       <c r="T538" s="2"/>
       <c r="U538" s="2"/>
     </row>
-    <row r="539" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
         <v>2019</v>
       </c>
@@ -28542,7 +28541,7 @@
       <c r="T539" s="2"/>
       <c r="U539" s="2"/>
     </row>
-    <row r="540" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" s="6">
         <v>2019</v>
       </c>
@@ -28585,7 +28584,7 @@
       <c r="T540" s="2"/>
       <c r="U540" s="2"/>
     </row>
-    <row r="541" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
         <v>2019</v>
       </c>
@@ -28628,7 +28627,7 @@
       <c r="T541" s="2"/>
       <c r="U541" s="2"/>
     </row>
-    <row r="542" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
         <v>2019</v>
       </c>
@@ -28671,7 +28670,7 @@
       <c r="T542" s="2"/>
       <c r="U542" s="2"/>
     </row>
-    <row r="543" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
         <v>2019</v>
       </c>
@@ -28714,7 +28713,7 @@
       <c r="T543" s="2"/>
       <c r="U543" s="2"/>
     </row>
-    <row r="544" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="6">
         <v>2019</v>
       </c>
@@ -28757,7 +28756,7 @@
       <c r="T544" s="2"/>
       <c r="U544" s="2"/>
     </row>
-    <row r="545" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="6">
         <v>2019</v>
       </c>
@@ -28800,7 +28799,7 @@
       <c r="T545" s="2"/>
       <c r="U545" s="2"/>
     </row>
-    <row r="546" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="6">
         <v>2019</v>
       </c>
@@ -28845,7 +28844,7 @@
       <c r="T546" s="2"/>
       <c r="U546" s="2"/>
     </row>
-    <row r="547" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="6">
         <v>2019</v>
       </c>
@@ -28888,7 +28887,7 @@
       <c r="T547" s="2"/>
       <c r="U547" s="2"/>
     </row>
-    <row r="548" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="6">
         <v>2019</v>
       </c>
@@ -28931,7 +28930,7 @@
       <c r="T548" s="2"/>
       <c r="U548" s="2"/>
     </row>
-    <row r="549" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" s="6">
         <v>2019</v>
       </c>
@@ -28974,7 +28973,7 @@
       <c r="T549" s="2"/>
       <c r="U549" s="2"/>
     </row>
-    <row r="550" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>2019</v>
       </c>
@@ -29019,7 +29018,7 @@
       <c r="T550" s="2"/>
       <c r="U550" s="2"/>
     </row>
-    <row r="551" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" s="6">
         <v>2019</v>
       </c>
@@ -29062,7 +29061,7 @@
       <c r="T551" s="2"/>
       <c r="U551" s="2"/>
     </row>
-    <row r="552" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" s="6">
         <v>2019</v>
       </c>
@@ -29105,7 +29104,7 @@
       <c r="T552" s="2"/>
       <c r="U552" s="2"/>
     </row>
-    <row r="553" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" s="6">
         <v>2019</v>
       </c>
@@ -29148,7 +29147,7 @@
       <c r="T553" s="2"/>
       <c r="U553" s="2"/>
     </row>
-    <row r="554" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
         <v>2019</v>
       </c>
@@ -29191,7 +29190,7 @@
       <c r="T554" s="2"/>
       <c r="U554" s="2"/>
     </row>
-    <row r="555" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="6">
         <v>2019</v>
       </c>
@@ -29236,7 +29235,7 @@
       <c r="T555" s="2"/>
       <c r="U555" s="2"/>
     </row>
-    <row r="556" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="6">
         <v>2019</v>
       </c>
@@ -29281,7 +29280,7 @@
       <c r="T556" s="2"/>
       <c r="U556" s="2"/>
     </row>
-    <row r="557" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="6">
         <v>2019</v>
       </c>
@@ -29324,7 +29323,7 @@
       <c r="T557" s="2"/>
       <c r="U557" s="2"/>
     </row>
-    <row r="558" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="6">
         <v>2019</v>
       </c>
@@ -29367,7 +29366,7 @@
       <c r="T558" s="2"/>
       <c r="U558" s="2"/>
     </row>
-    <row r="559" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
         <v>2019</v>
       </c>
@@ -29410,7 +29409,7 @@
       <c r="T559" s="2"/>
       <c r="U559" s="2"/>
     </row>
-    <row r="560" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
         <v>2019</v>
       </c>
@@ -29453,7 +29452,7 @@
       <c r="T560" s="2"/>
       <c r="U560" s="2"/>
     </row>
-    <row r="561" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
         <v>2019</v>
       </c>
@@ -29496,7 +29495,7 @@
       <c r="T561" s="2"/>
       <c r="U561" s="2"/>
     </row>
-    <row r="562" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
         <v>2019</v>
       </c>
@@ -29537,7 +29536,7 @@
       <c r="T562" s="2"/>
       <c r="U562" s="2"/>
     </row>
-    <row r="563" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
         <v>2019</v>
       </c>
@@ -29578,7 +29577,7 @@
       <c r="T563" s="2"/>
       <c r="U563" s="2"/>
     </row>
-    <row r="564" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
         <v>2019</v>
       </c>
@@ -29619,7 +29618,7 @@
       <c r="T564" s="2"/>
       <c r="U564" s="2"/>
     </row>
-    <row r="565" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
         <v>2019</v>
       </c>
@@ -29660,7 +29659,7 @@
       <c r="T565" s="2"/>
       <c r="U565" s="2"/>
     </row>
-    <row r="566" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
         <v>2019</v>
       </c>
@@ -29701,7 +29700,7 @@
       <c r="T566" s="2"/>
       <c r="U566" s="2"/>
     </row>
-    <row r="567" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="6">
         <v>2019</v>
       </c>
@@ -29742,7 +29741,7 @@
       <c r="T567" s="2"/>
       <c r="U567" s="2"/>
     </row>
-    <row r="568" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="6">
         <v>2019</v>
       </c>
@@ -29783,7 +29782,7 @@
       <c r="T568" s="2"/>
       <c r="U568" s="2"/>
     </row>
-    <row r="569" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>2019</v>
       </c>
@@ -29824,7 +29823,7 @@
       <c r="T569" s="2"/>
       <c r="U569" s="2"/>
     </row>
-    <row r="570" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A570" s="6">
         <v>2019</v>
       </c>
@@ -29867,7 +29866,7 @@
       <c r="T570" s="2"/>
       <c r="U570" s="2"/>
     </row>
-    <row r="571" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
         <v>2019</v>
       </c>
@@ -29908,7 +29907,7 @@
       <c r="T571" s="2"/>
       <c r="U571" s="2"/>
     </row>
-    <row r="572" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>2019</v>
       </c>
@@ -29949,7 +29948,7 @@
       <c r="T572" s="2"/>
       <c r="U572" s="2"/>
     </row>
-    <row r="573" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A573" s="6">
         <v>2019</v>
       </c>
@@ -29992,7 +29991,7 @@
       <c r="T573" s="2"/>
       <c r="U573" s="2"/>
     </row>
-    <row r="574" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
         <v>2019</v>
       </c>
@@ -30033,7 +30032,7 @@
       <c r="T574" s="2"/>
       <c r="U574" s="2"/>
     </row>
-    <row r="575" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
         <v>2019</v>
       </c>
@@ -30076,7 +30075,7 @@
       <c r="T575" s="2"/>
       <c r="U575" s="2"/>
     </row>
-    <row r="576" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
         <v>2019</v>
       </c>
@@ -30119,7 +30118,7 @@
       <c r="T576" s="2"/>
       <c r="U576" s="2"/>
     </row>
-    <row r="577" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
         <v>2019</v>
       </c>
@@ -30162,7 +30161,7 @@
       <c r="T577" s="2"/>
       <c r="U577" s="2"/>
     </row>
-    <row r="578" spans="1:21" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:21" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="6">
         <v>2019</v>
       </c>
@@ -30203,7 +30202,7 @@
       <c r="T578" s="2"/>
       <c r="U578" s="2"/>
     </row>
-    <row r="579" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
         <v>2022</v>
       </c>
@@ -30248,7 +30247,7 @@
       <c r="T579" s="10"/>
       <c r="U579" s="7"/>
     </row>
-    <row r="580" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
         <v>2022</v>
       </c>
@@ -30299,7 +30298,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="581" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
         <v>2022</v>
       </c>
@@ -30338,7 +30337,7 @@
       <c r="T581" s="10"/>
       <c r="U581" s="7"/>
     </row>
-    <row r="582" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
         <v>2022</v>
       </c>
@@ -30379,7 +30378,7 @@
       <c r="T582" s="10"/>
       <c r="U582" s="7"/>
     </row>
-    <row r="583" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
         <v>2022</v>
       </c>
@@ -30432,7 +30431,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="584" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
         <v>2022</v>
       </c>
@@ -30542,7 +30541,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="586" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6">
         <v>2022</v>
       </c>
@@ -30587,7 +30586,7 @@
       <c r="T586" s="10"/>
       <c r="U586" s="7"/>
     </row>
-    <row r="587" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6">
         <v>2022</v>
       </c>
@@ -30634,7 +30633,7 @@
       <c r="T587" s="10"/>
       <c r="U587" s="7"/>
     </row>
-    <row r="588" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
         <v>2022</v>
       </c>
@@ -30681,7 +30680,7 @@
       <c r="T588" s="10"/>
       <c r="U588" s="7"/>
     </row>
-    <row r="589" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
         <v>2022</v>
       </c>
@@ -30726,7 +30725,7 @@
       <c r="T589" s="10"/>
       <c r="U589" s="7"/>
     </row>
-    <row r="590" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
         <v>2022</v>
       </c>
@@ -30773,7 +30772,7 @@
       <c r="T590" s="10"/>
       <c r="U590" s="7"/>
     </row>
-    <row r="591" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
         <v>2022</v>
       </c>
@@ -30822,7 +30821,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="592" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
         <v>2022</v>
       </c>
@@ -30877,7 +30876,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="593" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
         <v>2022</v>
       </c>
@@ -30932,7 +30931,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="594" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
         <v>2022</v>
       </c>
@@ -31040,7 +31039,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="596" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
         <v>2022</v>
       </c>
@@ -31085,7 +31084,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="597" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
         <v>2022</v>
       </c>
@@ -31130,7 +31129,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="598" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
         <v>2022</v>
       </c>
@@ -31169,7 +31168,7 @@
       <c r="T598" s="10"/>
       <c r="U598" s="7"/>
     </row>
-    <row r="599" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
         <v>2022</v>
       </c>
@@ -31216,7 +31215,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="600" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6">
         <v>2022</v>
       </c>
@@ -31261,7 +31260,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="601" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6">
         <v>2022</v>
       </c>
@@ -31306,7 +31305,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="602" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
         <v>2022</v>
       </c>
@@ -31351,7 +31350,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="603" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
         <v>2022</v>
       </c>
@@ -31449,7 +31448,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="605" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
         <v>2022</v>
       </c>
@@ -31553,7 +31552,7 @@
       <c r="T606" s="10"/>
       <c r="U606" s="7"/>
     </row>
-    <row r="607" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
         <v>2022</v>
       </c>
@@ -31594,7 +31593,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="608" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
         <v>2022</v>
       </c>
@@ -31635,7 +31634,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="609" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
         <v>2022</v>
       </c>
@@ -31676,7 +31675,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="610" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
         <v>2022</v>
       </c>
@@ -31711,7 +31710,7 @@
       <c r="T610" s="10"/>
       <c r="U610" s="7"/>
     </row>
-    <row r="611" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
         <v>2022</v>
       </c>
@@ -31752,7 +31751,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="612" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
         <v>2022</v>
       </c>
@@ -31793,7 +31792,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="613" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
         <v>2022</v>
       </c>
@@ -31889,7 +31888,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="615" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
         <v>2022</v>
       </c>
@@ -31924,7 +31923,7 @@
       <c r="T615" s="10"/>
       <c r="U615" s="7"/>
     </row>
-    <row r="616" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
         <v>2022</v>
       </c>
@@ -31961,7 +31960,7 @@
       <c r="T616" s="10"/>
       <c r="U616" s="7"/>
     </row>
-    <row r="617" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
         <v>2022</v>
       </c>
@@ -32051,7 +32050,7 @@
       <c r="T618" s="10"/>
       <c r="U618" s="7"/>
     </row>
-    <row r="619" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
         <v>2022</v>
       </c>
@@ -32096,7 +32095,7 @@
       <c r="T619" s="10"/>
       <c r="U619" s="7"/>
     </row>
-    <row r="620" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
         <v>2022</v>
       </c>
@@ -32245,7 +32244,7 @@
       <c r="T622" s="10"/>
       <c r="U622" s="7"/>
     </row>
-    <row r="623" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
         <v>2022</v>
       </c>
@@ -32298,7 +32297,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="624" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
         <v>2022</v>
       </c>
@@ -32510,7 +32509,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="628" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
         <v>2022</v>
       </c>
@@ -32604,7 +32603,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="630" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6">
         <v>2022</v>
       </c>
@@ -32712,7 +32711,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="632" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
         <v>2022</v>
       </c>
@@ -32759,7 +32758,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="633" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
         <v>2022</v>
       </c>
@@ -32800,7 +32799,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="634" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
         <v>2022</v>
       </c>
@@ -32910,7 +32909,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="636" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
         <v>2022</v>
       </c>
@@ -32961,7 +32960,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="637" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
         <v>2022</v>
       </c>
@@ -33116,7 +33115,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="640" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
         <v>2022</v>
       </c>
@@ -33167,7 +33166,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="641" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
         <v>2022</v>
       </c>
@@ -33277,7 +33276,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="643" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
         <v>2022</v>
       </c>
@@ -33318,7 +33317,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="644" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
         <v>2022</v>
       </c>
@@ -33367,7 +33366,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="645" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
         <v>2022</v>
       </c>
@@ -33416,7 +33415,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="646" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
         <v>2022</v>
       </c>
@@ -33457,7 +33456,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="647" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
         <v>2022</v>
       </c>
@@ -33506,7 +33505,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="648" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
         <v>2022</v>
       </c>
@@ -33553,7 +33552,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="649" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
         <v>2022</v>
       </c>
@@ -33647,7 +33646,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="651" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
         <v>2022</v>
       </c>
@@ -33686,7 +33685,7 @@
       <c r="T651" s="10"/>
       <c r="U651" s="7"/>
     </row>
-    <row r="652" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
         <v>2022</v>
       </c>
@@ -33729,7 +33728,7 @@
       <c r="T652" s="10"/>
       <c r="U652" s="7"/>
     </row>
-    <row r="653" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
         <v>2022</v>
       </c>
@@ -33811,7 +33810,7 @@
       <c r="T654" s="10"/>
       <c r="U654" s="7"/>
     </row>
-    <row r="655" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
         <v>2022</v>
       </c>
@@ -33854,7 +33853,7 @@
       <c r="T655" s="10"/>
       <c r="U655" s="7"/>
     </row>
-    <row r="656" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
         <v>2022</v>
       </c>
@@ -33934,7 +33933,7 @@
       <c r="T657" s="10"/>
       <c r="U657" s="7"/>
     </row>
-    <row r="658" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
         <v>2022</v>
       </c>
@@ -34022,7 +34021,7 @@
       <c r="T659" s="10"/>
       <c r="U659" s="7"/>
     </row>
-    <row r="660" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
         <v>2022</v>
       </c>
@@ -34116,7 +34115,7 @@
       <c r="T661" s="10"/>
       <c r="U661" s="7"/>
     </row>
-    <row r="662" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
         <v>2022</v>
       </c>
@@ -34341,7 +34340,7 @@
       <c r="T666" s="10"/>
       <c r="U666" s="7"/>
     </row>
-    <row r="667" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
         <v>2022</v>
       </c>
@@ -34382,7 +34381,7 @@
       <c r="T667" s="10"/>
       <c r="U667" s="7"/>
     </row>
-    <row r="668" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
         <v>2022</v>
       </c>
@@ -34425,7 +34424,7 @@
       <c r="T668" s="10"/>
       <c r="U668" s="7"/>
     </row>
-    <row r="669" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
         <v>2022</v>
       </c>
@@ -34466,7 +34465,7 @@
       <c r="T669" s="10"/>
       <c r="U669" s="7"/>
     </row>
-    <row r="670" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
         <v>2022</v>
       </c>
@@ -34511,7 +34510,7 @@
       <c r="T670" s="10"/>
       <c r="U670" s="7"/>
     </row>
-    <row r="671" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
         <v>2022</v>
       </c>
@@ -34605,7 +34604,7 @@
       <c r="T672" s="10"/>
       <c r="U672" s="7"/>
     </row>
-    <row r="673" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
         <v>2022</v>
       </c>
@@ -34648,7 +34647,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="674" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
         <v>2022</v>
       </c>
@@ -34697,7 +34696,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="675" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
         <v>2022</v>
       </c>
@@ -34744,7 +34743,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="676" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
         <v>2022</v>
       </c>
@@ -34791,7 +34790,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="677" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
         <v>2022</v>
       </c>
@@ -34838,7 +34837,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="678" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -34935,7 +34934,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="680" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="11">
         <v>2023</v>
       </c>
@@ -34991,7 +34990,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="681" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="11">
         <v>2023</v>
       </c>
@@ -35047,7 +35046,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="682" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="11">
         <v>2023</v>
       </c>
@@ -35101,7 +35100,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="683" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="11">
         <v>2023</v>
       </c>
@@ -35157,7 +35156,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="684" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="11">
         <v>2023</v>
       </c>
@@ -35211,7 +35210,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="685" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="11">
         <v>2023</v>
       </c>
@@ -35266,7 +35265,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="686" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="11">
         <v>2023</v>
       </c>
@@ -35321,7 +35320,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="687" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="11">
         <v>2023</v>
       </c>
@@ -35379,7 +35378,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="688" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="11">
         <v>2023</v>
       </c>
@@ -35433,7 +35432,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="689" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="11">
         <v>2023</v>
       </c>
@@ -35475,7 +35474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="690" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="11">
         <v>2023</v>
       </c>
@@ -35513,7 +35512,7 @@
       <c r="T690" s="10"/>
       <c r="U690" s="3"/>
     </row>
-    <row r="691" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="11">
         <v>2023</v>
       </c>
@@ -35679,7 +35678,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="694" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="11">
         <v>2023</v>
       </c>
@@ -35732,7 +35731,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="695" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="11">
         <v>2023</v>
       </c>
@@ -35842,7 +35841,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="697" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="11">
         <v>2023</v>
       </c>
@@ -35935,7 +35934,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="699" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="11">
         <v>2023</v>
       </c>
@@ -35972,7 +35971,7 @@
       <c r="T699" s="10"/>
       <c r="U699" s="7"/>
     </row>
-    <row r="700" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="11">
         <v>2023</v>
       </c>
@@ -36018,7 +36017,7 @@
       <c r="T700" s="10"/>
       <c r="U700" s="7"/>
     </row>
-    <row r="701" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="11">
         <v>2023</v>
       </c>
@@ -36066,7 +36065,7 @@
       <c r="T701" s="10"/>
       <c r="U701" s="7"/>
     </row>
-    <row r="702" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="11">
         <v>2023</v>
       </c>
@@ -36170,7 +36169,7 @@
       <c r="T703" s="10"/>
       <c r="U703" s="7"/>
     </row>
-    <row r="704" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="11">
         <v>2023</v>
       </c>
@@ -36208,7 +36207,7 @@
       <c r="T704" s="10"/>
       <c r="U704" s="7"/>
     </row>
-    <row r="705" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="11">
         <v>2023</v>
       </c>
@@ -36257,7 +36256,7 @@
       <c r="T705" s="10"/>
       <c r="U705" s="7"/>
     </row>
-    <row r="706" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="11">
         <v>2023</v>
       </c>
@@ -36307,7 +36306,7 @@
       <c r="T706" s="10"/>
       <c r="U706" s="7"/>
     </row>
-    <row r="707" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="11">
         <v>2023</v>
       </c>
@@ -36405,7 +36404,7 @@
       <c r="T708" s="10"/>
       <c r="U708" s="7"/>
     </row>
-    <row r="709" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="11">
         <v>2023</v>
       </c>
@@ -36516,7 +36515,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="711" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="11">
         <v>2023</v>
       </c>
@@ -36573,7 +36572,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="712" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="11">
         <v>2023</v>
       </c>
@@ -36619,7 +36618,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="713" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="11">
         <v>2023</v>
       </c>
@@ -36845,7 +36844,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="717" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="11">
         <v>2023</v>
       </c>
@@ -36903,7 +36902,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="718" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="11">
         <v>2023</v>
       </c>
@@ -36955,7 +36954,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="719" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="11">
         <v>2023</v>
       </c>
@@ -37011,7 +37010,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="720" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="11">
         <v>2023</v>
       </c>
@@ -37066,7 +37065,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="721" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="11">
         <v>2023</v>
       </c>
@@ -37120,7 +37119,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="722" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="11">
         <v>2023</v>
       </c>
@@ -37174,7 +37173,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="723" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="11">
         <v>2023</v>
       </c>
@@ -37277,7 +37276,7 @@
       <c r="T724" s="10"/>
       <c r="U724" s="7"/>
     </row>
-    <row r="725" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="11">
         <v>2023</v>
       </c>
@@ -37377,7 +37376,7 @@
       <c r="T726" s="10"/>
       <c r="U726" s="7"/>
     </row>
-    <row r="727" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="11">
         <v>2023</v>
       </c>
@@ -37425,7 +37424,7 @@
       <c r="T727" s="10"/>
       <c r="U727" s="7"/>
     </row>
-    <row r="728" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="11">
         <v>2023</v>
       </c>
@@ -37522,7 +37521,7 @@
       <c r="T729" s="10"/>
       <c r="U729" s="7"/>
     </row>
-    <row r="730" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="11">
         <v>2023</v>
       </c>
@@ -37570,7 +37569,7 @@
       <c r="T730" s="10"/>
       <c r="U730" s="7"/>
     </row>
-    <row r="731" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="11">
         <v>2023</v>
       </c>
@@ -37618,7 +37617,7 @@
       <c r="T731" s="10"/>
       <c r="U731" s="7"/>
     </row>
-    <row r="732" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="11">
         <v>2023</v>
       </c>
@@ -37716,7 +37715,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="734" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="11">
         <v>2023</v>
       </c>
@@ -37761,7 +37760,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="735" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="11">
         <v>2023</v>
       </c>
@@ -37806,7 +37805,7 @@
       <c r="T735" s="10"/>
       <c r="U735" s="7"/>
     </row>
-    <row r="736" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="11">
         <v>2023</v>
       </c>
@@ -37857,7 +37856,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="737" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="11">
         <v>2023</v>
       </c>
@@ -37884,7 +37883,7 @@
       <c r="L737" s="13"/>
       <c r="M737" s="13"/>
     </row>
-    <row r="738" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="11">
         <v>2023</v>
       </c>
@@ -37927,7 +37926,7 @@
       <c r="T738" s="10"/>
       <c r="U738" s="7"/>
     </row>
-    <row r="739" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="11">
         <v>2023</v>
       </c>
@@ -37961,7 +37960,7 @@
       <c r="T739" s="10"/>
       <c r="U739" s="7"/>
     </row>
-    <row r="740" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="11">
         <v>2023</v>
       </c>
@@ -38006,7 +38005,7 @@
       <c r="T740" s="10"/>
       <c r="U740" s="7"/>
     </row>
-    <row r="741" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="11">
         <v>2023</v>
       </c>
@@ -38052,7 +38051,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="742" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="11">
         <v>2023</v>
       </c>
@@ -38099,7 +38098,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="743" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="11">
         <v>2023</v>
       </c>
@@ -38142,7 +38141,7 @@
       <c r="T743" s="10"/>
       <c r="U743" s="7"/>
     </row>
-    <row r="744" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="11">
         <v>2023</v>
       </c>
@@ -38175,7 +38174,7 @@
       <c r="T744" s="10"/>
       <c r="U744" s="7"/>
     </row>
-    <row r="745" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="11">
         <v>2023</v>
       </c>
@@ -38218,7 +38217,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="746" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="11">
         <v>2023</v>
       </c>
@@ -38328,7 +38327,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="748" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="11">
         <v>2023</v>
       </c>
@@ -38371,7 +38370,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="749" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="11">
         <v>2023</v>
       </c>
@@ -38474,7 +38473,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="751" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="11">
         <v>2023</v>
       </c>
@@ -38525,7 +38524,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="752" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="11">
         <v>2023</v>
       </c>
@@ -38574,7 +38573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="753" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="11">
         <v>2023</v>
       </c>
@@ -38676,7 +38675,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="755" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="11">
         <v>2023</v>
       </c>
@@ -38734,7 +38733,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="756" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="11">
         <v>2023</v>
       </c>
@@ -38777,7 +38776,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="757" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="11">
         <v>2023</v>
       </c>
@@ -38822,7 +38821,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="758" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="11">
         <v>2023</v>
       </c>
@@ -38971,7 +38970,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="761" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="11">
         <v>2023</v>
       </c>
@@ -39016,7 +39015,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="762" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="11">
         <v>2023</v>
       </c>
@@ -39057,7 +39056,7 @@
       <c r="T762" s="10"/>
       <c r="U762" s="7"/>
     </row>
-    <row r="763" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="11">
         <v>2023</v>
       </c>
@@ -39098,7 +39097,7 @@
       <c r="T763" s="10"/>
       <c r="U763" s="7"/>
     </row>
-    <row r="764" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="11">
         <v>2023</v>
       </c>
@@ -39139,7 +39138,7 @@
       <c r="T764" s="10"/>
       <c r="U764" s="7"/>
     </row>
-    <row r="765" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="11">
         <v>2023</v>
       </c>
@@ -39174,7 +39173,7 @@
       <c r="T765" s="10"/>
       <c r="U765" s="7"/>
     </row>
-    <row r="766" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="11">
         <v>2023</v>
       </c>
@@ -39221,7 +39220,7 @@
       <c r="T766" s="10"/>
       <c r="U766" s="7"/>
     </row>
-    <row r="767" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="11">
         <v>2023</v>
       </c>
@@ -39264,7 +39263,7 @@
       <c r="T767" s="10"/>
       <c r="U767" s="7"/>
     </row>
-    <row r="768" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="11">
         <v>2023</v>
       </c>
@@ -39318,7 +39317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="769" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="11">
         <v>2023</v>
       </c>
@@ -39363,7 +39362,7 @@
       <c r="T769" s="10"/>
       <c r="U769" s="7"/>
     </row>
-    <row r="770" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="11">
         <v>2023</v>
       </c>
@@ -39401,7 +39400,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="771" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="11">
         <v>2023</v>
       </c>
@@ -39444,7 +39443,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="772" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="11">
         <v>2023</v>
       </c>
@@ -39478,7 +39477,7 @@
       <c r="S772" s="9"/>
       <c r="U772" s="3"/>
     </row>
-    <row r="773" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="11">
         <v>2023</v>
       </c>
@@ -39523,7 +39522,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="774" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2024</v>
       </c>
@@ -39583,7 +39582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="775" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2024</v>
       </c>
@@ -39646,7 +39645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="776" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2024</v>
       </c>
@@ -39711,7 +39710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="777" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2024</v>
       </c>
@@ -39772,7 +39771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="778" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2024</v>
       </c>
@@ -39830,7 +39829,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="779" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2024</v>
       </c>
@@ -39888,7 +39887,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="780" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2024</v>
       </c>
@@ -39949,7 +39948,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="781" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2024</v>
       </c>
@@ -40008,7 +40007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="782" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2024</v>
       </c>
@@ -40064,7 +40063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="783" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2024</v>
       </c>
@@ -40123,7 +40122,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="784" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2024</v>
       </c>
@@ -40236,7 +40235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="786" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2024</v>
       </c>
@@ -40292,7 +40291,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="787" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2024</v>
       </c>
@@ -40350,7 +40349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="788" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2024</v>
       </c>
@@ -40413,7 +40412,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="789" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2024</v>
       </c>
@@ -40471,7 +40470,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="790" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2024</v>
       </c>
@@ -40528,7 +40527,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="791" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2024</v>
       </c>
@@ -40584,7 +40583,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="792" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2024</v>
       </c>
@@ -40695,7 +40694,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="794" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2024</v>
       </c>
@@ -40749,7 +40748,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="795" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2024</v>
       </c>
@@ -40807,7 +40806,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="796" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2024</v>
       </c>
@@ -40865,7 +40864,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="797" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2024</v>
       </c>
@@ -40975,7 +40974,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="799" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2024</v>
       </c>
@@ -41027,7 +41026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="800" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2024</v>
       </c>
@@ -41083,7 +41082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="801" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2024</v>
       </c>
@@ -41257,7 +41256,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="804" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2024</v>
       </c>
@@ -41315,7 +41314,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="805" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2024</v>
       </c>
@@ -41367,7 +41366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="806" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2024</v>
       </c>
@@ -41425,7 +41424,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="807" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2024</v>
       </c>
@@ -41544,7 +41543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="809" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2024</v>
       </c>
@@ -41602,7 +41601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="810" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2024</v>
       </c>
@@ -41658,7 +41657,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="811" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2024</v>
       </c>
@@ -41712,7 +41711,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="812" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2024</v>
       </c>
@@ -41768,7 +41767,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="813" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2024</v>
       </c>
@@ -41883,7 +41882,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="815" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2024</v>
       </c>
@@ -41941,7 +41940,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="816" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2024</v>
       </c>
@@ -41986,7 +41985,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="817" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2024</v>
       </c>
@@ -42044,7 +42043,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="818" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2024</v>
       </c>
@@ -42102,7 +42101,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="819" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2024</v>
       </c>
@@ -42156,7 +42155,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="820" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2024</v>
       </c>
@@ -42210,7 +42209,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="821" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2024</v>
       </c>
@@ -42268,7 +42267,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="822" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2024</v>
       </c>
@@ -42320,7 +42319,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="823" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2024</v>
       </c>
@@ -42376,7 +42375,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="824" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2024</v>
       </c>
@@ -42433,7 +42432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="825" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2024</v>
       </c>
@@ -42486,7 +42485,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="826" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2024</v>
       </c>
@@ -42539,7 +42538,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="827" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2024</v>
       </c>
@@ -42588,7 +42587,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="828" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2024</v>
       </c>
@@ -42698,7 +42697,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="830" spans="1:21" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2024</v>
       </c>
@@ -42751,7 +42750,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="831" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2024</v>
       </c>
@@ -42914,7 +42913,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="834" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2024</v>
       </c>
@@ -42965,7 +42964,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="835" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2024</v>
       </c>
@@ -43016,7 +43015,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="836" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2024</v>
       </c>
@@ -43123,7 +43122,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="838" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2024</v>
       </c>
@@ -43180,7 +43179,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="839" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2024</v>
       </c>
@@ -43233,7 +43232,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="840" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2024</v>
       </c>
@@ -43281,7 +43280,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="841" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -43383,7 +43382,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="843" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2024</v>
       </c>
@@ -43493,7 +43492,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="845" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2024</v>
       </c>
@@ -43540,7 +43539,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="846" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2024</v>
       </c>
@@ -43593,7 +43592,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="847" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2024</v>
       </c>
@@ -43681,7 +43680,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="849" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2024</v>
       </c>
@@ -43714,7 +43713,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="850" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2024</v>
       </c>
@@ -43748,7 +43747,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="851" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2024</v>
       </c>
@@ -43945,18 +43944,7 @@
       <c r="U871" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="FAILED"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U851" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Nests_masterlist.xlsx
+++ b/Nests_masterlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52060CF-1269-8041-A640-E11EF9428DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28CFA58-754B-5046-B2E9-CDDD3D7893B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{0C9768B3-05B5-704F-84A5-5AF5BA71DB46}"/>
   </bookViews>
@@ -5365,9 +5365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5405B92D-C97B-C34D-B294-5957E6BF21FE}">
   <dimension ref="A1:X871"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191:XFD191"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A814" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L827" sqref="L827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32077,7 +32077,7 @@
       </c>
       <c r="I619" s="13"/>
       <c r="J619" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K619" s="28">
         <v>5</v>
@@ -39785,7 +39785,7 @@
         <v>19</v>
       </c>
       <c r="E778" s="45" t="s">
-        <v>1457</v>
+        <v>821</v>
       </c>
       <c r="F778" s="39">
         <v>45528</v>
@@ -39843,7 +39843,7 @@
         <v>22</v>
       </c>
       <c r="E779" s="45" t="s">
-        <v>1457</v>
+        <v>821</v>
       </c>
       <c r="F779" s="39">
         <v>45528</v>
